--- a/SportsBettingLogs.xlsx
+++ b/SportsBettingLogs.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="107">
   <si>
     <t>Bet Type</t>
   </si>
@@ -351,6 +351,9 @@
   </si>
   <si>
     <t>Push</t>
+  </si>
+  <si>
+    <t>Matt Ryan</t>
   </si>
 </sst>
 </file>
@@ -442,7 +445,37 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="32">
+  <dxfs count="35">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -659,17 +692,17 @@
     <sortCondition ref="A2:A27"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="17" name="Date" totalsRowLabel="Total" dataDxfId="31"/>
+    <tableColumn id="17" name="Date" totalsRowLabel="Total" dataDxfId="34"/>
     <tableColumn id="1" name="Bet Type"/>
     <tableColumn id="2" name="Odds"/>
     <tableColumn id="3" name="Team 1"/>
     <tableColumn id="4" name="Team 2"/>
     <tableColumn id="5" name="Outcome Chosen"/>
     <tableColumn id="6" name="Result"/>
-    <tableColumn id="7" name="Bet Size" totalsRowFunction="custom" dataDxfId="30" totalsRowDxfId="29">
+    <tableColumn id="7" name="Bet Size" totalsRowFunction="custom" dataDxfId="33" totalsRowDxfId="32">
       <totalsRowFormula>SUMIF(Table1[Result],"&lt;&gt;",Table1[Bet Size])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" name="Payout" totalsRowFunction="custom" dataDxfId="28" totalsRowDxfId="27">
+    <tableColumn id="8" name="Payout" totalsRowFunction="custom" dataDxfId="31" totalsRowDxfId="30">
       <totalsRowFormula>SUMIF(Table1[Result],"&lt;&gt;",Table1[Payout])</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -681,7 +714,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A2:J3" totalsRowShown="0">
   <autoFilter ref="A2:J3"/>
   <tableColumns count="10">
-    <tableColumn id="17" name="Date" dataDxfId="26"/>
+    <tableColumn id="17" name="Date" dataDxfId="29"/>
     <tableColumn id="1" name="Bet Type"/>
     <tableColumn id="2" name="Odds"/>
     <tableColumn id="9" name="League"/>
@@ -689,29 +722,29 @@
     <tableColumn id="4" name="Team 2"/>
     <tableColumn id="5" name="Outcome Chosen"/>
     <tableColumn id="6" name="Result"/>
-    <tableColumn id="7" name="Bet Size" dataDxfId="25"/>
-    <tableColumn id="8" name="Payout" dataDxfId="24"/>
+    <tableColumn id="7" name="Bet Size" dataDxfId="28"/>
+    <tableColumn id="8" name="Payout" dataDxfId="27"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table134" displayName="Table134" ref="A2:L52" totalsRowShown="0">
-  <autoFilter ref="A2:L52"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table134" displayName="Table134" ref="A2:L58" totalsRowShown="0">
+  <autoFilter ref="A2:L58"/>
   <tableColumns count="12">
-    <tableColumn id="17" name="Date Placed" dataDxfId="23"/>
-    <tableColumn id="11" name="NFL Week" dataDxfId="22"/>
-    <tableColumn id="1" name="Bet Type" dataDxfId="21"/>
-    <tableColumn id="10" name="Points" dataDxfId="20"/>
-    <tableColumn id="2" name="Odds" dataDxfId="19"/>
-    <tableColumn id="9" name="League" dataDxfId="18"/>
+    <tableColumn id="17" name="Date Placed" dataDxfId="26"/>
+    <tableColumn id="11" name="NFL Week" dataDxfId="25"/>
+    <tableColumn id="1" name="Bet Type" dataDxfId="24"/>
+    <tableColumn id="10" name="Points" dataDxfId="23"/>
+    <tableColumn id="2" name="Odds" dataDxfId="22"/>
+    <tableColumn id="9" name="League" dataDxfId="21"/>
     <tableColumn id="3" name="Home Team"/>
     <tableColumn id="4" name="Away Team"/>
     <tableColumn id="5" name="Outcome Chosen"/>
     <tableColumn id="6" name="Result"/>
-    <tableColumn id="7" name="Bet Size" dataDxfId="17" totalsRowDxfId="16"/>
-    <tableColumn id="8" name="Payout" dataDxfId="15" totalsRowDxfId="14"/>
+    <tableColumn id="7" name="Bet Size" dataDxfId="20" totalsRowDxfId="19"/>
+    <tableColumn id="8" name="Payout" dataDxfId="18" totalsRowDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1996,10 +2029,10 @@
     <mergeCell ref="A1:I1"/>
   </mergeCells>
   <conditionalFormatting sqref="J34">
-    <cfRule type="cellIs" dxfId="13" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="15" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
     <cfRule type="colorScale" priority="3">
@@ -2014,13 +2047,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="containsText" dxfId="11" priority="4" operator="containsText" text="No Action">
+    <cfRule type="containsText" dxfId="14" priority="4" operator="containsText" text="No Action">
       <formula>NOT(ISERROR(SEARCH("No Action",G1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="5" operator="containsText" text="Win">
+    <cfRule type="containsText" dxfId="13" priority="5" operator="containsText" text="Win">
       <formula>NOT(ISERROR(SEARCH("Win",G1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="6" operator="containsText" text="Loss">
+    <cfRule type="containsText" dxfId="12" priority="6" operator="containsText" text="Loss">
       <formula>NOT(ISERROR(SEARCH("Loss",G1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2148,13 +2181,13 @@
     <mergeCell ref="A1:J1"/>
   </mergeCells>
   <conditionalFormatting sqref="H1:H3">
-    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="No Action">
+    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="No Action">
       <formula>NOT(ISERROR(SEARCH("No Action",H1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="2" operator="containsText" text="Win">
+    <cfRule type="containsText" dxfId="10" priority="2" operator="containsText" text="Win">
       <formula>NOT(ISERROR(SEARCH("Win",H1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="Loss">
+    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="Loss">
       <formula>NOT(ISERROR(SEARCH("Loss",H1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2167,10 +2200,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L52"/>
+  <dimension ref="A1:L58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="N28" sqref="N28"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3873,10 +3906,15 @@
       <c r="I46" t="s">
         <v>87</v>
       </c>
+      <c r="J46" t="s">
+        <v>23</v>
+      </c>
       <c r="K46" s="1">
         <v>10</v>
       </c>
-      <c r="L46" s="1"/>
+      <c r="L46" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
@@ -3906,10 +3944,15 @@
       <c r="I47" t="s">
         <v>62</v>
       </c>
+      <c r="J47" t="s">
+        <v>23</v>
+      </c>
       <c r="K47" s="1">
         <v>10</v>
       </c>
-      <c r="L47" s="1"/>
+      <c r="L47" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
@@ -3939,10 +3982,15 @@
       <c r="I48" t="s">
         <v>88</v>
       </c>
+      <c r="J48" t="s">
+        <v>23</v>
+      </c>
       <c r="K48" s="1">
         <v>10</v>
       </c>
-      <c r="L48" s="1"/>
+      <c r="L48" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
@@ -3972,10 +4020,15 @@
       <c r="I49" t="s">
         <v>81</v>
       </c>
+      <c r="J49" t="s">
+        <v>29</v>
+      </c>
       <c r="K49" s="1">
         <v>10</v>
       </c>
-      <c r="L49" s="1"/>
+      <c r="L49" s="1">
+        <v>13.17</v>
+      </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
@@ -4005,10 +4058,15 @@
       <c r="I50" t="s">
         <v>66</v>
       </c>
+      <c r="J50" t="s">
+        <v>23</v>
+      </c>
       <c r="K50" s="1">
         <v>10</v>
       </c>
-      <c r="L50" s="1"/>
+      <c r="L50" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
@@ -4021,7 +4079,7 @@
         <v>9</v>
       </c>
       <c r="D51" s="6">
-        <v>51.5</v>
+        <v>50.5</v>
       </c>
       <c r="E51" s="6">
         <v>-110</v>
@@ -4030,18 +4088,23 @@
         <v>55</v>
       </c>
       <c r="G51" t="s">
-        <v>104</v>
+        <v>59</v>
       </c>
       <c r="H51" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="I51" t="s">
-        <v>66</v>
+        <v>13</v>
+      </c>
+      <c r="J51" t="s">
+        <v>29</v>
       </c>
       <c r="K51" s="1">
         <v>10</v>
       </c>
-      <c r="L51" s="1"/>
+      <c r="L51" s="1">
+        <v>19.52</v>
+      </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
@@ -4071,35 +4134,276 @@
       <c r="I52" t="s">
         <v>13</v>
       </c>
+      <c r="J52" t="s">
+        <v>23</v>
+      </c>
       <c r="K52" s="1">
         <v>10</v>
       </c>
-      <c r="L52" s="1"/>
+      <c r="L52" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" s="4">
+        <v>43751</v>
+      </c>
+      <c r="B53" s="5">
+        <v>6</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D53" s="6">
+        <v>6.5</v>
+      </c>
+      <c r="E53" s="6">
+        <v>-110</v>
+      </c>
+      <c r="F53" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G53" t="s">
+        <v>61</v>
+      </c>
+      <c r="H53" t="s">
+        <v>57</v>
+      </c>
+      <c r="I53" t="s">
+        <v>61</v>
+      </c>
+      <c r="J53" t="s">
+        <v>29</v>
+      </c>
+      <c r="K53" s="1">
+        <v>10</v>
+      </c>
+      <c r="L53" s="1">
+        <v>18.7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" s="4">
+        <v>43751</v>
+      </c>
+      <c r="B54" s="5">
+        <v>6</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D54" s="6">
+        <v>6.5</v>
+      </c>
+      <c r="E54" s="6">
+        <v>-105</v>
+      </c>
+      <c r="F54" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G54" t="s">
+        <v>63</v>
+      </c>
+      <c r="H54" t="s">
+        <v>56</v>
+      </c>
+      <c r="I54" t="s">
+        <v>63</v>
+      </c>
+      <c r="J54" t="s">
+        <v>29</v>
+      </c>
+      <c r="K54" s="1">
+        <v>10</v>
+      </c>
+      <c r="L54" s="1">
+        <v>19.52</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" s="4">
+        <v>43751</v>
+      </c>
+      <c r="B55" s="5">
+        <v>6</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D55" s="6">
+        <v>43.5</v>
+      </c>
+      <c r="E55" s="6">
+        <v>-110</v>
+      </c>
+      <c r="F55" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G55" t="s">
+        <v>63</v>
+      </c>
+      <c r="H55" t="s">
+        <v>56</v>
+      </c>
+      <c r="I55" t="s">
+        <v>66</v>
+      </c>
+      <c r="J55" t="s">
+        <v>29</v>
+      </c>
+      <c r="K55" s="1">
+        <v>10</v>
+      </c>
+      <c r="L55" s="1">
+        <v>19.09</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" s="4">
+        <v>43751</v>
+      </c>
+      <c r="B56" s="5">
+        <v>6</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56" s="6">
+        <v>40.5</v>
+      </c>
+      <c r="E56" s="6">
+        <v>-110</v>
+      </c>
+      <c r="F56" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G56" t="s">
+        <v>69</v>
+      </c>
+      <c r="H56" t="s">
+        <v>88</v>
+      </c>
+      <c r="I56" t="s">
+        <v>13</v>
+      </c>
+      <c r="J56" t="s">
+        <v>29</v>
+      </c>
+      <c r="K56" s="1">
+        <v>10</v>
+      </c>
+      <c r="L56" s="1">
+        <v>19.09</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" s="4">
+        <v>43751</v>
+      </c>
+      <c r="B57" s="5">
+        <v>6</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D57" s="6">
+        <v>315.5</v>
+      </c>
+      <c r="E57" s="6">
+        <v>-125</v>
+      </c>
+      <c r="F57" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="H57" t="s">
+        <v>106</v>
+      </c>
+      <c r="I57" t="s">
+        <v>66</v>
+      </c>
+      <c r="J57" t="s">
+        <v>29</v>
+      </c>
+      <c r="K57" s="1">
+        <v>10</v>
+      </c>
+      <c r="L57" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58" s="4">
+        <v>43751</v>
+      </c>
+      <c r="B58" s="5">
+        <v>6</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" s="6">
+        <v>51.5</v>
+      </c>
+      <c r="E58" s="6">
+        <v>-110</v>
+      </c>
+      <c r="F58" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G58" t="s">
+        <v>104</v>
+      </c>
+      <c r="H58" t="s">
+        <v>65</v>
+      </c>
+      <c r="I58" t="s">
+        <v>66</v>
+      </c>
+      <c r="J58" t="s">
+        <v>29</v>
+      </c>
+      <c r="K58" s="1">
+        <v>10</v>
+      </c>
+      <c r="L58" s="1">
+        <v>19.09</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:L1"/>
   </mergeCells>
-  <conditionalFormatting sqref="J44:J1024 J1:J42">
-    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="No Action">
+  <conditionalFormatting sqref="J44:J50 J1:J42 J52:J1024">
+    <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="No Action">
       <formula>NOT(ISERROR(SEARCH("No Action",J1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="Win">
+    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="Win">
       <formula>NOT(ISERROR(SEARCH("Win",J1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="Loss">
+    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="Loss">
       <formula>NOT(ISERROR(SEARCH("Loss",J1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J43">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="No Action">
+    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="No Action">
       <formula>NOT(ISERROR(SEARCH("No Action",J43)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Win">
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="Win">
       <formula>NOT(ISERROR(SEARCH("Win",J43)))</formula>
     </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="Loss">
+      <formula>NOT(ISERROR(SEARCH("Loss",J43)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J51">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="No Action">
+      <formula>NOT(ISERROR(SEARCH("No Action",J51)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Win">
+      <formula>NOT(ISERROR(SEARCH("Win",J51)))</formula>
+    </cfRule>
     <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="Loss">
-      <formula>NOT(ISERROR(SEARCH("Loss",J43)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Loss",J51)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SportsBettingLogs.xlsx
+++ b/SportsBettingLogs.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="111">
   <si>
     <t>Bet Type</t>
   </si>
@@ -317,9 +317,6 @@
     <t>Seattle Seahawks</t>
   </si>
   <si>
-    <t>Los Angelese Rams</t>
-  </si>
-  <si>
     <t>NFL Week</t>
   </si>
   <si>
@@ -354,6 +351,21 @@
   </si>
   <si>
     <t>Matt Ryan</t>
+  </si>
+  <si>
+    <t>Philadelphia Eagles</t>
+  </si>
+  <si>
+    <t>Los Angeles Chargers</t>
+  </si>
+  <si>
+    <t>Teaser</t>
+  </si>
+  <si>
+    <t>Indianapolis Colts</t>
+  </si>
+  <si>
+    <t>Cincinnati Bengals</t>
   </si>
 </sst>
 </file>
@@ -447,34 +459,36 @@
   </cellStyles>
   <dxfs count="35">
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -567,6 +581,60 @@
       </fill>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -616,62 +684,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -692,17 +704,17 @@
     <sortCondition ref="A2:A27"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="17" name="Date" totalsRowLabel="Total" dataDxfId="34"/>
+    <tableColumn id="17" name="Date" totalsRowLabel="Total" dataDxfId="29"/>
     <tableColumn id="1" name="Bet Type"/>
     <tableColumn id="2" name="Odds"/>
     <tableColumn id="3" name="Team 1"/>
     <tableColumn id="4" name="Team 2"/>
     <tableColumn id="5" name="Outcome Chosen"/>
     <tableColumn id="6" name="Result"/>
-    <tableColumn id="7" name="Bet Size" totalsRowFunction="custom" dataDxfId="33" totalsRowDxfId="32">
+    <tableColumn id="7" name="Bet Size" totalsRowFunction="custom" dataDxfId="28" totalsRowDxfId="27">
       <totalsRowFormula>SUMIF(Table1[Result],"&lt;&gt;",Table1[Bet Size])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" name="Payout" totalsRowFunction="custom" dataDxfId="31" totalsRowDxfId="30">
+    <tableColumn id="8" name="Payout" totalsRowFunction="custom" dataDxfId="26" totalsRowDxfId="25">
       <totalsRowFormula>SUMIF(Table1[Result],"&lt;&gt;",Table1[Payout])</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -714,7 +726,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A2:J3" totalsRowShown="0">
   <autoFilter ref="A2:J3"/>
   <tableColumns count="10">
-    <tableColumn id="17" name="Date" dataDxfId="29"/>
+    <tableColumn id="17" name="Date" dataDxfId="21"/>
     <tableColumn id="1" name="Bet Type"/>
     <tableColumn id="2" name="Odds"/>
     <tableColumn id="9" name="League"/>
@@ -722,29 +734,29 @@
     <tableColumn id="4" name="Team 2"/>
     <tableColumn id="5" name="Outcome Chosen"/>
     <tableColumn id="6" name="Result"/>
-    <tableColumn id="7" name="Bet Size" dataDxfId="28"/>
-    <tableColumn id="8" name="Payout" dataDxfId="27"/>
+    <tableColumn id="7" name="Bet Size" dataDxfId="20"/>
+    <tableColumn id="8" name="Payout" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table134" displayName="Table134" ref="A2:L58" totalsRowShown="0">
-  <autoFilter ref="A2:L58"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table134" displayName="Table134" ref="A2:L71" totalsRowShown="0">
+  <autoFilter ref="A2:L71"/>
   <tableColumns count="12">
-    <tableColumn id="17" name="Date Placed" dataDxfId="26"/>
-    <tableColumn id="11" name="NFL Week" dataDxfId="25"/>
-    <tableColumn id="1" name="Bet Type" dataDxfId="24"/>
-    <tableColumn id="10" name="Points" dataDxfId="23"/>
-    <tableColumn id="2" name="Odds" dataDxfId="22"/>
-    <tableColumn id="9" name="League" dataDxfId="21"/>
+    <tableColumn id="17" name="Date Placed" dataDxfId="9"/>
+    <tableColumn id="11" name="NFL Week" dataDxfId="8"/>
+    <tableColumn id="1" name="Bet Type" dataDxfId="7"/>
+    <tableColumn id="10" name="Points" dataDxfId="6"/>
+    <tableColumn id="2" name="Odds" dataDxfId="5"/>
+    <tableColumn id="9" name="League" dataDxfId="4"/>
     <tableColumn id="3" name="Home Team"/>
     <tableColumn id="4" name="Away Team"/>
     <tableColumn id="5" name="Outcome Chosen"/>
     <tableColumn id="6" name="Result"/>
-    <tableColumn id="7" name="Bet Size" dataDxfId="20" totalsRowDxfId="19"/>
-    <tableColumn id="8" name="Payout" dataDxfId="18" totalsRowDxfId="17"/>
+    <tableColumn id="7" name="Bet Size" dataDxfId="3" totalsRowDxfId="2"/>
+    <tableColumn id="8" name="Payout" dataDxfId="1" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2029,10 +2041,10 @@
     <mergeCell ref="A1:I1"/>
   </mergeCells>
   <conditionalFormatting sqref="J34">
-    <cfRule type="cellIs" dxfId="16" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="34" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="33" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
     <cfRule type="colorScale" priority="3">
@@ -2047,13 +2059,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="containsText" dxfId="14" priority="4" operator="containsText" text="No Action">
+    <cfRule type="containsText" dxfId="32" priority="4" operator="containsText" text="No Action">
       <formula>NOT(ISERROR(SEARCH("No Action",G1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="5" operator="containsText" text="Win">
+    <cfRule type="containsText" dxfId="31" priority="5" operator="containsText" text="Win">
       <formula>NOT(ISERROR(SEARCH("Win",G1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="6" operator="containsText" text="Loss">
+    <cfRule type="containsText" dxfId="30" priority="6" operator="containsText" text="Loss">
       <formula>NOT(ISERROR(SEARCH("Loss",G1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2181,13 +2193,13 @@
     <mergeCell ref="A1:J1"/>
   </mergeCells>
   <conditionalFormatting sqref="H1:H3">
-    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="No Action">
+    <cfRule type="containsText" dxfId="24" priority="1" operator="containsText" text="No Action">
       <formula>NOT(ISERROR(SEARCH("No Action",H1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="2" operator="containsText" text="Win">
+    <cfRule type="containsText" dxfId="23" priority="2" operator="containsText" text="Win">
       <formula>NOT(ISERROR(SEARCH("Win",H1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="Loss">
+    <cfRule type="containsText" dxfId="22" priority="3" operator="containsText" text="Loss">
       <formula>NOT(ISERROR(SEARCH("Loss",H1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2200,10 +2212,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L58"/>
+  <dimension ref="A1:L71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="G71" sqref="G71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2242,7 +2254,7 @@
         <v>78</v>
       </c>
       <c r="B2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
@@ -3116,7 +3128,7 @@
         <v>4</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="D25" s="6"/>
       <c r="E25" s="6">
@@ -3153,7 +3165,7 @@
         <v>4</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="D26" s="6"/>
       <c r="E26" s="6">
@@ -3280,7 +3292,7 @@
         <v>59</v>
       </c>
       <c r="I29" t="s">
-        <v>94</v>
+        <v>59</v>
       </c>
       <c r="J29" t="s">
         <v>29</v>
@@ -3426,7 +3438,7 @@
         <v>55</v>
       </c>
       <c r="G33" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H33" t="s">
         <v>65</v>
@@ -3502,7 +3514,7 @@
         <v>55</v>
       </c>
       <c r="G35" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I35" t="s">
         <v>66</v>
@@ -3614,7 +3626,7 @@
         <v>55</v>
       </c>
       <c r="G38" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I38" t="s">
         <v>66</v>
@@ -3649,7 +3661,7 @@
         <v>55</v>
       </c>
       <c r="G39" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I39" t="s">
         <v>66</v>
@@ -3757,10 +3769,10 @@
         <v>-125</v>
       </c>
       <c r="F42" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G42" t="s">
         <v>100</v>
-      </c>
-      <c r="G42" t="s">
-        <v>101</v>
       </c>
       <c r="I42" t="s">
         <v>66</v>
@@ -3792,10 +3804,10 @@
         <v>-125</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G43" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I43" t="s">
         <v>66</v>
@@ -3830,13 +3842,13 @@
         <v>55</v>
       </c>
       <c r="G44" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I44" t="s">
         <v>13</v>
       </c>
       <c r="J44" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K44" s="1">
         <v>5</v>
@@ -3873,10 +3885,15 @@
       <c r="I45" t="s">
         <v>13</v>
       </c>
+      <c r="J45" t="s">
+        <v>29</v>
+      </c>
       <c r="K45" s="1">
         <v>10</v>
       </c>
-      <c r="L45" s="1"/>
+      <c r="L45" s="1">
+        <v>19.09</v>
+      </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
@@ -3962,7 +3979,7 @@
         <v>6</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>3</v>
+        <v>108</v>
       </c>
       <c r="D48" s="6">
         <v>8.5</v>
@@ -4000,7 +4017,7 @@
         <v>6</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>3</v>
+        <v>108</v>
       </c>
       <c r="D49" s="6">
         <v>7.5</v>
@@ -4316,7 +4333,7 @@
         <v>55</v>
       </c>
       <c r="H57" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I57" t="s">
         <v>66</v>
@@ -4351,7 +4368,7 @@
         <v>55</v>
       </c>
       <c r="G58" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H58" t="s">
         <v>65</v>
@@ -4368,41 +4385,464 @@
       <c r="L58" s="1">
         <v>19.09</v>
       </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" s="4">
+        <v>43755</v>
+      </c>
+      <c r="B59" s="5">
+        <v>7</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D59" s="6"/>
+      <c r="E59" s="6">
+        <v>150</v>
+      </c>
+      <c r="F59" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G59" t="s">
+        <v>93</v>
+      </c>
+      <c r="H59" t="s">
+        <v>71</v>
+      </c>
+      <c r="I59" t="s">
+        <v>71</v>
+      </c>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60" s="4">
+        <v>43755</v>
+      </c>
+      <c r="B60" s="5">
+        <v>7</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D60" s="6"/>
+      <c r="E60" s="6">
+        <v>125</v>
+      </c>
+      <c r="F60" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G60" t="s">
+        <v>56</v>
+      </c>
+      <c r="H60" t="s">
+        <v>74</v>
+      </c>
+      <c r="I60" t="s">
+        <v>106</v>
+      </c>
+      <c r="K60" s="1">
+        <v>10</v>
+      </c>
+      <c r="L60" s="1"/>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61" s="4">
+        <v>43755</v>
+      </c>
+      <c r="B61" s="5">
+        <v>7</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D61" s="6">
+        <v>7.5</v>
+      </c>
+      <c r="E61" s="6">
+        <v>-325</v>
+      </c>
+      <c r="F61" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G61" t="s">
+        <v>88</v>
+      </c>
+      <c r="H61" t="s">
+        <v>107</v>
+      </c>
+      <c r="I61" t="s">
+        <v>107</v>
+      </c>
+      <c r="K61" s="1">
+        <v>20</v>
+      </c>
+      <c r="L61" s="1"/>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A62" s="4">
+        <v>43755</v>
+      </c>
+      <c r="B62" s="5">
+        <v>7</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D62" s="6">
+        <v>8.5</v>
+      </c>
+      <c r="E62" s="6">
+        <v>-260</v>
+      </c>
+      <c r="F62" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G62" t="s">
+        <v>69</v>
+      </c>
+      <c r="H62" t="s">
+        <v>72</v>
+      </c>
+      <c r="I62" t="s">
+        <v>69</v>
+      </c>
+      <c r="K62" s="1">
+        <v>20</v>
+      </c>
+      <c r="L62" s="1"/>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63" s="4">
+        <v>43753</v>
+      </c>
+      <c r="B63" s="5">
+        <v>7</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D63" s="6">
+        <v>1</v>
+      </c>
+      <c r="E63" s="6">
+        <v>-110</v>
+      </c>
+      <c r="F63" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G63" t="s">
+        <v>95</v>
+      </c>
+      <c r="H63" t="s">
+        <v>109</v>
+      </c>
+      <c r="I63" t="s">
+        <v>95</v>
+      </c>
+      <c r="K63" s="1">
+        <v>20</v>
+      </c>
+      <c r="L63" s="1"/>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64" s="4">
+        <v>43753</v>
+      </c>
+      <c r="B64" s="5">
+        <v>7</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D64" s="6">
+        <v>3</v>
+      </c>
+      <c r="E64" s="6">
+        <v>-125</v>
+      </c>
+      <c r="F64" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G64" t="s">
+        <v>56</v>
+      </c>
+      <c r="H64" t="s">
+        <v>74</v>
+      </c>
+      <c r="I64" t="s">
+        <v>106</v>
+      </c>
+      <c r="K64" s="1">
+        <v>20</v>
+      </c>
+      <c r="L64" s="1"/>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A65" s="4">
+        <v>43752</v>
+      </c>
+      <c r="B65" s="5">
+        <v>7</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D65" s="6">
+        <v>49.5</v>
+      </c>
+      <c r="E65" s="6">
+        <v>-110</v>
+      </c>
+      <c r="F65" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G65" t="s">
+        <v>83</v>
+      </c>
+      <c r="H65" t="s">
+        <v>103</v>
+      </c>
+      <c r="I65" t="s">
+        <v>66</v>
+      </c>
+      <c r="K65" s="1">
+        <v>20</v>
+      </c>
+      <c r="L65" s="1"/>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A66" s="4">
+        <v>43752</v>
+      </c>
+      <c r="B66" s="5">
+        <v>7</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D66" s="6">
+        <v>41.5</v>
+      </c>
+      <c r="E66" s="6">
+        <v>-110</v>
+      </c>
+      <c r="F66" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G66" t="s">
+        <v>57</v>
+      </c>
+      <c r="H66" t="s">
+        <v>76</v>
+      </c>
+      <c r="I66" t="s">
+        <v>13</v>
+      </c>
+      <c r="K66" s="1">
+        <v>20</v>
+      </c>
+      <c r="L66" s="1"/>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A67" s="4">
+        <v>43752</v>
+      </c>
+      <c r="B67" s="5">
+        <v>7</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D67" s="6">
+        <v>43.5</v>
+      </c>
+      <c r="E67" s="6">
+        <v>-110</v>
+      </c>
+      <c r="F67" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G67" t="s">
+        <v>110</v>
+      </c>
+      <c r="H67" t="s">
+        <v>87</v>
+      </c>
+      <c r="I67" t="s">
+        <v>13</v>
+      </c>
+      <c r="K67" s="1">
+        <v>20</v>
+      </c>
+      <c r="L67" s="1"/>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A68" s="4">
+        <v>43752</v>
+      </c>
+      <c r="B68" s="5">
+        <v>7</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D68" s="6">
+        <v>-3</v>
+      </c>
+      <c r="E68" s="6">
+        <v>-115</v>
+      </c>
+      <c r="F68" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G68" t="s">
+        <v>65</v>
+      </c>
+      <c r="H68" t="s">
+        <v>59</v>
+      </c>
+      <c r="I68" t="s">
+        <v>59</v>
+      </c>
+      <c r="K68" s="1">
+        <v>20</v>
+      </c>
+      <c r="L68" s="1"/>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A69" s="4">
+        <v>43752</v>
+      </c>
+      <c r="B69" s="5">
+        <v>7</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D69" s="6">
+        <v>-10</v>
+      </c>
+      <c r="E69" s="6">
+        <v>-105</v>
+      </c>
+      <c r="F69" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G69" t="s">
+        <v>57</v>
+      </c>
+      <c r="H69" t="s">
+        <v>76</v>
+      </c>
+      <c r="I69" t="s">
+        <v>76</v>
+      </c>
+      <c r="K69" s="1">
+        <v>20</v>
+      </c>
+      <c r="L69" s="1"/>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A70" s="4">
+        <v>43752</v>
+      </c>
+      <c r="B70" s="5">
+        <v>7</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D70" s="6">
+        <v>-3</v>
+      </c>
+      <c r="E70" s="6">
+        <v>-110</v>
+      </c>
+      <c r="F70" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G70" t="s">
+        <v>110</v>
+      </c>
+      <c r="H70" t="s">
+        <v>87</v>
+      </c>
+      <c r="I70" t="s">
+        <v>87</v>
+      </c>
+      <c r="K70" s="1">
+        <v>20</v>
+      </c>
+      <c r="L70" s="1"/>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A71" s="4">
+        <v>43755</v>
+      </c>
+      <c r="B71" s="5">
+        <v>7</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D71" s="6">
+        <v>-3</v>
+      </c>
+      <c r="E71" s="6">
+        <v>-120</v>
+      </c>
+      <c r="F71" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G71" t="s">
+        <v>69</v>
+      </c>
+      <c r="H71" t="s">
+        <v>72</v>
+      </c>
+      <c r="I71" t="s">
+        <v>72</v>
+      </c>
+      <c r="K71" s="1">
+        <v>20</v>
+      </c>
+      <c r="L71" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:L1"/>
   </mergeCells>
   <conditionalFormatting sqref="J44:J50 J1:J42 J52:J1024">
-    <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="No Action">
+    <cfRule type="containsText" dxfId="18" priority="7" operator="containsText" text="No Action">
       <formula>NOT(ISERROR(SEARCH("No Action",J1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="Win">
+    <cfRule type="containsText" dxfId="17" priority="8" operator="containsText" text="Win">
       <formula>NOT(ISERROR(SEARCH("Win",J1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="Loss">
+    <cfRule type="containsText" dxfId="16" priority="9" operator="containsText" text="Loss">
       <formula>NOT(ISERROR(SEARCH("Loss",J1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J43">
-    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="No Action">
+    <cfRule type="containsText" dxfId="15" priority="4" operator="containsText" text="No Action">
       <formula>NOT(ISERROR(SEARCH("No Action",J43)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="Win">
+    <cfRule type="containsText" dxfId="14" priority="5" operator="containsText" text="Win">
       <formula>NOT(ISERROR(SEARCH("Win",J43)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="Loss">
+    <cfRule type="containsText" dxfId="13" priority="6" operator="containsText" text="Loss">
       <formula>NOT(ISERROR(SEARCH("Loss",J43)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J51">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="No Action">
+    <cfRule type="containsText" dxfId="12" priority="1" operator="containsText" text="No Action">
       <formula>NOT(ISERROR(SEARCH("No Action",J51)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Win">
+    <cfRule type="containsText" dxfId="11" priority="2" operator="containsText" text="Win">
       <formula>NOT(ISERROR(SEARCH("Win",J51)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="Loss">
+    <cfRule type="containsText" dxfId="10" priority="3" operator="containsText" text="Loss">
       <formula>NOT(ISERROR(SEARCH("Loss",J51)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/SportsBettingLogs.xlsx
+++ b/SportsBettingLogs.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="111">
   <si>
     <t>Bet Type</t>
   </si>
@@ -2215,7 +2215,7 @@
   <dimension ref="A1:L71"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="G71" sqref="G71"/>
+      <selection activeCell="J75" sqref="J75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4507,10 +4507,15 @@
       <c r="I62" t="s">
         <v>69</v>
       </c>
+      <c r="J62" t="s">
+        <v>23</v>
+      </c>
       <c r="K62" s="1">
         <v>20</v>
       </c>
-      <c r="L62" s="1"/>
+      <c r="L62" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
@@ -4804,10 +4809,15 @@
       <c r="I71" t="s">
         <v>72</v>
       </c>
+      <c r="J71" t="s">
+        <v>29</v>
+      </c>
       <c r="K71" s="1">
         <v>20</v>
       </c>
-      <c r="L71" s="1"/>
+      <c r="L71" s="1">
+        <v>36.67</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/SportsBettingLogs.xlsx
+++ b/SportsBettingLogs.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="112">
   <si>
     <t>Bet Type</t>
   </si>
@@ -366,6 +366,9 @@
   </si>
   <si>
     <t>Cincinnati Bengals</t>
+  </si>
+  <si>
+    <t>Oakland Raiders</t>
   </si>
 </sst>
 </file>
@@ -742,8 +745,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table134" displayName="Table134" ref="A2:L71" totalsRowShown="0">
-  <autoFilter ref="A2:L71"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table134" displayName="Table134" ref="A2:L75" totalsRowShown="0">
+  <autoFilter ref="A2:L75"/>
   <tableColumns count="12">
     <tableColumn id="17" name="Date Placed" dataDxfId="9"/>
     <tableColumn id="11" name="NFL Week" dataDxfId="8"/>
@@ -2212,10 +2215,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L71"/>
+  <dimension ref="A1:L75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J75" sqref="J75"/>
+    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="Q70" sqref="Q70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4818,6 +4821,138 @@
       <c r="L71" s="1">
         <v>36.67</v>
       </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A72" s="4">
+        <v>43756</v>
+      </c>
+      <c r="B72" s="5">
+        <v>7</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D72" s="6">
+        <v>47</v>
+      </c>
+      <c r="E72" s="6">
+        <v>-115</v>
+      </c>
+      <c r="F72" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G72" t="s">
+        <v>70</v>
+      </c>
+      <c r="H72" t="s">
+        <v>111</v>
+      </c>
+      <c r="I72" t="s">
+        <v>13</v>
+      </c>
+      <c r="K72" s="1">
+        <v>10</v>
+      </c>
+      <c r="L72" s="1"/>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A73" s="4">
+        <v>43756</v>
+      </c>
+      <c r="B73" s="5">
+        <v>7</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D73" s="6">
+        <v>38</v>
+      </c>
+      <c r="E73" s="6">
+        <v>-110</v>
+      </c>
+      <c r="F73" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G73" t="s">
+        <v>77</v>
+      </c>
+      <c r="H73" t="s">
+        <v>81</v>
+      </c>
+      <c r="I73" t="s">
+        <v>13</v>
+      </c>
+      <c r="K73" s="1">
+        <v>10</v>
+      </c>
+      <c r="L73" s="1"/>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A74" s="4">
+        <v>43756</v>
+      </c>
+      <c r="B74" s="5">
+        <v>7</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D74" s="6">
+        <v>3</v>
+      </c>
+      <c r="E74" s="6">
+        <v>100</v>
+      </c>
+      <c r="F74" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G74" t="s">
+        <v>77</v>
+      </c>
+      <c r="H74" t="s">
+        <v>81</v>
+      </c>
+      <c r="I74" t="s">
+        <v>81</v>
+      </c>
+      <c r="K74" s="1">
+        <v>20</v>
+      </c>
+      <c r="L74" s="1"/>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A75" s="4">
+        <v>43756</v>
+      </c>
+      <c r="B75" s="5">
+        <v>7</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D75" s="6">
+        <v>10</v>
+      </c>
+      <c r="E75" s="6">
+        <v>-115</v>
+      </c>
+      <c r="F75" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G75" t="s">
+        <v>63</v>
+      </c>
+      <c r="H75" t="s">
+        <v>60</v>
+      </c>
+      <c r="I75" t="s">
+        <v>63</v>
+      </c>
+      <c r="K75" s="1">
+        <v>20</v>
+      </c>
+      <c r="L75" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/SportsBettingLogs.xlsx
+++ b/SportsBettingLogs.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="132">
   <si>
     <t>Bet Type</t>
   </si>
@@ -369,6 +369,66 @@
   </si>
   <si>
     <t>Oakland Raiders</t>
+  </si>
+  <si>
+    <t>John Brown</t>
+  </si>
+  <si>
+    <t>Tevin Coleman</t>
+  </si>
+  <si>
+    <t>Matt Breida</t>
+  </si>
+  <si>
+    <t>Case Keenum</t>
+  </si>
+  <si>
+    <t>Passing Yards</t>
+  </si>
+  <si>
+    <t>Completions</t>
+  </si>
+  <si>
+    <t>Rushing Yards</t>
+  </si>
+  <si>
+    <t>Receiving Yards</t>
+  </si>
+  <si>
+    <t>Passing TDs</t>
+  </si>
+  <si>
+    <t>Jared Goff</t>
+  </si>
+  <si>
+    <t>Kyler Murray</t>
+  </si>
+  <si>
+    <t>Randall Cobb</t>
+  </si>
+  <si>
+    <t>Nelson Agholor</t>
+  </si>
+  <si>
+    <t>Chris Carson</t>
+  </si>
+  <si>
+    <t>Uner</t>
+  </si>
+  <si>
+    <t>Mike Williams</t>
+  </si>
+  <si>
+    <t>TDs</t>
+  </si>
+  <si>
+    <t>Andy Dalton</t>
+  </si>
+  <si>
+    <t>Josh Jacobs</t>
+  </si>
+  <si>
+    <t>Recpetions</t>
   </si>
 </sst>
 </file>
@@ -460,38 +520,36 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="35">
+  <dxfs count="50">
     <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -584,13 +642,34 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -623,19 +702,94 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -687,6 +841,62 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -707,17 +917,17 @@
     <sortCondition ref="A2:A27"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="17" name="Date" totalsRowLabel="Total" dataDxfId="29"/>
+    <tableColumn id="17" name="Date" totalsRowLabel="Total" dataDxfId="49"/>
     <tableColumn id="1" name="Bet Type"/>
     <tableColumn id="2" name="Odds"/>
     <tableColumn id="3" name="Team 1"/>
     <tableColumn id="4" name="Team 2"/>
     <tableColumn id="5" name="Outcome Chosen"/>
     <tableColumn id="6" name="Result"/>
-    <tableColumn id="7" name="Bet Size" totalsRowFunction="custom" dataDxfId="28" totalsRowDxfId="27">
+    <tableColumn id="7" name="Bet Size" totalsRowFunction="custom" dataDxfId="48" totalsRowDxfId="47">
       <totalsRowFormula>SUMIF(Table1[Result],"&lt;&gt;",Table1[Bet Size])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" name="Payout" totalsRowFunction="custom" dataDxfId="26" totalsRowDxfId="25">
+    <tableColumn id="8" name="Payout" totalsRowFunction="custom" dataDxfId="46" totalsRowDxfId="45">
       <totalsRowFormula>SUMIF(Table1[Result],"&lt;&gt;",Table1[Payout])</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -729,7 +939,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A2:J3" totalsRowShown="0">
   <autoFilter ref="A2:J3"/>
   <tableColumns count="10">
-    <tableColumn id="17" name="Date" dataDxfId="21"/>
+    <tableColumn id="17" name="Date" dataDxfId="44"/>
     <tableColumn id="1" name="Bet Type"/>
     <tableColumn id="2" name="Odds"/>
     <tableColumn id="9" name="League"/>
@@ -737,29 +947,29 @@
     <tableColumn id="4" name="Team 2"/>
     <tableColumn id="5" name="Outcome Chosen"/>
     <tableColumn id="6" name="Result"/>
-    <tableColumn id="7" name="Bet Size" dataDxfId="20"/>
-    <tableColumn id="8" name="Payout" dataDxfId="19"/>
+    <tableColumn id="7" name="Bet Size" dataDxfId="43"/>
+    <tableColumn id="8" name="Payout" dataDxfId="42"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table134" displayName="Table134" ref="A2:L75" totalsRowShown="0">
-  <autoFilter ref="A2:L75"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table134" displayName="Table134" ref="A2:L92" totalsRowShown="0">
+  <autoFilter ref="A2:L92"/>
   <tableColumns count="12">
-    <tableColumn id="17" name="Date Placed" dataDxfId="9"/>
-    <tableColumn id="11" name="NFL Week" dataDxfId="8"/>
-    <tableColumn id="1" name="Bet Type" dataDxfId="7"/>
-    <tableColumn id="10" name="Points" dataDxfId="6"/>
-    <tableColumn id="2" name="Odds" dataDxfId="5"/>
-    <tableColumn id="9" name="League" dataDxfId="4"/>
+    <tableColumn id="17" name="Date Placed" dataDxfId="41"/>
+    <tableColumn id="11" name="NFL Week" dataDxfId="40"/>
+    <tableColumn id="1" name="Bet Type" dataDxfId="39"/>
+    <tableColumn id="10" name="Points" dataDxfId="38"/>
+    <tableColumn id="2" name="Odds" dataDxfId="37"/>
+    <tableColumn id="9" name="League" dataDxfId="36"/>
     <tableColumn id="3" name="Home Team"/>
     <tableColumn id="4" name="Away Team"/>
     <tableColumn id="5" name="Outcome Chosen"/>
     <tableColumn id="6" name="Result"/>
-    <tableColumn id="7" name="Bet Size" dataDxfId="3" totalsRowDxfId="2"/>
-    <tableColumn id="8" name="Payout" dataDxfId="1" totalsRowDxfId="0"/>
+    <tableColumn id="7" name="Bet Size" dataDxfId="35" totalsRowDxfId="34"/>
+    <tableColumn id="8" name="Payout" dataDxfId="33" totalsRowDxfId="32"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2044,10 +2254,10 @@
     <mergeCell ref="A1:I1"/>
   </mergeCells>
   <conditionalFormatting sqref="J34">
-    <cfRule type="cellIs" dxfId="34" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="31" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="30" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
     <cfRule type="colorScale" priority="3">
@@ -2062,13 +2272,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="containsText" dxfId="32" priority="4" operator="containsText" text="No Action">
+    <cfRule type="containsText" dxfId="29" priority="4" operator="containsText" text="No Action">
       <formula>NOT(ISERROR(SEARCH("No Action",G1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="5" operator="containsText" text="Win">
+    <cfRule type="containsText" dxfId="28" priority="5" operator="containsText" text="Win">
       <formula>NOT(ISERROR(SEARCH("Win",G1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="6" operator="containsText" text="Loss">
+    <cfRule type="containsText" dxfId="27" priority="6" operator="containsText" text="Loss">
       <formula>NOT(ISERROR(SEARCH("Loss",G1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2196,13 +2406,13 @@
     <mergeCell ref="A1:J1"/>
   </mergeCells>
   <conditionalFormatting sqref="H1:H3">
-    <cfRule type="containsText" dxfId="24" priority="1" operator="containsText" text="No Action">
+    <cfRule type="containsText" dxfId="26" priority="1" operator="containsText" text="No Action">
       <formula>NOT(ISERROR(SEARCH("No Action",H1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="2" operator="containsText" text="Win">
+    <cfRule type="containsText" dxfId="25" priority="2" operator="containsText" text="Win">
       <formula>NOT(ISERROR(SEARCH("Win",H1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="3" operator="containsText" text="Loss">
+    <cfRule type="containsText" dxfId="24" priority="3" operator="containsText" text="Loss">
       <formula>NOT(ISERROR(SEARCH("Loss",H1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2215,10 +2425,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L75"/>
+  <dimension ref="A1:L92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="Q70" sqref="Q70"/>
+    <sheetView tabSelected="1" topLeftCell="E56" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="H72" sqref="H72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2502,6 +2712,9 @@
       <c r="G8" t="s">
         <v>68</v>
       </c>
+      <c r="H8" t="s">
+        <v>119</v>
+      </c>
       <c r="I8" t="s">
         <v>66</v>
       </c>
@@ -3218,6 +3431,9 @@
       <c r="G27" t="s">
         <v>90</v>
       </c>
+      <c r="H27" t="s">
+        <v>117</v>
+      </c>
       <c r="I27" t="s">
         <v>13</v>
       </c>
@@ -3777,6 +3993,9 @@
       <c r="G42" t="s">
         <v>100</v>
       </c>
+      <c r="H42" t="s">
+        <v>119</v>
+      </c>
       <c r="I42" t="s">
         <v>66</v>
       </c>
@@ -3812,6 +4031,9 @@
       <c r="G43" t="s">
         <v>101</v>
       </c>
+      <c r="H43" t="s">
+        <v>119</v>
+      </c>
       <c r="I43" t="s">
         <v>66</v>
       </c>
@@ -3847,6 +4069,9 @@
       <c r="G44" t="s">
         <v>102</v>
       </c>
+      <c r="H44" t="s">
+        <v>120</v>
+      </c>
       <c r="I44" t="s">
         <v>13</v>
       </c>
@@ -4335,8 +4560,11 @@
       <c r="F57" s="6" t="s">
         <v>55</v>
       </c>
+      <c r="G57" t="s">
+        <v>105</v>
+      </c>
       <c r="H57" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="I57" t="s">
         <v>66</v>
@@ -4415,6 +4643,9 @@
       <c r="I59" t="s">
         <v>71</v>
       </c>
+      <c r="J59" t="s">
+        <v>29</v>
+      </c>
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
     </row>
@@ -4444,10 +4675,15 @@
       <c r="I60" t="s">
         <v>106</v>
       </c>
+      <c r="J60" t="s">
+        <v>23</v>
+      </c>
       <c r="K60" s="1">
         <v>10</v>
       </c>
-      <c r="L60" s="1"/>
+      <c r="L60" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
@@ -4477,10 +4713,15 @@
       <c r="I61" t="s">
         <v>107</v>
       </c>
+      <c r="J61" t="s">
+        <v>29</v>
+      </c>
       <c r="K61" s="1">
         <v>20</v>
       </c>
-      <c r="L61" s="1"/>
+      <c r="L61" s="1">
+        <v>26.15</v>
+      </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
@@ -4548,10 +4789,15 @@
       <c r="I63" t="s">
         <v>95</v>
       </c>
+      <c r="J63" t="s">
+        <v>23</v>
+      </c>
       <c r="K63" s="1">
         <v>20</v>
       </c>
-      <c r="L63" s="1"/>
+      <c r="L63" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
@@ -4581,10 +4827,15 @@
       <c r="I64" t="s">
         <v>106</v>
       </c>
+      <c r="J64" t="s">
+        <v>23</v>
+      </c>
       <c r="K64" s="1">
         <v>20</v>
       </c>
-      <c r="L64" s="1"/>
+      <c r="L64" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
@@ -4614,10 +4865,15 @@
       <c r="I65" t="s">
         <v>66</v>
       </c>
+      <c r="J65" t="s">
+        <v>23</v>
+      </c>
       <c r="K65" s="1">
         <v>20</v>
       </c>
-      <c r="L65" s="1"/>
+      <c r="L65" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
@@ -4647,10 +4903,15 @@
       <c r="I66" t="s">
         <v>13</v>
       </c>
+      <c r="J66" t="s">
+        <v>29</v>
+      </c>
       <c r="K66" s="1">
         <v>20</v>
       </c>
-      <c r="L66" s="1"/>
+      <c r="L66" s="1">
+        <v>38.18</v>
+      </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
@@ -4680,10 +4941,15 @@
       <c r="I67" t="s">
         <v>13</v>
       </c>
+      <c r="J67" t="s">
+        <v>23</v>
+      </c>
       <c r="K67" s="1">
         <v>20</v>
       </c>
-      <c r="L67" s="1"/>
+      <c r="L67" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
@@ -4713,10 +4979,15 @@
       <c r="I68" t="s">
         <v>59</v>
       </c>
+      <c r="J68" t="s">
+        <v>29</v>
+      </c>
       <c r="K68" s="1">
         <v>20</v>
       </c>
-      <c r="L68" s="1"/>
+      <c r="L68" s="1">
+        <v>37.39</v>
+      </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
@@ -4746,10 +5017,15 @@
       <c r="I69" t="s">
         <v>76</v>
       </c>
+      <c r="J69" t="s">
+        <v>23</v>
+      </c>
       <c r="K69" s="1">
-        <v>20</v>
-      </c>
-      <c r="L69" s="1"/>
+        <v>30</v>
+      </c>
+      <c r="L69" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
@@ -4779,10 +5055,15 @@
       <c r="I70" t="s">
         <v>87</v>
       </c>
+      <c r="J70" t="s">
+        <v>29</v>
+      </c>
       <c r="K70" s="1">
         <v>20</v>
       </c>
-      <c r="L70" s="1"/>
+      <c r="L70" s="1">
+        <v>38.18</v>
+      </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
@@ -4850,10 +5131,15 @@
       <c r="I72" t="s">
         <v>13</v>
       </c>
+      <c r="J72" t="s">
+        <v>23</v>
+      </c>
       <c r="K72" s="1">
         <v>10</v>
       </c>
-      <c r="L72" s="1"/>
+      <c r="L72" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
@@ -4883,10 +5169,15 @@
       <c r="I73" t="s">
         <v>13</v>
       </c>
+      <c r="J73" t="s">
+        <v>23</v>
+      </c>
       <c r="K73" s="1">
         <v>10</v>
       </c>
-      <c r="L73" s="1"/>
+      <c r="L73" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
@@ -4916,10 +5207,15 @@
       <c r="I74" t="s">
         <v>81</v>
       </c>
+      <c r="J74" t="s">
+        <v>29</v>
+      </c>
       <c r="K74" s="1">
         <v>20</v>
       </c>
-      <c r="L74" s="1"/>
+      <c r="L74" s="1">
+        <v>40</v>
+      </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
@@ -4953,42 +5249,743 @@
         <v>20</v>
       </c>
       <c r="L75" s="1"/>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A76" s="4">
+        <v>43758</v>
+      </c>
+      <c r="B76" s="5">
+        <v>7</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D76" s="6">
+        <v>56.5</v>
+      </c>
+      <c r="E76" s="6">
+        <v>-130</v>
+      </c>
+      <c r="F76" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G76" t="s">
+        <v>112</v>
+      </c>
+      <c r="H76" t="s">
+        <v>119</v>
+      </c>
+      <c r="I76" t="s">
+        <v>66</v>
+      </c>
+      <c r="J76" t="s">
+        <v>29</v>
+      </c>
+      <c r="K76" s="1">
+        <v>5</v>
+      </c>
+      <c r="L76" s="1">
+        <v>8.65</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A77" s="4">
+        <v>43758</v>
+      </c>
+      <c r="B77" s="5">
+        <v>7</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D77" s="6">
+        <v>53.5</v>
+      </c>
+      <c r="E77" s="6">
+        <v>-135</v>
+      </c>
+      <c r="F77" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G77" t="s">
+        <v>113</v>
+      </c>
+      <c r="H77" t="s">
+        <v>118</v>
+      </c>
+      <c r="I77" t="s">
+        <v>66</v>
+      </c>
+      <c r="J77" t="s">
+        <v>29</v>
+      </c>
+      <c r="K77" s="1">
+        <v>5</v>
+      </c>
+      <c r="L77" s="1">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A78" s="4">
+        <v>43758</v>
+      </c>
+      <c r="B78" s="5">
+        <v>7</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D78" s="6">
+        <v>51.5</v>
+      </c>
+      <c r="E78" s="6">
+        <v>-125</v>
+      </c>
+      <c r="F78" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G78" t="s">
+        <v>114</v>
+      </c>
+      <c r="H78" t="s">
+        <v>118</v>
+      </c>
+      <c r="I78" t="s">
+        <v>66</v>
+      </c>
+      <c r="J78" t="s">
+        <v>23</v>
+      </c>
+      <c r="K78" s="1">
+        <v>5</v>
+      </c>
+      <c r="L78" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A79" s="4">
+        <v>43758</v>
+      </c>
+      <c r="B79" s="5">
+        <v>7</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D79" s="6">
+        <v>19.5</v>
+      </c>
+      <c r="E79" s="6">
+        <v>-125</v>
+      </c>
+      <c r="F79" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G79" t="s">
+        <v>115</v>
+      </c>
+      <c r="H79" t="s">
+        <v>117</v>
+      </c>
+      <c r="I79" t="s">
+        <v>13</v>
+      </c>
+      <c r="J79" t="s">
+        <v>29</v>
+      </c>
+      <c r="K79" s="1">
+        <v>10</v>
+      </c>
+      <c r="L79" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A80" s="4">
+        <v>43758</v>
+      </c>
+      <c r="B80" s="5">
+        <v>7</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D80" s="6">
+        <v>203.5</v>
+      </c>
+      <c r="E80" s="6">
+        <v>-125</v>
+      </c>
+      <c r="F80" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G80" t="s">
+        <v>115</v>
+      </c>
+      <c r="H80" t="s">
+        <v>116</v>
+      </c>
+      <c r="I80" t="s">
+        <v>13</v>
+      </c>
+      <c r="J80" t="s">
+        <v>29</v>
+      </c>
+      <c r="K80" s="1">
+        <v>10</v>
+      </c>
+      <c r="L80" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A81" s="4">
+        <v>43758</v>
+      </c>
+      <c r="B81" s="5">
+        <v>7</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D81" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="E81" s="6">
+        <v>-220</v>
+      </c>
+      <c r="F81" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G81" t="s">
+        <v>115</v>
+      </c>
+      <c r="H81" t="s">
+        <v>120</v>
+      </c>
+      <c r="I81" t="s">
+        <v>13</v>
+      </c>
+      <c r="J81" t="s">
+        <v>29</v>
+      </c>
+      <c r="K81" s="1">
+        <v>10</v>
+      </c>
+      <c r="L81" s="1">
+        <v>14.55</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A82" s="4">
+        <v>43758</v>
+      </c>
+      <c r="B82" s="5">
+        <v>7</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D82" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="E82" s="6">
+        <v>-200</v>
+      </c>
+      <c r="F82" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G82" t="s">
+        <v>121</v>
+      </c>
+      <c r="H82" t="s">
+        <v>120</v>
+      </c>
+      <c r="I82" t="s">
+        <v>66</v>
+      </c>
+      <c r="J82" t="s">
+        <v>29</v>
+      </c>
+      <c r="K82" s="1">
+        <v>5</v>
+      </c>
+      <c r="L82" s="1">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A83" s="4">
+        <v>43758</v>
+      </c>
+      <c r="B83" s="5">
+        <v>7</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D83" s="6">
+        <v>315.5</v>
+      </c>
+      <c r="E83" s="6">
+        <v>-125</v>
+      </c>
+      <c r="F83" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G83" t="s">
+        <v>105</v>
+      </c>
+      <c r="H83" t="s">
+        <v>116</v>
+      </c>
+      <c r="I83" t="s">
+        <v>66</v>
+      </c>
+      <c r="J83" t="s">
+        <v>23</v>
+      </c>
+      <c r="K83" s="1">
+        <v>5</v>
+      </c>
+      <c r="L83" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A84" s="4">
+        <v>43758</v>
+      </c>
+      <c r="B84" s="5">
+        <v>7</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D84" s="6">
+        <v>295.5</v>
+      </c>
+      <c r="E84" s="6">
+        <v>-125</v>
+      </c>
+      <c r="F84" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G84" t="s">
+        <v>121</v>
+      </c>
+      <c r="H84" t="s">
+        <v>116</v>
+      </c>
+      <c r="I84" t="s">
+        <v>66</v>
+      </c>
+      <c r="J84" t="s">
+        <v>23</v>
+      </c>
+      <c r="K84" s="1">
+        <v>5</v>
+      </c>
+      <c r="L84" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A85" s="4">
+        <v>43758</v>
+      </c>
+      <c r="B85" s="5">
+        <v>7</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D85" s="6">
+        <v>265.5</v>
+      </c>
+      <c r="E85" s="6">
+        <v>-125</v>
+      </c>
+      <c r="F85" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G85" t="s">
+        <v>122</v>
+      </c>
+      <c r="H85" t="s">
+        <v>116</v>
+      </c>
+      <c r="I85" t="s">
+        <v>66</v>
+      </c>
+      <c r="J85" t="s">
+        <v>23</v>
+      </c>
+      <c r="K85" s="1">
+        <v>5</v>
+      </c>
+      <c r="L85" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A86" s="4">
+        <v>43758</v>
+      </c>
+      <c r="B86" s="5">
+        <v>7</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D86" s="6">
+        <v>245.5</v>
+      </c>
+      <c r="E86" s="6">
+        <v>-125</v>
+      </c>
+      <c r="F86" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G86" t="s">
+        <v>102</v>
+      </c>
+      <c r="H86" t="s">
+        <v>116</v>
+      </c>
+      <c r="I86" t="s">
+        <v>66</v>
+      </c>
+      <c r="J86" t="s">
+        <v>23</v>
+      </c>
+      <c r="K86" s="1">
+        <v>5</v>
+      </c>
+      <c r="L86" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A87" s="4">
+        <v>43758</v>
+      </c>
+      <c r="B87" s="5">
+        <v>7</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D87" s="6">
+        <v>3</v>
+      </c>
+      <c r="E87" s="6">
+        <v>-125</v>
+      </c>
+      <c r="F87" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G87" t="s">
+        <v>123</v>
+      </c>
+      <c r="H87" t="s">
+        <v>131</v>
+      </c>
+      <c r="I87" t="s">
+        <v>13</v>
+      </c>
+      <c r="J87" t="s">
+        <v>29</v>
+      </c>
+      <c r="K87" s="1">
+        <v>5</v>
+      </c>
+      <c r="L87" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A88" s="4">
+        <v>43758</v>
+      </c>
+      <c r="B88" s="5">
+        <v>7</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D88" s="6">
+        <v>35.5</v>
+      </c>
+      <c r="E88" s="6">
+        <v>-125</v>
+      </c>
+      <c r="F88" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G88" t="s">
+        <v>124</v>
+      </c>
+      <c r="H88" t="s">
+        <v>119</v>
+      </c>
+      <c r="I88" t="s">
+        <v>66</v>
+      </c>
+      <c r="J88" t="s">
+        <v>23</v>
+      </c>
+      <c r="K88" s="1">
+        <v>5</v>
+      </c>
+      <c r="L88" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A89" s="4">
+        <v>43758</v>
+      </c>
+      <c r="B89" s="5">
+        <v>7</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D89" s="6">
+        <v>22.5</v>
+      </c>
+      <c r="E89" s="6">
+        <v>-130</v>
+      </c>
+      <c r="F89" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G89" t="s">
+        <v>125</v>
+      </c>
+      <c r="H89" t="s">
+        <v>119</v>
+      </c>
+      <c r="I89" t="s">
+        <v>126</v>
+      </c>
+      <c r="J89" t="s">
+        <v>29</v>
+      </c>
+      <c r="K89" s="1">
+        <v>5</v>
+      </c>
+      <c r="L89" s="1">
+        <v>8.85</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A90" s="4">
+        <v>43758</v>
+      </c>
+      <c r="B90" s="5">
+        <v>7</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D90" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="E90" s="6">
+        <v>200</v>
+      </c>
+      <c r="F90" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G90" t="s">
+        <v>127</v>
+      </c>
+      <c r="H90" t="s">
+        <v>128</v>
+      </c>
+      <c r="I90" t="s">
+        <v>66</v>
+      </c>
+      <c r="J90" t="s">
+        <v>23</v>
+      </c>
+      <c r="K90" s="1">
+        <v>5</v>
+      </c>
+      <c r="L90" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A91" s="4">
+        <v>43758</v>
+      </c>
+      <c r="B91" s="5">
+        <v>7</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D91" s="6">
+        <v>255.5</v>
+      </c>
+      <c r="E91" s="6">
+        <v>-115</v>
+      </c>
+      <c r="F91" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G91" t="s">
+        <v>129</v>
+      </c>
+      <c r="H91" t="s">
+        <v>116</v>
+      </c>
+      <c r="I91" t="s">
+        <v>13</v>
+      </c>
+      <c r="J91" t="s">
+        <v>23</v>
+      </c>
+      <c r="K91" s="1">
+        <v>5</v>
+      </c>
+      <c r="L91" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A92" s="4">
+        <v>43758</v>
+      </c>
+      <c r="B92" s="5">
+        <v>7</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D92" s="6">
+        <v>14.5</v>
+      </c>
+      <c r="E92" s="6">
+        <v>-135</v>
+      </c>
+      <c r="F92" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G92" t="s">
+        <v>130</v>
+      </c>
+      <c r="H92" t="s">
+        <v>119</v>
+      </c>
+      <c r="I92" t="s">
+        <v>66</v>
+      </c>
+      <c r="J92" t="s">
+        <v>23</v>
+      </c>
+      <c r="K92" s="1">
+        <v>5</v>
+      </c>
+      <c r="L92" s="1">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:L1"/>
   </mergeCells>
-  <conditionalFormatting sqref="J44:J50 J1:J42 J52:J1024">
-    <cfRule type="containsText" dxfId="18" priority="7" operator="containsText" text="No Action">
+  <conditionalFormatting sqref="J44:J50 J1:J42 J52:J83 J87 J89:J90 J92:J1024">
+    <cfRule type="containsText" dxfId="23" priority="22" operator="containsText" text="No Action">
       <formula>NOT(ISERROR(SEARCH("No Action",J1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="8" operator="containsText" text="Win">
+    <cfRule type="containsText" dxfId="22" priority="23" operator="containsText" text="Win">
       <formula>NOT(ISERROR(SEARCH("Win",J1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="9" operator="containsText" text="Loss">
+    <cfRule type="containsText" dxfId="21" priority="24" operator="containsText" text="Loss">
       <formula>NOT(ISERROR(SEARCH("Loss",J1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J43">
-    <cfRule type="containsText" dxfId="15" priority="4" operator="containsText" text="No Action">
+    <cfRule type="containsText" dxfId="20" priority="19" operator="containsText" text="No Action">
       <formula>NOT(ISERROR(SEARCH("No Action",J43)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="5" operator="containsText" text="Win">
+    <cfRule type="containsText" dxfId="19" priority="20" operator="containsText" text="Win">
       <formula>NOT(ISERROR(SEARCH("Win",J43)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="6" operator="containsText" text="Loss">
+    <cfRule type="containsText" dxfId="18" priority="21" operator="containsText" text="Loss">
       <formula>NOT(ISERROR(SEARCH("Loss",J43)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J51">
-    <cfRule type="containsText" dxfId="12" priority="1" operator="containsText" text="No Action">
+    <cfRule type="containsText" dxfId="17" priority="16" operator="containsText" text="No Action">
       <formula>NOT(ISERROR(SEARCH("No Action",J51)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="2" operator="containsText" text="Win">
+    <cfRule type="containsText" dxfId="16" priority="17" operator="containsText" text="Win">
       <formula>NOT(ISERROR(SEARCH("Win",J51)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="3" operator="containsText" text="Loss">
+    <cfRule type="containsText" dxfId="15" priority="18" operator="containsText" text="Loss">
       <formula>NOT(ISERROR(SEARCH("Loss",J51)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J84">
+    <cfRule type="containsText" dxfId="14" priority="13" operator="containsText" text="No Action">
+      <formula>NOT(ISERROR(SEARCH("No Action",J84)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="13" priority="14" operator="containsText" text="Win">
+      <formula>NOT(ISERROR(SEARCH("Win",J84)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="12" priority="15" operator="containsText" text="Loss">
+      <formula>NOT(ISERROR(SEARCH("Loss",J84)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J85">
+    <cfRule type="containsText" dxfId="11" priority="10" operator="containsText" text="No Action">
+      <formula>NOT(ISERROR(SEARCH("No Action",J85)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="Win">
+      <formula>NOT(ISERROR(SEARCH("Win",J85)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="9" priority="12" operator="containsText" text="Loss">
+      <formula>NOT(ISERROR(SEARCH("Loss",J85)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J86">
+    <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="No Action">
+      <formula>NOT(ISERROR(SEARCH("No Action",J86)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="Win">
+      <formula>NOT(ISERROR(SEARCH("Win",J86)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="Loss">
+      <formula>NOT(ISERROR(SEARCH("Loss",J86)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J88">
+    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="No Action">
+      <formula>NOT(ISERROR(SEARCH("No Action",J88)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="Win">
+      <formula>NOT(ISERROR(SEARCH("Win",J88)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="Loss">
+      <formula>NOT(ISERROR(SEARCH("Loss",J88)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J91">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="No Action">
+      <formula>NOT(ISERROR(SEARCH("No Action",J91)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Win">
+      <formula>NOT(ISERROR(SEARCH("Win",J91)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="Loss">
+      <formula>NOT(ISERROR(SEARCH("Loss",J91)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SportsBettingLogs.xlsx
+++ b/SportsBettingLogs.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="133">
   <si>
     <t>Bet Type</t>
   </si>
@@ -429,6 +429,9 @@
   </si>
   <si>
     <t>Recpetions</t>
+  </si>
+  <si>
+    <t>San Francisco 49eres</t>
   </si>
 </sst>
 </file>
@@ -520,7 +523,69 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="50">
+  <dxfs count="59">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -822,6 +887,90 @@
       </fill>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF006100"/>
       </font>
@@ -840,62 +989,6 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -917,17 +1010,17 @@
     <sortCondition ref="A2:A27"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="17" name="Date" totalsRowLabel="Total" dataDxfId="49"/>
+    <tableColumn id="17" name="Date" totalsRowLabel="Total" dataDxfId="53"/>
     <tableColumn id="1" name="Bet Type"/>
     <tableColumn id="2" name="Odds"/>
     <tableColumn id="3" name="Team 1"/>
     <tableColumn id="4" name="Team 2"/>
     <tableColumn id="5" name="Outcome Chosen"/>
     <tableColumn id="6" name="Result"/>
-    <tableColumn id="7" name="Bet Size" totalsRowFunction="custom" dataDxfId="48" totalsRowDxfId="47">
+    <tableColumn id="7" name="Bet Size" totalsRowFunction="custom" dataDxfId="52" totalsRowDxfId="51">
       <totalsRowFormula>SUMIF(Table1[Result],"&lt;&gt;",Table1[Bet Size])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" name="Payout" totalsRowFunction="custom" dataDxfId="46" totalsRowDxfId="45">
+    <tableColumn id="8" name="Payout" totalsRowFunction="custom" dataDxfId="50" totalsRowDxfId="49">
       <totalsRowFormula>SUMIF(Table1[Result],"&lt;&gt;",Table1[Payout])</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -939,7 +1032,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A2:J3" totalsRowShown="0">
   <autoFilter ref="A2:J3"/>
   <tableColumns count="10">
-    <tableColumn id="17" name="Date" dataDxfId="44"/>
+    <tableColumn id="17" name="Date" dataDxfId="45"/>
     <tableColumn id="1" name="Bet Type"/>
     <tableColumn id="2" name="Odds"/>
     <tableColumn id="9" name="League"/>
@@ -947,29 +1040,29 @@
     <tableColumn id="4" name="Team 2"/>
     <tableColumn id="5" name="Outcome Chosen"/>
     <tableColumn id="6" name="Result"/>
-    <tableColumn id="7" name="Bet Size" dataDxfId="43"/>
-    <tableColumn id="8" name="Payout" dataDxfId="42"/>
+    <tableColumn id="7" name="Bet Size" dataDxfId="44"/>
+    <tableColumn id="8" name="Payout" dataDxfId="43"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table134" displayName="Table134" ref="A2:L92" totalsRowShown="0">
-  <autoFilter ref="A2:L92"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table134" displayName="Table134" ref="A2:L107" totalsRowShown="0">
+  <autoFilter ref="A2:L107"/>
   <tableColumns count="12">
-    <tableColumn id="17" name="Date Placed" dataDxfId="41"/>
-    <tableColumn id="11" name="NFL Week" dataDxfId="40"/>
-    <tableColumn id="1" name="Bet Type" dataDxfId="39"/>
-    <tableColumn id="10" name="Points" dataDxfId="38"/>
-    <tableColumn id="2" name="Odds" dataDxfId="37"/>
-    <tableColumn id="9" name="League" dataDxfId="36"/>
+    <tableColumn id="17" name="Date Placed" dataDxfId="12"/>
+    <tableColumn id="11" name="NFL Week" dataDxfId="11"/>
+    <tableColumn id="1" name="Bet Type" dataDxfId="10"/>
+    <tableColumn id="10" name="Points" dataDxfId="9"/>
+    <tableColumn id="2" name="Odds" dataDxfId="8"/>
+    <tableColumn id="9" name="League" dataDxfId="7"/>
     <tableColumn id="3" name="Home Team"/>
     <tableColumn id="4" name="Away Team"/>
     <tableColumn id="5" name="Outcome Chosen"/>
     <tableColumn id="6" name="Result"/>
-    <tableColumn id="7" name="Bet Size" dataDxfId="35" totalsRowDxfId="34"/>
-    <tableColumn id="8" name="Payout" dataDxfId="33" totalsRowDxfId="32"/>
+    <tableColumn id="7" name="Bet Size" dataDxfId="6" totalsRowDxfId="5"/>
+    <tableColumn id="8" name="Payout" dataDxfId="4" totalsRowDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2254,10 +2347,10 @@
     <mergeCell ref="A1:I1"/>
   </mergeCells>
   <conditionalFormatting sqref="J34">
-    <cfRule type="cellIs" dxfId="31" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="58" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="57" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
     <cfRule type="colorScale" priority="3">
@@ -2272,13 +2365,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="containsText" dxfId="29" priority="4" operator="containsText" text="No Action">
+    <cfRule type="containsText" dxfId="56" priority="4" operator="containsText" text="No Action">
       <formula>NOT(ISERROR(SEARCH("No Action",G1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="5" operator="containsText" text="Win">
+    <cfRule type="containsText" dxfId="55" priority="5" operator="containsText" text="Win">
       <formula>NOT(ISERROR(SEARCH("Win",G1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="6" operator="containsText" text="Loss">
+    <cfRule type="containsText" dxfId="54" priority="6" operator="containsText" text="Loss">
       <formula>NOT(ISERROR(SEARCH("Loss",G1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2406,13 +2499,13 @@
     <mergeCell ref="A1:J1"/>
   </mergeCells>
   <conditionalFormatting sqref="H1:H3">
-    <cfRule type="containsText" dxfId="26" priority="1" operator="containsText" text="No Action">
+    <cfRule type="containsText" dxfId="48" priority="1" operator="containsText" text="No Action">
       <formula>NOT(ISERROR(SEARCH("No Action",H1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="2" operator="containsText" text="Win">
+    <cfRule type="containsText" dxfId="47" priority="2" operator="containsText" text="Win">
       <formula>NOT(ISERROR(SEARCH("Win",H1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="3" operator="containsText" text="Loss">
+    <cfRule type="containsText" dxfId="46" priority="3" operator="containsText" text="Loss">
       <formula>NOT(ISERROR(SEARCH("Loss",H1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2425,10 +2518,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L92"/>
+  <dimension ref="A1:L107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E56" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="H72" sqref="H72"/>
+    <sheetView tabSelected="1" topLeftCell="A77" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="I104" sqref="I104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5896,96 +5989,624 @@
         <v>0</v>
       </c>
     </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A93" s="4">
+        <v>43760</v>
+      </c>
+      <c r="B93" s="5">
+        <v>8</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D93" s="6">
+        <v>43.5</v>
+      </c>
+      <c r="E93" s="6">
+        <v>-110</v>
+      </c>
+      <c r="F93" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G93" t="s">
+        <v>109</v>
+      </c>
+      <c r="H93" t="s">
+        <v>69</v>
+      </c>
+      <c r="I93" t="s">
+        <v>66</v>
+      </c>
+      <c r="K93" s="1">
+        <v>20</v>
+      </c>
+      <c r="L93" s="1"/>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A94" s="4">
+        <v>43760</v>
+      </c>
+      <c r="B94" s="5">
+        <v>8</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D94" s="6">
+        <v>45.5</v>
+      </c>
+      <c r="E94" s="6">
+        <v>-110</v>
+      </c>
+      <c r="F94" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G94" t="s">
+        <v>88</v>
+      </c>
+      <c r="H94" t="s">
+        <v>80</v>
+      </c>
+      <c r="I94" t="s">
+        <v>13</v>
+      </c>
+      <c r="K94" s="1">
+        <v>20</v>
+      </c>
+      <c r="L94" s="1"/>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A95" s="4">
+        <v>43760</v>
+      </c>
+      <c r="B95" s="5">
+        <v>8</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D95" s="6">
+        <v>41.5</v>
+      </c>
+      <c r="E95" s="6">
+        <v>-115</v>
+      </c>
+      <c r="F95" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G95" t="s">
+        <v>132</v>
+      </c>
+      <c r="H95" t="s">
+        <v>84</v>
+      </c>
+      <c r="I95" t="s">
+        <v>66</v>
+      </c>
+      <c r="K95" s="1">
+        <v>20</v>
+      </c>
+      <c r="L95" s="1"/>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A96" s="4">
+        <v>43760</v>
+      </c>
+      <c r="B96" s="5">
+        <v>8</v>
+      </c>
+      <c r="C96" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D96" s="6">
+        <v>46</v>
+      </c>
+      <c r="E96" s="6">
+        <v>-110</v>
+      </c>
+      <c r="F96" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G96" t="s">
+        <v>60</v>
+      </c>
+      <c r="H96" t="s">
+        <v>62</v>
+      </c>
+      <c r="I96" t="s">
+        <v>13</v>
+      </c>
+      <c r="K96" s="1">
+        <v>20</v>
+      </c>
+      <c r="L96" s="1"/>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A97" s="4">
+        <v>43760</v>
+      </c>
+      <c r="B97" s="5">
+        <v>8</v>
+      </c>
+      <c r="C97" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D97" s="6">
+        <v>51.5</v>
+      </c>
+      <c r="E97" s="6">
+        <v>-110</v>
+      </c>
+      <c r="F97" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G97" t="s">
+        <v>95</v>
+      </c>
+      <c r="H97" t="s">
+        <v>111</v>
+      </c>
+      <c r="I97" t="s">
+        <v>66</v>
+      </c>
+      <c r="K97" s="1">
+        <v>20</v>
+      </c>
+      <c r="L97" s="1"/>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A98" s="4">
+        <v>43760</v>
+      </c>
+      <c r="B98" s="5">
+        <v>8</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D98" s="6">
+        <v>47.5</v>
+      </c>
+      <c r="E98" s="6">
+        <v>-110</v>
+      </c>
+      <c r="F98" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G98" t="s">
+        <v>72</v>
+      </c>
+      <c r="H98" t="s">
+        <v>70</v>
+      </c>
+      <c r="I98" t="s">
+        <v>13</v>
+      </c>
+      <c r="K98" s="1">
+        <v>20</v>
+      </c>
+      <c r="L98" s="1"/>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A99" s="4">
+        <v>43760</v>
+      </c>
+      <c r="B99" s="5">
+        <v>8</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D99" s="6">
+        <v>43</v>
+      </c>
+      <c r="E99" s="6">
+        <v>-110</v>
+      </c>
+      <c r="F99" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G99" t="s">
+        <v>75</v>
+      </c>
+      <c r="H99" t="s">
+        <v>61</v>
+      </c>
+      <c r="I99" t="s">
+        <v>66</v>
+      </c>
+      <c r="K99" s="1">
+        <v>20</v>
+      </c>
+      <c r="L99" s="1"/>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A100" s="4">
+        <v>43760</v>
+      </c>
+      <c r="B100" s="5">
+        <v>8</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D100" s="6">
+        <v>7</v>
+      </c>
+      <c r="E100" s="6">
+        <v>-120</v>
+      </c>
+      <c r="F100" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G100" t="s">
+        <v>73</v>
+      </c>
+      <c r="H100" t="s">
+        <v>83</v>
+      </c>
+      <c r="I100" t="s">
+        <v>83</v>
+      </c>
+      <c r="K100" s="1">
+        <v>20</v>
+      </c>
+      <c r="L100" s="1"/>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A101" s="4">
+        <v>43760</v>
+      </c>
+      <c r="B101" s="5">
+        <v>8</v>
+      </c>
+      <c r="C101" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D101" s="6">
+        <v>-13.5</v>
+      </c>
+      <c r="E101" s="6">
+        <v>-110</v>
+      </c>
+      <c r="F101" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G101" t="s">
+        <v>59</v>
+      </c>
+      <c r="H101" t="s">
+        <v>110</v>
+      </c>
+      <c r="I101" t="s">
+        <v>59</v>
+      </c>
+      <c r="K101" s="1">
+        <v>20</v>
+      </c>
+      <c r="L101" s="1"/>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A102" s="4">
+        <v>43760</v>
+      </c>
+      <c r="B102" s="5">
+        <v>8</v>
+      </c>
+      <c r="C102" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D102" s="6">
+        <v>4</v>
+      </c>
+      <c r="E102" s="6">
+        <v>-110</v>
+      </c>
+      <c r="F102" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G102" t="s">
+        <v>77</v>
+      </c>
+      <c r="H102" t="s">
+        <v>107</v>
+      </c>
+      <c r="I102" t="s">
+        <v>107</v>
+      </c>
+      <c r="K102" s="1">
+        <v>20</v>
+      </c>
+      <c r="L102" s="1"/>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A103" s="4">
+        <v>43760</v>
+      </c>
+      <c r="B103" s="5">
+        <v>8</v>
+      </c>
+      <c r="C103" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D103" s="6">
+        <v>14.5</v>
+      </c>
+      <c r="E103" s="6">
+        <v>-115</v>
+      </c>
+      <c r="F103" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G103" t="s">
+        <v>75</v>
+      </c>
+      <c r="H103" t="s">
+        <v>61</v>
+      </c>
+      <c r="I103" t="s">
+        <v>61</v>
+      </c>
+      <c r="K103" s="1">
+        <v>20</v>
+      </c>
+      <c r="L103" s="1"/>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A104" s="4">
+        <v>43760</v>
+      </c>
+      <c r="B104" s="5">
+        <v>8</v>
+      </c>
+      <c r="C104" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D104" s="6">
+        <v>-16</v>
+      </c>
+      <c r="E104" s="6">
+        <v>-105</v>
+      </c>
+      <c r="F104" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G104" t="s">
+        <v>82</v>
+      </c>
+      <c r="H104" t="s">
+        <v>57</v>
+      </c>
+      <c r="I104" t="s">
+        <v>82</v>
+      </c>
+      <c r="K104" s="1">
+        <v>20</v>
+      </c>
+      <c r="L104" s="1"/>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A105" s="4">
+        <v>43760</v>
+      </c>
+      <c r="B105" s="5">
+        <v>8</v>
+      </c>
+      <c r="C105" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D105" s="6">
+        <v>-7</v>
+      </c>
+      <c r="E105" s="6">
+        <v>100</v>
+      </c>
+      <c r="F105" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G105" t="s">
+        <v>95</v>
+      </c>
+      <c r="H105" t="s">
+        <v>111</v>
+      </c>
+      <c r="I105" t="s">
+        <v>95</v>
+      </c>
+      <c r="K105" s="1">
+        <v>20</v>
+      </c>
+      <c r="L105" s="1"/>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A106" s="4">
+        <v>43760</v>
+      </c>
+      <c r="B106" s="5">
+        <v>8</v>
+      </c>
+      <c r="C106" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D106" s="6">
+        <v>41.5</v>
+      </c>
+      <c r="E106" s="6">
+        <v>-110</v>
+      </c>
+      <c r="F106" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G106" t="s">
+        <v>87</v>
+      </c>
+      <c r="H106" t="s">
+        <v>63</v>
+      </c>
+      <c r="I106" t="s">
+        <v>13</v>
+      </c>
+      <c r="K106" s="1">
+        <v>20</v>
+      </c>
+      <c r="L106" s="1"/>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A107" s="4">
+        <v>43760</v>
+      </c>
+      <c r="B107" s="5">
+        <v>8</v>
+      </c>
+      <c r="C107" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D107" s="6">
+        <v>-13</v>
+      </c>
+      <c r="E107" s="6">
+        <v>-110</v>
+      </c>
+      <c r="F107" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G107" t="s">
+        <v>60</v>
+      </c>
+      <c r="H107" t="s">
+        <v>62</v>
+      </c>
+      <c r="I107" t="s">
+        <v>60</v>
+      </c>
+      <c r="K107" s="1">
+        <v>20</v>
+      </c>
+      <c r="L107" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:L1"/>
   </mergeCells>
-  <conditionalFormatting sqref="J44:J50 J1:J42 J52:J83 J87 J89:J90 J92:J1024">
-    <cfRule type="containsText" dxfId="23" priority="22" operator="containsText" text="No Action">
+  <conditionalFormatting sqref="J44:J50 J1:J42 J52:J83 J87 J89:J90 J92:J101 J104 J106:J1024">
+    <cfRule type="containsText" dxfId="42" priority="31" operator="containsText" text="No Action">
       <formula>NOT(ISERROR(SEARCH("No Action",J1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="23" operator="containsText" text="Win">
+    <cfRule type="containsText" dxfId="41" priority="32" operator="containsText" text="Win">
       <formula>NOT(ISERROR(SEARCH("Win",J1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="24" operator="containsText" text="Loss">
+    <cfRule type="containsText" dxfId="40" priority="33" operator="containsText" text="Loss">
       <formula>NOT(ISERROR(SEARCH("Loss",J1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J43">
-    <cfRule type="containsText" dxfId="20" priority="19" operator="containsText" text="No Action">
+    <cfRule type="containsText" dxfId="39" priority="28" operator="containsText" text="No Action">
       <formula>NOT(ISERROR(SEARCH("No Action",J43)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="20" operator="containsText" text="Win">
+    <cfRule type="containsText" dxfId="38" priority="29" operator="containsText" text="Win">
       <formula>NOT(ISERROR(SEARCH("Win",J43)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="21" operator="containsText" text="Loss">
+    <cfRule type="containsText" dxfId="37" priority="30" operator="containsText" text="Loss">
       <formula>NOT(ISERROR(SEARCH("Loss",J43)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J51">
-    <cfRule type="containsText" dxfId="17" priority="16" operator="containsText" text="No Action">
+    <cfRule type="containsText" dxfId="36" priority="25" operator="containsText" text="No Action">
       <formula>NOT(ISERROR(SEARCH("No Action",J51)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="17" operator="containsText" text="Win">
+    <cfRule type="containsText" dxfId="35" priority="26" operator="containsText" text="Win">
       <formula>NOT(ISERROR(SEARCH("Win",J51)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="18" operator="containsText" text="Loss">
+    <cfRule type="containsText" dxfId="34" priority="27" operator="containsText" text="Loss">
       <formula>NOT(ISERROR(SEARCH("Loss",J51)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J84">
-    <cfRule type="containsText" dxfId="14" priority="13" operator="containsText" text="No Action">
+    <cfRule type="containsText" dxfId="33" priority="22" operator="containsText" text="No Action">
       <formula>NOT(ISERROR(SEARCH("No Action",J84)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="14" operator="containsText" text="Win">
+    <cfRule type="containsText" dxfId="32" priority="23" operator="containsText" text="Win">
       <formula>NOT(ISERROR(SEARCH("Win",J84)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="15" operator="containsText" text="Loss">
+    <cfRule type="containsText" dxfId="31" priority="24" operator="containsText" text="Loss">
       <formula>NOT(ISERROR(SEARCH("Loss",J84)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J85">
-    <cfRule type="containsText" dxfId="11" priority="10" operator="containsText" text="No Action">
+    <cfRule type="containsText" dxfId="30" priority="19" operator="containsText" text="No Action">
       <formula>NOT(ISERROR(SEARCH("No Action",J85)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="Win">
+    <cfRule type="containsText" dxfId="29" priority="20" operator="containsText" text="Win">
       <formula>NOT(ISERROR(SEARCH("Win",J85)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="12" operator="containsText" text="Loss">
+    <cfRule type="containsText" dxfId="28" priority="21" operator="containsText" text="Loss">
       <formula>NOT(ISERROR(SEARCH("Loss",J85)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J86">
-    <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="No Action">
+    <cfRule type="containsText" dxfId="27" priority="16" operator="containsText" text="No Action">
       <formula>NOT(ISERROR(SEARCH("No Action",J86)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="Win">
+    <cfRule type="containsText" dxfId="26" priority="17" operator="containsText" text="Win">
       <formula>NOT(ISERROR(SEARCH("Win",J86)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="Loss">
+    <cfRule type="containsText" dxfId="25" priority="18" operator="containsText" text="Loss">
       <formula>NOT(ISERROR(SEARCH("Loss",J86)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J88">
-    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="No Action">
+    <cfRule type="containsText" dxfId="24" priority="13" operator="containsText" text="No Action">
       <formula>NOT(ISERROR(SEARCH("No Action",J88)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="Win">
+    <cfRule type="containsText" dxfId="23" priority="14" operator="containsText" text="Win">
       <formula>NOT(ISERROR(SEARCH("Win",J88)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="Loss">
+    <cfRule type="containsText" dxfId="22" priority="15" operator="containsText" text="Loss">
       <formula>NOT(ISERROR(SEARCH("Loss",J88)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J91">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="No Action">
+    <cfRule type="containsText" dxfId="21" priority="10" operator="containsText" text="No Action">
       <formula>NOT(ISERROR(SEARCH("No Action",J91)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Win">
+    <cfRule type="containsText" dxfId="20" priority="11" operator="containsText" text="Win">
       <formula>NOT(ISERROR(SEARCH("Win",J91)))</formula>
     </cfRule>
+    <cfRule type="containsText" dxfId="19" priority="12" operator="containsText" text="Loss">
+      <formula>NOT(ISERROR(SEARCH("Loss",J91)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J102">
+    <cfRule type="containsText" dxfId="18" priority="7" operator="containsText" text="No Action">
+      <formula>NOT(ISERROR(SEARCH("No Action",J102)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="17" priority="8" operator="containsText" text="Win">
+      <formula>NOT(ISERROR(SEARCH("Win",J102)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="16" priority="9" operator="containsText" text="Loss">
+      <formula>NOT(ISERROR(SEARCH("Loss",J102)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J103">
+    <cfRule type="containsText" dxfId="15" priority="4" operator="containsText" text="No Action">
+      <formula>NOT(ISERROR(SEARCH("No Action",J103)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="14" priority="5" operator="containsText" text="Win">
+      <formula>NOT(ISERROR(SEARCH("Win",J103)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="13" priority="6" operator="containsText" text="Loss">
+      <formula>NOT(ISERROR(SEARCH("Loss",J103)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J105">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="No Action">
+      <formula>NOT(ISERROR(SEARCH("No Action",J105)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Win">
+      <formula>NOT(ISERROR(SEARCH("Win",J105)))</formula>
+    </cfRule>
     <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="Loss">
-      <formula>NOT(ISERROR(SEARCH("Loss",J91)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Loss",J105)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SportsBettingLogs.xlsx
+++ b/SportsBettingLogs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Baseball Bets" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="139">
   <si>
     <t>Bet Type</t>
   </si>
@@ -432,6 +432,24 @@
   </si>
   <si>
     <t>San Francisco 49eres</t>
+  </si>
+  <si>
+    <t>Robby Anderson</t>
+  </si>
+  <si>
+    <t>Jamison Crowder</t>
+  </si>
+  <si>
+    <t>Receptions</t>
+  </si>
+  <si>
+    <t>Stefon Diggs</t>
+  </si>
+  <si>
+    <t>Pass Attempts</t>
+  </si>
+  <si>
+    <t>Pass TDs</t>
   </si>
 </sst>
 </file>
@@ -523,7 +541,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="59">
+  <dxfs count="68">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -553,38 +571,6 @@
           <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -887,13 +873,34 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -926,19 +933,64 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -990,6 +1042,62 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1010,17 +1118,17 @@
     <sortCondition ref="A2:A27"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="17" name="Date" totalsRowLabel="Total" dataDxfId="53"/>
+    <tableColumn id="17" name="Date" totalsRowLabel="Total" dataDxfId="67"/>
     <tableColumn id="1" name="Bet Type"/>
     <tableColumn id="2" name="Odds"/>
     <tableColumn id="3" name="Team 1"/>
     <tableColumn id="4" name="Team 2"/>
     <tableColumn id="5" name="Outcome Chosen"/>
     <tableColumn id="6" name="Result"/>
-    <tableColumn id="7" name="Bet Size" totalsRowFunction="custom" dataDxfId="52" totalsRowDxfId="51">
+    <tableColumn id="7" name="Bet Size" totalsRowFunction="custom" dataDxfId="66" totalsRowDxfId="65">
       <totalsRowFormula>SUMIF(Table1[Result],"&lt;&gt;",Table1[Bet Size])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" name="Payout" totalsRowFunction="custom" dataDxfId="50" totalsRowDxfId="49">
+    <tableColumn id="8" name="Payout" totalsRowFunction="custom" dataDxfId="64" totalsRowDxfId="63">
       <totalsRowFormula>SUMIF(Table1[Result],"&lt;&gt;",Table1[Payout])</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -1032,7 +1140,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A2:J3" totalsRowShown="0">
   <autoFilter ref="A2:J3"/>
   <tableColumns count="10">
-    <tableColumn id="17" name="Date" dataDxfId="45"/>
+    <tableColumn id="17" name="Date" dataDxfId="62"/>
     <tableColumn id="1" name="Bet Type"/>
     <tableColumn id="2" name="Odds"/>
     <tableColumn id="9" name="League"/>
@@ -1040,29 +1148,29 @@
     <tableColumn id="4" name="Team 2"/>
     <tableColumn id="5" name="Outcome Chosen"/>
     <tableColumn id="6" name="Result"/>
-    <tableColumn id="7" name="Bet Size" dataDxfId="44"/>
-    <tableColumn id="8" name="Payout" dataDxfId="43"/>
+    <tableColumn id="7" name="Bet Size" dataDxfId="61"/>
+    <tableColumn id="8" name="Payout" dataDxfId="60"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table134" displayName="Table134" ref="A2:L107" totalsRowShown="0">
-  <autoFilter ref="A2:L107"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table134" displayName="Table134" ref="A2:L120" totalsRowShown="0">
+  <autoFilter ref="A2:L120"/>
   <tableColumns count="12">
-    <tableColumn id="17" name="Date Placed" dataDxfId="12"/>
-    <tableColumn id="11" name="NFL Week" dataDxfId="11"/>
-    <tableColumn id="1" name="Bet Type" dataDxfId="10"/>
-    <tableColumn id="10" name="Points" dataDxfId="9"/>
-    <tableColumn id="2" name="Odds" dataDxfId="8"/>
-    <tableColumn id="9" name="League" dataDxfId="7"/>
+    <tableColumn id="17" name="Date Placed" dataDxfId="59"/>
+    <tableColumn id="11" name="NFL Week" dataDxfId="58"/>
+    <tableColumn id="1" name="Bet Type" dataDxfId="57"/>
+    <tableColumn id="10" name="Points" dataDxfId="56"/>
+    <tableColumn id="2" name="Odds" dataDxfId="55"/>
+    <tableColumn id="9" name="League" dataDxfId="54"/>
     <tableColumn id="3" name="Home Team"/>
     <tableColumn id="4" name="Away Team"/>
     <tableColumn id="5" name="Outcome Chosen"/>
     <tableColumn id="6" name="Result"/>
-    <tableColumn id="7" name="Bet Size" dataDxfId="6" totalsRowDxfId="5"/>
-    <tableColumn id="8" name="Payout" dataDxfId="4" totalsRowDxfId="3"/>
+    <tableColumn id="7" name="Bet Size" dataDxfId="53" totalsRowDxfId="52"/>
+    <tableColumn id="8" name="Payout" dataDxfId="51" totalsRowDxfId="50"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2347,10 +2455,10 @@
     <mergeCell ref="A1:I1"/>
   </mergeCells>
   <conditionalFormatting sqref="J34">
-    <cfRule type="cellIs" dxfId="58" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="49" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="48" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
     <cfRule type="colorScale" priority="3">
@@ -2365,13 +2473,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="containsText" dxfId="56" priority="4" operator="containsText" text="No Action">
+    <cfRule type="containsText" dxfId="47" priority="4" operator="containsText" text="No Action">
       <formula>NOT(ISERROR(SEARCH("No Action",G1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="55" priority="5" operator="containsText" text="Win">
+    <cfRule type="containsText" dxfId="46" priority="5" operator="containsText" text="Win">
       <formula>NOT(ISERROR(SEARCH("Win",G1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="54" priority="6" operator="containsText" text="Loss">
+    <cfRule type="containsText" dxfId="45" priority="6" operator="containsText" text="Loss">
       <formula>NOT(ISERROR(SEARCH("Loss",G1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2499,13 +2607,13 @@
     <mergeCell ref="A1:J1"/>
   </mergeCells>
   <conditionalFormatting sqref="H1:H3">
-    <cfRule type="containsText" dxfId="48" priority="1" operator="containsText" text="No Action">
+    <cfRule type="containsText" dxfId="44" priority="1" operator="containsText" text="No Action">
       <formula>NOT(ISERROR(SEARCH("No Action",H1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="47" priority="2" operator="containsText" text="Win">
+    <cfRule type="containsText" dxfId="43" priority="2" operator="containsText" text="Win">
       <formula>NOT(ISERROR(SEARCH("Win",H1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="3" operator="containsText" text="Loss">
+    <cfRule type="containsText" dxfId="42" priority="3" operator="containsText" text="Loss">
       <formula>NOT(ISERROR(SEARCH("Loss",H1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2518,10 +2626,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L107"/>
+  <dimension ref="A1:L120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I104" sqref="I104"/>
+    <sheetView tabSelected="1" topLeftCell="B87" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="G102" sqref="G102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5338,10 +5446,15 @@
       <c r="I75" t="s">
         <v>63</v>
       </c>
+      <c r="J75" t="s">
+        <v>23</v>
+      </c>
       <c r="K75" s="1">
         <v>20</v>
       </c>
-      <c r="L75" s="1"/>
+      <c r="L75" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
@@ -5991,49 +6104,54 @@
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="4">
-        <v>43760</v>
+        <v>43759</v>
       </c>
       <c r="B93" s="5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>9</v>
+        <v>89</v>
       </c>
       <c r="D93" s="6">
-        <v>43.5</v>
+        <v>3.5</v>
       </c>
       <c r="E93" s="6">
-        <v>-110</v>
+        <v>-130</v>
       </c>
       <c r="F93" s="6" t="s">
         <v>55</v>
       </c>
       <c r="G93" t="s">
-        <v>109</v>
+        <v>133</v>
       </c>
       <c r="H93" t="s">
-        <v>69</v>
+        <v>135</v>
       </c>
       <c r="I93" t="s">
-        <v>66</v>
+        <v>13</v>
+      </c>
+      <c r="J93" t="s">
+        <v>29</v>
       </c>
       <c r="K93" s="1">
-        <v>20</v>
-      </c>
-      <c r="L93" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="L93" s="1">
+        <v>17.690000000000001</v>
+      </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="4">
-        <v>43760</v>
+        <v>43759</v>
       </c>
       <c r="B94" s="5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C94" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="6">
-        <v>45.5</v>
+        <v>43</v>
       </c>
       <c r="E94" s="6">
         <v>-110</v>
@@ -6042,51 +6160,61 @@
         <v>55</v>
       </c>
       <c r="G94" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="H94" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="I94" t="s">
         <v>13</v>
       </c>
+      <c r="J94" t="s">
+        <v>29</v>
+      </c>
       <c r="K94" s="1">
-        <v>20</v>
-      </c>
-      <c r="L94" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="L94" s="1">
+        <v>19.09</v>
+      </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="4">
-        <v>43760</v>
+        <v>43759</v>
       </c>
       <c r="B95" s="5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>9</v>
+        <v>89</v>
       </c>
       <c r="D95" s="6">
-        <v>41.5</v>
+        <v>49.5</v>
       </c>
       <c r="E95" s="6">
-        <v>-115</v>
+        <v>105</v>
       </c>
       <c r="F95" s="6" t="s">
         <v>55</v>
       </c>
       <c r="G95" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H95" t="s">
-        <v>84</v>
+        <v>119</v>
       </c>
       <c r="I95" t="s">
-        <v>66</v>
+        <v>13</v>
+      </c>
+      <c r="J95" t="s">
+        <v>29</v>
       </c>
       <c r="K95" s="1">
-        <v>20</v>
-      </c>
-      <c r="L95" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="L95" s="1">
+        <v>20.5</v>
+      </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="4">
@@ -6099,7 +6227,7 @@
         <v>9</v>
       </c>
       <c r="D96" s="6">
-        <v>46</v>
+        <v>43.5</v>
       </c>
       <c r="E96" s="6">
         <v>-110</v>
@@ -6108,13 +6236,13 @@
         <v>55</v>
       </c>
       <c r="G96" t="s">
-        <v>60</v>
+        <v>109</v>
       </c>
       <c r="H96" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="I96" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="K96" s="1">
         <v>20</v>
@@ -6132,7 +6260,7 @@
         <v>9</v>
       </c>
       <c r="D97" s="6">
-        <v>51.5</v>
+        <v>45.5</v>
       </c>
       <c r="E97" s="6">
         <v>-110</v>
@@ -6141,13 +6269,13 @@
         <v>55</v>
       </c>
       <c r="G97" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="H97" t="s">
-        <v>111</v>
+        <v>80</v>
       </c>
       <c r="I97" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="K97" s="1">
         <v>20</v>
@@ -6165,22 +6293,22 @@
         <v>9</v>
       </c>
       <c r="D98" s="6">
-        <v>47.5</v>
+        <v>41.5</v>
       </c>
       <c r="E98" s="6">
-        <v>-110</v>
+        <v>-115</v>
       </c>
       <c r="F98" s="6" t="s">
         <v>55</v>
       </c>
       <c r="G98" t="s">
-        <v>72</v>
+        <v>132</v>
       </c>
       <c r="H98" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="I98" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="K98" s="1">
         <v>20</v>
@@ -6198,7 +6326,7 @@
         <v>9</v>
       </c>
       <c r="D99" s="6">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E99" s="6">
         <v>-110</v>
@@ -6207,13 +6335,13 @@
         <v>55</v>
       </c>
       <c r="G99" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="H99" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I99" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="K99" s="1">
         <v>20</v>
@@ -6228,25 +6356,25 @@
         <v>8</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D100" s="6">
-        <v>7</v>
+        <v>51.5</v>
       </c>
       <c r="E100" s="6">
-        <v>-120</v>
+        <v>-110</v>
       </c>
       <c r="F100" s="6" t="s">
         <v>55</v>
       </c>
       <c r="G100" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="H100" t="s">
-        <v>83</v>
+        <v>111</v>
       </c>
       <c r="I100" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="K100" s="1">
         <v>20</v>
@@ -6261,10 +6389,10 @@
         <v>8</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D101" s="6">
-        <v>-13.5</v>
+        <v>47.5</v>
       </c>
       <c r="E101" s="6">
         <v>-110</v>
@@ -6273,13 +6401,13 @@
         <v>55</v>
       </c>
       <c r="G101" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="H101" t="s">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="I101" t="s">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="K101" s="1">
         <v>20</v>
@@ -6294,10 +6422,10 @@
         <v>8</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D102" s="6">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="E102" s="6">
         <v>-110</v>
@@ -6306,13 +6434,13 @@
         <v>55</v>
       </c>
       <c r="G102" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H102" t="s">
-        <v>107</v>
+        <v>61</v>
       </c>
       <c r="I102" t="s">
-        <v>107</v>
+        <v>66</v>
       </c>
       <c r="K102" s="1">
         <v>20</v>
@@ -6330,22 +6458,22 @@
         <v>3</v>
       </c>
       <c r="D103" s="6">
-        <v>14.5</v>
+        <v>7</v>
       </c>
       <c r="E103" s="6">
-        <v>-115</v>
+        <v>-120</v>
       </c>
       <c r="F103" s="6" t="s">
         <v>55</v>
       </c>
       <c r="G103" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H103" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="I103" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="K103" s="1">
         <v>20</v>
@@ -6363,22 +6491,22 @@
         <v>3</v>
       </c>
       <c r="D104" s="6">
-        <v>-16</v>
+        <v>-13.5</v>
       </c>
       <c r="E104" s="6">
-        <v>-105</v>
+        <v>-110</v>
       </c>
       <c r="F104" s="6" t="s">
         <v>55</v>
       </c>
       <c r="G104" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="H104" t="s">
-        <v>57</v>
+        <v>110</v>
       </c>
       <c r="I104" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="K104" s="1">
         <v>20</v>
@@ -6396,22 +6524,22 @@
         <v>3</v>
       </c>
       <c r="D105" s="6">
-        <v>-7</v>
+        <v>4</v>
       </c>
       <c r="E105" s="6">
-        <v>100</v>
+        <v>-110</v>
       </c>
       <c r="F105" s="6" t="s">
         <v>55</v>
       </c>
       <c r="G105" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="H105" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="I105" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="K105" s="1">
         <v>20</v>
@@ -6426,25 +6554,25 @@
         <v>8</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D106" s="6">
-        <v>41.5</v>
+        <v>14.5</v>
       </c>
       <c r="E106" s="6">
-        <v>-110</v>
+        <v>-115</v>
       </c>
       <c r="F106" s="6" t="s">
         <v>55</v>
       </c>
       <c r="G106" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="H106" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I106" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="K106" s="1">
         <v>20</v>
@@ -6462,151 +6590,607 @@
         <v>3</v>
       </c>
       <c r="D107" s="6">
-        <v>-13</v>
+        <v>-16</v>
       </c>
       <c r="E107" s="6">
-        <v>-110</v>
+        <v>-105</v>
       </c>
       <c r="F107" s="6" t="s">
         <v>55</v>
       </c>
       <c r="G107" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="H107" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="I107" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="K107" s="1">
         <v>20</v>
       </c>
       <c r="L107" s="1"/>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A108" s="4">
+        <v>43760</v>
+      </c>
+      <c r="B108" s="5">
+        <v>8</v>
+      </c>
+      <c r="C108" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D108" s="6">
+        <v>-7</v>
+      </c>
+      <c r="E108" s="6">
+        <v>100</v>
+      </c>
+      <c r="F108" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G108" t="s">
+        <v>95</v>
+      </c>
+      <c r="H108" t="s">
+        <v>111</v>
+      </c>
+      <c r="I108" t="s">
+        <v>95</v>
+      </c>
+      <c r="K108" s="1">
+        <v>20</v>
+      </c>
+      <c r="L108" s="1"/>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A109" s="4">
+        <v>43760</v>
+      </c>
+      <c r="B109" s="5">
+        <v>8</v>
+      </c>
+      <c r="C109" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D109" s="6">
+        <v>41.5</v>
+      </c>
+      <c r="E109" s="6">
+        <v>-110</v>
+      </c>
+      <c r="F109" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G109" t="s">
+        <v>87</v>
+      </c>
+      <c r="H109" t="s">
+        <v>63</v>
+      </c>
+      <c r="I109" t="s">
+        <v>13</v>
+      </c>
+      <c r="K109" s="1">
+        <v>20</v>
+      </c>
+      <c r="L109" s="1"/>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A110" s="4">
+        <v>43760</v>
+      </c>
+      <c r="B110" s="5">
+        <v>8</v>
+      </c>
+      <c r="C110" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D110" s="6">
+        <v>-13</v>
+      </c>
+      <c r="E110" s="6">
+        <v>-110</v>
+      </c>
+      <c r="F110" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G110" t="s">
+        <v>60</v>
+      </c>
+      <c r="H110" t="s">
+        <v>62</v>
+      </c>
+      <c r="I110" t="s">
+        <v>60</v>
+      </c>
+      <c r="K110" s="1">
+        <v>20</v>
+      </c>
+      <c r="L110" s="1"/>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A111" s="4">
+        <v>43760</v>
+      </c>
+      <c r="B111" s="5">
+        <v>8</v>
+      </c>
+      <c r="C111" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D111" s="6">
+        <v>-3.5</v>
+      </c>
+      <c r="E111" s="6">
+        <v>-180</v>
+      </c>
+      <c r="F111" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G111" t="s">
+        <v>95</v>
+      </c>
+      <c r="H111" t="s">
+        <v>111</v>
+      </c>
+      <c r="I111" t="s">
+        <v>95</v>
+      </c>
+      <c r="K111" s="1"/>
+      <c r="L111" s="1"/>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A112" s="4">
+        <v>43760</v>
+      </c>
+      <c r="B112" s="5">
+        <v>8</v>
+      </c>
+      <c r="C112" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D112" s="6">
+        <v>11.5</v>
+      </c>
+      <c r="E112" s="6">
+        <v>-245</v>
+      </c>
+      <c r="F112" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G112" t="s">
+        <v>132</v>
+      </c>
+      <c r="H112" t="s">
+        <v>84</v>
+      </c>
+      <c r="I112" t="s">
+        <v>84</v>
+      </c>
+      <c r="K112" s="1">
+        <v>20</v>
+      </c>
+      <c r="L112" s="1"/>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A113" s="4">
+        <v>43760</v>
+      </c>
+      <c r="B113" s="5">
+        <v>8</v>
+      </c>
+      <c r="C113" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D113" s="6">
+        <v>-2.5</v>
+      </c>
+      <c r="E113" s="6">
+        <v>-205</v>
+      </c>
+      <c r="F113" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G113" t="s">
+        <v>109</v>
+      </c>
+      <c r="H113" t="s">
+        <v>69</v>
+      </c>
+      <c r="I113" t="s">
+        <v>109</v>
+      </c>
+      <c r="K113" s="1"/>
+      <c r="L113" s="1"/>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A114" s="4">
+        <v>43760</v>
+      </c>
+      <c r="B114" s="5">
+        <v>8</v>
+      </c>
+      <c r="C114" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D114" s="6">
+        <v>-6.5</v>
+      </c>
+      <c r="E114" s="6">
+        <v>-280</v>
+      </c>
+      <c r="F114" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G114" t="s">
+        <v>60</v>
+      </c>
+      <c r="H114" t="s">
+        <v>62</v>
+      </c>
+      <c r="I114" t="s">
+        <v>60</v>
+      </c>
+      <c r="K114" s="1">
+        <v>20</v>
+      </c>
+      <c r="L114" s="1"/>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A115" s="4">
+        <v>43760</v>
+      </c>
+      <c r="B115" s="5">
+        <v>8</v>
+      </c>
+      <c r="C115" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D115" s="6">
+        <v>7.5</v>
+      </c>
+      <c r="E115" s="6">
+        <v>-315</v>
+      </c>
+      <c r="F115" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G115" t="s">
+        <v>79</v>
+      </c>
+      <c r="H115" t="s">
+        <v>74</v>
+      </c>
+      <c r="I115" t="s">
+        <v>106</v>
+      </c>
+      <c r="K115" s="1"/>
+      <c r="L115" s="1"/>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A116" s="4">
+        <v>43760</v>
+      </c>
+      <c r="B116" s="5">
+        <v>8</v>
+      </c>
+      <c r="C116" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D116" s="6">
+        <v>8.5</v>
+      </c>
+      <c r="E116" s="6">
+        <v>-315</v>
+      </c>
+      <c r="F116" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G116" t="s">
+        <v>88</v>
+      </c>
+      <c r="H116" t="s">
+        <v>80</v>
+      </c>
+      <c r="I116" t="s">
+        <v>80</v>
+      </c>
+      <c r="K116" s="1">
+        <v>20</v>
+      </c>
+      <c r="L116" s="1"/>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A117" s="4">
+        <v>43760</v>
+      </c>
+      <c r="B117" s="5">
+        <v>8</v>
+      </c>
+      <c r="C117" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D117" s="6">
+        <v>86.5</v>
+      </c>
+      <c r="E117" s="6">
+        <v>-125</v>
+      </c>
+      <c r="F117" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G117" t="s">
+        <v>136</v>
+      </c>
+      <c r="H117" t="s">
+        <v>119</v>
+      </c>
+      <c r="I117" t="s">
+        <v>13</v>
+      </c>
+      <c r="K117" s="1">
+        <v>20</v>
+      </c>
+      <c r="L117" s="1"/>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A118" s="4">
+        <v>43395</v>
+      </c>
+      <c r="B118" s="5">
+        <v>8</v>
+      </c>
+      <c r="C118" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D118" s="6">
+        <v>33.5</v>
+      </c>
+      <c r="E118" s="6">
+        <v>-125</v>
+      </c>
+      <c r="F118" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G118" t="s">
+        <v>115</v>
+      </c>
+      <c r="H118" t="s">
+        <v>137</v>
+      </c>
+      <c r="I118" t="s">
+        <v>13</v>
+      </c>
+      <c r="K118" s="1">
+        <v>20</v>
+      </c>
+      <c r="L118" s="1"/>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A119" s="4">
+        <v>43760</v>
+      </c>
+      <c r="B119" s="5">
+        <v>8</v>
+      </c>
+      <c r="C119" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D119" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="E119" s="6">
+        <v>-230</v>
+      </c>
+      <c r="F119" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G119" t="s">
+        <v>115</v>
+      </c>
+      <c r="H119" t="s">
+        <v>138</v>
+      </c>
+      <c r="I119" t="s">
+        <v>13</v>
+      </c>
+      <c r="K119" s="1">
+        <v>20</v>
+      </c>
+      <c r="L119" s="1"/>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A120" s="4">
+        <v>43760</v>
+      </c>
+      <c r="B120" s="5">
+        <v>8</v>
+      </c>
+      <c r="C120" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D120" s="6">
+        <v>219.5</v>
+      </c>
+      <c r="E120" s="6">
+        <v>-135</v>
+      </c>
+      <c r="F120" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G120" t="s">
+        <v>115</v>
+      </c>
+      <c r="H120" t="s">
+        <v>116</v>
+      </c>
+      <c r="I120" t="s">
+        <v>13</v>
+      </c>
+      <c r="K120" s="1">
+        <v>20</v>
+      </c>
+      <c r="L120" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:L1"/>
   </mergeCells>
-  <conditionalFormatting sqref="J44:J50 J1:J42 J52:J83 J87 J89:J90 J92:J101 J104 J106:J1024">
-    <cfRule type="containsText" dxfId="42" priority="31" operator="containsText" text="No Action">
+  <conditionalFormatting sqref="J44:J50 J1:J42 J52:J83 J87 J89:J90 J92:J93 J107 J109:J112 J117:J1026 J96:J104">
+    <cfRule type="containsText" dxfId="41" priority="40" operator="containsText" text="No Action">
       <formula>NOT(ISERROR(SEARCH("No Action",J1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="41" priority="32" operator="containsText" text="Win">
+    <cfRule type="containsText" dxfId="40" priority="41" operator="containsText" text="Win">
       <formula>NOT(ISERROR(SEARCH("Win",J1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="33" operator="containsText" text="Loss">
+    <cfRule type="containsText" dxfId="39" priority="42" operator="containsText" text="Loss">
       <formula>NOT(ISERROR(SEARCH("Loss",J1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J43">
-    <cfRule type="containsText" dxfId="39" priority="28" operator="containsText" text="No Action">
+    <cfRule type="containsText" dxfId="38" priority="37" operator="containsText" text="No Action">
       <formula>NOT(ISERROR(SEARCH("No Action",J43)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="29" operator="containsText" text="Win">
+    <cfRule type="containsText" dxfId="37" priority="38" operator="containsText" text="Win">
       <formula>NOT(ISERROR(SEARCH("Win",J43)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="30" operator="containsText" text="Loss">
+    <cfRule type="containsText" dxfId="36" priority="39" operator="containsText" text="Loss">
       <formula>NOT(ISERROR(SEARCH("Loss",J43)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J51">
-    <cfRule type="containsText" dxfId="36" priority="25" operator="containsText" text="No Action">
+    <cfRule type="containsText" dxfId="35" priority="34" operator="containsText" text="No Action">
       <formula>NOT(ISERROR(SEARCH("No Action",J51)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="35" priority="26" operator="containsText" text="Win">
+    <cfRule type="containsText" dxfId="34" priority="35" operator="containsText" text="Win">
       <formula>NOT(ISERROR(SEARCH("Win",J51)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="27" operator="containsText" text="Loss">
+    <cfRule type="containsText" dxfId="33" priority="36" operator="containsText" text="Loss">
       <formula>NOT(ISERROR(SEARCH("Loss",J51)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J84">
-    <cfRule type="containsText" dxfId="33" priority="22" operator="containsText" text="No Action">
+    <cfRule type="containsText" dxfId="32" priority="31" operator="containsText" text="No Action">
       <formula>NOT(ISERROR(SEARCH("No Action",J84)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="23" operator="containsText" text="Win">
+    <cfRule type="containsText" dxfId="31" priority="32" operator="containsText" text="Win">
       <formula>NOT(ISERROR(SEARCH("Win",J84)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="24" operator="containsText" text="Loss">
+    <cfRule type="containsText" dxfId="30" priority="33" operator="containsText" text="Loss">
       <formula>NOT(ISERROR(SEARCH("Loss",J84)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J85">
-    <cfRule type="containsText" dxfId="30" priority="19" operator="containsText" text="No Action">
+    <cfRule type="containsText" dxfId="29" priority="28" operator="containsText" text="No Action">
       <formula>NOT(ISERROR(SEARCH("No Action",J85)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="20" operator="containsText" text="Win">
+    <cfRule type="containsText" dxfId="28" priority="29" operator="containsText" text="Win">
       <formula>NOT(ISERROR(SEARCH("Win",J85)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="21" operator="containsText" text="Loss">
+    <cfRule type="containsText" dxfId="27" priority="30" operator="containsText" text="Loss">
       <formula>NOT(ISERROR(SEARCH("Loss",J85)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J86">
-    <cfRule type="containsText" dxfId="27" priority="16" operator="containsText" text="No Action">
+    <cfRule type="containsText" dxfId="26" priority="25" operator="containsText" text="No Action">
       <formula>NOT(ISERROR(SEARCH("No Action",J86)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="17" operator="containsText" text="Win">
+    <cfRule type="containsText" dxfId="25" priority="26" operator="containsText" text="Win">
       <formula>NOT(ISERROR(SEARCH("Win",J86)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="18" operator="containsText" text="Loss">
+    <cfRule type="containsText" dxfId="24" priority="27" operator="containsText" text="Loss">
       <formula>NOT(ISERROR(SEARCH("Loss",J86)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J88">
-    <cfRule type="containsText" dxfId="24" priority="13" operator="containsText" text="No Action">
+    <cfRule type="containsText" dxfId="23" priority="22" operator="containsText" text="No Action">
       <formula>NOT(ISERROR(SEARCH("No Action",J88)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="14" operator="containsText" text="Win">
+    <cfRule type="containsText" dxfId="22" priority="23" operator="containsText" text="Win">
       <formula>NOT(ISERROR(SEARCH("Win",J88)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="15" operator="containsText" text="Loss">
+    <cfRule type="containsText" dxfId="21" priority="24" operator="containsText" text="Loss">
       <formula>NOT(ISERROR(SEARCH("Loss",J88)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J91">
-    <cfRule type="containsText" dxfId="21" priority="10" operator="containsText" text="No Action">
+    <cfRule type="containsText" dxfId="20" priority="19" operator="containsText" text="No Action">
       <formula>NOT(ISERROR(SEARCH("No Action",J91)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="11" operator="containsText" text="Win">
+    <cfRule type="containsText" dxfId="19" priority="20" operator="containsText" text="Win">
       <formula>NOT(ISERROR(SEARCH("Win",J91)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="12" operator="containsText" text="Loss">
+    <cfRule type="containsText" dxfId="18" priority="21" operator="containsText" text="Loss">
       <formula>NOT(ISERROR(SEARCH("Loss",J91)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J102">
-    <cfRule type="containsText" dxfId="18" priority="7" operator="containsText" text="No Action">
-      <formula>NOT(ISERROR(SEARCH("No Action",J102)))</formula>
+  <conditionalFormatting sqref="J105">
+    <cfRule type="containsText" dxfId="17" priority="16" operator="containsText" text="No Action">
+      <formula>NOT(ISERROR(SEARCH("No Action",J105)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="8" operator="containsText" text="Win">
-      <formula>NOT(ISERROR(SEARCH("Win",J102)))</formula>
+    <cfRule type="containsText" dxfId="16" priority="17" operator="containsText" text="Win">
+      <formula>NOT(ISERROR(SEARCH("Win",J105)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="9" operator="containsText" text="Loss">
-      <formula>NOT(ISERROR(SEARCH("Loss",J102)))</formula>
+    <cfRule type="containsText" dxfId="15" priority="18" operator="containsText" text="Loss">
+      <formula>NOT(ISERROR(SEARCH("Loss",J105)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J103">
-    <cfRule type="containsText" dxfId="15" priority="4" operator="containsText" text="No Action">
-      <formula>NOT(ISERROR(SEARCH("No Action",J103)))</formula>
+  <conditionalFormatting sqref="J106">
+    <cfRule type="containsText" dxfId="14" priority="13" operator="containsText" text="No Action">
+      <formula>NOT(ISERROR(SEARCH("No Action",J106)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="5" operator="containsText" text="Win">
-      <formula>NOT(ISERROR(SEARCH("Win",J103)))</formula>
+    <cfRule type="containsText" dxfId="13" priority="14" operator="containsText" text="Win">
+      <formula>NOT(ISERROR(SEARCH("Win",J106)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="6" operator="containsText" text="Loss">
-      <formula>NOT(ISERROR(SEARCH("Loss",J103)))</formula>
+    <cfRule type="containsText" dxfId="12" priority="15" operator="containsText" text="Loss">
+      <formula>NOT(ISERROR(SEARCH("Loss",J106)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J105">
+  <conditionalFormatting sqref="J108">
+    <cfRule type="containsText" dxfId="11" priority="10" operator="containsText" text="No Action">
+      <formula>NOT(ISERROR(SEARCH("No Action",J108)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="Win">
+      <formula>NOT(ISERROR(SEARCH("Win",J108)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="9" priority="12" operator="containsText" text="Loss">
+      <formula>NOT(ISERROR(SEARCH("Loss",J108)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J113:J114">
+    <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="No Action">
+      <formula>NOT(ISERROR(SEARCH("No Action",J113)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="Win">
+      <formula>NOT(ISERROR(SEARCH("Win",J113)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="Loss">
+      <formula>NOT(ISERROR(SEARCH("Loss",J113)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J115:J116">
+    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="No Action">
+      <formula>NOT(ISERROR(SEARCH("No Action",J115)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="Win">
+      <formula>NOT(ISERROR(SEARCH("Win",J115)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="Loss">
+      <formula>NOT(ISERROR(SEARCH("Loss",J115)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J94:J95">
     <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="No Action">
-      <formula>NOT(ISERROR(SEARCH("No Action",J105)))</formula>
+      <formula>NOT(ISERROR(SEARCH("No Action",J94)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Win">
-      <formula>NOT(ISERROR(SEARCH("Win",J105)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Win",J94)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="Loss">
-      <formula>NOT(ISERROR(SEARCH("Loss",J105)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Loss",J94)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SportsBettingLogs.xlsx
+++ b/SportsBettingLogs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Summary Tab" sheetId="4" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1475" uniqueCount="210">
   <si>
     <t>Bet Type</t>
   </si>
@@ -507,9 +507,6 @@
     <t>Shai Gilgeous-Alexander</t>
   </si>
   <si>
-    <t>Rebounds</t>
-  </si>
-  <si>
     <t>Dewayne Dedmon</t>
   </si>
   <si>
@@ -541,6 +538,132 @@
   </si>
   <si>
     <t>Chicago Bulls</t>
+  </si>
+  <si>
+    <t>Kendrick Nunn</t>
+  </si>
+  <si>
+    <t>De'Andre Hunter</t>
+  </si>
+  <si>
+    <t>Total Rebounds</t>
+  </si>
+  <si>
+    <t>Trae Young</t>
+  </si>
+  <si>
+    <t>Total Assists</t>
+  </si>
+  <si>
+    <t>Dillon Brooks</t>
+  </si>
+  <si>
+    <t>Danny Green</t>
+  </si>
+  <si>
+    <t>ML</t>
+  </si>
+  <si>
+    <t>Dwight Howard</t>
+  </si>
+  <si>
+    <t>Mitchell Robinson</t>
+  </si>
+  <si>
+    <t>D'Angelo Russell</t>
+  </si>
+  <si>
+    <t>Karl-Anthony Towns</t>
+  </si>
+  <si>
+    <t>Rui Hachimura</t>
+  </si>
+  <si>
+    <t>Sacramento Kings</t>
+  </si>
+  <si>
+    <t>Charlotte Hornets</t>
+  </si>
+  <si>
+    <t>Harrison Barnes</t>
+  </si>
+  <si>
+    <t>Aron Baynes</t>
+  </si>
+  <si>
+    <t>Maxx Williams</t>
+  </si>
+  <si>
+    <t>Charles Clay</t>
+  </si>
+  <si>
+    <t>Larry Fitzgerald</t>
+  </si>
+  <si>
+    <t>Emmanuel Sanders</t>
+  </si>
+  <si>
+    <t>Deebo Samuel</t>
+  </si>
+  <si>
+    <t>Los Angeles Clippers</t>
+  </si>
+  <si>
+    <t>San Antonio Spurs</t>
+  </si>
+  <si>
+    <t>Dallas Mavericks</t>
+  </si>
+  <si>
+    <t>Los Angeles Lakers</t>
+  </si>
+  <si>
+    <t>Golden State Warriors</t>
+  </si>
+  <si>
+    <t>New Orleans Pelicans</t>
+  </si>
+  <si>
+    <t>Nikola Jokic</t>
+  </si>
+  <si>
+    <t>Passing Attempts</t>
+  </si>
+  <si>
+    <t>Atlanta Hawks</t>
+  </si>
+  <si>
+    <t>Miami Heat</t>
+  </si>
+  <si>
+    <t>Oklahoma City Thunder</t>
+  </si>
+  <si>
+    <t>Mark Walton</t>
+  </si>
+  <si>
+    <t>Irv Smith Jr.</t>
+  </si>
+  <si>
+    <t>Dwayne Haskins</t>
+  </si>
+  <si>
+    <t>Kyle Allen</t>
+  </si>
+  <si>
+    <t>Derek Carr</t>
+  </si>
+  <si>
+    <t>Sam Darnold</t>
+  </si>
+  <si>
+    <t>Russell Wilson</t>
+  </si>
+  <si>
+    <t>Miles Sanders</t>
+  </si>
+  <si>
+    <t>Kawhi Leonard</t>
   </si>
 </sst>
 </file>
@@ -622,17 +745,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="83">
+  <dxfs count="80">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -655,11 +778,91 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1144,114 +1347,28 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
@@ -1294,30 +1411,6 @@
       <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1332,31 +1425,31 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table134" displayName="Table134" ref="A2:L141" totalsRowShown="0">
-  <autoFilter ref="A2:L141"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table134" displayName="Table134" ref="A2:L181" totalsRowShown="0">
+  <autoFilter ref="A2:L181"/>
   <tableColumns count="12">
-    <tableColumn id="17" name="Date Placed" dataDxfId="74"/>
-    <tableColumn id="11" name="NFL Week" dataDxfId="73"/>
-    <tableColumn id="1" name="Bet Type" dataDxfId="72"/>
-    <tableColumn id="10" name="Points" dataDxfId="71"/>
-    <tableColumn id="2" name="Odds" dataDxfId="70"/>
-    <tableColumn id="9" name="League" dataDxfId="69"/>
+    <tableColumn id="17" name="Date Placed" dataDxfId="79"/>
+    <tableColumn id="11" name="NFL Week" dataDxfId="78"/>
+    <tableColumn id="1" name="Bet Type" dataDxfId="77"/>
+    <tableColumn id="10" name="Points" dataDxfId="76"/>
+    <tableColumn id="2" name="Odds" dataDxfId="75"/>
+    <tableColumn id="9" name="League" dataDxfId="74"/>
     <tableColumn id="3" name="Home Team"/>
     <tableColumn id="4" name="Away Team"/>
     <tableColumn id="5" name="Outcome Chosen"/>
     <tableColumn id="6" name="Result"/>
-    <tableColumn id="7" name="Bet Size" dataDxfId="68" totalsRowDxfId="67"/>
-    <tableColumn id="8" name="Payout" dataDxfId="66" totalsRowDxfId="65"/>
+    <tableColumn id="7" name="Bet Size" dataDxfId="73" totalsRowDxfId="72"/>
+    <tableColumn id="8" name="Payout" dataDxfId="71" totalsRowDxfId="70"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A2:K8" totalsRowShown="0">
-  <autoFilter ref="A2:K8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A2:K33" totalsRowShown="0">
+  <autoFilter ref="A2:K33"/>
   <tableColumns count="11">
-    <tableColumn id="1" name="Date Placed" dataDxfId="64"/>
+    <tableColumn id="1" name="Date Placed" dataDxfId="69"/>
     <tableColumn id="2" name="Bet Type"/>
     <tableColumn id="3" name="Points"/>
     <tableColumn id="4" name="Odds"/>
@@ -1365,8 +1458,8 @@
     <tableColumn id="7" name="Away Team"/>
     <tableColumn id="8" name="Outcome Chosen"/>
     <tableColumn id="9" name="Result"/>
-    <tableColumn id="10" name="Bet Size" dataDxfId="63"/>
-    <tableColumn id="11" name="Payout" dataDxfId="62"/>
+    <tableColumn id="10" name="Bet Size" dataDxfId="68"/>
+    <tableColumn id="11" name="Payout" dataDxfId="67"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1379,17 +1472,17 @@
     <sortCondition ref="A2:A27"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="17" name="Date" totalsRowLabel="Total" dataDxfId="82"/>
+    <tableColumn id="17" name="Date" totalsRowLabel="Total" dataDxfId="66"/>
     <tableColumn id="1" name="Bet Type"/>
     <tableColumn id="2" name="Odds"/>
     <tableColumn id="3" name="Team 1"/>
     <tableColumn id="4" name="Team 2"/>
     <tableColumn id="5" name="Outcome Chosen"/>
     <tableColumn id="6" name="Result"/>
-    <tableColumn id="7" name="Bet Size" totalsRowFunction="custom" dataDxfId="81" totalsRowDxfId="80">
+    <tableColumn id="7" name="Bet Size" totalsRowFunction="custom" dataDxfId="65" totalsRowDxfId="64">
       <totalsRowFormula>SUMIF(Table1[Result],"&lt;&gt;",Table1[Bet Size])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" name="Payout" totalsRowFunction="custom" dataDxfId="79" totalsRowDxfId="78">
+    <tableColumn id="8" name="Payout" totalsRowFunction="custom" dataDxfId="63" totalsRowDxfId="62">
       <totalsRowFormula>SUMIF(Table1[Result],"&lt;&gt;",Table1[Payout])</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -1401,7 +1494,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A2:J3" totalsRowShown="0">
   <autoFilter ref="A2:J3"/>
   <tableColumns count="10">
-    <tableColumn id="17" name="Date" dataDxfId="77"/>
+    <tableColumn id="17" name="Date" dataDxfId="61"/>
     <tableColumn id="1" name="Bet Type"/>
     <tableColumn id="2" name="Odds"/>
     <tableColumn id="9" name="League"/>
@@ -1409,8 +1502,8 @@
     <tableColumn id="4" name="Team 2"/>
     <tableColumn id="5" name="Outcome Chosen"/>
     <tableColumn id="6" name="Result"/>
-    <tableColumn id="7" name="Bet Size" dataDxfId="76"/>
-    <tableColumn id="8" name="Payout" dataDxfId="75"/>
+    <tableColumn id="7" name="Bet Size" dataDxfId="60"/>
+    <tableColumn id="8" name="Payout" dataDxfId="59"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1725,10 +1818,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L141"/>
+  <dimension ref="A1:L181"/>
   <sheetViews>
-    <sheetView topLeftCell="D105" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J120" sqref="J120"/>
+    <sheetView tabSelected="1" zoomScale="74" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1747,20 +1840,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -2646,7 +2739,9 @@
       <c r="C25" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D25" s="6"/>
+      <c r="D25" s="6" t="s">
+        <v>175</v>
+      </c>
       <c r="E25" s="6">
         <v>110</v>
       </c>
@@ -2683,7 +2778,9 @@
       <c r="C26" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D26" s="6"/>
+      <c r="D26" s="6" t="s">
+        <v>175</v>
+      </c>
       <c r="E26" s="6">
         <v>155</v>
       </c>
@@ -6814,7 +6911,7 @@
         <v>55</v>
       </c>
       <c r="G135" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H135" t="s">
         <v>119</v>
@@ -6853,7 +6950,7 @@
         <v>55</v>
       </c>
       <c r="G136" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H136" t="s">
         <v>118</v>
@@ -6891,7 +6988,7 @@
         <v>55</v>
       </c>
       <c r="G137" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H137" t="s">
         <v>135</v>
@@ -6929,7 +7026,7 @@
         <v>55</v>
       </c>
       <c r="G138" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H138" t="s">
         <v>135</v>
@@ -6967,7 +7064,7 @@
         <v>55</v>
       </c>
       <c r="G139" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H139" t="s">
         <v>119</v>
@@ -7013,10 +7110,15 @@
       <c r="I140" t="s">
         <v>60</v>
       </c>
+      <c r="J140" t="s">
+        <v>23</v>
+      </c>
       <c r="K140" s="1">
         <v>20</v>
       </c>
-      <c r="L140" s="1"/>
+      <c r="L140" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141" s="4">
@@ -7029,7 +7131,7 @@
         <v>3</v>
       </c>
       <c r="D141" s="6">
-        <v>3.5</v>
+        <v>-3.5</v>
       </c>
       <c r="E141" s="6">
         <v>100</v>
@@ -7046,167 +7148,1669 @@
       <c r="I141" t="s">
         <v>70</v>
       </c>
+      <c r="J141" t="s">
+        <v>23</v>
+      </c>
       <c r="K141" s="1">
         <v>20</v>
       </c>
-      <c r="L141" s="1"/>
+      <c r="L141" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A142" s="4">
+        <v>43767</v>
+      </c>
+      <c r="B142" s="5">
+        <v>9</v>
+      </c>
+      <c r="C142" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D142" s="6">
+        <v>1</v>
+      </c>
+      <c r="E142" s="6">
+        <v>-115</v>
+      </c>
+      <c r="F142" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G142" t="s">
+        <v>75</v>
+      </c>
+      <c r="H142" t="s">
+        <v>109</v>
+      </c>
+      <c r="I142" t="s">
+        <v>109</v>
+      </c>
+      <c r="J142" t="s">
+        <v>23</v>
+      </c>
+      <c r="K142" s="1">
+        <v>20</v>
+      </c>
+      <c r="L142" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A143" s="4">
+        <v>43767</v>
+      </c>
+      <c r="B143" s="5">
+        <v>9</v>
+      </c>
+      <c r="C143" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D143" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="E143" s="6">
+        <v>-500</v>
+      </c>
+      <c r="F143" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G143" t="s">
+        <v>79</v>
+      </c>
+      <c r="H143" t="s">
+        <v>57</v>
+      </c>
+      <c r="I143" t="s">
+        <v>79</v>
+      </c>
+      <c r="J143" t="s">
+        <v>29</v>
+      </c>
+      <c r="K143" s="1"/>
+      <c r="L143" s="1"/>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A144" s="4">
+        <v>43767</v>
+      </c>
+      <c r="B144" s="5">
+        <v>9</v>
+      </c>
+      <c r="C144" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D144" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="E144" s="6">
+        <v>-500</v>
+      </c>
+      <c r="F144" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G144" t="s">
+        <v>75</v>
+      </c>
+      <c r="H144" t="s">
+        <v>109</v>
+      </c>
+      <c r="I144" t="s">
+        <v>109</v>
+      </c>
+      <c r="J144" t="s">
+        <v>23</v>
+      </c>
+      <c r="K144" s="1"/>
+      <c r="L144" s="1"/>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A145" s="4">
+        <v>43767</v>
+      </c>
+      <c r="B145" s="5">
+        <v>9</v>
+      </c>
+      <c r="C145" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D145" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="E145" s="6">
+        <v>-500</v>
+      </c>
+      <c r="F145" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G145" t="s">
+        <v>103</v>
+      </c>
+      <c r="H145" t="s">
+        <v>76</v>
+      </c>
+      <c r="I145" t="s">
+        <v>76</v>
+      </c>
+      <c r="J145" t="s">
+        <v>29</v>
+      </c>
+      <c r="K145" s="1"/>
+      <c r="L145" s="1"/>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A146" s="4">
+        <v>43767</v>
+      </c>
+      <c r="B146" s="5">
+        <v>9</v>
+      </c>
+      <c r="C146" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D146" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="E146" s="6">
+        <v>-500</v>
+      </c>
+      <c r="F146" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G146" t="s">
+        <v>77</v>
+      </c>
+      <c r="H146" t="s">
+        <v>74</v>
+      </c>
+      <c r="I146" t="s">
+        <v>106</v>
+      </c>
+      <c r="J146" t="s">
+        <v>29</v>
+      </c>
+      <c r="K146" s="1"/>
+      <c r="L146" s="1"/>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A147" s="4">
+        <v>43767</v>
+      </c>
+      <c r="B147" s="5">
+        <v>9</v>
+      </c>
+      <c r="C147" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D147" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="E147" s="6">
+        <v>-500</v>
+      </c>
+      <c r="F147" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G147" t="s">
+        <v>61</v>
+      </c>
+      <c r="H147" t="s">
+        <v>63</v>
+      </c>
+      <c r="I147" t="s">
+        <v>63</v>
+      </c>
+      <c r="J147" t="s">
+        <v>23</v>
+      </c>
+      <c r="K147" s="1">
+        <v>10</v>
+      </c>
+      <c r="L147" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A148" s="4">
+        <v>43767</v>
+      </c>
+      <c r="B148" s="5">
+        <v>9</v>
+      </c>
+      <c r="C148" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D148" s="6">
+        <v>43</v>
+      </c>
+      <c r="E148" s="6">
+        <v>-110</v>
+      </c>
+      <c r="F148" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G148" t="s">
+        <v>77</v>
+      </c>
+      <c r="H148" t="s">
+        <v>74</v>
+      </c>
+      <c r="I148" t="s">
+        <v>13</v>
+      </c>
+      <c r="J148" t="s">
+        <v>29</v>
+      </c>
+      <c r="K148" s="1">
+        <v>20</v>
+      </c>
+      <c r="L148" s="1">
+        <v>38.18</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A149" s="4">
+        <v>43767</v>
+      </c>
+      <c r="B149" s="5">
+        <v>9</v>
+      </c>
+      <c r="C149" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D149" s="6">
+        <v>-3</v>
+      </c>
+      <c r="E149" s="6"/>
+      <c r="F149" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G149" t="s">
+        <v>103</v>
+      </c>
+      <c r="H149" t="s">
+        <v>76</v>
+      </c>
+      <c r="I149" t="s">
+        <v>76</v>
+      </c>
+      <c r="J149" t="s">
+        <v>29</v>
+      </c>
+      <c r="K149" s="1"/>
+      <c r="L149" s="1"/>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A150" s="4">
+        <v>43767</v>
+      </c>
+      <c r="B150" s="5">
+        <v>9</v>
+      </c>
+      <c r="C150" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D150" s="6">
+        <v>3</v>
+      </c>
+      <c r="E150" s="6"/>
+      <c r="F150" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G150" t="s">
+        <v>71</v>
+      </c>
+      <c r="H150" t="s">
+        <v>60</v>
+      </c>
+      <c r="I150" t="s">
+        <v>60</v>
+      </c>
+      <c r="J150" t="s">
+        <v>23</v>
+      </c>
+      <c r="K150" s="1"/>
+      <c r="L150" s="1"/>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A151" s="4">
+        <v>43767</v>
+      </c>
+      <c r="B151" s="5">
+        <v>9</v>
+      </c>
+      <c r="C151" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D151" s="6">
+        <v>8</v>
+      </c>
+      <c r="E151" s="6"/>
+      <c r="F151" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G151" t="s">
+        <v>75</v>
+      </c>
+      <c r="H151" t="s">
+        <v>109</v>
+      </c>
+      <c r="I151" t="s">
+        <v>109</v>
+      </c>
+      <c r="J151" t="s">
+        <v>23</v>
+      </c>
+      <c r="K151" s="1"/>
+      <c r="L151" s="1"/>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A152" s="4">
+        <v>43767</v>
+      </c>
+      <c r="B152" s="5">
+        <v>9</v>
+      </c>
+      <c r="C152" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D152" s="6">
+        <v>3.5</v>
+      </c>
+      <c r="E152" s="6"/>
+      <c r="F152" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G152" t="s">
+        <v>107</v>
+      </c>
+      <c r="H152" t="s">
+        <v>70</v>
+      </c>
+      <c r="I152" t="s">
+        <v>70</v>
+      </c>
+      <c r="J152" t="s">
+        <v>23</v>
+      </c>
+      <c r="K152" s="1"/>
+      <c r="L152" s="1"/>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A153" s="4">
+        <v>43767</v>
+      </c>
+      <c r="B153" s="5">
+        <v>9</v>
+      </c>
+      <c r="C153" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D153" s="6">
+        <v>29.5</v>
+      </c>
+      <c r="E153" s="6">
+        <v>325</v>
+      </c>
+      <c r="F153" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G153" t="s">
+        <v>79</v>
+      </c>
+      <c r="H153" t="s">
+        <v>57</v>
+      </c>
+      <c r="I153" t="s">
+        <v>66</v>
+      </c>
+      <c r="J153" t="s">
+        <v>29</v>
+      </c>
+      <c r="K153" s="1">
+        <v>10</v>
+      </c>
+      <c r="L153" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A154" s="4">
+        <v>43769</v>
+      </c>
+      <c r="B154" s="5">
+        <v>9</v>
+      </c>
+      <c r="C154" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D154" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="E154" s="6">
+        <v>-105</v>
+      </c>
+      <c r="F154" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G154" t="s">
+        <v>87</v>
+      </c>
+      <c r="H154" t="s">
+        <v>85</v>
+      </c>
+      <c r="I154" t="s">
+        <v>87</v>
+      </c>
+      <c r="J154" t="s">
+        <v>23</v>
+      </c>
+      <c r="K154" s="1">
+        <v>20</v>
+      </c>
+      <c r="L154" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A155" s="4">
+        <v>43769</v>
+      </c>
+      <c r="B155" s="5">
+        <v>9</v>
+      </c>
+      <c r="C155" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D155" s="6">
+        <v>-2</v>
+      </c>
+      <c r="E155" s="6">
+        <v>-115</v>
+      </c>
+      <c r="F155" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G155" t="s">
+        <v>111</v>
+      </c>
+      <c r="H155" t="s">
+        <v>73</v>
+      </c>
+      <c r="I155" t="s">
+        <v>111</v>
+      </c>
+      <c r="J155" t="s">
+        <v>29</v>
+      </c>
+      <c r="K155" s="1">
+        <v>20</v>
+      </c>
+      <c r="L155" s="1">
+        <v>37.39</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A156" s="4">
+        <v>43769</v>
+      </c>
+      <c r="B156" s="5">
+        <v>9</v>
+      </c>
+      <c r="C156" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D156" s="6">
+        <v>6</v>
+      </c>
+      <c r="E156" s="6">
+        <v>-110</v>
+      </c>
+      <c r="F156" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G156" t="s">
+        <v>93</v>
+      </c>
+      <c r="H156" t="s">
+        <v>80</v>
+      </c>
+      <c r="I156" t="s">
+        <v>80</v>
+      </c>
+      <c r="J156" t="s">
+        <v>104</v>
+      </c>
+      <c r="K156" s="1">
+        <v>20</v>
+      </c>
+      <c r="L156" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A157" s="4">
+        <v>43769</v>
+      </c>
+      <c r="B157" s="5">
+        <v>9</v>
+      </c>
+      <c r="C157" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D157" s="6">
+        <v>-3.5</v>
+      </c>
+      <c r="E157" s="6">
+        <v>-105</v>
+      </c>
+      <c r="F157" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G157" t="s">
+        <v>69</v>
+      </c>
+      <c r="H157" t="s">
+        <v>62</v>
+      </c>
+      <c r="I157" t="s">
+        <v>62</v>
+      </c>
+      <c r="J157" t="s">
+        <v>23</v>
+      </c>
+      <c r="K157" s="1">
+        <v>20</v>
+      </c>
+      <c r="L157" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A158" s="4">
+        <v>43769</v>
+      </c>
+      <c r="B158" s="5">
+        <v>9</v>
+      </c>
+      <c r="C158" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D158" s="6">
+        <v>36.5</v>
+      </c>
+      <c r="E158" s="6">
+        <v>-110</v>
+      </c>
+      <c r="F158" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G158" t="s">
+        <v>79</v>
+      </c>
+      <c r="H158" t="s">
+        <v>57</v>
+      </c>
+      <c r="I158" t="s">
+        <v>13</v>
+      </c>
+      <c r="J158" t="s">
+        <v>29</v>
+      </c>
+      <c r="K158" s="1">
+        <v>20</v>
+      </c>
+      <c r="L158" s="1">
+        <v>36.18</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A159" s="4">
+        <v>43769</v>
+      </c>
+      <c r="B159" s="5">
+        <v>9</v>
+      </c>
+      <c r="C159" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D159" s="6">
+        <v>41.5</v>
+      </c>
+      <c r="E159" s="6">
+        <v>-110</v>
+      </c>
+      <c r="F159" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G159" t="s">
+        <v>84</v>
+      </c>
+      <c r="H159" t="s">
+        <v>88</v>
+      </c>
+      <c r="I159" t="s">
+        <v>13</v>
+      </c>
+      <c r="J159" t="s">
+        <v>23</v>
+      </c>
+      <c r="K159" s="1">
+        <v>20</v>
+      </c>
+      <c r="L159" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A160" s="4">
+        <v>43769</v>
+      </c>
+      <c r="B160" s="5">
+        <v>9</v>
+      </c>
+      <c r="C160" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D160" s="6">
+        <v>7.5</v>
+      </c>
+      <c r="E160" s="6"/>
+      <c r="F160" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G160" t="s">
+        <v>87</v>
+      </c>
+      <c r="H160" t="s">
+        <v>85</v>
+      </c>
+      <c r="I160" t="s">
+        <v>87</v>
+      </c>
+      <c r="J160" t="s">
+        <v>23</v>
+      </c>
+      <c r="K160" s="1"/>
+      <c r="L160" s="1"/>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A161" s="4">
+        <v>43769</v>
+      </c>
+      <c r="B161" s="5">
+        <v>9</v>
+      </c>
+      <c r="C161" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D161" s="6">
+        <v>9.5</v>
+      </c>
+      <c r="E161" s="6">
+        <v>-120</v>
+      </c>
+      <c r="F161" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G161" t="s">
+        <v>70</v>
+      </c>
+      <c r="H161" t="s">
+        <v>107</v>
+      </c>
+      <c r="I161" t="s">
+        <v>107</v>
+      </c>
+      <c r="J161" t="s">
+        <v>29</v>
+      </c>
+      <c r="K161" s="1">
+        <v>20</v>
+      </c>
+      <c r="L161" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A162" s="4">
+        <v>43769</v>
+      </c>
+      <c r="B162" s="5">
+        <v>9</v>
+      </c>
+      <c r="C162" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D162" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="E162" s="6">
+        <v>-190</v>
+      </c>
+      <c r="F162" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G162" t="s">
+        <v>122</v>
+      </c>
+      <c r="H162" t="s">
+        <v>138</v>
+      </c>
+      <c r="I162" t="s">
+        <v>13</v>
+      </c>
+      <c r="J162" t="s">
+        <v>23</v>
+      </c>
+      <c r="K162" s="1">
+        <v>40</v>
+      </c>
+      <c r="L162" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A163" s="4">
+        <v>43769</v>
+      </c>
+      <c r="B163" s="5">
+        <v>9</v>
+      </c>
+      <c r="C163" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D163" s="6">
+        <v>8.5</v>
+      </c>
+      <c r="E163" s="6">
+        <v>-115</v>
+      </c>
+      <c r="F163" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G163" t="s">
+        <v>185</v>
+      </c>
+      <c r="H163" t="s">
+        <v>119</v>
+      </c>
+      <c r="I163" t="s">
+        <v>66</v>
+      </c>
+      <c r="J163" t="s">
+        <v>29</v>
+      </c>
+      <c r="K163" s="1">
+        <v>20</v>
+      </c>
+      <c r="L163" s="1">
+        <v>37.39</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A164" s="4">
+        <v>43769</v>
+      </c>
+      <c r="B164" s="5">
+        <v>9</v>
+      </c>
+      <c r="C164" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D164" s="6">
+        <v>70.5</v>
+      </c>
+      <c r="E164" s="6">
+        <v>-105</v>
+      </c>
+      <c r="F164" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G164" t="s">
+        <v>113</v>
+      </c>
+      <c r="H164" t="s">
+        <v>118</v>
+      </c>
+      <c r="I164" t="s">
+        <v>13</v>
+      </c>
+      <c r="J164" t="s">
+        <v>29</v>
+      </c>
+      <c r="K164" s="1">
+        <v>20</v>
+      </c>
+      <c r="L164" s="1">
+        <v>39.049999999999997</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A165" s="4">
+        <v>43769</v>
+      </c>
+      <c r="B165" s="5">
+        <v>9</v>
+      </c>
+      <c r="C165" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D165" s="6">
+        <v>10.5</v>
+      </c>
+      <c r="E165" s="6">
+        <v>-115</v>
+      </c>
+      <c r="F165" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G165" t="s">
+        <v>186</v>
+      </c>
+      <c r="H165" t="s">
+        <v>119</v>
+      </c>
+      <c r="I165" t="s">
+        <v>66</v>
+      </c>
+      <c r="J165" t="s">
+        <v>23</v>
+      </c>
+      <c r="K165" s="1">
+        <v>20</v>
+      </c>
+      <c r="L165" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A166" s="4">
+        <v>43769</v>
+      </c>
+      <c r="B166" s="5">
+        <v>9</v>
+      </c>
+      <c r="C166" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D166" s="6">
+        <v>39.5</v>
+      </c>
+      <c r="E166" s="6">
+        <v>-110</v>
+      </c>
+      <c r="F166" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G166" t="s">
+        <v>187</v>
+      </c>
+      <c r="H166" t="s">
+        <v>119</v>
+      </c>
+      <c r="I166" t="s">
+        <v>66</v>
+      </c>
+      <c r="J166" t="s">
+        <v>23</v>
+      </c>
+      <c r="K166" s="1">
+        <v>20</v>
+      </c>
+      <c r="L166" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A167" s="4">
+        <v>43769</v>
+      </c>
+      <c r="B167" s="5">
+        <v>9</v>
+      </c>
+      <c r="C167" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D167" s="6">
+        <v>4.5</v>
+      </c>
+      <c r="E167" s="6">
+        <v>-150</v>
+      </c>
+      <c r="F167" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G167" t="s">
+        <v>188</v>
+      </c>
+      <c r="H167" t="s">
+        <v>135</v>
+      </c>
+      <c r="I167" t="s">
+        <v>13</v>
+      </c>
+      <c r="J167" t="s">
+        <v>23</v>
+      </c>
+      <c r="K167" s="1">
+        <v>20</v>
+      </c>
+      <c r="L167" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A168" s="4">
+        <v>43769</v>
+      </c>
+      <c r="B168" s="5">
+        <v>9</v>
+      </c>
+      <c r="C168" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D168" s="6">
+        <v>3</v>
+      </c>
+      <c r="E168" s="6">
+        <v>-125</v>
+      </c>
+      <c r="F168" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G168" t="s">
+        <v>189</v>
+      </c>
+      <c r="H168" t="s">
+        <v>131</v>
+      </c>
+      <c r="I168" t="s">
+        <v>13</v>
+      </c>
+      <c r="J168" t="s">
+        <v>23</v>
+      </c>
+      <c r="K168" s="1">
+        <v>20</v>
+      </c>
+      <c r="L168" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A169" s="4">
+        <v>43769</v>
+      </c>
+      <c r="B169" s="5">
+        <v>9</v>
+      </c>
+      <c r="C169" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D169" s="6">
+        <v>32.5</v>
+      </c>
+      <c r="E169" s="6">
+        <v>-110</v>
+      </c>
+      <c r="F169" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G169" t="s">
+        <v>122</v>
+      </c>
+      <c r="H169" t="s">
+        <v>197</v>
+      </c>
+      <c r="I169" t="s">
+        <v>13</v>
+      </c>
+      <c r="J169" t="s">
+        <v>29</v>
+      </c>
+      <c r="K169" s="1">
+        <v>20</v>
+      </c>
+      <c r="L169" s="1">
+        <v>38.18</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A170" s="4">
+        <v>43772</v>
+      </c>
+      <c r="B170" s="5">
+        <v>9</v>
+      </c>
+      <c r="C170" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D170" s="6">
+        <v>12.5</v>
+      </c>
+      <c r="E170" s="6">
+        <v>-115</v>
+      </c>
+      <c r="F170" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G170" t="s">
+        <v>160</v>
+      </c>
+      <c r="H170" t="s">
+        <v>118</v>
+      </c>
+      <c r="I170" t="s">
+        <v>13</v>
+      </c>
+      <c r="J170" t="s">
+        <v>29</v>
+      </c>
+      <c r="K170" s="1">
+        <v>10</v>
+      </c>
+      <c r="L170" s="1">
+        <v>18.7</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A171" s="4">
+        <v>43772</v>
+      </c>
+      <c r="B171" s="5">
+        <v>9</v>
+      </c>
+      <c r="C171" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D171" s="6">
+        <v>21.5</v>
+      </c>
+      <c r="E171" s="6">
+        <v>-115</v>
+      </c>
+      <c r="F171" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G171" t="s">
+        <v>201</v>
+      </c>
+      <c r="H171" t="s">
+        <v>119</v>
+      </c>
+      <c r="I171" t="s">
+        <v>13</v>
+      </c>
+      <c r="J171" t="s">
+        <v>29</v>
+      </c>
+      <c r="K171" s="1">
+        <v>10</v>
+      </c>
+      <c r="L171" s="1">
+        <v>18.7</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A172" s="4">
+        <v>43772</v>
+      </c>
+      <c r="B172" s="5">
+        <v>9</v>
+      </c>
+      <c r="C172" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D172" s="6">
+        <v>15.5</v>
+      </c>
+      <c r="E172" s="6">
+        <v>-115</v>
+      </c>
+      <c r="F172" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G172" t="s">
+        <v>202</v>
+      </c>
+      <c r="H172" t="s">
+        <v>119</v>
+      </c>
+      <c r="I172" t="s">
+        <v>66</v>
+      </c>
+      <c r="J172" t="s">
+        <v>29</v>
+      </c>
+      <c r="K172" s="1">
+        <v>20</v>
+      </c>
+      <c r="L172" s="1">
+        <f>36.7</f>
+        <v>36.700000000000003</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A173" s="4">
+        <v>43772</v>
+      </c>
+      <c r="B173" s="5">
+        <v>9</v>
+      </c>
+      <c r="C173" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D173" s="6">
+        <v>15.5</v>
+      </c>
+      <c r="E173" s="6">
+        <v>100</v>
+      </c>
+      <c r="F173" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G173" t="s">
+        <v>96</v>
+      </c>
+      <c r="H173" t="s">
+        <v>119</v>
+      </c>
+      <c r="I173" t="s">
+        <v>66</v>
+      </c>
+      <c r="J173" t="s">
+        <v>23</v>
+      </c>
+      <c r="K173" s="1">
+        <v>10</v>
+      </c>
+      <c r="L173" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A174" s="4">
+        <v>43772</v>
+      </c>
+      <c r="B174" s="5">
+        <v>9</v>
+      </c>
+      <c r="C174" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D174" s="6">
+        <v>6.5</v>
+      </c>
+      <c r="E174" s="6">
+        <v>-115</v>
+      </c>
+      <c r="F174" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G174" t="s">
+        <v>203</v>
+      </c>
+      <c r="H174" t="s">
+        <v>118</v>
+      </c>
+      <c r="I174" t="s">
+        <v>66</v>
+      </c>
+      <c r="J174" t="s">
+        <v>29</v>
+      </c>
+      <c r="K174" s="1">
+        <v>10</v>
+      </c>
+      <c r="L174" s="1">
+        <v>18.7</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A175" s="4">
+        <v>43772</v>
+      </c>
+      <c r="B175" s="5">
+        <v>9</v>
+      </c>
+      <c r="C175" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D175" s="6">
+        <v>10.5</v>
+      </c>
+      <c r="E175" s="6">
+        <v>-105</v>
+      </c>
+      <c r="F175" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G175" t="s">
+        <v>79</v>
+      </c>
+      <c r="H175" t="s">
+        <v>57</v>
+      </c>
+      <c r="I175" t="s">
+        <v>57</v>
+      </c>
+      <c r="J175" t="s">
+        <v>23</v>
+      </c>
+      <c r="K175" s="1">
+        <v>20</v>
+      </c>
+      <c r="L175" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A176" s="4">
+        <v>43772</v>
+      </c>
+      <c r="B176" s="5">
+        <v>9</v>
+      </c>
+      <c r="C176" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D176" s="6">
+        <v>3.5</v>
+      </c>
+      <c r="E176" s="6">
+        <v>-115</v>
+      </c>
+      <c r="F176" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G176" t="s">
+        <v>204</v>
+      </c>
+      <c r="H176" t="s">
+        <v>118</v>
+      </c>
+      <c r="I176" t="s">
+        <v>66</v>
+      </c>
+      <c r="J176" t="s">
+        <v>23</v>
+      </c>
+      <c r="K176" s="1">
+        <v>10</v>
+      </c>
+      <c r="L176" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A177" s="4">
+        <v>43772</v>
+      </c>
+      <c r="B177" s="5">
+        <v>9</v>
+      </c>
+      <c r="C177" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D177" s="6">
+        <v>3.5</v>
+      </c>
+      <c r="E177" s="6">
+        <v>-115</v>
+      </c>
+      <c r="F177" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G177" t="s">
+        <v>205</v>
+      </c>
+      <c r="H177" t="s">
+        <v>118</v>
+      </c>
+      <c r="I177" t="s">
+        <v>13</v>
+      </c>
+      <c r="J177" t="s">
+        <v>29</v>
+      </c>
+      <c r="K177" s="1">
+        <v>10</v>
+      </c>
+      <c r="L177" s="1">
+        <v>18.7</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A178" s="4">
+        <v>43772</v>
+      </c>
+      <c r="B178" s="5">
+        <v>9</v>
+      </c>
+      <c r="C178" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D178" s="6">
+        <v>5.5</v>
+      </c>
+      <c r="E178" s="6">
+        <v>-105</v>
+      </c>
+      <c r="F178" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G178" t="s">
+        <v>206</v>
+      </c>
+      <c r="H178" t="s">
+        <v>118</v>
+      </c>
+      <c r="I178" t="s">
+        <v>66</v>
+      </c>
+      <c r="J178" t="s">
+        <v>23</v>
+      </c>
+      <c r="K178" s="1">
+        <v>20</v>
+      </c>
+      <c r="L178" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A179" s="4">
+        <v>43772</v>
+      </c>
+      <c r="B179" s="5">
+        <v>9</v>
+      </c>
+      <c r="C179" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D179" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="E179" s="6">
+        <v>-200</v>
+      </c>
+      <c r="F179" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G179" t="s">
+        <v>207</v>
+      </c>
+      <c r="H179" t="s">
+        <v>120</v>
+      </c>
+      <c r="I179" t="s">
+        <v>66</v>
+      </c>
+      <c r="J179" t="s">
+        <v>29</v>
+      </c>
+      <c r="K179" s="1">
+        <v>10</v>
+      </c>
+      <c r="L179" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A180" s="4">
+        <v>43772</v>
+      </c>
+      <c r="B180" s="5">
+        <v>9</v>
+      </c>
+      <c r="C180" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D180" s="6">
+        <v>46</v>
+      </c>
+      <c r="E180" s="6">
+        <v>-115</v>
+      </c>
+      <c r="F180" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G180" t="s">
+        <v>72</v>
+      </c>
+      <c r="H180" t="s">
+        <v>82</v>
+      </c>
+      <c r="I180" t="s">
+        <v>13</v>
+      </c>
+      <c r="J180" t="s">
+        <v>23</v>
+      </c>
+      <c r="K180" s="1">
+        <v>20</v>
+      </c>
+      <c r="L180" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A181" s="4">
+        <v>43772</v>
+      </c>
+      <c r="B181" s="5">
+        <v>9</v>
+      </c>
+      <c r="C181" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D181" s="6">
+        <v>25.5</v>
+      </c>
+      <c r="E181" s="6">
+        <v>-115</v>
+      </c>
+      <c r="F181" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G181" t="s">
+        <v>208</v>
+      </c>
+      <c r="H181" t="s">
+        <v>118</v>
+      </c>
+      <c r="I181" t="s">
+        <v>13</v>
+      </c>
+      <c r="J181" t="s">
+        <v>23</v>
+      </c>
+      <c r="K181" s="1">
+        <v>10</v>
+      </c>
+      <c r="L181" s="1">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:L1"/>
   </mergeCells>
-  <conditionalFormatting sqref="J44:J50 J1:J42 J52:J83 J87 J89:J90 J92:J93 J107 J109:J112 J96:J104 J117:J1025">
-    <cfRule type="containsText" dxfId="53" priority="40" operator="containsText" text="No Action">
+  <conditionalFormatting sqref="J44:J50 J1:J42 J52:J83 J87 J89:J90 J92:J93 J107 J109:J112 J96:J104 J117:J154 J178:J1027 J156:J176">
+    <cfRule type="containsText" dxfId="58" priority="46" operator="containsText" text="No Action">
       <formula>NOT(ISERROR(SEARCH("No Action",J1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="41" operator="containsText" text="Win">
+    <cfRule type="containsText" dxfId="57" priority="47" operator="containsText" text="Win">
       <formula>NOT(ISERROR(SEARCH("Win",J1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="51" priority="42" operator="containsText" text="Loss">
+    <cfRule type="containsText" dxfId="56" priority="48" operator="containsText" text="Loss">
       <formula>NOT(ISERROR(SEARCH("Loss",J1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J43">
-    <cfRule type="containsText" dxfId="50" priority="37" operator="containsText" text="No Action">
+    <cfRule type="containsText" dxfId="55" priority="43" operator="containsText" text="No Action">
       <formula>NOT(ISERROR(SEARCH("No Action",J43)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="49" priority="38" operator="containsText" text="Win">
+    <cfRule type="containsText" dxfId="54" priority="44" operator="containsText" text="Win">
       <formula>NOT(ISERROR(SEARCH("Win",J43)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="39" operator="containsText" text="Loss">
+    <cfRule type="containsText" dxfId="53" priority="45" operator="containsText" text="Loss">
       <formula>NOT(ISERROR(SEARCH("Loss",J43)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J51">
-    <cfRule type="containsText" dxfId="47" priority="34" operator="containsText" text="No Action">
+    <cfRule type="containsText" dxfId="52" priority="40" operator="containsText" text="No Action">
       <formula>NOT(ISERROR(SEARCH("No Action",J51)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="35" operator="containsText" text="Win">
+    <cfRule type="containsText" dxfId="51" priority="41" operator="containsText" text="Win">
       <formula>NOT(ISERROR(SEARCH("Win",J51)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="36" operator="containsText" text="Loss">
+    <cfRule type="containsText" dxfId="50" priority="42" operator="containsText" text="Loss">
       <formula>NOT(ISERROR(SEARCH("Loss",J51)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J84">
-    <cfRule type="containsText" dxfId="44" priority="31" operator="containsText" text="No Action">
+    <cfRule type="containsText" dxfId="49" priority="37" operator="containsText" text="No Action">
       <formula>NOT(ISERROR(SEARCH("No Action",J84)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="32" operator="containsText" text="Win">
+    <cfRule type="containsText" dxfId="48" priority="38" operator="containsText" text="Win">
       <formula>NOT(ISERROR(SEARCH("Win",J84)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="33" operator="containsText" text="Loss">
+    <cfRule type="containsText" dxfId="47" priority="39" operator="containsText" text="Loss">
       <formula>NOT(ISERROR(SEARCH("Loss",J84)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J85">
-    <cfRule type="containsText" dxfId="41" priority="28" operator="containsText" text="No Action">
+    <cfRule type="containsText" dxfId="46" priority="34" operator="containsText" text="No Action">
       <formula>NOT(ISERROR(SEARCH("No Action",J85)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="29" operator="containsText" text="Win">
+    <cfRule type="containsText" dxfId="45" priority="35" operator="containsText" text="Win">
       <formula>NOT(ISERROR(SEARCH("Win",J85)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="39" priority="30" operator="containsText" text="Loss">
+    <cfRule type="containsText" dxfId="44" priority="36" operator="containsText" text="Loss">
       <formula>NOT(ISERROR(SEARCH("Loss",J85)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J86">
-    <cfRule type="containsText" dxfId="38" priority="25" operator="containsText" text="No Action">
+    <cfRule type="containsText" dxfId="43" priority="31" operator="containsText" text="No Action">
       <formula>NOT(ISERROR(SEARCH("No Action",J86)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="26" operator="containsText" text="Win">
+    <cfRule type="containsText" dxfId="42" priority="32" operator="containsText" text="Win">
       <formula>NOT(ISERROR(SEARCH("Win",J86)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="27" operator="containsText" text="Loss">
+    <cfRule type="containsText" dxfId="41" priority="33" operator="containsText" text="Loss">
       <formula>NOT(ISERROR(SEARCH("Loss",J86)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J88">
-    <cfRule type="containsText" dxfId="35" priority="22" operator="containsText" text="No Action">
+    <cfRule type="containsText" dxfId="40" priority="28" operator="containsText" text="No Action">
       <formula>NOT(ISERROR(SEARCH("No Action",J88)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="23" operator="containsText" text="Win">
+    <cfRule type="containsText" dxfId="39" priority="29" operator="containsText" text="Win">
       <formula>NOT(ISERROR(SEARCH("Win",J88)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="24" operator="containsText" text="Loss">
+    <cfRule type="containsText" dxfId="38" priority="30" operator="containsText" text="Loss">
       <formula>NOT(ISERROR(SEARCH("Loss",J88)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J91">
-    <cfRule type="containsText" dxfId="32" priority="19" operator="containsText" text="No Action">
+    <cfRule type="containsText" dxfId="37" priority="25" operator="containsText" text="No Action">
       <formula>NOT(ISERROR(SEARCH("No Action",J91)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="20" operator="containsText" text="Win">
+    <cfRule type="containsText" dxfId="36" priority="26" operator="containsText" text="Win">
       <formula>NOT(ISERROR(SEARCH("Win",J91)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="21" operator="containsText" text="Loss">
+    <cfRule type="containsText" dxfId="35" priority="27" operator="containsText" text="Loss">
       <formula>NOT(ISERROR(SEARCH("Loss",J91)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J105">
-    <cfRule type="containsText" dxfId="29" priority="16" operator="containsText" text="No Action">
+    <cfRule type="containsText" dxfId="34" priority="22" operator="containsText" text="No Action">
       <formula>NOT(ISERROR(SEARCH("No Action",J105)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="17" operator="containsText" text="Win">
+    <cfRule type="containsText" dxfId="33" priority="23" operator="containsText" text="Win">
       <formula>NOT(ISERROR(SEARCH("Win",J105)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="18" operator="containsText" text="Loss">
+    <cfRule type="containsText" dxfId="32" priority="24" operator="containsText" text="Loss">
       <formula>NOT(ISERROR(SEARCH("Loss",J105)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J106">
-    <cfRule type="containsText" dxfId="26" priority="13" operator="containsText" text="No Action">
+    <cfRule type="containsText" dxfId="31" priority="19" operator="containsText" text="No Action">
       <formula>NOT(ISERROR(SEARCH("No Action",J106)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="14" operator="containsText" text="Win">
+    <cfRule type="containsText" dxfId="30" priority="20" operator="containsText" text="Win">
       <formula>NOT(ISERROR(SEARCH("Win",J106)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="15" operator="containsText" text="Loss">
+    <cfRule type="containsText" dxfId="29" priority="21" operator="containsText" text="Loss">
       <formula>NOT(ISERROR(SEARCH("Loss",J106)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J108">
-    <cfRule type="containsText" dxfId="23" priority="10" operator="containsText" text="No Action">
+    <cfRule type="containsText" dxfId="28" priority="16" operator="containsText" text="No Action">
       <formula>NOT(ISERROR(SEARCH("No Action",J108)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="11" operator="containsText" text="Win">
+    <cfRule type="containsText" dxfId="27" priority="17" operator="containsText" text="Win">
       <formula>NOT(ISERROR(SEARCH("Win",J108)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="12" operator="containsText" text="Loss">
+    <cfRule type="containsText" dxfId="26" priority="18" operator="containsText" text="Loss">
       <formula>NOT(ISERROR(SEARCH("Loss",J108)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J113:J114">
-    <cfRule type="containsText" dxfId="20" priority="7" operator="containsText" text="No Action">
+    <cfRule type="containsText" dxfId="25" priority="13" operator="containsText" text="No Action">
       <formula>NOT(ISERROR(SEARCH("No Action",J113)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="8" operator="containsText" text="Win">
+    <cfRule type="containsText" dxfId="24" priority="14" operator="containsText" text="Win">
       <formula>NOT(ISERROR(SEARCH("Win",J113)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="9" operator="containsText" text="Loss">
+    <cfRule type="containsText" dxfId="23" priority="15" operator="containsText" text="Loss">
       <formula>NOT(ISERROR(SEARCH("Loss",J113)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J115:J116">
-    <cfRule type="containsText" dxfId="17" priority="4" operator="containsText" text="No Action">
+    <cfRule type="containsText" dxfId="22" priority="10" operator="containsText" text="No Action">
       <formula>NOT(ISERROR(SEARCH("No Action",J115)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="5" operator="containsText" text="Win">
+    <cfRule type="containsText" dxfId="21" priority="11" operator="containsText" text="Win">
       <formula>NOT(ISERROR(SEARCH("Win",J115)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="6" operator="containsText" text="Loss">
+    <cfRule type="containsText" dxfId="20" priority="12" operator="containsText" text="Loss">
       <formula>NOT(ISERROR(SEARCH("Loss",J115)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J94:J95">
-    <cfRule type="containsText" dxfId="14" priority="1" operator="containsText" text="No Action">
+    <cfRule type="containsText" dxfId="19" priority="7" operator="containsText" text="No Action">
       <formula>NOT(ISERROR(SEARCH("No Action",J94)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="2" operator="containsText" text="Win">
+    <cfRule type="containsText" dxfId="18" priority="8" operator="containsText" text="Win">
       <formula>NOT(ISERROR(SEARCH("Win",J94)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="3" operator="containsText" text="Loss">
+    <cfRule type="containsText" dxfId="17" priority="9" operator="containsText" text="Loss">
       <formula>NOT(ISERROR(SEARCH("Loss",J94)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J155">
+    <cfRule type="containsText" dxfId="16" priority="4" operator="containsText" text="No Action">
+      <formula>NOT(ISERROR(SEARCH("No Action",J155)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="15" priority="5" operator="containsText" text="Win">
+      <formula>NOT(ISERROR(SEARCH("Win",J155)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="14" priority="6" operator="containsText" text="Loss">
+      <formula>NOT(ISERROR(SEARCH("Loss",J155)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J177">
+    <cfRule type="containsText" dxfId="13" priority="1" operator="containsText" text="No Action">
+      <formula>NOT(ISERROR(SEARCH("No Action",J177)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="12" priority="2" operator="containsText" text="Win">
+      <formula>NOT(ISERROR(SEARCH("Win",J177)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="11" priority="3" operator="containsText" text="Loss">
+      <formula>NOT(ISERROR(SEARCH("Loss",J177)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7219,10 +8823,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3:K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7233,27 +8837,27 @@
     <col min="4" max="4" width="7.7109375" customWidth="1"/>
     <col min="5" max="5" width="9.42578125" customWidth="1"/>
     <col min="6" max="6" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" customWidth="1"/>
-    <col min="8" max="8" width="18.28515625" customWidth="1"/>
-    <col min="9" max="9" width="8.7109375" customWidth="1"/>
-    <col min="10" max="10" width="10.140625" customWidth="1"/>
-    <col min="11" max="11" width="9.28515625" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -7310,7 +8914,7 @@
         <v>156</v>
       </c>
       <c r="G3" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="H3" t="s">
         <v>66</v>
@@ -7342,10 +8946,10 @@
         <v>155</v>
       </c>
       <c r="F4" t="s">
+        <v>157</v>
+      </c>
+      <c r="G4" t="s">
         <v>158</v>
-      </c>
-      <c r="G4" t="s">
-        <v>159</v>
       </c>
       <c r="H4" t="s">
         <v>13</v>
@@ -7377,10 +8981,10 @@
         <v>155</v>
       </c>
       <c r="F5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G5" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="H5" t="s">
         <v>13</v>
@@ -7412,10 +9016,10 @@
         <v>155</v>
       </c>
       <c r="F6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G6" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="H6" t="s">
         <v>13</v>
@@ -7447,10 +9051,10 @@
         <v>155</v>
       </c>
       <c r="F7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H7" t="s">
         <v>13</v>
@@ -7482,13 +9086,13 @@
         <v>155</v>
       </c>
       <c r="F8" t="s">
+        <v>166</v>
+      </c>
+      <c r="G8" t="s">
         <v>167</v>
       </c>
-      <c r="G8" t="s">
-        <v>168</v>
-      </c>
       <c r="H8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I8" t="s">
         <v>23</v>
@@ -7498,29 +9102,896 @@
       </c>
       <c r="K8" s="1">
         <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>43767</v>
+      </c>
+      <c r="B9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9">
+        <v>13.5</v>
+      </c>
+      <c r="D9">
+        <v>-105</v>
+      </c>
+      <c r="E9" t="s">
+        <v>155</v>
+      </c>
+      <c r="F9" t="s">
+        <v>168</v>
+      </c>
+      <c r="G9" t="s">
+        <v>158</v>
+      </c>
+      <c r="H9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J9" s="1">
+        <v>10</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>43767</v>
+      </c>
+      <c r="B10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10">
+        <v>4.5</v>
+      </c>
+      <c r="D10">
+        <v>110</v>
+      </c>
+      <c r="E10" t="s">
+        <v>155</v>
+      </c>
+      <c r="F10" t="s">
+        <v>169</v>
+      </c>
+      <c r="G10" t="s">
+        <v>170</v>
+      </c>
+      <c r="H10" t="s">
+        <v>66</v>
+      </c>
+      <c r="I10" t="s">
+        <v>23</v>
+      </c>
+      <c r="J10" s="1">
+        <v>10</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>43767</v>
+      </c>
+      <c r="B11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C11">
+        <v>8.5</v>
+      </c>
+      <c r="D11">
+        <v>-115</v>
+      </c>
+      <c r="E11" t="s">
+        <v>155</v>
+      </c>
+      <c r="F11" t="s">
+        <v>171</v>
+      </c>
+      <c r="G11" t="s">
+        <v>172</v>
+      </c>
+      <c r="H11" t="s">
+        <v>66</v>
+      </c>
+      <c r="I11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J11" s="1">
+        <v>10</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>43767</v>
+      </c>
+      <c r="B12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C12">
+        <v>13.5</v>
+      </c>
+      <c r="D12">
+        <v>-115</v>
+      </c>
+      <c r="E12" t="s">
+        <v>155</v>
+      </c>
+      <c r="F12" t="s">
+        <v>173</v>
+      </c>
+      <c r="G12" t="s">
+        <v>158</v>
+      </c>
+      <c r="H12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" t="s">
+        <v>29</v>
+      </c>
+      <c r="J12" s="1">
+        <v>10</v>
+      </c>
+      <c r="K12" s="1">
+        <v>18.7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>43767</v>
+      </c>
+      <c r="B13" t="s">
+        <v>89</v>
+      </c>
+      <c r="C13">
+        <v>9.5</v>
+      </c>
+      <c r="D13">
+        <v>-115</v>
+      </c>
+      <c r="E13" t="s">
+        <v>155</v>
+      </c>
+      <c r="F13" t="s">
+        <v>174</v>
+      </c>
+      <c r="G13" t="s">
+        <v>158</v>
+      </c>
+      <c r="H13" t="s">
+        <v>66</v>
+      </c>
+      <c r="I13" t="s">
+        <v>23</v>
+      </c>
+      <c r="J13" s="1">
+        <v>10</v>
+      </c>
+      <c r="K13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>43767</v>
+      </c>
+      <c r="B14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C14">
+        <v>7.5</v>
+      </c>
+      <c r="D14">
+        <v>-115</v>
+      </c>
+      <c r="E14" t="s">
+        <v>155</v>
+      </c>
+      <c r="F14" t="s">
+        <v>176</v>
+      </c>
+      <c r="G14" t="s">
+        <v>158</v>
+      </c>
+      <c r="H14" t="s">
+        <v>66</v>
+      </c>
+      <c r="I14" t="s">
+        <v>23</v>
+      </c>
+      <c r="J14" s="1">
+        <v>10</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>43767</v>
+      </c>
+      <c r="B15" t="s">
+        <v>89</v>
+      </c>
+      <c r="C15">
+        <v>13.5</v>
+      </c>
+      <c r="D15">
+        <v>-105</v>
+      </c>
+      <c r="E15" t="s">
+        <v>155</v>
+      </c>
+      <c r="F15" t="s">
+        <v>168</v>
+      </c>
+      <c r="G15" t="s">
+        <v>158</v>
+      </c>
+      <c r="H15" t="s">
+        <v>13</v>
+      </c>
+      <c r="I15" t="s">
+        <v>23</v>
+      </c>
+      <c r="J15" s="1">
+        <v>10</v>
+      </c>
+      <c r="K15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>43768</v>
+      </c>
+      <c r="B16" t="s">
+        <v>89</v>
+      </c>
+      <c r="C16">
+        <v>13.5</v>
+      </c>
+      <c r="D16">
+        <v>-135</v>
+      </c>
+      <c r="E16" t="s">
+        <v>155</v>
+      </c>
+      <c r="F16" t="s">
+        <v>164</v>
+      </c>
+      <c r="G16" t="s">
+        <v>158</v>
+      </c>
+      <c r="H16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I16" t="s">
+        <v>29</v>
+      </c>
+      <c r="J16" s="1">
+        <v>10</v>
+      </c>
+      <c r="K16" s="1">
+        <v>17.41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>43768</v>
+      </c>
+      <c r="B17" t="s">
+        <v>89</v>
+      </c>
+      <c r="C17">
+        <v>10.5</v>
+      </c>
+      <c r="D17">
+        <v>-115</v>
+      </c>
+      <c r="E17" t="s">
+        <v>155</v>
+      </c>
+      <c r="F17" t="s">
+        <v>177</v>
+      </c>
+      <c r="G17" t="s">
+        <v>158</v>
+      </c>
+      <c r="H17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I17" t="s">
+        <v>23</v>
+      </c>
+      <c r="J17" s="1">
+        <v>10</v>
+      </c>
+      <c r="K17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>43768</v>
+      </c>
+      <c r="B18" t="s">
+        <v>89</v>
+      </c>
+      <c r="C18">
+        <v>3.5</v>
+      </c>
+      <c r="D18">
+        <v>-125</v>
+      </c>
+      <c r="E18" t="s">
+        <v>155</v>
+      </c>
+      <c r="F18" t="s">
+        <v>178</v>
+      </c>
+      <c r="G18" t="s">
+        <v>170</v>
+      </c>
+      <c r="H18" t="s">
+        <v>66</v>
+      </c>
+      <c r="I18" t="s">
+        <v>29</v>
+      </c>
+      <c r="J18" s="1">
+        <v>10</v>
+      </c>
+      <c r="K18" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>43768</v>
+      </c>
+      <c r="B19" t="s">
+        <v>89</v>
+      </c>
+      <c r="C19">
+        <v>4.5</v>
+      </c>
+      <c r="D19">
+        <v>100</v>
+      </c>
+      <c r="E19" t="s">
+        <v>155</v>
+      </c>
+      <c r="F19" t="s">
+        <v>179</v>
+      </c>
+      <c r="G19" t="s">
+        <v>172</v>
+      </c>
+      <c r="H19" t="s">
+        <v>66</v>
+      </c>
+      <c r="I19" t="s">
+        <v>23</v>
+      </c>
+      <c r="J19" s="1">
+        <v>10</v>
+      </c>
+      <c r="K19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>43768</v>
+      </c>
+      <c r="B20" t="s">
+        <v>89</v>
+      </c>
+      <c r="C20">
+        <v>6.5</v>
+      </c>
+      <c r="D20">
+        <v>-130</v>
+      </c>
+      <c r="E20" t="s">
+        <v>155</v>
+      </c>
+      <c r="F20" t="s">
+        <v>180</v>
+      </c>
+      <c r="G20" t="s">
+        <v>170</v>
+      </c>
+      <c r="H20" t="s">
+        <v>66</v>
+      </c>
+      <c r="I20" t="s">
+        <v>23</v>
+      </c>
+      <c r="J20" s="1">
+        <v>10</v>
+      </c>
+      <c r="K20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>43768</v>
+      </c>
+      <c r="B21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21">
+        <v>-7</v>
+      </c>
+      <c r="D21">
+        <v>-115</v>
+      </c>
+      <c r="E21" t="s">
+        <v>155</v>
+      </c>
+      <c r="F21" t="s">
+        <v>181</v>
+      </c>
+      <c r="G21" t="s">
+        <v>182</v>
+      </c>
+      <c r="H21" t="s">
+        <v>181</v>
+      </c>
+      <c r="I21" t="s">
+        <v>23</v>
+      </c>
+      <c r="J21" s="1">
+        <v>10</v>
+      </c>
+      <c r="K21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>43768</v>
+      </c>
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22">
+        <v>223</v>
+      </c>
+      <c r="D22">
+        <v>-110</v>
+      </c>
+      <c r="E22" t="s">
+        <v>155</v>
+      </c>
+      <c r="F22" t="s">
+        <v>181</v>
+      </c>
+      <c r="G22" t="s">
+        <v>182</v>
+      </c>
+      <c r="H22" t="s">
+        <v>181</v>
+      </c>
+      <c r="I22" t="s">
+        <v>29</v>
+      </c>
+      <c r="J22" s="1">
+        <v>10</v>
+      </c>
+      <c r="K22" s="1">
+        <v>19.09</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>43768</v>
+      </c>
+      <c r="B23" t="s">
+        <v>89</v>
+      </c>
+      <c r="C23">
+        <v>4.5</v>
+      </c>
+      <c r="D23">
+        <v>-105</v>
+      </c>
+      <c r="E23" t="s">
+        <v>155</v>
+      </c>
+      <c r="F23" t="s">
+        <v>183</v>
+      </c>
+      <c r="G23" t="s">
+        <v>170</v>
+      </c>
+      <c r="H23" t="s">
+        <v>66</v>
+      </c>
+      <c r="I23" t="s">
+        <v>29</v>
+      </c>
+      <c r="J23" s="1">
+        <v>10</v>
+      </c>
+      <c r="K23" s="1">
+        <v>19.52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>43768</v>
+      </c>
+      <c r="B24" t="s">
+        <v>89</v>
+      </c>
+      <c r="C24">
+        <v>8.5</v>
+      </c>
+      <c r="D24">
+        <v>110</v>
+      </c>
+      <c r="E24" t="s">
+        <v>155</v>
+      </c>
+      <c r="F24" t="s">
+        <v>184</v>
+      </c>
+      <c r="G24" t="s">
+        <v>158</v>
+      </c>
+      <c r="H24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I24" t="s">
+        <v>23</v>
+      </c>
+      <c r="J24" s="1">
+        <v>10</v>
+      </c>
+      <c r="K24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>43769</v>
+      </c>
+      <c r="B25" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25">
+        <v>-4.5</v>
+      </c>
+      <c r="D25">
+        <v>-105</v>
+      </c>
+      <c r="E25" t="s">
+        <v>155</v>
+      </c>
+      <c r="F25" t="s">
+        <v>190</v>
+      </c>
+      <c r="G25" t="s">
+        <v>191</v>
+      </c>
+      <c r="H25" t="s">
+        <v>190</v>
+      </c>
+      <c r="I25" t="s">
+        <v>29</v>
+      </c>
+      <c r="J25" s="1">
+        <v>10</v>
+      </c>
+      <c r="K25" s="1">
+        <v>19.52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>43770</v>
+      </c>
+      <c r="B26" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26">
+        <v>6.5</v>
+      </c>
+      <c r="D26">
+        <v>-115</v>
+      </c>
+      <c r="E26" t="s">
+        <v>155</v>
+      </c>
+      <c r="F26" t="s">
+        <v>192</v>
+      </c>
+      <c r="G26" t="s">
+        <v>193</v>
+      </c>
+      <c r="H26" t="s">
+        <v>193</v>
+      </c>
+      <c r="I26" t="s">
+        <v>29</v>
+      </c>
+      <c r="J26" s="1">
+        <v>10</v>
+      </c>
+      <c r="K26" s="1">
+        <v>18.7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>43770</v>
+      </c>
+      <c r="B27" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27">
+        <v>-7.5</v>
+      </c>
+      <c r="D27">
+        <v>-105</v>
+      </c>
+      <c r="E27" t="s">
+        <v>155</v>
+      </c>
+      <c r="F27" t="s">
+        <v>194</v>
+      </c>
+      <c r="G27" t="s">
+        <v>191</v>
+      </c>
+      <c r="H27" t="s">
+        <v>191</v>
+      </c>
+      <c r="I27" t="s">
+        <v>29</v>
+      </c>
+      <c r="J27" s="1">
+        <v>10</v>
+      </c>
+      <c r="K27" s="1">
+        <v>19.52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>43769</v>
+      </c>
+      <c r="B28" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28">
+        <v>-5</v>
+      </c>
+      <c r="D28">
+        <v>-110</v>
+      </c>
+      <c r="E28" t="s">
+        <v>155</v>
+      </c>
+      <c r="F28" t="s">
+        <v>190</v>
+      </c>
+      <c r="G28" t="s">
+        <v>191</v>
+      </c>
+      <c r="H28" t="s">
+        <v>190</v>
+      </c>
+      <c r="I28" t="s">
+        <v>29</v>
+      </c>
+      <c r="J28" s="1">
+        <v>10</v>
+      </c>
+      <c r="K28" s="1">
+        <v>19.09</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>43769</v>
+      </c>
+      <c r="B29" t="s">
+        <v>89</v>
+      </c>
+      <c r="C29">
+        <v>22</v>
+      </c>
+      <c r="D29">
+        <v>-125</v>
+      </c>
+      <c r="E29" t="s">
+        <v>155</v>
+      </c>
+      <c r="F29" t="s">
+        <v>196</v>
+      </c>
+      <c r="G29" t="s">
+        <v>158</v>
+      </c>
+      <c r="H29" t="s">
+        <v>13</v>
+      </c>
+      <c r="I29" t="s">
+        <v>29</v>
+      </c>
+      <c r="J29" s="1">
+        <v>10</v>
+      </c>
+      <c r="K29" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>43769</v>
+      </c>
+      <c r="B30" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30">
+        <v>-6.5</v>
+      </c>
+      <c r="D30">
+        <v>-115</v>
+      </c>
+      <c r="E30" t="s">
+        <v>155</v>
+      </c>
+      <c r="F30" t="s">
+        <v>198</v>
+      </c>
+      <c r="G30" t="s">
+        <v>199</v>
+      </c>
+      <c r="H30" t="s">
+        <v>199</v>
+      </c>
+      <c r="I30" t="s">
+        <v>29</v>
+      </c>
+      <c r="J30" s="1">
+        <v>10</v>
+      </c>
+      <c r="K30" s="1">
+        <v>18.7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>43771</v>
+      </c>
+      <c r="B31" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31">
+        <v>2.5</v>
+      </c>
+      <c r="D31">
+        <v>-110</v>
+      </c>
+      <c r="E31" t="s">
+        <v>155</v>
+      </c>
+      <c r="F31" t="s">
+        <v>200</v>
+      </c>
+      <c r="G31" t="s">
+        <v>195</v>
+      </c>
+      <c r="H31" t="s">
+        <v>195</v>
+      </c>
+      <c r="I31" t="s">
+        <v>23</v>
+      </c>
+      <c r="J31" s="1">
+        <v>10</v>
+      </c>
+      <c r="K31" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>43772</v>
+      </c>
+      <c r="B32" t="s">
+        <v>89</v>
+      </c>
+      <c r="C32">
+        <v>7.5</v>
+      </c>
+      <c r="D32">
+        <v>-135</v>
+      </c>
+      <c r="E32" t="s">
+        <v>155</v>
+      </c>
+      <c r="F32" t="s">
+        <v>177</v>
+      </c>
+      <c r="G32" t="s">
+        <v>170</v>
+      </c>
+      <c r="H32" t="s">
+        <v>13</v>
+      </c>
+      <c r="I32" t="s">
+        <v>29</v>
+      </c>
+      <c r="J32" s="1">
+        <v>10</v>
+      </c>
+      <c r="K32" s="1">
+        <v>17.41</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>43772</v>
+      </c>
+      <c r="B33" t="s">
+        <v>89</v>
+      </c>
+      <c r="C33">
+        <v>27</v>
+      </c>
+      <c r="D33">
+        <v>-120</v>
+      </c>
+      <c r="E33" t="s">
+        <v>155</v>
+      </c>
+      <c r="F33" t="s">
+        <v>209</v>
+      </c>
+      <c r="G33" t="s">
+        <v>158</v>
+      </c>
+      <c r="H33" t="s">
+        <v>66</v>
+      </c>
+      <c r="I33" t="s">
+        <v>29</v>
+      </c>
+      <c r="J33" s="1">
+        <v>10</v>
+      </c>
+      <c r="K33" s="1">
+        <v>18.329999999999998</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:K1"/>
   </mergeCells>
-  <conditionalFormatting sqref="I1:I2">
-    <cfRule type="containsText" dxfId="8" priority="3" operator="containsText" text="No Action">
-      <formula>NOT(ISERROR(SEARCH("No Action",I1)))</formula>
+  <conditionalFormatting sqref="I3:I160">
+    <cfRule type="containsText" dxfId="10" priority="21" operator="containsText" text="Win">
+      <formula>NOT(ISERROR(SEARCH("Win",I3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="4" operator="containsText" text="Win">
-      <formula>NOT(ISERROR(SEARCH("Win",I1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="5" operator="containsText" text="Loss">
-      <formula>NOT(ISERROR(SEARCH("Loss",I1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I3:I8">
-    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="Loss">
+    <cfRule type="containsText" dxfId="9" priority="22" operator="containsText" text="Loss">
       <formula>NOT(ISERROR(SEARCH("Loss",I3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Win">
-      <formula>NOT(ISERROR(SEARCH("Win",I3)))</formula>
+    <cfRule type="containsText" dxfId="8" priority="23" operator="containsText" text="No Action">
+      <formula>NOT(ISERROR(SEARCH("No Action",I3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7552,17 +10023,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -8514,10 +10985,10 @@
     <mergeCell ref="A1:I1"/>
   </mergeCells>
   <conditionalFormatting sqref="J34">
-    <cfRule type="cellIs" dxfId="61" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
     <cfRule type="colorScale" priority="3">
@@ -8532,13 +11003,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="containsText" dxfId="59" priority="4" operator="containsText" text="No Action">
+    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="No Action">
       <formula>NOT(ISERROR(SEARCH("No Action",G1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="58" priority="5" operator="containsText" text="Win">
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="Win">
       <formula>NOT(ISERROR(SEARCH("Win",G1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="57" priority="6" operator="containsText" text="Loss">
+    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="Loss">
       <formula>NOT(ISERROR(SEARCH("Loss",G1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8572,18 +11043,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -8654,13 +11125,13 @@
     <mergeCell ref="A1:J1"/>
   </mergeCells>
   <conditionalFormatting sqref="H1:H3">
-    <cfRule type="containsText" dxfId="56" priority="1" operator="containsText" text="No Action">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="No Action">
       <formula>NOT(ISERROR(SEARCH("No Action",H1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="55" priority="2" operator="containsText" text="Win">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Win">
       <formula>NOT(ISERROR(SEARCH("Win",H1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="54" priority="3" operator="containsText" text="Loss">
+    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="Loss">
       <formula>NOT(ISERROR(SEARCH("Loss",H1)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/SportsBettingLogs.xlsx
+++ b/SportsBettingLogs.xlsx
@@ -757,6 +757,15 @@
   </cellStyles>
   <dxfs count="80">
     <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -785,6 +794,21 @@
           <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
     </dxf>
     <dxf>
       <font>
@@ -837,6 +861,15 @@
       </fill>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C5700"/>
       </font>
@@ -865,6 +898,38 @@
           <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1346,71 +1411,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1428,18 +1428,18 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table134" displayName="Table134" ref="A2:L181" totalsRowShown="0">
   <autoFilter ref="A2:L181"/>
   <tableColumns count="12">
-    <tableColumn id="17" name="Date Placed" dataDxfId="79"/>
-    <tableColumn id="11" name="NFL Week" dataDxfId="78"/>
-    <tableColumn id="1" name="Bet Type" dataDxfId="77"/>
-    <tableColumn id="10" name="Points" dataDxfId="76"/>
-    <tableColumn id="2" name="Odds" dataDxfId="75"/>
-    <tableColumn id="9" name="League" dataDxfId="74"/>
+    <tableColumn id="17" name="Date Placed" dataDxfId="31"/>
+    <tableColumn id="11" name="NFL Week" dataDxfId="30"/>
+    <tableColumn id="1" name="Bet Type" dataDxfId="29"/>
+    <tableColumn id="10" name="Points" dataDxfId="28"/>
+    <tableColumn id="2" name="Odds" dataDxfId="27"/>
+    <tableColumn id="9" name="League" dataDxfId="26"/>
     <tableColumn id="3" name="Home Team"/>
     <tableColumn id="4" name="Away Team"/>
     <tableColumn id="5" name="Outcome Chosen"/>
     <tableColumn id="6" name="Result"/>
-    <tableColumn id="7" name="Bet Size" dataDxfId="73" totalsRowDxfId="72"/>
-    <tableColumn id="8" name="Payout" dataDxfId="71" totalsRowDxfId="70"/>
+    <tableColumn id="7" name="Bet Size" dataDxfId="25" totalsRowDxfId="24"/>
+    <tableColumn id="8" name="Payout" dataDxfId="23" totalsRowDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1449,7 +1449,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A2:K33" totalsRowShown="0">
   <autoFilter ref="A2:K33"/>
   <tableColumns count="11">
-    <tableColumn id="1" name="Date Placed" dataDxfId="69"/>
+    <tableColumn id="1" name="Date Placed" dataDxfId="18"/>
     <tableColumn id="2" name="Bet Type"/>
     <tableColumn id="3" name="Points"/>
     <tableColumn id="4" name="Odds"/>
@@ -1458,8 +1458,8 @@
     <tableColumn id="7" name="Away Team"/>
     <tableColumn id="8" name="Outcome Chosen"/>
     <tableColumn id="9" name="Result"/>
-    <tableColumn id="10" name="Bet Size" dataDxfId="68"/>
-    <tableColumn id="11" name="Payout" dataDxfId="67"/>
+    <tableColumn id="10" name="Bet Size" dataDxfId="17"/>
+    <tableColumn id="11" name="Payout" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1472,17 +1472,17 @@
     <sortCondition ref="A2:A27"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="17" name="Date" totalsRowLabel="Total" dataDxfId="66"/>
+    <tableColumn id="17" name="Date" totalsRowLabel="Total" dataDxfId="10"/>
     <tableColumn id="1" name="Bet Type"/>
     <tableColumn id="2" name="Odds"/>
     <tableColumn id="3" name="Team 1"/>
     <tableColumn id="4" name="Team 2"/>
     <tableColumn id="5" name="Outcome Chosen"/>
     <tableColumn id="6" name="Result"/>
-    <tableColumn id="7" name="Bet Size" totalsRowFunction="custom" dataDxfId="65" totalsRowDxfId="64">
+    <tableColumn id="7" name="Bet Size" totalsRowFunction="custom" dataDxfId="9" totalsRowDxfId="8">
       <totalsRowFormula>SUMIF(Table1[Result],"&lt;&gt;",Table1[Bet Size])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" name="Payout" totalsRowFunction="custom" dataDxfId="63" totalsRowDxfId="62">
+    <tableColumn id="8" name="Payout" totalsRowFunction="custom" dataDxfId="7" totalsRowDxfId="6">
       <totalsRowFormula>SUMIF(Table1[Result],"&lt;&gt;",Table1[Payout])</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -1494,7 +1494,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A2:J3" totalsRowShown="0">
   <autoFilter ref="A2:J3"/>
   <tableColumns count="10">
-    <tableColumn id="17" name="Date" dataDxfId="61"/>
+    <tableColumn id="17" name="Date" dataDxfId="2"/>
     <tableColumn id="1" name="Bet Type"/>
     <tableColumn id="2" name="Odds"/>
     <tableColumn id="9" name="League"/>
@@ -1502,8 +1502,8 @@
     <tableColumn id="4" name="Team 2"/>
     <tableColumn id="5" name="Outcome Chosen"/>
     <tableColumn id="6" name="Result"/>
-    <tableColumn id="7" name="Bet Size" dataDxfId="60"/>
-    <tableColumn id="8" name="Payout" dataDxfId="59"/>
+    <tableColumn id="7" name="Bet Size" dataDxfId="1"/>
+    <tableColumn id="8" name="Payout" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1820,7 +1820,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L181"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="74" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A163" zoomScale="74" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
@@ -8638,178 +8638,178 @@
     <mergeCell ref="A1:L1"/>
   </mergeCells>
   <conditionalFormatting sqref="J44:J50 J1:J42 J52:J83 J87 J89:J90 J92:J93 J107 J109:J112 J96:J104 J117:J154 J178:J1027 J156:J176">
-    <cfRule type="containsText" dxfId="58" priority="46" operator="containsText" text="No Action">
+    <cfRule type="containsText" dxfId="79" priority="46" operator="containsText" text="No Action">
       <formula>NOT(ISERROR(SEARCH("No Action",J1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="57" priority="47" operator="containsText" text="Win">
+    <cfRule type="containsText" dxfId="78" priority="47" operator="containsText" text="Win">
       <formula>NOT(ISERROR(SEARCH("Win",J1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="56" priority="48" operator="containsText" text="Loss">
+    <cfRule type="containsText" dxfId="77" priority="48" operator="containsText" text="Loss">
       <formula>NOT(ISERROR(SEARCH("Loss",J1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J43">
-    <cfRule type="containsText" dxfId="55" priority="43" operator="containsText" text="No Action">
+    <cfRule type="containsText" dxfId="76" priority="43" operator="containsText" text="No Action">
       <formula>NOT(ISERROR(SEARCH("No Action",J43)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="54" priority="44" operator="containsText" text="Win">
+    <cfRule type="containsText" dxfId="75" priority="44" operator="containsText" text="Win">
       <formula>NOT(ISERROR(SEARCH("Win",J43)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="53" priority="45" operator="containsText" text="Loss">
+    <cfRule type="containsText" dxfId="74" priority="45" operator="containsText" text="Loss">
       <formula>NOT(ISERROR(SEARCH("Loss",J43)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J51">
-    <cfRule type="containsText" dxfId="52" priority="40" operator="containsText" text="No Action">
+    <cfRule type="containsText" dxfId="73" priority="40" operator="containsText" text="No Action">
       <formula>NOT(ISERROR(SEARCH("No Action",J51)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="51" priority="41" operator="containsText" text="Win">
+    <cfRule type="containsText" dxfId="72" priority="41" operator="containsText" text="Win">
       <formula>NOT(ISERROR(SEARCH("Win",J51)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="42" operator="containsText" text="Loss">
+    <cfRule type="containsText" dxfId="71" priority="42" operator="containsText" text="Loss">
       <formula>NOT(ISERROR(SEARCH("Loss",J51)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J84">
-    <cfRule type="containsText" dxfId="49" priority="37" operator="containsText" text="No Action">
+    <cfRule type="containsText" dxfId="70" priority="37" operator="containsText" text="No Action">
       <formula>NOT(ISERROR(SEARCH("No Action",J84)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="38" operator="containsText" text="Win">
+    <cfRule type="containsText" dxfId="69" priority="38" operator="containsText" text="Win">
       <formula>NOT(ISERROR(SEARCH("Win",J84)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="47" priority="39" operator="containsText" text="Loss">
+    <cfRule type="containsText" dxfId="68" priority="39" operator="containsText" text="Loss">
       <formula>NOT(ISERROR(SEARCH("Loss",J84)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J85">
-    <cfRule type="containsText" dxfId="46" priority="34" operator="containsText" text="No Action">
+    <cfRule type="containsText" dxfId="67" priority="34" operator="containsText" text="No Action">
       <formula>NOT(ISERROR(SEARCH("No Action",J85)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="35" operator="containsText" text="Win">
+    <cfRule type="containsText" dxfId="66" priority="35" operator="containsText" text="Win">
       <formula>NOT(ISERROR(SEARCH("Win",J85)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="44" priority="36" operator="containsText" text="Loss">
+    <cfRule type="containsText" dxfId="65" priority="36" operator="containsText" text="Loss">
       <formula>NOT(ISERROR(SEARCH("Loss",J85)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J86">
-    <cfRule type="containsText" dxfId="43" priority="31" operator="containsText" text="No Action">
+    <cfRule type="containsText" dxfId="64" priority="31" operator="containsText" text="No Action">
       <formula>NOT(ISERROR(SEARCH("No Action",J86)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="32" operator="containsText" text="Win">
+    <cfRule type="containsText" dxfId="63" priority="32" operator="containsText" text="Win">
       <formula>NOT(ISERROR(SEARCH("Win",J86)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="41" priority="33" operator="containsText" text="Loss">
+    <cfRule type="containsText" dxfId="62" priority="33" operator="containsText" text="Loss">
       <formula>NOT(ISERROR(SEARCH("Loss",J86)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J88">
-    <cfRule type="containsText" dxfId="40" priority="28" operator="containsText" text="No Action">
+    <cfRule type="containsText" dxfId="61" priority="28" operator="containsText" text="No Action">
       <formula>NOT(ISERROR(SEARCH("No Action",J88)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="39" priority="29" operator="containsText" text="Win">
+    <cfRule type="containsText" dxfId="60" priority="29" operator="containsText" text="Win">
       <formula>NOT(ISERROR(SEARCH("Win",J88)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="30" operator="containsText" text="Loss">
+    <cfRule type="containsText" dxfId="59" priority="30" operator="containsText" text="Loss">
       <formula>NOT(ISERROR(SEARCH("Loss",J88)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J91">
-    <cfRule type="containsText" dxfId="37" priority="25" operator="containsText" text="No Action">
+    <cfRule type="containsText" dxfId="58" priority="25" operator="containsText" text="No Action">
       <formula>NOT(ISERROR(SEARCH("No Action",J91)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="26" operator="containsText" text="Win">
+    <cfRule type="containsText" dxfId="57" priority="26" operator="containsText" text="Win">
       <formula>NOT(ISERROR(SEARCH("Win",J91)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="35" priority="27" operator="containsText" text="Loss">
+    <cfRule type="containsText" dxfId="56" priority="27" operator="containsText" text="Loss">
       <formula>NOT(ISERROR(SEARCH("Loss",J91)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J105">
-    <cfRule type="containsText" dxfId="34" priority="22" operator="containsText" text="No Action">
+    <cfRule type="containsText" dxfId="55" priority="22" operator="containsText" text="No Action">
       <formula>NOT(ISERROR(SEARCH("No Action",J105)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="23" operator="containsText" text="Win">
+    <cfRule type="containsText" dxfId="54" priority="23" operator="containsText" text="Win">
       <formula>NOT(ISERROR(SEARCH("Win",J105)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="24" operator="containsText" text="Loss">
+    <cfRule type="containsText" dxfId="53" priority="24" operator="containsText" text="Loss">
       <formula>NOT(ISERROR(SEARCH("Loss",J105)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J106">
-    <cfRule type="containsText" dxfId="31" priority="19" operator="containsText" text="No Action">
+    <cfRule type="containsText" dxfId="52" priority="19" operator="containsText" text="No Action">
       <formula>NOT(ISERROR(SEARCH("No Action",J106)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="20" operator="containsText" text="Win">
+    <cfRule type="containsText" dxfId="51" priority="20" operator="containsText" text="Win">
       <formula>NOT(ISERROR(SEARCH("Win",J106)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="21" operator="containsText" text="Loss">
+    <cfRule type="containsText" dxfId="50" priority="21" operator="containsText" text="Loss">
       <formula>NOT(ISERROR(SEARCH("Loss",J106)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J108">
-    <cfRule type="containsText" dxfId="28" priority="16" operator="containsText" text="No Action">
+    <cfRule type="containsText" dxfId="49" priority="16" operator="containsText" text="No Action">
       <formula>NOT(ISERROR(SEARCH("No Action",J108)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="17" operator="containsText" text="Win">
+    <cfRule type="containsText" dxfId="48" priority="17" operator="containsText" text="Win">
       <formula>NOT(ISERROR(SEARCH("Win",J108)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="18" operator="containsText" text="Loss">
+    <cfRule type="containsText" dxfId="47" priority="18" operator="containsText" text="Loss">
       <formula>NOT(ISERROR(SEARCH("Loss",J108)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J113:J114">
-    <cfRule type="containsText" dxfId="25" priority="13" operator="containsText" text="No Action">
+    <cfRule type="containsText" dxfId="46" priority="13" operator="containsText" text="No Action">
       <formula>NOT(ISERROR(SEARCH("No Action",J113)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="14" operator="containsText" text="Win">
+    <cfRule type="containsText" dxfId="45" priority="14" operator="containsText" text="Win">
       <formula>NOT(ISERROR(SEARCH("Win",J113)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="15" operator="containsText" text="Loss">
+    <cfRule type="containsText" dxfId="44" priority="15" operator="containsText" text="Loss">
       <formula>NOT(ISERROR(SEARCH("Loss",J113)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J115:J116">
-    <cfRule type="containsText" dxfId="22" priority="10" operator="containsText" text="No Action">
+    <cfRule type="containsText" dxfId="43" priority="10" operator="containsText" text="No Action">
       <formula>NOT(ISERROR(SEARCH("No Action",J115)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="11" operator="containsText" text="Win">
+    <cfRule type="containsText" dxfId="42" priority="11" operator="containsText" text="Win">
       <formula>NOT(ISERROR(SEARCH("Win",J115)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="12" operator="containsText" text="Loss">
+    <cfRule type="containsText" dxfId="41" priority="12" operator="containsText" text="Loss">
       <formula>NOT(ISERROR(SEARCH("Loss",J115)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J94:J95">
-    <cfRule type="containsText" dxfId="19" priority="7" operator="containsText" text="No Action">
+    <cfRule type="containsText" dxfId="40" priority="7" operator="containsText" text="No Action">
       <formula>NOT(ISERROR(SEARCH("No Action",J94)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="8" operator="containsText" text="Win">
+    <cfRule type="containsText" dxfId="39" priority="8" operator="containsText" text="Win">
       <formula>NOT(ISERROR(SEARCH("Win",J94)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="9" operator="containsText" text="Loss">
+    <cfRule type="containsText" dxfId="38" priority="9" operator="containsText" text="Loss">
       <formula>NOT(ISERROR(SEARCH("Loss",J94)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J155">
-    <cfRule type="containsText" dxfId="16" priority="4" operator="containsText" text="No Action">
+    <cfRule type="containsText" dxfId="37" priority="4" operator="containsText" text="No Action">
       <formula>NOT(ISERROR(SEARCH("No Action",J155)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="5" operator="containsText" text="Win">
+    <cfRule type="containsText" dxfId="36" priority="5" operator="containsText" text="Win">
       <formula>NOT(ISERROR(SEARCH("Win",J155)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="6" operator="containsText" text="Loss">
+    <cfRule type="containsText" dxfId="35" priority="6" operator="containsText" text="Loss">
       <formula>NOT(ISERROR(SEARCH("Loss",J155)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J177">
-    <cfRule type="containsText" dxfId="13" priority="1" operator="containsText" text="No Action">
+    <cfRule type="containsText" dxfId="34" priority="1" operator="containsText" text="No Action">
       <formula>NOT(ISERROR(SEARCH("No Action",J177)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="2" operator="containsText" text="Win">
+    <cfRule type="containsText" dxfId="33" priority="2" operator="containsText" text="Win">
       <formula>NOT(ISERROR(SEARCH("Win",J177)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="3" operator="containsText" text="Loss">
+    <cfRule type="containsText" dxfId="32" priority="3" operator="containsText" text="Loss">
       <formula>NOT(ISERROR(SEARCH("Loss",J177)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9984,13 +9984,13 @@
     <mergeCell ref="A1:K1"/>
   </mergeCells>
   <conditionalFormatting sqref="I3:I160">
-    <cfRule type="containsText" dxfId="10" priority="21" operator="containsText" text="Win">
+    <cfRule type="containsText" dxfId="21" priority="21" operator="containsText" text="Win">
       <formula>NOT(ISERROR(SEARCH("Win",I3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="22" operator="containsText" text="Loss">
+    <cfRule type="containsText" dxfId="20" priority="22" operator="containsText" text="Loss">
       <formula>NOT(ISERROR(SEARCH("Loss",I3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="23" operator="containsText" text="No Action">
+    <cfRule type="containsText" dxfId="19" priority="23" operator="containsText" text="No Action">
       <formula>NOT(ISERROR(SEARCH("No Action",I3)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10985,10 +10985,10 @@
     <mergeCell ref="A1:I1"/>
   </mergeCells>
   <conditionalFormatting sqref="J34">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="14" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
     <cfRule type="colorScale" priority="3">
@@ -11003,13 +11003,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="No Action">
+    <cfRule type="containsText" dxfId="13" priority="4" operator="containsText" text="No Action">
       <formula>NOT(ISERROR(SEARCH("No Action",G1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="Win">
+    <cfRule type="containsText" dxfId="12" priority="5" operator="containsText" text="Win">
       <formula>NOT(ISERROR(SEARCH("Win",G1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="Loss">
+    <cfRule type="containsText" dxfId="11" priority="6" operator="containsText" text="Loss">
       <formula>NOT(ISERROR(SEARCH("Loss",G1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11125,13 +11125,13 @@
     <mergeCell ref="A1:J1"/>
   </mergeCells>
   <conditionalFormatting sqref="H1:H3">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="No Action">
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="No Action">
       <formula>NOT(ISERROR(SEARCH("No Action",H1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Win">
+    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="Win">
       <formula>NOT(ISERROR(SEARCH("Win",H1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="Loss">
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="Loss">
       <formula>NOT(ISERROR(SEARCH("Loss",H1)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/SportsBettingLogs.xlsx
+++ b/SportsBettingLogs.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1475" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1490" uniqueCount="214">
   <si>
     <t>Bet Type</t>
   </si>
@@ -664,6 +664,18 @@
   </si>
   <si>
     <t>Kawhi Leonard</t>
+  </si>
+  <si>
+    <t>Wesley Matthews</t>
+  </si>
+  <si>
+    <t>P.J. Tucker</t>
+  </si>
+  <si>
+    <t>Aldrick Rosas</t>
+  </si>
+  <si>
+    <t>Kicking Points</t>
   </si>
 </sst>
 </file>
@@ -1425,8 +1437,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table134" displayName="Table134" ref="A2:L181" totalsRowShown="0">
-  <autoFilter ref="A2:L181"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table134" displayName="Table134" ref="A2:L182" totalsRowShown="0">
+  <autoFilter ref="A2:L182"/>
   <tableColumns count="12">
     <tableColumn id="17" name="Date Placed" dataDxfId="31"/>
     <tableColumn id="11" name="NFL Week" dataDxfId="30"/>
@@ -1446,8 +1458,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A2:K33" totalsRowShown="0">
-  <autoFilter ref="A2:K33"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A2:K35" totalsRowShown="0">
+  <autoFilter ref="A2:K35"/>
   <tableColumns count="11">
     <tableColumn id="1" name="Date Placed" dataDxfId="18"/>
     <tableColumn id="2" name="Bet Type"/>
@@ -1818,10 +1830,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L181"/>
+  <dimension ref="A1:L182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A163" zoomScale="74" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="A160" zoomScale="74" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="K187" sqref="K187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8632,6 +8644,39 @@
       <c r="L181" s="1">
         <v>0</v>
       </c>
+    </row>
+    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A182" s="4">
+        <v>43773</v>
+      </c>
+      <c r="B182" s="5">
+        <v>9</v>
+      </c>
+      <c r="C182" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D182" s="6">
+        <v>7.5</v>
+      </c>
+      <c r="E182" s="6">
+        <v>-135</v>
+      </c>
+      <c r="F182" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G182" t="s">
+        <v>212</v>
+      </c>
+      <c r="H182" t="s">
+        <v>213</v>
+      </c>
+      <c r="I182" t="s">
+        <v>13</v>
+      </c>
+      <c r="K182" s="1">
+        <v>10</v>
+      </c>
+      <c r="L182" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -8823,10 +8868,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K33"/>
+  <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3:K33"/>
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9978,6 +10023,66 @@
       <c r="K33" s="1">
         <v>18.329999999999998</v>
       </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>43773</v>
+      </c>
+      <c r="B34" t="s">
+        <v>89</v>
+      </c>
+      <c r="C34">
+        <v>8.5</v>
+      </c>
+      <c r="D34">
+        <v>-120</v>
+      </c>
+      <c r="E34" t="s">
+        <v>155</v>
+      </c>
+      <c r="F34" t="s">
+        <v>210</v>
+      </c>
+      <c r="G34" t="s">
+        <v>158</v>
+      </c>
+      <c r="H34" t="s">
+        <v>66</v>
+      </c>
+      <c r="J34" s="1">
+        <v>10</v>
+      </c>
+      <c r="K34" s="1"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>43773</v>
+      </c>
+      <c r="B35" t="s">
+        <v>89</v>
+      </c>
+      <c r="C35">
+        <v>8.5</v>
+      </c>
+      <c r="D35">
+        <v>-130</v>
+      </c>
+      <c r="E35" t="s">
+        <v>155</v>
+      </c>
+      <c r="F35" t="s">
+        <v>211</v>
+      </c>
+      <c r="G35" t="s">
+        <v>158</v>
+      </c>
+      <c r="H35" t="s">
+        <v>66</v>
+      </c>
+      <c r="J35" s="1">
+        <v>10</v>
+      </c>
+      <c r="K35" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/SportsBettingLogs.xlsx
+++ b/SportsBettingLogs.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Summary Tab" sheetId="4" r:id="rId1"/>
@@ -19,22 +19,17 @@
     <sheet name="Soccer Bets" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1490" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1666" uniqueCount="248">
   <si>
     <t>Bet Type</t>
   </si>
@@ -676,6 +671,108 @@
   </si>
   <si>
     <t>Kicking Points</t>
+  </si>
+  <si>
+    <t>Portland Blazers</t>
+  </si>
+  <si>
+    <t>Golden Tate</t>
+  </si>
+  <si>
+    <t>Evan Engram</t>
+  </si>
+  <si>
+    <t>Minnesota Timberwolves</t>
+  </si>
+  <si>
+    <t>Milwaukee Bucks</t>
+  </si>
+  <si>
+    <t>Memphis Grizzlies</t>
+  </si>
+  <si>
+    <t>Houston Rockets</t>
+  </si>
+  <si>
+    <t>Cleveland Cavaliers</t>
+  </si>
+  <si>
+    <t>Boston Celtics</t>
+  </si>
+  <si>
+    <t>Indiana Pacers</t>
+  </si>
+  <si>
+    <t>Towson Tigers</t>
+  </si>
+  <si>
+    <t>GW Colonials</t>
+  </si>
+  <si>
+    <t>Chris Paul</t>
+  </si>
+  <si>
+    <t>Alex Len</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Denver Nuggets</t>
+  </si>
+  <si>
+    <t>NCAAM</t>
+  </si>
+  <si>
+    <t>Syracuse University</t>
+  </si>
+  <si>
+    <t>University of Virginia</t>
+  </si>
+  <si>
+    <t>NCAAF</t>
+  </si>
+  <si>
+    <t>Alabama Crimson Tide</t>
+  </si>
+  <si>
+    <t>LSU Tigers</t>
+  </si>
+  <si>
+    <t>Pittsburgh</t>
+  </si>
+  <si>
+    <t>Florida State</t>
+  </si>
+  <si>
+    <t>Orlando Magic</t>
+  </si>
+  <si>
+    <t>Toronto Raptors</t>
+  </si>
+  <si>
+    <t>Eric Paschall</t>
+  </si>
+  <si>
+    <t>Ky Bowman</t>
+  </si>
+  <si>
+    <t>Al Horford</t>
+  </si>
+  <si>
+    <t>Total Rebounds and Assists</t>
+  </si>
+  <si>
+    <t>Danuel House</t>
+  </si>
+  <si>
+    <t>T.J. Warren</t>
+  </si>
+  <si>
+    <t>Ohio</t>
+  </si>
+  <si>
+    <t>Miami Ohio</t>
   </si>
 </sst>
 </file>
@@ -767,16 +864,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="80">
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
-    </dxf>
+  <dxfs count="86">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -806,21 +894,6 @@
           <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
     </dxf>
     <dxf>
       <font>
@@ -873,15 +946,6 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C5700"/>
       </font>
@@ -910,38 +974,6 @@
           <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1423,6 +1455,131 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1437,31 +1594,31 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table134" displayName="Table134" ref="A2:L182" totalsRowShown="0">
-  <autoFilter ref="A2:L182"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table134" displayName="Table134" ref="A2:L189" totalsRowShown="0">
+  <autoFilter ref="A2:L189"/>
   <tableColumns count="12">
-    <tableColumn id="17" name="Date Placed" dataDxfId="31"/>
-    <tableColumn id="11" name="NFL Week" dataDxfId="30"/>
-    <tableColumn id="1" name="Bet Type" dataDxfId="29"/>
-    <tableColumn id="10" name="Points" dataDxfId="28"/>
-    <tableColumn id="2" name="Odds" dataDxfId="27"/>
-    <tableColumn id="9" name="League" dataDxfId="26"/>
+    <tableColumn id="17" name="Date Placed" dataDxfId="85"/>
+    <tableColumn id="11" name="NFL Week" dataDxfId="84"/>
+    <tableColumn id="1" name="Bet Type" dataDxfId="83"/>
+    <tableColumn id="10" name="Points" dataDxfId="82"/>
+    <tableColumn id="2" name="Odds" dataDxfId="81"/>
+    <tableColumn id="9" name="League" dataDxfId="80"/>
     <tableColumn id="3" name="Home Team"/>
     <tableColumn id="4" name="Away Team"/>
     <tableColumn id="5" name="Outcome Chosen"/>
     <tableColumn id="6" name="Result"/>
-    <tableColumn id="7" name="Bet Size" dataDxfId="25" totalsRowDxfId="24"/>
-    <tableColumn id="8" name="Payout" dataDxfId="23" totalsRowDxfId="22"/>
+    <tableColumn id="7" name="Bet Size" dataDxfId="79" totalsRowDxfId="78"/>
+    <tableColumn id="8" name="Payout" dataDxfId="77" totalsRowDxfId="76"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A2:K35" totalsRowShown="0">
-  <autoFilter ref="A2:K35"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A2:K57" totalsRowShown="0">
+  <autoFilter ref="A2:K57"/>
   <tableColumns count="11">
-    <tableColumn id="1" name="Date Placed" dataDxfId="18"/>
+    <tableColumn id="1" name="Date Placed" dataDxfId="75"/>
     <tableColumn id="2" name="Bet Type"/>
     <tableColumn id="3" name="Points"/>
     <tableColumn id="4" name="Odds"/>
@@ -1470,8 +1627,8 @@
     <tableColumn id="7" name="Away Team"/>
     <tableColumn id="8" name="Outcome Chosen"/>
     <tableColumn id="9" name="Result"/>
-    <tableColumn id="10" name="Bet Size" dataDxfId="17"/>
-    <tableColumn id="11" name="Payout" dataDxfId="16"/>
+    <tableColumn id="10" name="Bet Size" dataDxfId="74"/>
+    <tableColumn id="11" name="Payout" dataDxfId="73"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1484,17 +1641,17 @@
     <sortCondition ref="A2:A27"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="17" name="Date" totalsRowLabel="Total" dataDxfId="10"/>
+    <tableColumn id="17" name="Date" totalsRowLabel="Total" dataDxfId="72"/>
     <tableColumn id="1" name="Bet Type"/>
     <tableColumn id="2" name="Odds"/>
     <tableColumn id="3" name="Team 1"/>
     <tableColumn id="4" name="Team 2"/>
     <tableColumn id="5" name="Outcome Chosen"/>
     <tableColumn id="6" name="Result"/>
-    <tableColumn id="7" name="Bet Size" totalsRowFunction="custom" dataDxfId="9" totalsRowDxfId="8">
+    <tableColumn id="7" name="Bet Size" totalsRowFunction="custom" dataDxfId="71" totalsRowDxfId="70">
       <totalsRowFormula>SUMIF(Table1[Result],"&lt;&gt;",Table1[Bet Size])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" name="Payout" totalsRowFunction="custom" dataDxfId="7" totalsRowDxfId="6">
+    <tableColumn id="8" name="Payout" totalsRowFunction="custom" dataDxfId="69" totalsRowDxfId="68">
       <totalsRowFormula>SUMIF(Table1[Result],"&lt;&gt;",Table1[Payout])</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -1506,7 +1663,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A2:J3" totalsRowShown="0">
   <autoFilter ref="A2:J3"/>
   <tableColumns count="10">
-    <tableColumn id="17" name="Date" dataDxfId="2"/>
+    <tableColumn id="17" name="Date" dataDxfId="67"/>
     <tableColumn id="1" name="Bet Type"/>
     <tableColumn id="2" name="Odds"/>
     <tableColumn id="9" name="League"/>
@@ -1514,8 +1671,8 @@
     <tableColumn id="4" name="Team 2"/>
     <tableColumn id="5" name="Outcome Chosen"/>
     <tableColumn id="6" name="Result"/>
-    <tableColumn id="7" name="Bet Size" dataDxfId="1"/>
-    <tableColumn id="8" name="Payout" dataDxfId="0"/>
+    <tableColumn id="7" name="Bet Size" dataDxfId="66"/>
+    <tableColumn id="8" name="Payout" dataDxfId="65"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1830,10 +1987,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L182"/>
+  <dimension ref="A1:L189"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A160" zoomScale="74" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="K187" sqref="K187"/>
+    <sheetView tabSelected="1" topLeftCell="A163" zoomScale="74" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="M182" sqref="M182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8673,189 +8830,467 @@
       <c r="I182" t="s">
         <v>13</v>
       </c>
+      <c r="J182" t="s">
+        <v>23</v>
+      </c>
       <c r="K182" s="1">
         <v>10</v>
       </c>
-      <c r="L182" s="1"/>
+      <c r="L182" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A183" s="4">
+        <v>43773</v>
+      </c>
+      <c r="B183" s="5">
+        <v>9</v>
+      </c>
+      <c r="C183" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D183" s="6">
+        <v>58.5</v>
+      </c>
+      <c r="E183" s="6">
+        <v>100</v>
+      </c>
+      <c r="F183" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G183" t="s">
+        <v>215</v>
+      </c>
+      <c r="H183" t="s">
+        <v>119</v>
+      </c>
+      <c r="I183" t="s">
+        <v>13</v>
+      </c>
+      <c r="J183" t="s">
+        <v>29</v>
+      </c>
+      <c r="K183" s="1">
+        <v>10</v>
+      </c>
+      <c r="L183" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A184" s="4">
+        <v>43773</v>
+      </c>
+      <c r="B184" s="5">
+        <v>9</v>
+      </c>
+      <c r="C184" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D184" s="6">
+        <v>55.5</v>
+      </c>
+      <c r="E184" s="6">
+        <v>-115</v>
+      </c>
+      <c r="F184" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G184" t="s">
+        <v>216</v>
+      </c>
+      <c r="H184" t="s">
+        <v>119</v>
+      </c>
+      <c r="I184" t="s">
+        <v>13</v>
+      </c>
+      <c r="J184" t="s">
+        <v>29</v>
+      </c>
+      <c r="K184" s="1">
+        <v>10</v>
+      </c>
+      <c r="L184" s="1">
+        <v>18.7</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A185" s="4">
+        <v>43773</v>
+      </c>
+      <c r="B185" s="5">
+        <v>9</v>
+      </c>
+      <c r="C185" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D185" s="6">
+        <v>-7</v>
+      </c>
+      <c r="E185" s="6">
+        <v>-102</v>
+      </c>
+      <c r="F185" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G185" t="s">
+        <v>83</v>
+      </c>
+      <c r="H185" t="s">
+        <v>56</v>
+      </c>
+      <c r="I185" t="s">
+        <v>56</v>
+      </c>
+      <c r="J185" t="s">
+        <v>29</v>
+      </c>
+      <c r="K185" s="1">
+        <v>30</v>
+      </c>
+      <c r="L185" s="1">
+        <v>59.05</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A186" s="4">
+        <v>43774</v>
+      </c>
+      <c r="B186" s="5">
+        <v>10</v>
+      </c>
+      <c r="C186" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D186" s="6">
+        <v>-10</v>
+      </c>
+      <c r="E186" s="6">
+        <v>-108</v>
+      </c>
+      <c r="F186" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G186" t="s">
+        <v>110</v>
+      </c>
+      <c r="H186" t="s">
+        <v>71</v>
+      </c>
+      <c r="I186" t="s">
+        <v>71</v>
+      </c>
+      <c r="K186" s="1">
+        <v>20</v>
+      </c>
+      <c r="L186" s="1"/>
+    </row>
+    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A187" s="4">
+        <v>43774</v>
+      </c>
+      <c r="B187" s="5">
+        <v>10</v>
+      </c>
+      <c r="C187" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D187" s="6">
+        <v>3</v>
+      </c>
+      <c r="E187" s="6">
+        <v>-110</v>
+      </c>
+      <c r="F187" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G187" t="s">
+        <v>56</v>
+      </c>
+      <c r="H187" t="s">
+        <v>82</v>
+      </c>
+      <c r="I187" t="s">
+        <v>82</v>
+      </c>
+      <c r="K187" s="1">
+        <v>10</v>
+      </c>
+      <c r="L187" s="1"/>
+    </row>
+    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A188" s="4">
+        <v>43775</v>
+      </c>
+      <c r="B188" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="C188" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D188" s="6">
+        <v>6</v>
+      </c>
+      <c r="E188" s="6">
+        <v>-110</v>
+      </c>
+      <c r="F188" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="G188" t="s">
+        <v>234</v>
+      </c>
+      <c r="H188" t="s">
+        <v>235</v>
+      </c>
+      <c r="I188" t="s">
+        <v>235</v>
+      </c>
+      <c r="K188" s="1">
+        <v>10</v>
+      </c>
+      <c r="L188" s="1"/>
+    </row>
+    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A189" s="4">
+        <v>43775</v>
+      </c>
+      <c r="B189" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="C189" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D189" s="6">
+        <v>57.5</v>
+      </c>
+      <c r="E189" s="6">
+        <v>-115</v>
+      </c>
+      <c r="F189" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="G189" t="s">
+        <v>246</v>
+      </c>
+      <c r="H189" t="s">
+        <v>247</v>
+      </c>
+      <c r="I189" t="s">
+        <v>13</v>
+      </c>
+      <c r="J189" t="s">
+        <v>29</v>
+      </c>
+      <c r="K189" s="1">
+        <v>20</v>
+      </c>
+      <c r="L189" s="1">
+        <v>37.39</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:L1"/>
   </mergeCells>
-  <conditionalFormatting sqref="J44:J50 J1:J42 J52:J83 J87 J89:J90 J92:J93 J107 J109:J112 J96:J104 J117:J154 J178:J1027 J156:J176">
-    <cfRule type="containsText" dxfId="79" priority="46" operator="containsText" text="No Action">
+  <conditionalFormatting sqref="J44:J50 J1:J42 J52:J83 J87 J89:J90 J92:J93 J107 J109:J112 J96:J104 J117:J154 J178:J182 J156:J176 J185:J1027">
+    <cfRule type="containsText" dxfId="64" priority="52" operator="containsText" text="No Action">
       <formula>NOT(ISERROR(SEARCH("No Action",J1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="78" priority="47" operator="containsText" text="Win">
+    <cfRule type="containsText" dxfId="63" priority="53" operator="containsText" text="Win">
       <formula>NOT(ISERROR(SEARCH("Win",J1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="77" priority="48" operator="containsText" text="Loss">
+    <cfRule type="containsText" dxfId="62" priority="54" operator="containsText" text="Loss">
       <formula>NOT(ISERROR(SEARCH("Loss",J1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J43">
-    <cfRule type="containsText" dxfId="76" priority="43" operator="containsText" text="No Action">
+    <cfRule type="containsText" dxfId="61" priority="49" operator="containsText" text="No Action">
       <formula>NOT(ISERROR(SEARCH("No Action",J43)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="75" priority="44" operator="containsText" text="Win">
+    <cfRule type="containsText" dxfId="60" priority="50" operator="containsText" text="Win">
       <formula>NOT(ISERROR(SEARCH("Win",J43)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="74" priority="45" operator="containsText" text="Loss">
+    <cfRule type="containsText" dxfId="59" priority="51" operator="containsText" text="Loss">
       <formula>NOT(ISERROR(SEARCH("Loss",J43)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J51">
-    <cfRule type="containsText" dxfId="73" priority="40" operator="containsText" text="No Action">
+    <cfRule type="containsText" dxfId="58" priority="46" operator="containsText" text="No Action">
       <formula>NOT(ISERROR(SEARCH("No Action",J51)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="72" priority="41" operator="containsText" text="Win">
+    <cfRule type="containsText" dxfId="57" priority="47" operator="containsText" text="Win">
       <formula>NOT(ISERROR(SEARCH("Win",J51)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="71" priority="42" operator="containsText" text="Loss">
+    <cfRule type="containsText" dxfId="56" priority="48" operator="containsText" text="Loss">
       <formula>NOT(ISERROR(SEARCH("Loss",J51)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J84">
-    <cfRule type="containsText" dxfId="70" priority="37" operator="containsText" text="No Action">
+    <cfRule type="containsText" dxfId="55" priority="43" operator="containsText" text="No Action">
       <formula>NOT(ISERROR(SEARCH("No Action",J84)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="69" priority="38" operator="containsText" text="Win">
+    <cfRule type="containsText" dxfId="54" priority="44" operator="containsText" text="Win">
       <formula>NOT(ISERROR(SEARCH("Win",J84)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="68" priority="39" operator="containsText" text="Loss">
+    <cfRule type="containsText" dxfId="53" priority="45" operator="containsText" text="Loss">
       <formula>NOT(ISERROR(SEARCH("Loss",J84)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J85">
-    <cfRule type="containsText" dxfId="67" priority="34" operator="containsText" text="No Action">
+    <cfRule type="containsText" dxfId="52" priority="40" operator="containsText" text="No Action">
       <formula>NOT(ISERROR(SEARCH("No Action",J85)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="66" priority="35" operator="containsText" text="Win">
+    <cfRule type="containsText" dxfId="51" priority="41" operator="containsText" text="Win">
       <formula>NOT(ISERROR(SEARCH("Win",J85)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="65" priority="36" operator="containsText" text="Loss">
+    <cfRule type="containsText" dxfId="50" priority="42" operator="containsText" text="Loss">
       <formula>NOT(ISERROR(SEARCH("Loss",J85)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J86">
-    <cfRule type="containsText" dxfId="64" priority="31" operator="containsText" text="No Action">
+    <cfRule type="containsText" dxfId="49" priority="37" operator="containsText" text="No Action">
       <formula>NOT(ISERROR(SEARCH("No Action",J86)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="63" priority="32" operator="containsText" text="Win">
+    <cfRule type="containsText" dxfId="48" priority="38" operator="containsText" text="Win">
       <formula>NOT(ISERROR(SEARCH("Win",J86)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="62" priority="33" operator="containsText" text="Loss">
+    <cfRule type="containsText" dxfId="47" priority="39" operator="containsText" text="Loss">
       <formula>NOT(ISERROR(SEARCH("Loss",J86)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J88">
-    <cfRule type="containsText" dxfId="61" priority="28" operator="containsText" text="No Action">
+    <cfRule type="containsText" dxfId="46" priority="34" operator="containsText" text="No Action">
       <formula>NOT(ISERROR(SEARCH("No Action",J88)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="60" priority="29" operator="containsText" text="Win">
+    <cfRule type="containsText" dxfId="45" priority="35" operator="containsText" text="Win">
       <formula>NOT(ISERROR(SEARCH("Win",J88)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="59" priority="30" operator="containsText" text="Loss">
+    <cfRule type="containsText" dxfId="44" priority="36" operator="containsText" text="Loss">
       <formula>NOT(ISERROR(SEARCH("Loss",J88)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J91">
-    <cfRule type="containsText" dxfId="58" priority="25" operator="containsText" text="No Action">
+    <cfRule type="containsText" dxfId="43" priority="31" operator="containsText" text="No Action">
       <formula>NOT(ISERROR(SEARCH("No Action",J91)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="57" priority="26" operator="containsText" text="Win">
+    <cfRule type="containsText" dxfId="42" priority="32" operator="containsText" text="Win">
       <formula>NOT(ISERROR(SEARCH("Win",J91)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="56" priority="27" operator="containsText" text="Loss">
+    <cfRule type="containsText" dxfId="41" priority="33" operator="containsText" text="Loss">
       <formula>NOT(ISERROR(SEARCH("Loss",J91)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J105">
-    <cfRule type="containsText" dxfId="55" priority="22" operator="containsText" text="No Action">
+    <cfRule type="containsText" dxfId="40" priority="28" operator="containsText" text="No Action">
       <formula>NOT(ISERROR(SEARCH("No Action",J105)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="54" priority="23" operator="containsText" text="Win">
+    <cfRule type="containsText" dxfId="39" priority="29" operator="containsText" text="Win">
       <formula>NOT(ISERROR(SEARCH("Win",J105)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="53" priority="24" operator="containsText" text="Loss">
+    <cfRule type="containsText" dxfId="38" priority="30" operator="containsText" text="Loss">
       <formula>NOT(ISERROR(SEARCH("Loss",J105)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J106">
-    <cfRule type="containsText" dxfId="52" priority="19" operator="containsText" text="No Action">
+    <cfRule type="containsText" dxfId="37" priority="25" operator="containsText" text="No Action">
       <formula>NOT(ISERROR(SEARCH("No Action",J106)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="51" priority="20" operator="containsText" text="Win">
+    <cfRule type="containsText" dxfId="36" priority="26" operator="containsText" text="Win">
       <formula>NOT(ISERROR(SEARCH("Win",J106)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="21" operator="containsText" text="Loss">
+    <cfRule type="containsText" dxfId="35" priority="27" operator="containsText" text="Loss">
       <formula>NOT(ISERROR(SEARCH("Loss",J106)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J108">
-    <cfRule type="containsText" dxfId="49" priority="16" operator="containsText" text="No Action">
+    <cfRule type="containsText" dxfId="34" priority="22" operator="containsText" text="No Action">
       <formula>NOT(ISERROR(SEARCH("No Action",J108)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="17" operator="containsText" text="Win">
+    <cfRule type="containsText" dxfId="33" priority="23" operator="containsText" text="Win">
       <formula>NOT(ISERROR(SEARCH("Win",J108)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="47" priority="18" operator="containsText" text="Loss">
+    <cfRule type="containsText" dxfId="32" priority="24" operator="containsText" text="Loss">
       <formula>NOT(ISERROR(SEARCH("Loss",J108)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J113:J114">
-    <cfRule type="containsText" dxfId="46" priority="13" operator="containsText" text="No Action">
+    <cfRule type="containsText" dxfId="31" priority="19" operator="containsText" text="No Action">
       <formula>NOT(ISERROR(SEARCH("No Action",J113)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="14" operator="containsText" text="Win">
+    <cfRule type="containsText" dxfId="30" priority="20" operator="containsText" text="Win">
       <formula>NOT(ISERROR(SEARCH("Win",J113)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="44" priority="15" operator="containsText" text="Loss">
+    <cfRule type="containsText" dxfId="29" priority="21" operator="containsText" text="Loss">
       <formula>NOT(ISERROR(SEARCH("Loss",J113)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J115:J116">
-    <cfRule type="containsText" dxfId="43" priority="10" operator="containsText" text="No Action">
+    <cfRule type="containsText" dxfId="28" priority="16" operator="containsText" text="No Action">
       <formula>NOT(ISERROR(SEARCH("No Action",J115)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="11" operator="containsText" text="Win">
+    <cfRule type="containsText" dxfId="27" priority="17" operator="containsText" text="Win">
       <formula>NOT(ISERROR(SEARCH("Win",J115)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="41" priority="12" operator="containsText" text="Loss">
+    <cfRule type="containsText" dxfId="26" priority="18" operator="containsText" text="Loss">
       <formula>NOT(ISERROR(SEARCH("Loss",J115)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J94:J95">
-    <cfRule type="containsText" dxfId="40" priority="7" operator="containsText" text="No Action">
+    <cfRule type="containsText" dxfId="25" priority="13" operator="containsText" text="No Action">
       <formula>NOT(ISERROR(SEARCH("No Action",J94)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="39" priority="8" operator="containsText" text="Win">
+    <cfRule type="containsText" dxfId="24" priority="14" operator="containsText" text="Win">
       <formula>NOT(ISERROR(SEARCH("Win",J94)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="9" operator="containsText" text="Loss">
+    <cfRule type="containsText" dxfId="23" priority="15" operator="containsText" text="Loss">
       <formula>NOT(ISERROR(SEARCH("Loss",J94)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J155">
-    <cfRule type="containsText" dxfId="37" priority="4" operator="containsText" text="No Action">
+    <cfRule type="containsText" dxfId="22" priority="10" operator="containsText" text="No Action">
       <formula>NOT(ISERROR(SEARCH("No Action",J155)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="5" operator="containsText" text="Win">
+    <cfRule type="containsText" dxfId="21" priority="11" operator="containsText" text="Win">
       <formula>NOT(ISERROR(SEARCH("Win",J155)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="35" priority="6" operator="containsText" text="Loss">
+    <cfRule type="containsText" dxfId="20" priority="12" operator="containsText" text="Loss">
       <formula>NOT(ISERROR(SEARCH("Loss",J155)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J177">
-    <cfRule type="containsText" dxfId="34" priority="1" operator="containsText" text="No Action">
+    <cfRule type="containsText" dxfId="19" priority="7" operator="containsText" text="No Action">
       <formula>NOT(ISERROR(SEARCH("No Action",J177)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="2" operator="containsText" text="Win">
+    <cfRule type="containsText" dxfId="18" priority="8" operator="containsText" text="Win">
       <formula>NOT(ISERROR(SEARCH("Win",J177)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="3" operator="containsText" text="Loss">
+    <cfRule type="containsText" dxfId="17" priority="9" operator="containsText" text="Loss">
       <formula>NOT(ISERROR(SEARCH("Loss",J177)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J183">
+    <cfRule type="containsText" dxfId="16" priority="4" operator="containsText" text="No Action">
+      <formula>NOT(ISERROR(SEARCH("No Action",J183)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="15" priority="5" operator="containsText" text="Win">
+      <formula>NOT(ISERROR(SEARCH("Win",J183)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="14" priority="6" operator="containsText" text="Loss">
+      <formula>NOT(ISERROR(SEARCH("Loss",J183)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J184">
+    <cfRule type="containsText" dxfId="13" priority="1" operator="containsText" text="No Action">
+      <formula>NOT(ISERROR(SEARCH("No Action",J184)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="12" priority="2" operator="containsText" text="Win">
+      <formula>NOT(ISERROR(SEARCH("Win",J184)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="11" priority="3" operator="containsText" text="Loss">
+      <formula>NOT(ISERROR(SEARCH("Loss",J184)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8868,10 +9303,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K35"/>
+  <dimension ref="A1:K57"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K57" sqref="K3:K57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10049,10 +10484,15 @@
       <c r="H34" t="s">
         <v>66</v>
       </c>
+      <c r="I34" t="s">
+        <v>23</v>
+      </c>
       <c r="J34" s="1">
         <v>10</v>
       </c>
-      <c r="K34" s="1"/>
+      <c r="K34" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
@@ -10079,23 +10519,798 @@
       <c r="H35" t="s">
         <v>66</v>
       </c>
+      <c r="I35" t="s">
+        <v>23</v>
+      </c>
       <c r="J35" s="1">
         <v>10</v>
       </c>
-      <c r="K35" s="1"/>
+      <c r="K35" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>43773</v>
+      </c>
+      <c r="B36" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36">
+        <v>220.5</v>
+      </c>
+      <c r="D36">
+        <v>-110</v>
+      </c>
+      <c r="E36" t="s">
+        <v>155</v>
+      </c>
+      <c r="F36" t="s">
+        <v>194</v>
+      </c>
+      <c r="G36" t="s">
+        <v>214</v>
+      </c>
+      <c r="H36" t="s">
+        <v>13</v>
+      </c>
+      <c r="I36" t="s">
+        <v>23</v>
+      </c>
+      <c r="J36" s="1">
+        <v>10</v>
+      </c>
+      <c r="K36" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>43773</v>
+      </c>
+      <c r="B37" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37">
+        <v>-7.5</v>
+      </c>
+      <c r="D37">
+        <v>-110</v>
+      </c>
+      <c r="E37" t="s">
+        <v>155</v>
+      </c>
+      <c r="F37" t="s">
+        <v>217</v>
+      </c>
+      <c r="G37" t="s">
+        <v>218</v>
+      </c>
+      <c r="H37" t="s">
+        <v>218</v>
+      </c>
+      <c r="I37" t="s">
+        <v>29</v>
+      </c>
+      <c r="J37" s="1">
+        <v>10</v>
+      </c>
+      <c r="K37" s="1">
+        <v>19.09</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>43773</v>
+      </c>
+      <c r="B38" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38">
+        <v>-6</v>
+      </c>
+      <c r="D38">
+        <v>-110</v>
+      </c>
+      <c r="E38" t="s">
+        <v>155</v>
+      </c>
+      <c r="F38" t="s">
+        <v>219</v>
+      </c>
+      <c r="G38" t="s">
+        <v>220</v>
+      </c>
+      <c r="H38" t="s">
+        <v>220</v>
+      </c>
+      <c r="I38" t="s">
+        <v>29</v>
+      </c>
+      <c r="J38" s="1">
+        <v>10</v>
+      </c>
+      <c r="K38" s="1">
+        <v>19.09</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>43774</v>
+      </c>
+      <c r="B39" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39">
+        <v>-6</v>
+      </c>
+      <c r="D39">
+        <v>-115</v>
+      </c>
+      <c r="E39" t="s">
+        <v>155</v>
+      </c>
+      <c r="F39" t="s">
+        <v>221</v>
+      </c>
+      <c r="G39" t="s">
+        <v>222</v>
+      </c>
+      <c r="H39" t="s">
+        <v>222</v>
+      </c>
+      <c r="I39" t="s">
+        <v>104</v>
+      </c>
+      <c r="J39" s="1">
+        <v>10</v>
+      </c>
+      <c r="K39" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>43774</v>
+      </c>
+      <c r="B40" t="s">
+        <v>3</v>
+      </c>
+      <c r="C40">
+        <v>-3.5</v>
+      </c>
+      <c r="D40">
+        <v>-110</v>
+      </c>
+      <c r="E40" t="s">
+        <v>155</v>
+      </c>
+      <c r="F40" t="s">
+        <v>182</v>
+      </c>
+      <c r="G40" t="s">
+        <v>223</v>
+      </c>
+      <c r="H40" t="s">
+        <v>223</v>
+      </c>
+      <c r="I40" t="s">
+        <v>23</v>
+      </c>
+      <c r="J40" s="1">
+        <v>10</v>
+      </c>
+      <c r="K40" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>43774</v>
+      </c>
+      <c r="B41" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41">
+        <v>5.5</v>
+      </c>
+      <c r="D41">
+        <v>-110</v>
+      </c>
+      <c r="E41" t="s">
+        <v>155</v>
+      </c>
+      <c r="F41" t="s">
+        <v>224</v>
+      </c>
+      <c r="G41" t="s">
+        <v>225</v>
+      </c>
+      <c r="H41" t="s">
+        <v>225</v>
+      </c>
+      <c r="I41" t="s">
+        <v>23</v>
+      </c>
+      <c r="J41" s="1">
+        <v>10</v>
+      </c>
+      <c r="K41" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <v>43774</v>
+      </c>
+      <c r="B42" t="s">
+        <v>89</v>
+      </c>
+      <c r="C42">
+        <v>15.5</v>
+      </c>
+      <c r="D42">
+        <v>-125</v>
+      </c>
+      <c r="E42" t="s">
+        <v>155</v>
+      </c>
+      <c r="F42" t="s">
+        <v>226</v>
+      </c>
+      <c r="G42" t="s">
+        <v>158</v>
+      </c>
+      <c r="H42" t="s">
+        <v>13</v>
+      </c>
+      <c r="I42" t="s">
+        <v>23</v>
+      </c>
+      <c r="J42" s="1">
+        <v>10</v>
+      </c>
+      <c r="K42" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
+        <v>43774</v>
+      </c>
+      <c r="B43" t="s">
+        <v>89</v>
+      </c>
+      <c r="C43">
+        <v>8</v>
+      </c>
+      <c r="D43">
+        <v>-105</v>
+      </c>
+      <c r="E43" t="s">
+        <v>155</v>
+      </c>
+      <c r="F43" t="s">
+        <v>227</v>
+      </c>
+      <c r="G43" t="s">
+        <v>158</v>
+      </c>
+      <c r="H43" t="s">
+        <v>66</v>
+      </c>
+      <c r="I43" t="s">
+        <v>23</v>
+      </c>
+      <c r="J43" s="1">
+        <v>10</v>
+      </c>
+      <c r="K43" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <v>43774</v>
+      </c>
+      <c r="B44" t="s">
+        <v>3</v>
+      </c>
+      <c r="C44">
+        <v>-5</v>
+      </c>
+      <c r="D44">
+        <v>-110</v>
+      </c>
+      <c r="E44" t="s">
+        <v>155</v>
+      </c>
+      <c r="F44" t="s">
+        <v>229</v>
+      </c>
+      <c r="G44" t="s">
+        <v>199</v>
+      </c>
+      <c r="H44" t="s">
+        <v>229</v>
+      </c>
+      <c r="I44" t="s">
+        <v>29</v>
+      </c>
+      <c r="J44" s="1">
+        <v>10</v>
+      </c>
+      <c r="K44" s="1">
+        <v>19.09</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>43774</v>
+      </c>
+      <c r="B45" t="s">
+        <v>3</v>
+      </c>
+      <c r="C45">
+        <v>-5.5</v>
+      </c>
+      <c r="D45">
+        <v>-115</v>
+      </c>
+      <c r="E45" t="s">
+        <v>155</v>
+      </c>
+      <c r="F45" t="s">
+        <v>167</v>
+      </c>
+      <c r="G45" t="s">
+        <v>193</v>
+      </c>
+      <c r="H45" t="s">
+        <v>193</v>
+      </c>
+      <c r="I45" t="s">
+        <v>29</v>
+      </c>
+      <c r="J45" s="1">
+        <v>10</v>
+      </c>
+      <c r="K45" s="1">
+        <v>18.7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
+        <v>43775</v>
+      </c>
+      <c r="B46" t="s">
+        <v>3</v>
+      </c>
+      <c r="C46">
+        <v>-3</v>
+      </c>
+      <c r="D46">
+        <v>-110</v>
+      </c>
+      <c r="E46" t="s">
+        <v>230</v>
+      </c>
+      <c r="F46" t="s">
+        <v>231</v>
+      </c>
+      <c r="G46" t="s">
+        <v>232</v>
+      </c>
+      <c r="H46" t="s">
+        <v>232</v>
+      </c>
+      <c r="I46" t="s">
+        <v>29</v>
+      </c>
+      <c r="J46" s="1">
+        <v>10</v>
+      </c>
+      <c r="K46" s="1">
+        <v>19.09</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
+        <v>43775</v>
+      </c>
+      <c r="B47" t="s">
+        <v>89</v>
+      </c>
+      <c r="C47">
+        <v>7</v>
+      </c>
+      <c r="D47">
+        <v>-120</v>
+      </c>
+      <c r="E47" t="s">
+        <v>155</v>
+      </c>
+      <c r="F47" t="s">
+        <v>177</v>
+      </c>
+      <c r="G47" t="s">
+        <v>170</v>
+      </c>
+      <c r="H47" t="s">
+        <v>13</v>
+      </c>
+      <c r="I47" t="s">
+        <v>29</v>
+      </c>
+      <c r="J47" s="1">
+        <v>20</v>
+      </c>
+      <c r="K47" s="1">
+        <v>36.67</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
+        <v>43775</v>
+      </c>
+      <c r="B48" t="s">
+        <v>3</v>
+      </c>
+      <c r="C48">
+        <v>4.5</v>
+      </c>
+      <c r="D48">
+        <v>-115</v>
+      </c>
+      <c r="E48" t="s">
+        <v>230</v>
+      </c>
+      <c r="F48" t="s">
+        <v>236</v>
+      </c>
+      <c r="G48" t="s">
+        <v>237</v>
+      </c>
+      <c r="H48" t="s">
+        <v>236</v>
+      </c>
+      <c r="I48" t="s">
+        <v>29</v>
+      </c>
+      <c r="J48" s="1">
+        <v>10</v>
+      </c>
+      <c r="K48" s="1">
+        <v>18.7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
+        <v>43775</v>
+      </c>
+      <c r="B49" t="s">
+        <v>3</v>
+      </c>
+      <c r="C49">
+        <v>7</v>
+      </c>
+      <c r="D49">
+        <v>-115</v>
+      </c>
+      <c r="E49" t="s">
+        <v>155</v>
+      </c>
+      <c r="F49" t="s">
+        <v>192</v>
+      </c>
+      <c r="G49" t="s">
+        <v>238</v>
+      </c>
+      <c r="H49" t="s">
+        <v>238</v>
+      </c>
+      <c r="I49" t="s">
+        <v>29</v>
+      </c>
+      <c r="J49" s="1">
+        <v>10</v>
+      </c>
+      <c r="K49" s="1">
+        <v>18.7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <v>43775</v>
+      </c>
+      <c r="B50" t="s">
+        <v>3</v>
+      </c>
+      <c r="C50">
+        <v>-8</v>
+      </c>
+      <c r="D50">
+        <v>-110</v>
+      </c>
+      <c r="E50" t="s">
+        <v>155</v>
+      </c>
+      <c r="F50" t="s">
+        <v>239</v>
+      </c>
+      <c r="G50" t="s">
+        <v>181</v>
+      </c>
+      <c r="H50" t="s">
+        <v>239</v>
+      </c>
+      <c r="I50" t="s">
+        <v>23</v>
+      </c>
+      <c r="J50" s="1">
+        <v>10</v>
+      </c>
+      <c r="K50" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
+        <v>43775</v>
+      </c>
+      <c r="B51" t="s">
+        <v>175</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>-115</v>
+      </c>
+      <c r="E51" t="s">
+        <v>155</v>
+      </c>
+      <c r="F51" t="s">
+        <v>198</v>
+      </c>
+      <c r="G51" t="s">
+        <v>167</v>
+      </c>
+      <c r="H51" t="s">
+        <v>198</v>
+      </c>
+      <c r="I51" t="s">
+        <v>23</v>
+      </c>
+      <c r="J51" s="1">
+        <v>10</v>
+      </c>
+      <c r="K51" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" s="2">
+        <v>43775</v>
+      </c>
+      <c r="B52" t="s">
+        <v>89</v>
+      </c>
+      <c r="C52">
+        <v>18.5</v>
+      </c>
+      <c r="D52">
+        <v>-110</v>
+      </c>
+      <c r="E52" t="s">
+        <v>155</v>
+      </c>
+      <c r="F52" t="s">
+        <v>240</v>
+      </c>
+      <c r="G52" t="s">
+        <v>158</v>
+      </c>
+      <c r="H52" t="s">
+        <v>13</v>
+      </c>
+      <c r="I52" t="s">
+        <v>23</v>
+      </c>
+      <c r="J52" s="1">
+        <v>10</v>
+      </c>
+      <c r="K52" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" s="2">
+        <v>43775</v>
+      </c>
+      <c r="B53" t="s">
+        <v>89</v>
+      </c>
+      <c r="C53">
+        <v>4.5</v>
+      </c>
+      <c r="D53">
+        <v>-115</v>
+      </c>
+      <c r="E53" t="s">
+        <v>155</v>
+      </c>
+      <c r="F53" t="s">
+        <v>241</v>
+      </c>
+      <c r="G53" t="s">
+        <v>170</v>
+      </c>
+      <c r="H53" t="s">
+        <v>13</v>
+      </c>
+      <c r="I53" t="s">
+        <v>29</v>
+      </c>
+      <c r="J53" s="1">
+        <v>10</v>
+      </c>
+      <c r="K53" s="1">
+        <v>18.7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" s="2">
+        <v>43775</v>
+      </c>
+      <c r="B54" t="s">
+        <v>9</v>
+      </c>
+      <c r="C54">
+        <v>221.5</v>
+      </c>
+      <c r="D54">
+        <v>-110</v>
+      </c>
+      <c r="E54" t="s">
+        <v>155</v>
+      </c>
+      <c r="F54" t="s">
+        <v>198</v>
+      </c>
+      <c r="G54" t="s">
+        <v>167</v>
+      </c>
+      <c r="H54" t="s">
+        <v>66</v>
+      </c>
+      <c r="I54" t="s">
+        <v>23</v>
+      </c>
+      <c r="J54" s="1">
+        <v>10</v>
+      </c>
+      <c r="K54" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" s="2">
+        <v>43775</v>
+      </c>
+      <c r="B55" t="s">
+        <v>89</v>
+      </c>
+      <c r="C55">
+        <v>10.5</v>
+      </c>
+      <c r="D55">
+        <v>-115</v>
+      </c>
+      <c r="E55" t="s">
+        <v>155</v>
+      </c>
+      <c r="F55" t="s">
+        <v>242</v>
+      </c>
+      <c r="G55" t="s">
+        <v>243</v>
+      </c>
+      <c r="H55" t="s">
+        <v>13</v>
+      </c>
+      <c r="I55" t="s">
+        <v>29</v>
+      </c>
+      <c r="J55" s="1">
+        <v>10</v>
+      </c>
+      <c r="K55" s="1">
+        <v>18.7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" s="2">
+        <v>43775</v>
+      </c>
+      <c r="B56" t="s">
+        <v>89</v>
+      </c>
+      <c r="C56">
+        <v>11.5</v>
+      </c>
+      <c r="D56">
+        <v>-125</v>
+      </c>
+      <c r="E56" t="s">
+        <v>155</v>
+      </c>
+      <c r="F56" t="s">
+        <v>244</v>
+      </c>
+      <c r="G56" t="s">
+        <v>158</v>
+      </c>
+      <c r="H56" t="s">
+        <v>66</v>
+      </c>
+      <c r="I56" t="s">
+        <v>29</v>
+      </c>
+      <c r="J56" s="1">
+        <v>10</v>
+      </c>
+      <c r="K56" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57" s="2">
+        <v>43775</v>
+      </c>
+      <c r="B57" t="s">
+        <v>89</v>
+      </c>
+      <c r="C57">
+        <v>18.5</v>
+      </c>
+      <c r="D57">
+        <v>-115</v>
+      </c>
+      <c r="E57" t="s">
+        <v>155</v>
+      </c>
+      <c r="F57" t="s">
+        <v>245</v>
+      </c>
+      <c r="G57" t="s">
+        <v>158</v>
+      </c>
+      <c r="H57" t="s">
+        <v>66</v>
+      </c>
+      <c r="I57" t="s">
+        <v>29</v>
+      </c>
+      <c r="J57" s="1">
+        <v>10</v>
+      </c>
+      <c r="K57" s="1">
+        <v>18.7</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:K1"/>
   </mergeCells>
-  <conditionalFormatting sqref="I3:I160">
-    <cfRule type="containsText" dxfId="21" priority="21" operator="containsText" text="Win">
+  <conditionalFormatting sqref="I3:I158">
+    <cfRule type="containsText" dxfId="10" priority="21" operator="containsText" text="Win">
       <formula>NOT(ISERROR(SEARCH("Win",I3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="22" operator="containsText" text="Loss">
+    <cfRule type="containsText" dxfId="9" priority="22" operator="containsText" text="Loss">
       <formula>NOT(ISERROR(SEARCH("Loss",I3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="23" operator="containsText" text="No Action">
+    <cfRule type="containsText" dxfId="8" priority="23" operator="containsText" text="No Action">
       <formula>NOT(ISERROR(SEARCH("No Action",I3)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11090,10 +12305,10 @@
     <mergeCell ref="A1:I1"/>
   </mergeCells>
   <conditionalFormatting sqref="J34">
-    <cfRule type="cellIs" dxfId="15" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
     <cfRule type="colorScale" priority="3">
@@ -11108,13 +12323,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="containsText" dxfId="13" priority="4" operator="containsText" text="No Action">
+    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="No Action">
       <formula>NOT(ISERROR(SEARCH("No Action",G1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="5" operator="containsText" text="Win">
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="Win">
       <formula>NOT(ISERROR(SEARCH("Win",G1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="6" operator="containsText" text="Loss">
+    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="Loss">
       <formula>NOT(ISERROR(SEARCH("Loss",G1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11230,13 +12445,13 @@
     <mergeCell ref="A1:J1"/>
   </mergeCells>
   <conditionalFormatting sqref="H1:H3">
-    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="No Action">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="No Action">
       <formula>NOT(ISERROR(SEARCH("No Action",H1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="Win">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Win">
       <formula>NOT(ISERROR(SEARCH("Win",H1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="Loss">
+    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="Loss">
       <formula>NOT(ISERROR(SEARCH("Loss",H1)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/SportsBettingLogs.xlsx
+++ b/SportsBettingLogs.xlsx
@@ -19,7 +19,6 @@
     <sheet name="Soccer Bets" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1666" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1948" uniqueCount="279">
   <si>
     <t>Bet Type</t>
   </si>
@@ -715,30 +714,15 @@
     <t>Alex Len</t>
   </si>
   <si>
-    <t>NA</t>
-  </si>
-  <si>
     <t>Denver Nuggets</t>
   </si>
   <si>
     <t>NCAAM</t>
   </si>
   <si>
-    <t>Syracuse University</t>
-  </si>
-  <si>
-    <t>University of Virginia</t>
-  </si>
-  <si>
     <t>NCAAF</t>
   </si>
   <si>
-    <t>Alabama Crimson Tide</t>
-  </si>
-  <si>
-    <t>LSU Tigers</t>
-  </si>
-  <si>
     <t>Pittsburgh</t>
   </si>
   <si>
@@ -773,6 +757,114 @@
   </si>
   <si>
     <t>Miami Ohio</t>
+  </si>
+  <si>
+    <t>Alabama</t>
+  </si>
+  <si>
+    <t>LSU</t>
+  </si>
+  <si>
+    <t>Northwestern</t>
+  </si>
+  <si>
+    <t>Purdue</t>
+  </si>
+  <si>
+    <t>Arkansas</t>
+  </si>
+  <si>
+    <t>Western Kentucky</t>
+  </si>
+  <si>
+    <t>Arizona State</t>
+  </si>
+  <si>
+    <t>USC</t>
+  </si>
+  <si>
+    <t>Texas</t>
+  </si>
+  <si>
+    <t>Kansas State</t>
+  </si>
+  <si>
+    <t>Phoenix Suns</t>
+  </si>
+  <si>
+    <t>Philip Rivers</t>
+  </si>
+  <si>
+    <t>Zay Jones</t>
+  </si>
+  <si>
+    <t>PJ Washington</t>
+  </si>
+  <si>
+    <t>Virginia</t>
+  </si>
+  <si>
+    <t>Syracuse</t>
+  </si>
+  <si>
+    <t>James Madison</t>
+  </si>
+  <si>
+    <t>Dion Lewis</t>
+  </si>
+  <si>
+    <t>Tyler Kroft</t>
+  </si>
+  <si>
+    <t>Mark Andrews</t>
+  </si>
+  <si>
+    <t>Tyler Eifert</t>
+  </si>
+  <si>
+    <t>Odell Beckham Jr.</t>
+  </si>
+  <si>
+    <t>California</t>
+  </si>
+  <si>
+    <t>Troy</t>
+  </si>
+  <si>
+    <t>Michigan St</t>
+  </si>
+  <si>
+    <t>Illinois</t>
+  </si>
+  <si>
+    <t>Minnesota</t>
+  </si>
+  <si>
+    <t>Penn State</t>
+  </si>
+  <si>
+    <t>Georgia Southern</t>
+  </si>
+  <si>
+    <t>Washington State</t>
+  </si>
+  <si>
+    <t>Michigan State</t>
+  </si>
+  <si>
+    <t>Cincinnati</t>
+  </si>
+  <si>
+    <t>Connecticut</t>
+  </si>
+  <si>
+    <t>Portland Trail Blazers</t>
+  </si>
+  <si>
+    <t>Buddy Hield</t>
+  </si>
+  <si>
+    <t>Luke Kennard</t>
   </si>
 </sst>
 </file>
@@ -864,7 +956,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="86">
+  <dxfs count="89">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1516,37 +1608,34 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
@@ -1580,6 +1669,39 @@
       <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1594,31 +1716,34 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table134" displayName="Table134" ref="A2:L189" totalsRowShown="0">
-  <autoFilter ref="A2:L189"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table134" displayName="Table134" ref="A2:L225" totalsRowShown="0">
+  <autoFilter ref="A2:L225"/>
   <tableColumns count="12">
-    <tableColumn id="17" name="Date Placed" dataDxfId="85"/>
-    <tableColumn id="11" name="NFL Week" dataDxfId="84"/>
-    <tableColumn id="1" name="Bet Type" dataDxfId="83"/>
-    <tableColumn id="10" name="Points" dataDxfId="82"/>
-    <tableColumn id="2" name="Odds" dataDxfId="81"/>
-    <tableColumn id="9" name="League" dataDxfId="80"/>
+    <tableColumn id="17" name="Date Placed" dataDxfId="77"/>
+    <tableColumn id="11" name="NFL Week" dataDxfId="76"/>
+    <tableColumn id="1" name="Bet Type" dataDxfId="75"/>
+    <tableColumn id="10" name="Points" dataDxfId="74"/>
+    <tableColumn id="2" name="Odds" dataDxfId="73"/>
+    <tableColumn id="9" name="League" dataDxfId="72"/>
     <tableColumn id="3" name="Home Team"/>
     <tableColumn id="4" name="Away Team"/>
     <tableColumn id="5" name="Outcome Chosen"/>
     <tableColumn id="6" name="Result"/>
-    <tableColumn id="7" name="Bet Size" dataDxfId="79" totalsRowDxfId="78"/>
-    <tableColumn id="8" name="Payout" dataDxfId="77" totalsRowDxfId="76"/>
+    <tableColumn id="7" name="Bet Size" dataDxfId="70" totalsRowDxfId="71"/>
+    <tableColumn id="8" name="Payout" dataDxfId="68" totalsRowDxfId="69"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A2:K57" totalsRowShown="0">
-  <autoFilter ref="A2:K57"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A2:K67" totalsRowShown="0">
+  <autoFilter ref="A2:K67"/>
+  <sortState ref="A3:K64">
+    <sortCondition ref="A2:A64"/>
+  </sortState>
   <tableColumns count="11">
-    <tableColumn id="1" name="Date Placed" dataDxfId="75"/>
+    <tableColumn id="1" name="Date Placed" dataDxfId="88"/>
     <tableColumn id="2" name="Bet Type"/>
     <tableColumn id="3" name="Points"/>
     <tableColumn id="4" name="Odds"/>
@@ -1627,8 +1752,8 @@
     <tableColumn id="7" name="Away Team"/>
     <tableColumn id="8" name="Outcome Chosen"/>
     <tableColumn id="9" name="Result"/>
-    <tableColumn id="10" name="Bet Size" dataDxfId="74"/>
-    <tableColumn id="11" name="Payout" dataDxfId="73"/>
+    <tableColumn id="10" name="Bet Size" dataDxfId="87"/>
+    <tableColumn id="11" name="Payout" dataDxfId="86"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1641,17 +1766,17 @@
     <sortCondition ref="A2:A27"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="17" name="Date" totalsRowLabel="Total" dataDxfId="72"/>
+    <tableColumn id="17" name="Date" totalsRowLabel="Total" dataDxfId="85"/>
     <tableColumn id="1" name="Bet Type"/>
     <tableColumn id="2" name="Odds"/>
     <tableColumn id="3" name="Team 1"/>
     <tableColumn id="4" name="Team 2"/>
     <tableColumn id="5" name="Outcome Chosen"/>
     <tableColumn id="6" name="Result"/>
-    <tableColumn id="7" name="Bet Size" totalsRowFunction="custom" dataDxfId="71" totalsRowDxfId="70">
+    <tableColumn id="7" name="Bet Size" totalsRowFunction="custom" dataDxfId="84" totalsRowDxfId="83">
       <totalsRowFormula>SUMIF(Table1[Result],"&lt;&gt;",Table1[Bet Size])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" name="Payout" totalsRowFunction="custom" dataDxfId="69" totalsRowDxfId="68">
+    <tableColumn id="8" name="Payout" totalsRowFunction="custom" dataDxfId="82" totalsRowDxfId="81">
       <totalsRowFormula>SUMIF(Table1[Result],"&lt;&gt;",Table1[Payout])</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -1663,7 +1788,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A2:J3" totalsRowShown="0">
   <autoFilter ref="A2:J3"/>
   <tableColumns count="10">
-    <tableColumn id="17" name="Date" dataDxfId="67"/>
+    <tableColumn id="17" name="Date" dataDxfId="80"/>
     <tableColumn id="1" name="Bet Type"/>
     <tableColumn id="2" name="Odds"/>
     <tableColumn id="9" name="League"/>
@@ -1671,8 +1796,8 @@
     <tableColumn id="4" name="Team 2"/>
     <tableColumn id="5" name="Outcome Chosen"/>
     <tableColumn id="6" name="Result"/>
-    <tableColumn id="7" name="Bet Size" dataDxfId="66"/>
-    <tableColumn id="8" name="Payout" dataDxfId="65"/>
+    <tableColumn id="7" name="Bet Size" dataDxfId="79"/>
+    <tableColumn id="8" name="Payout" dataDxfId="78"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1987,10 +2112,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L189"/>
+  <dimension ref="A1:L225"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A163" zoomScale="74" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="M182" sqref="M182"/>
+    <sheetView tabSelected="1" zoomScale="74" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4202,7 +4327,9 @@
       <c r="C59" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="D59" s="6"/>
+      <c r="D59" s="6" t="s">
+        <v>175</v>
+      </c>
       <c r="E59" s="6">
         <v>150</v>
       </c>
@@ -4234,7 +4361,9 @@
       <c r="C60" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="D60" s="6"/>
+      <c r="D60" s="6" t="s">
+        <v>175</v>
+      </c>
       <c r="E60" s="6">
         <v>125</v>
       </c>
@@ -8982,10 +9111,16 @@
       <c r="I186" t="s">
         <v>71</v>
       </c>
+      <c r="J186" t="s">
+        <v>29</v>
+      </c>
       <c r="K186" s="1">
         <v>20</v>
       </c>
-      <c r="L186" s="1"/>
+      <c r="L186" s="1">
+        <f>19.09+19.52</f>
+        <v>38.61</v>
+      </c>
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A187" s="4">
@@ -9015,17 +9150,22 @@
       <c r="I187" t="s">
         <v>82</v>
       </c>
+      <c r="J187" t="s">
+        <v>29</v>
+      </c>
       <c r="K187" s="1">
         <v>10</v>
       </c>
-      <c r="L187" s="1"/>
+      <c r="L187" s="1">
+        <v>19.09</v>
+      </c>
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A188" s="4">
         <v>43775</v>
       </c>
-      <c r="B188" s="5" t="s">
-        <v>228</v>
+      <c r="B188" s="5">
+        <v>11</v>
       </c>
       <c r="C188" s="6" t="s">
         <v>3</v>
@@ -9037,28 +9177,33 @@
         <v>-110</v>
       </c>
       <c r="F188" s="6" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="G188" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="H188" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="I188" t="s">
-        <v>235</v>
+        <v>244</v>
+      </c>
+      <c r="J188" t="s">
+        <v>29</v>
       </c>
       <c r="K188" s="1">
         <v>10</v>
       </c>
-      <c r="L188" s="1"/>
+      <c r="L188" s="1">
+        <v>19.09</v>
+      </c>
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A189" s="4">
         <v>43775</v>
       </c>
-      <c r="B189" s="5" t="s">
-        <v>228</v>
+      <c r="B189" s="5">
+        <v>11</v>
       </c>
       <c r="C189" s="6" t="s">
         <v>9</v>
@@ -9070,13 +9215,13 @@
         <v>-115</v>
       </c>
       <c r="F189" s="6" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="G189" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="H189" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="I189" t="s">
         <v>13</v>
@@ -9089,208 +9234,1565 @@
       </c>
       <c r="L189" s="1">
         <v>37.39</v>
+      </c>
+    </row>
+    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A190" s="4">
+        <v>43776</v>
+      </c>
+      <c r="B190" s="5">
+        <v>11</v>
+      </c>
+      <c r="C190" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D190" s="6">
+        <v>-2</v>
+      </c>
+      <c r="E190" s="6">
+        <v>-110</v>
+      </c>
+      <c r="F190" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="G190" t="s">
+        <v>245</v>
+      </c>
+      <c r="H190" t="s">
+        <v>246</v>
+      </c>
+      <c r="I190" t="s">
+        <v>245</v>
+      </c>
+      <c r="J190" t="s">
+        <v>23</v>
+      </c>
+      <c r="K190" s="1">
+        <v>10</v>
+      </c>
+      <c r="L190" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A191" s="4">
+        <v>43776</v>
+      </c>
+      <c r="B191" s="5">
+        <v>11</v>
+      </c>
+      <c r="C191" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D191" s="6">
+        <v>52.5</v>
+      </c>
+      <c r="E191" s="6">
+        <v>-110</v>
+      </c>
+      <c r="F191" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="G191" t="s">
+        <v>247</v>
+      </c>
+      <c r="H191" t="s">
+        <v>248</v>
+      </c>
+      <c r="I191" t="s">
+        <v>13</v>
+      </c>
+      <c r="J191" t="s">
+        <v>23</v>
+      </c>
+      <c r="K191" s="1">
+        <v>10</v>
+      </c>
+      <c r="L191" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A192" s="4">
+        <v>43776</v>
+      </c>
+      <c r="B192" s="5">
+        <v>11</v>
+      </c>
+      <c r="C192" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D192" s="6">
+        <v>57</v>
+      </c>
+      <c r="E192" s="6">
+        <v>-115</v>
+      </c>
+      <c r="F192" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="G192" t="s">
+        <v>249</v>
+      </c>
+      <c r="H192" t="s">
+        <v>250</v>
+      </c>
+      <c r="I192" t="s">
+        <v>13</v>
+      </c>
+      <c r="J192" t="s">
+        <v>104</v>
+      </c>
+      <c r="K192" s="1">
+        <v>10</v>
+      </c>
+      <c r="L192" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A193" s="4">
+        <v>43776</v>
+      </c>
+      <c r="B193" s="5">
+        <v>11</v>
+      </c>
+      <c r="C193" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D193" s="6">
+        <v>-7</v>
+      </c>
+      <c r="E193" s="6">
+        <v>-105</v>
+      </c>
+      <c r="F193" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="G193" t="s">
+        <v>251</v>
+      </c>
+      <c r="H193" t="s">
+        <v>252</v>
+      </c>
+      <c r="I193" t="s">
+        <v>251</v>
+      </c>
+      <c r="J193" t="s">
+        <v>23</v>
+      </c>
+      <c r="K193" s="1">
+        <v>10</v>
+      </c>
+      <c r="L193" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A194" s="4">
+        <v>43776</v>
+      </c>
+      <c r="B194" s="5">
+        <v>10</v>
+      </c>
+      <c r="C194" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D194" s="6">
+        <v>-2.5</v>
+      </c>
+      <c r="E194" s="6">
+        <v>-125</v>
+      </c>
+      <c r="F194" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G194" t="s">
+        <v>62</v>
+      </c>
+      <c r="H194" t="s">
+        <v>79</v>
+      </c>
+      <c r="I194" t="s">
+        <v>62</v>
+      </c>
+      <c r="J194" t="s">
+        <v>29</v>
+      </c>
+      <c r="K194" s="1">
+        <v>10</v>
+      </c>
+      <c r="L194" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A195" s="4">
+        <v>43776</v>
+      </c>
+      <c r="B195" s="5">
+        <v>10</v>
+      </c>
+      <c r="C195" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D195" s="6">
+        <v>5.5</v>
+      </c>
+      <c r="E195" s="6">
+        <v>-110</v>
+      </c>
+      <c r="F195" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G195" t="s">
+        <v>70</v>
+      </c>
+      <c r="H195" t="s">
+        <v>84</v>
+      </c>
+      <c r="I195" t="s">
+        <v>84</v>
+      </c>
+      <c r="J195" t="s">
+        <v>23</v>
+      </c>
+      <c r="K195" s="1">
+        <v>10</v>
+      </c>
+      <c r="L195" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A196" s="4">
+        <v>43776</v>
+      </c>
+      <c r="B196" s="5">
+        <v>10</v>
+      </c>
+      <c r="C196" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D196" s="6">
+        <v>-13</v>
+      </c>
+      <c r="E196" s="6">
+        <v>-110</v>
+      </c>
+      <c r="F196" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G196" t="s">
+        <v>58</v>
+      </c>
+      <c r="H196" t="s">
+        <v>65</v>
+      </c>
+      <c r="I196" t="s">
+        <v>65</v>
+      </c>
+      <c r="J196" t="s">
+        <v>29</v>
+      </c>
+      <c r="K196" s="1">
+        <v>10</v>
+      </c>
+      <c r="L196" s="1">
+        <v>19.09</v>
+      </c>
+    </row>
+    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A197" s="4">
+        <v>43776</v>
+      </c>
+      <c r="B197" s="5">
+        <v>10</v>
+      </c>
+      <c r="C197" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D197" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="E197" s="6">
+        <v>-125</v>
+      </c>
+      <c r="F197" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G197" t="s">
+        <v>254</v>
+      </c>
+      <c r="H197" t="s">
+        <v>118</v>
+      </c>
+      <c r="I197" t="s">
+        <v>13</v>
+      </c>
+      <c r="J197" t="s">
+        <v>29</v>
+      </c>
+      <c r="K197" s="1">
+        <v>10</v>
+      </c>
+      <c r="L197" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A198" s="4">
+        <v>43776</v>
+      </c>
+      <c r="B198" s="5">
+        <v>10</v>
+      </c>
+      <c r="C198" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D198" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="E198" s="6">
+        <v>-115</v>
+      </c>
+      <c r="F198" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G198" t="s">
+        <v>205</v>
+      </c>
+      <c r="H198" t="s">
+        <v>118</v>
+      </c>
+      <c r="I198" t="s">
+        <v>13</v>
+      </c>
+      <c r="J198" t="s">
+        <v>23</v>
+      </c>
+      <c r="K198" s="1">
+        <v>10</v>
+      </c>
+      <c r="L198" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A199" s="4">
+        <v>43776</v>
+      </c>
+      <c r="B199" s="5">
+        <v>10</v>
+      </c>
+      <c r="C199" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D199" s="6">
+        <v>27.5</v>
+      </c>
+      <c r="E199" s="6">
+        <v>-125</v>
+      </c>
+      <c r="F199" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G199" t="s">
+        <v>255</v>
+      </c>
+      <c r="H199" t="s">
+        <v>119</v>
+      </c>
+      <c r="I199" t="s">
+        <v>66</v>
+      </c>
+      <c r="J199" t="s">
+        <v>23</v>
+      </c>
+      <c r="K199" s="1">
+        <v>10</v>
+      </c>
+      <c r="L199" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A200" s="4">
+        <v>43776</v>
+      </c>
+      <c r="B200" s="5">
+        <v>10</v>
+      </c>
+      <c r="C200" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D200" s="6">
+        <v>52</v>
+      </c>
+      <c r="E200" s="6">
+        <v>-110</v>
+      </c>
+      <c r="F200" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G200" t="s">
+        <v>80</v>
+      </c>
+      <c r="H200" t="s">
+        <v>103</v>
+      </c>
+      <c r="I200" t="s">
+        <v>66</v>
+      </c>
+      <c r="J200" t="s">
+        <v>29</v>
+      </c>
+      <c r="K200" s="1">
+        <v>10</v>
+      </c>
+      <c r="L200" s="1">
+        <v>19.09</v>
+      </c>
+    </row>
+    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A201" s="4">
+        <v>43776</v>
+      </c>
+      <c r="B201" s="5">
+        <v>10</v>
+      </c>
+      <c r="C201" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D201" s="6">
+        <v>41.5</v>
+      </c>
+      <c r="E201" s="6">
+        <v>-110</v>
+      </c>
+      <c r="F201" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G201" t="s">
+        <v>77</v>
+      </c>
+      <c r="H201" t="s">
+        <v>73</v>
+      </c>
+      <c r="I201" t="s">
+        <v>13</v>
+      </c>
+      <c r="J201" t="s">
+        <v>29</v>
+      </c>
+      <c r="K201" s="1">
+        <v>10</v>
+      </c>
+      <c r="L201" s="1">
+        <v>19.09</v>
+      </c>
+    </row>
+    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A202" s="4">
+        <v>43776</v>
+      </c>
+      <c r="B202" s="5">
+        <v>10</v>
+      </c>
+      <c r="C202" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D202" s="6">
+        <v>8.5</v>
+      </c>
+      <c r="E202" s="6"/>
+      <c r="F202" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G202" t="s">
+        <v>63</v>
+      </c>
+      <c r="H202" t="s">
+        <v>83</v>
+      </c>
+      <c r="I202" t="s">
+        <v>63</v>
+      </c>
+      <c r="J202" t="s">
+        <v>29</v>
+      </c>
+      <c r="K202" s="1"/>
+      <c r="L202" s="1"/>
+    </row>
+    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A203" s="4">
+        <v>43776</v>
+      </c>
+      <c r="B203" s="5">
+        <v>10</v>
+      </c>
+      <c r="C203" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D203" s="6">
+        <v>8.5</v>
+      </c>
+      <c r="E203" s="6"/>
+      <c r="F203" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G203" t="s">
+        <v>77</v>
+      </c>
+      <c r="H203" t="s">
+        <v>73</v>
+      </c>
+      <c r="I203" t="s">
+        <v>73</v>
+      </c>
+      <c r="J203" t="s">
+        <v>29</v>
+      </c>
+      <c r="K203" s="1"/>
+      <c r="L203" s="1"/>
+    </row>
+    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A204" s="4">
+        <v>43776</v>
+      </c>
+      <c r="B204" s="5">
+        <v>10</v>
+      </c>
+      <c r="C204" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D204" s="6">
+        <v>-4</v>
+      </c>
+      <c r="E204" s="6"/>
+      <c r="F204" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G204" t="s">
+        <v>110</v>
+      </c>
+      <c r="H204" t="s">
+        <v>71</v>
+      </c>
+      <c r="I204" t="s">
+        <v>71</v>
+      </c>
+      <c r="J204" t="s">
+        <v>29</v>
+      </c>
+      <c r="K204" s="1"/>
+      <c r="L204" s="1"/>
+    </row>
+    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A205" s="4">
+        <v>43776</v>
+      </c>
+      <c r="B205" s="5">
+        <v>10</v>
+      </c>
+      <c r="C205" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D205" s="6">
+        <v>8.5</v>
+      </c>
+      <c r="E205" s="6">
+        <v>260</v>
+      </c>
+      <c r="F205" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G205" t="s">
+        <v>62</v>
+      </c>
+      <c r="H205" t="s">
+        <v>79</v>
+      </c>
+      <c r="I205" t="s">
+        <v>79</v>
+      </c>
+      <c r="J205" t="s">
+        <v>29</v>
+      </c>
+      <c r="K205" s="1">
+        <v>10</v>
+      </c>
+      <c r="L205" s="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A206" s="4">
+        <v>43776</v>
+      </c>
+      <c r="B206" s="5">
+        <v>10</v>
+      </c>
+      <c r="C206" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D206" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="E206" s="6">
+        <v>165</v>
+      </c>
+      <c r="F206" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G206" t="s">
+        <v>75</v>
+      </c>
+      <c r="H206" t="s">
+        <v>59</v>
+      </c>
+      <c r="I206" t="s">
+        <v>75</v>
+      </c>
+      <c r="J206" t="s">
+        <v>29</v>
+      </c>
+      <c r="K206" s="1"/>
+      <c r="L206" s="1"/>
+    </row>
+    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A207" s="4">
+        <v>43776</v>
+      </c>
+      <c r="B207" s="5">
+        <v>10</v>
+      </c>
+      <c r="C207" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D207" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="E207" s="6">
+        <v>115</v>
+      </c>
+      <c r="F207" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G207" t="s">
+        <v>63</v>
+      </c>
+      <c r="H207" t="s">
+        <v>83</v>
+      </c>
+      <c r="I207" t="s">
+        <v>63</v>
+      </c>
+      <c r="J207" t="s">
+        <v>29</v>
+      </c>
+      <c r="K207" s="1">
+        <v>10</v>
+      </c>
+      <c r="L207" s="1">
+        <v>56.98</v>
+      </c>
+    </row>
+    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A208" s="4">
+        <v>43776</v>
+      </c>
+      <c r="B208" s="5">
+        <v>10</v>
+      </c>
+      <c r="C208" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D208" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="E208" s="6">
+        <v>-105</v>
+      </c>
+      <c r="F208" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G208" t="s">
+        <v>111</v>
+      </c>
+      <c r="H208" t="s">
+        <v>107</v>
+      </c>
+      <c r="I208" t="s">
+        <v>111</v>
+      </c>
+      <c r="J208" t="s">
+        <v>29</v>
+      </c>
+      <c r="K208" s="1">
+        <v>10</v>
+      </c>
+      <c r="L208" s="1">
+        <v>19.52</v>
+      </c>
+    </row>
+    <row r="209" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A209" s="4">
+        <v>43779</v>
+      </c>
+      <c r="B209" s="5">
+        <v>10</v>
+      </c>
+      <c r="C209" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D209" s="6">
+        <v>4.5</v>
+      </c>
+      <c r="E209" s="6">
+        <v>-115</v>
+      </c>
+      <c r="F209" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G209" t="s">
+        <v>112</v>
+      </c>
+      <c r="H209" t="s">
+        <v>135</v>
+      </c>
+      <c r="I209" t="s">
+        <v>13</v>
+      </c>
+      <c r="J209" t="s">
+        <v>23</v>
+      </c>
+      <c r="K209" s="1">
+        <v>10</v>
+      </c>
+      <c r="L209" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A210" s="4">
+        <v>43779</v>
+      </c>
+      <c r="B210" s="5">
+        <v>10</v>
+      </c>
+      <c r="C210" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D210" s="6">
+        <v>3.5</v>
+      </c>
+      <c r="E210" s="6">
+        <v>-125</v>
+      </c>
+      <c r="F210" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G210" t="s">
+        <v>206</v>
+      </c>
+      <c r="H210" t="s">
+        <v>118</v>
+      </c>
+      <c r="I210" t="s">
+        <v>13</v>
+      </c>
+      <c r="J210" t="s">
+        <v>23</v>
+      </c>
+      <c r="K210" s="1">
+        <v>10</v>
+      </c>
+      <c r="L210" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A211" s="4">
+        <v>43779</v>
+      </c>
+      <c r="B211" s="5">
+        <v>10</v>
+      </c>
+      <c r="C211" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D211" s="6">
+        <v>210.5</v>
+      </c>
+      <c r="E211" s="6">
+        <v>-115</v>
+      </c>
+      <c r="F211" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G211" t="s">
+        <v>90</v>
+      </c>
+      <c r="H211" t="s">
+        <v>116</v>
+      </c>
+      <c r="I211" t="s">
+        <v>13</v>
+      </c>
+      <c r="J211" t="s">
+        <v>23</v>
+      </c>
+      <c r="K211" s="1">
+        <v>10</v>
+      </c>
+      <c r="L211" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A212" s="4">
+        <v>43779</v>
+      </c>
+      <c r="B212" s="5">
+        <v>10</v>
+      </c>
+      <c r="C212" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D212" s="6">
+        <v>8.5</v>
+      </c>
+      <c r="E212" s="6">
+        <v>105</v>
+      </c>
+      <c r="F212" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G212" t="s">
+        <v>260</v>
+      </c>
+      <c r="H212" t="s">
+        <v>118</v>
+      </c>
+      <c r="I212" t="s">
+        <v>66</v>
+      </c>
+      <c r="J212" t="s">
+        <v>23</v>
+      </c>
+      <c r="K212" s="1">
+        <v>10</v>
+      </c>
+      <c r="L212" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A213" s="4">
+        <v>43779</v>
+      </c>
+      <c r="B213" s="5">
+        <v>10</v>
+      </c>
+      <c r="C213" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D213" s="6">
+        <v>10.5</v>
+      </c>
+      <c r="E213" s="6">
+        <v>-115</v>
+      </c>
+      <c r="F213" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G213" t="s">
+        <v>261</v>
+      </c>
+      <c r="H213" t="s">
+        <v>119</v>
+      </c>
+      <c r="I213" t="s">
+        <v>66</v>
+      </c>
+      <c r="J213" t="s">
+        <v>23</v>
+      </c>
+      <c r="K213" s="1">
+        <v>10</v>
+      </c>
+      <c r="L213" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A214" s="4">
+        <v>43779</v>
+      </c>
+      <c r="B214" s="5">
+        <v>10</v>
+      </c>
+      <c r="C214" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D214" s="6">
+        <v>3</v>
+      </c>
+      <c r="E214" s="6">
+        <v>-125</v>
+      </c>
+      <c r="F214" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G214" t="s">
+        <v>263</v>
+      </c>
+      <c r="H214" t="s">
+        <v>135</v>
+      </c>
+      <c r="I214" t="s">
+        <v>13</v>
+      </c>
+      <c r="J214" t="s">
+        <v>29</v>
+      </c>
+      <c r="K214" s="1">
+        <v>10</v>
+      </c>
+      <c r="L214" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A215" s="4">
+        <v>43779</v>
+      </c>
+      <c r="B215" s="5">
+        <v>10</v>
+      </c>
+      <c r="C215" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D215" s="6">
+        <v>50.5</v>
+      </c>
+      <c r="E215" s="6">
+        <v>-115</v>
+      </c>
+      <c r="F215" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G215" t="s">
+        <v>262</v>
+      </c>
+      <c r="H215" t="s">
+        <v>119</v>
+      </c>
+      <c r="I215" t="s">
+        <v>13</v>
+      </c>
+      <c r="J215" t="s">
+        <v>23</v>
+      </c>
+      <c r="K215" s="1">
+        <v>10</v>
+      </c>
+      <c r="L215" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A216" s="4">
+        <v>43777</v>
+      </c>
+      <c r="B216" s="5">
+        <v>10</v>
+      </c>
+      <c r="C216" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D216" s="6">
+        <v>-6</v>
+      </c>
+      <c r="E216" s="6">
+        <v>-110</v>
+      </c>
+      <c r="F216" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G216" t="s">
+        <v>88</v>
+      </c>
+      <c r="H216" t="s">
+        <v>72</v>
+      </c>
+      <c r="I216" t="s">
+        <v>72</v>
+      </c>
+      <c r="J216" t="s">
+        <v>23</v>
+      </c>
+      <c r="K216" s="1">
+        <v>10</v>
+      </c>
+      <c r="L216" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A217" s="4">
+        <v>43779</v>
+      </c>
+      <c r="B217" s="5">
+        <v>10</v>
+      </c>
+      <c r="C217" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D217" s="6">
+        <v>66.5</v>
+      </c>
+      <c r="E217" s="6">
+        <v>-115</v>
+      </c>
+      <c r="F217" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G217" t="s">
+        <v>264</v>
+      </c>
+      <c r="H217" t="s">
+        <v>119</v>
+      </c>
+      <c r="I217" t="s">
+        <v>13</v>
+      </c>
+      <c r="J217" t="s">
+        <v>29</v>
+      </c>
+      <c r="K217" s="1">
+        <v>10</v>
+      </c>
+      <c r="L217" s="1">
+        <v>18.7</v>
+      </c>
+    </row>
+    <row r="218" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A218" s="4">
+        <v>43779</v>
+      </c>
+      <c r="B218" s="5">
+        <v>10</v>
+      </c>
+      <c r="C218" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D218" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="E218" s="6">
+        <v>-200</v>
+      </c>
+      <c r="F218" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G218" t="s">
+        <v>90</v>
+      </c>
+      <c r="H218" t="s">
+        <v>120</v>
+      </c>
+      <c r="I218" t="s">
+        <v>13</v>
+      </c>
+      <c r="J218" t="s">
+        <v>29</v>
+      </c>
+      <c r="K218" s="1">
+        <v>10</v>
+      </c>
+      <c r="L218" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="219" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A219" s="4">
+        <v>43778</v>
+      </c>
+      <c r="B219" s="5">
+        <v>11</v>
+      </c>
+      <c r="C219" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D219" s="6">
+        <v>7.5</v>
+      </c>
+      <c r="E219" s="6">
+        <v>-110</v>
+      </c>
+      <c r="F219" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="G219" t="s">
+        <v>265</v>
+      </c>
+      <c r="H219" t="s">
+        <v>272</v>
+      </c>
+      <c r="I219" t="s">
+        <v>265</v>
+      </c>
+      <c r="J219" t="s">
+        <v>29</v>
+      </c>
+      <c r="K219" s="1">
+        <v>10</v>
+      </c>
+      <c r="L219" s="1">
+        <v>19.09</v>
+      </c>
+    </row>
+    <row r="220" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A220" s="4">
+        <v>43778</v>
+      </c>
+      <c r="B220" s="5">
+        <v>11</v>
+      </c>
+      <c r="C220" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D220" s="6">
+        <v>3</v>
+      </c>
+      <c r="E220" s="6">
+        <v>-110</v>
+      </c>
+      <c r="F220" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="G220" t="s">
+        <v>266</v>
+      </c>
+      <c r="H220" t="s">
+        <v>271</v>
+      </c>
+      <c r="I220" t="s">
+        <v>266</v>
+      </c>
+      <c r="J220" t="s">
+        <v>29</v>
+      </c>
+      <c r="K220" s="1">
+        <v>10</v>
+      </c>
+      <c r="L220" s="1">
+        <v>19.09</v>
+      </c>
+    </row>
+    <row r="221" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A221" s="4">
+        <v>43778</v>
+      </c>
+      <c r="B221" s="5">
+        <v>11</v>
+      </c>
+      <c r="C221" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D221" s="6">
+        <v>-14</v>
+      </c>
+      <c r="E221" s="6">
+        <v>-110</v>
+      </c>
+      <c r="F221" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="G221" t="s">
+        <v>273</v>
+      </c>
+      <c r="H221" t="s">
+        <v>268</v>
+      </c>
+      <c r="I221" t="s">
+        <v>267</v>
+      </c>
+      <c r="J221" t="s">
+        <v>23</v>
+      </c>
+      <c r="K221" s="1">
+        <v>10</v>
+      </c>
+      <c r="L221" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A222" s="4">
+        <v>43778</v>
+      </c>
+      <c r="B222" s="5">
+        <v>11</v>
+      </c>
+      <c r="C222" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="D222" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="E222" s="6">
+        <v>-260</v>
+      </c>
+      <c r="F222" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="G222" t="s">
+        <v>269</v>
+      </c>
+      <c r="H222" t="s">
+        <v>270</v>
+      </c>
+      <c r="I222" t="s">
+        <v>270</v>
+      </c>
+      <c r="J222" t="s">
+        <v>23</v>
+      </c>
+      <c r="K222" s="1">
+        <v>100</v>
+      </c>
+      <c r="L222" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A223" s="4">
+        <v>43778</v>
+      </c>
+      <c r="B223" s="5">
+        <v>11</v>
+      </c>
+      <c r="C223" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D223" s="6">
+        <v>69.5</v>
+      </c>
+      <c r="E223" s="6">
+        <v>-115</v>
+      </c>
+      <c r="F223" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="G223" t="s">
+        <v>243</v>
+      </c>
+      <c r="H223" t="s">
+        <v>244</v>
+      </c>
+      <c r="I223" t="s">
+        <v>13</v>
+      </c>
+      <c r="J223" t="s">
+        <v>23</v>
+      </c>
+      <c r="K223" s="1">
+        <v>100</v>
+      </c>
+      <c r="L223" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A224" s="4">
+        <v>43777</v>
+      </c>
+      <c r="B224" s="5">
+        <v>11</v>
+      </c>
+      <c r="C224" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D224" s="6">
+        <v>35</v>
+      </c>
+      <c r="E224" s="6">
+        <v>-110</v>
+      </c>
+      <c r="F224" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="G224" t="s">
+        <v>274</v>
+      </c>
+      <c r="H224" t="s">
+        <v>275</v>
+      </c>
+      <c r="I224" t="s">
+        <v>275</v>
+      </c>
+      <c r="J224" t="s">
+        <v>23</v>
+      </c>
+      <c r="K224" s="1">
+        <v>10</v>
+      </c>
+      <c r="L224" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A225" s="4">
+        <v>43776</v>
+      </c>
+      <c r="B225" s="5">
+        <v>10</v>
+      </c>
+      <c r="C225" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D225" s="6">
+        <v>83.5</v>
+      </c>
+      <c r="E225" s="6">
+        <v>125</v>
+      </c>
+      <c r="F225" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G225" t="s">
+        <v>130</v>
+      </c>
+      <c r="H225" t="s">
+        <v>118</v>
+      </c>
+      <c r="I225" t="s">
+        <v>13</v>
+      </c>
+      <c r="J225" t="s">
+        <v>29</v>
+      </c>
+      <c r="K225" s="1">
+        <v>10</v>
+      </c>
+      <c r="L225" s="1">
+        <v>22.5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:L1"/>
   </mergeCells>
-  <conditionalFormatting sqref="J44:J50 J1:J42 J52:J83 J87 J89:J90 J92:J93 J107 J109:J112 J96:J104 J117:J154 J178:J182 J156:J176 J185:J1027">
-    <cfRule type="containsText" dxfId="64" priority="52" operator="containsText" text="No Action">
+  <conditionalFormatting sqref="J44:J50 J1:J42 J52:J83 J87 J89:J90 J92:J93 J107 J109:J112 J96:J104 J117:J154 J178:J182 J156:J176 J185:J197 J199:J1027">
+    <cfRule type="containsText" dxfId="67" priority="55" operator="containsText" text="No Action">
       <formula>NOT(ISERROR(SEARCH("No Action",J1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="63" priority="53" operator="containsText" text="Win">
+    <cfRule type="containsText" dxfId="66" priority="56" operator="containsText" text="Win">
       <formula>NOT(ISERROR(SEARCH("Win",J1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="62" priority="54" operator="containsText" text="Loss">
+    <cfRule type="containsText" dxfId="65" priority="57" operator="containsText" text="Loss">
       <formula>NOT(ISERROR(SEARCH("Loss",J1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J43">
-    <cfRule type="containsText" dxfId="61" priority="49" operator="containsText" text="No Action">
+    <cfRule type="containsText" dxfId="64" priority="52" operator="containsText" text="No Action">
       <formula>NOT(ISERROR(SEARCH("No Action",J43)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="60" priority="50" operator="containsText" text="Win">
+    <cfRule type="containsText" dxfId="63" priority="53" operator="containsText" text="Win">
       <formula>NOT(ISERROR(SEARCH("Win",J43)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="59" priority="51" operator="containsText" text="Loss">
+    <cfRule type="containsText" dxfId="62" priority="54" operator="containsText" text="Loss">
       <formula>NOT(ISERROR(SEARCH("Loss",J43)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J51">
-    <cfRule type="containsText" dxfId="58" priority="46" operator="containsText" text="No Action">
+    <cfRule type="containsText" dxfId="61" priority="49" operator="containsText" text="No Action">
       <formula>NOT(ISERROR(SEARCH("No Action",J51)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="57" priority="47" operator="containsText" text="Win">
+    <cfRule type="containsText" dxfId="60" priority="50" operator="containsText" text="Win">
       <formula>NOT(ISERROR(SEARCH("Win",J51)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="56" priority="48" operator="containsText" text="Loss">
+    <cfRule type="containsText" dxfId="59" priority="51" operator="containsText" text="Loss">
       <formula>NOT(ISERROR(SEARCH("Loss",J51)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J84">
-    <cfRule type="containsText" dxfId="55" priority="43" operator="containsText" text="No Action">
+    <cfRule type="containsText" dxfId="58" priority="46" operator="containsText" text="No Action">
       <formula>NOT(ISERROR(SEARCH("No Action",J84)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="54" priority="44" operator="containsText" text="Win">
+    <cfRule type="containsText" dxfId="57" priority="47" operator="containsText" text="Win">
       <formula>NOT(ISERROR(SEARCH("Win",J84)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="53" priority="45" operator="containsText" text="Loss">
+    <cfRule type="containsText" dxfId="56" priority="48" operator="containsText" text="Loss">
       <formula>NOT(ISERROR(SEARCH("Loss",J84)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J85">
-    <cfRule type="containsText" dxfId="52" priority="40" operator="containsText" text="No Action">
+    <cfRule type="containsText" dxfId="55" priority="43" operator="containsText" text="No Action">
       <formula>NOT(ISERROR(SEARCH("No Action",J85)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="51" priority="41" operator="containsText" text="Win">
+    <cfRule type="containsText" dxfId="54" priority="44" operator="containsText" text="Win">
       <formula>NOT(ISERROR(SEARCH("Win",J85)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="42" operator="containsText" text="Loss">
+    <cfRule type="containsText" dxfId="53" priority="45" operator="containsText" text="Loss">
       <formula>NOT(ISERROR(SEARCH("Loss",J85)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J86">
-    <cfRule type="containsText" dxfId="49" priority="37" operator="containsText" text="No Action">
+    <cfRule type="containsText" dxfId="52" priority="40" operator="containsText" text="No Action">
       <formula>NOT(ISERROR(SEARCH("No Action",J86)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="38" operator="containsText" text="Win">
+    <cfRule type="containsText" dxfId="51" priority="41" operator="containsText" text="Win">
       <formula>NOT(ISERROR(SEARCH("Win",J86)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="47" priority="39" operator="containsText" text="Loss">
+    <cfRule type="containsText" dxfId="50" priority="42" operator="containsText" text="Loss">
       <formula>NOT(ISERROR(SEARCH("Loss",J86)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J88">
-    <cfRule type="containsText" dxfId="46" priority="34" operator="containsText" text="No Action">
+    <cfRule type="containsText" dxfId="49" priority="37" operator="containsText" text="No Action">
       <formula>NOT(ISERROR(SEARCH("No Action",J88)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="35" operator="containsText" text="Win">
+    <cfRule type="containsText" dxfId="48" priority="38" operator="containsText" text="Win">
       <formula>NOT(ISERROR(SEARCH("Win",J88)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="44" priority="36" operator="containsText" text="Loss">
+    <cfRule type="containsText" dxfId="47" priority="39" operator="containsText" text="Loss">
       <formula>NOT(ISERROR(SEARCH("Loss",J88)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J91">
-    <cfRule type="containsText" dxfId="43" priority="31" operator="containsText" text="No Action">
+    <cfRule type="containsText" dxfId="46" priority="34" operator="containsText" text="No Action">
       <formula>NOT(ISERROR(SEARCH("No Action",J91)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="32" operator="containsText" text="Win">
+    <cfRule type="containsText" dxfId="45" priority="35" operator="containsText" text="Win">
       <formula>NOT(ISERROR(SEARCH("Win",J91)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="41" priority="33" operator="containsText" text="Loss">
+    <cfRule type="containsText" dxfId="44" priority="36" operator="containsText" text="Loss">
       <formula>NOT(ISERROR(SEARCH("Loss",J91)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J105">
-    <cfRule type="containsText" dxfId="40" priority="28" operator="containsText" text="No Action">
+    <cfRule type="containsText" dxfId="43" priority="31" operator="containsText" text="No Action">
       <formula>NOT(ISERROR(SEARCH("No Action",J105)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="39" priority="29" operator="containsText" text="Win">
+    <cfRule type="containsText" dxfId="42" priority="32" operator="containsText" text="Win">
       <formula>NOT(ISERROR(SEARCH("Win",J105)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="30" operator="containsText" text="Loss">
+    <cfRule type="containsText" dxfId="41" priority="33" operator="containsText" text="Loss">
       <formula>NOT(ISERROR(SEARCH("Loss",J105)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J106">
-    <cfRule type="containsText" dxfId="37" priority="25" operator="containsText" text="No Action">
+    <cfRule type="containsText" dxfId="40" priority="28" operator="containsText" text="No Action">
       <formula>NOT(ISERROR(SEARCH("No Action",J106)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="26" operator="containsText" text="Win">
+    <cfRule type="containsText" dxfId="39" priority="29" operator="containsText" text="Win">
       <formula>NOT(ISERROR(SEARCH("Win",J106)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="35" priority="27" operator="containsText" text="Loss">
+    <cfRule type="containsText" dxfId="38" priority="30" operator="containsText" text="Loss">
       <formula>NOT(ISERROR(SEARCH("Loss",J106)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J108">
-    <cfRule type="containsText" dxfId="34" priority="22" operator="containsText" text="No Action">
+    <cfRule type="containsText" dxfId="37" priority="25" operator="containsText" text="No Action">
       <formula>NOT(ISERROR(SEARCH("No Action",J108)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="23" operator="containsText" text="Win">
+    <cfRule type="containsText" dxfId="36" priority="26" operator="containsText" text="Win">
       <formula>NOT(ISERROR(SEARCH("Win",J108)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="24" operator="containsText" text="Loss">
+    <cfRule type="containsText" dxfId="35" priority="27" operator="containsText" text="Loss">
       <formula>NOT(ISERROR(SEARCH("Loss",J108)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J113:J114">
-    <cfRule type="containsText" dxfId="31" priority="19" operator="containsText" text="No Action">
+    <cfRule type="containsText" dxfId="34" priority="22" operator="containsText" text="No Action">
       <formula>NOT(ISERROR(SEARCH("No Action",J113)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="20" operator="containsText" text="Win">
+    <cfRule type="containsText" dxfId="33" priority="23" operator="containsText" text="Win">
       <formula>NOT(ISERROR(SEARCH("Win",J113)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="21" operator="containsText" text="Loss">
+    <cfRule type="containsText" dxfId="32" priority="24" operator="containsText" text="Loss">
       <formula>NOT(ISERROR(SEARCH("Loss",J113)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J115:J116">
-    <cfRule type="containsText" dxfId="28" priority="16" operator="containsText" text="No Action">
+    <cfRule type="containsText" dxfId="31" priority="19" operator="containsText" text="No Action">
       <formula>NOT(ISERROR(SEARCH("No Action",J115)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="17" operator="containsText" text="Win">
+    <cfRule type="containsText" dxfId="30" priority="20" operator="containsText" text="Win">
       <formula>NOT(ISERROR(SEARCH("Win",J115)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="18" operator="containsText" text="Loss">
+    <cfRule type="containsText" dxfId="29" priority="21" operator="containsText" text="Loss">
       <formula>NOT(ISERROR(SEARCH("Loss",J115)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J94:J95">
-    <cfRule type="containsText" dxfId="25" priority="13" operator="containsText" text="No Action">
+    <cfRule type="containsText" dxfId="28" priority="16" operator="containsText" text="No Action">
       <formula>NOT(ISERROR(SEARCH("No Action",J94)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="14" operator="containsText" text="Win">
+    <cfRule type="containsText" dxfId="27" priority="17" operator="containsText" text="Win">
       <formula>NOT(ISERROR(SEARCH("Win",J94)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="15" operator="containsText" text="Loss">
+    <cfRule type="containsText" dxfId="26" priority="18" operator="containsText" text="Loss">
       <formula>NOT(ISERROR(SEARCH("Loss",J94)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J155">
-    <cfRule type="containsText" dxfId="22" priority="10" operator="containsText" text="No Action">
+    <cfRule type="containsText" dxfId="25" priority="13" operator="containsText" text="No Action">
       <formula>NOT(ISERROR(SEARCH("No Action",J155)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="11" operator="containsText" text="Win">
+    <cfRule type="containsText" dxfId="24" priority="14" operator="containsText" text="Win">
       <formula>NOT(ISERROR(SEARCH("Win",J155)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="12" operator="containsText" text="Loss">
+    <cfRule type="containsText" dxfId="23" priority="15" operator="containsText" text="Loss">
       <formula>NOT(ISERROR(SEARCH("Loss",J155)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J177">
-    <cfRule type="containsText" dxfId="19" priority="7" operator="containsText" text="No Action">
+    <cfRule type="containsText" dxfId="22" priority="10" operator="containsText" text="No Action">
       <formula>NOT(ISERROR(SEARCH("No Action",J177)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="8" operator="containsText" text="Win">
+    <cfRule type="containsText" dxfId="21" priority="11" operator="containsText" text="Win">
       <formula>NOT(ISERROR(SEARCH("Win",J177)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="9" operator="containsText" text="Loss">
+    <cfRule type="containsText" dxfId="20" priority="12" operator="containsText" text="Loss">
       <formula>NOT(ISERROR(SEARCH("Loss",J177)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J183">
-    <cfRule type="containsText" dxfId="16" priority="4" operator="containsText" text="No Action">
+    <cfRule type="containsText" dxfId="19" priority="7" operator="containsText" text="No Action">
       <formula>NOT(ISERROR(SEARCH("No Action",J183)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="5" operator="containsText" text="Win">
+    <cfRule type="containsText" dxfId="18" priority="8" operator="containsText" text="Win">
       <formula>NOT(ISERROR(SEARCH("Win",J183)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="6" operator="containsText" text="Loss">
+    <cfRule type="containsText" dxfId="17" priority="9" operator="containsText" text="Loss">
       <formula>NOT(ISERROR(SEARCH("Loss",J183)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J184">
-    <cfRule type="containsText" dxfId="13" priority="1" operator="containsText" text="No Action">
+    <cfRule type="containsText" dxfId="16" priority="4" operator="containsText" text="No Action">
       <formula>NOT(ISERROR(SEARCH("No Action",J184)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="2" operator="containsText" text="Win">
+    <cfRule type="containsText" dxfId="15" priority="5" operator="containsText" text="Win">
       <formula>NOT(ISERROR(SEARCH("Win",J184)))</formula>
     </cfRule>
+    <cfRule type="containsText" dxfId="14" priority="6" operator="containsText" text="Loss">
+      <formula>NOT(ISERROR(SEARCH("Loss",J184)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J198">
+    <cfRule type="containsText" dxfId="13" priority="1" operator="containsText" text="No Action">
+      <formula>NOT(ISERROR(SEARCH("No Action",J198)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="12" priority="2" operator="containsText" text="Win">
+      <formula>NOT(ISERROR(SEARCH("Win",J198)))</formula>
+    </cfRule>
     <cfRule type="containsText" dxfId="11" priority="3" operator="containsText" text="Loss">
-      <formula>NOT(ISERROR(SEARCH("Loss",J184)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Loss",J198)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9303,10 +10805,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K57"/>
+  <dimension ref="A1:K67"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K57" sqref="K3:K57"/>
+    <sheetView topLeftCell="A55" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J76" sqref="J76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10181,28 +11683,28 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>43770</v>
+        <v>43769</v>
       </c>
       <c r="B26" t="s">
         <v>3</v>
       </c>
       <c r="C26">
-        <v>6.5</v>
+        <v>-5</v>
       </c>
       <c r="D26">
-        <v>-115</v>
+        <v>-110</v>
       </c>
       <c r="E26" t="s">
         <v>155</v>
       </c>
       <c r="F26" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G26" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H26" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="I26" t="s">
         <v>29</v>
@@ -10211,33 +11713,33 @@
         <v>10</v>
       </c>
       <c r="K26" s="1">
-        <v>18.7</v>
+        <v>19.09</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>43770</v>
+        <v>43769</v>
       </c>
       <c r="B27" t="s">
-        <v>3</v>
+        <v>89</v>
       </c>
       <c r="C27">
-        <v>-7.5</v>
+        <v>22</v>
       </c>
       <c r="D27">
-        <v>-105</v>
+        <v>-125</v>
       </c>
       <c r="E27" t="s">
         <v>155</v>
       </c>
       <c r="F27" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="G27" t="s">
-        <v>191</v>
+        <v>158</v>
       </c>
       <c r="H27" t="s">
-        <v>191</v>
+        <v>13</v>
       </c>
       <c r="I27" t="s">
         <v>29</v>
@@ -10246,7 +11748,7 @@
         <v>10</v>
       </c>
       <c r="K27" s="1">
-        <v>19.52</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -10257,22 +11759,22 @@
         <v>3</v>
       </c>
       <c r="C28">
-        <v>-5</v>
+        <v>-6.5</v>
       </c>
       <c r="D28">
-        <v>-110</v>
+        <v>-115</v>
       </c>
       <c r="E28" t="s">
         <v>155</v>
       </c>
       <c r="F28" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="G28" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="H28" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="I28" t="s">
         <v>29</v>
@@ -10281,33 +11783,33 @@
         <v>10</v>
       </c>
       <c r="K28" s="1">
-        <v>19.09</v>
+        <v>18.7</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <v>43769</v>
+        <v>43770</v>
       </c>
       <c r="B29" t="s">
-        <v>89</v>
+        <v>3</v>
       </c>
       <c r="C29">
-        <v>22</v>
+        <v>6.5</v>
       </c>
       <c r="D29">
-        <v>-125</v>
+        <v>-115</v>
       </c>
       <c r="E29" t="s">
         <v>155</v>
       </c>
       <c r="F29" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="G29" t="s">
-        <v>158</v>
+        <v>193</v>
       </c>
       <c r="H29" t="s">
-        <v>13</v>
+        <v>193</v>
       </c>
       <c r="I29" t="s">
         <v>29</v>
@@ -10316,33 +11818,33 @@
         <v>10</v>
       </c>
       <c r="K29" s="1">
-        <v>18</v>
+        <v>18.7</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <v>43769</v>
+        <v>43770</v>
       </c>
       <c r="B30" t="s">
         <v>3</v>
       </c>
       <c r="C30">
-        <v>-6.5</v>
+        <v>-7.5</v>
       </c>
       <c r="D30">
-        <v>-115</v>
+        <v>-105</v>
       </c>
       <c r="E30" t="s">
         <v>155</v>
       </c>
       <c r="F30" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="G30" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="H30" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="I30" t="s">
         <v>29</v>
@@ -10351,7 +11853,7 @@
         <v>10</v>
       </c>
       <c r="K30" s="1">
-        <v>18.7</v>
+        <v>19.52</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -10826,13 +12328,13 @@
         <v>155</v>
       </c>
       <c r="F44" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G44" t="s">
         <v>199</v>
       </c>
       <c r="H44" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I44" t="s">
         <v>29</v>
@@ -10893,16 +12395,16 @@
         <v>-110</v>
       </c>
       <c r="E46" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F46" t="s">
-        <v>231</v>
+        <v>258</v>
       </c>
       <c r="G46" t="s">
-        <v>232</v>
+        <v>257</v>
       </c>
       <c r="H46" t="s">
-        <v>232</v>
+        <v>257</v>
       </c>
       <c r="I46" t="s">
         <v>29</v>
@@ -10963,16 +12465,16 @@
         <v>-115</v>
       </c>
       <c r="E48" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F48" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="G48" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="H48" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="I48" t="s">
         <v>29</v>
@@ -11004,10 +12506,10 @@
         <v>192</v>
       </c>
       <c r="G49" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="H49" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="I49" t="s">
         <v>29</v>
@@ -11036,13 +12538,13 @@
         <v>155</v>
       </c>
       <c r="F50" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="G50" t="s">
         <v>181</v>
       </c>
       <c r="H50" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="I50" t="s">
         <v>23</v>
@@ -11106,7 +12608,7 @@
         <v>155</v>
       </c>
       <c r="F52" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="G52" t="s">
         <v>158</v>
@@ -11141,7 +12643,7 @@
         <v>155</v>
       </c>
       <c r="F53" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="G53" t="s">
         <v>170</v>
@@ -11211,10 +12713,10 @@
         <v>155</v>
       </c>
       <c r="F55" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="G55" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="H55" t="s">
         <v>13</v>
@@ -11246,7 +12748,7 @@
         <v>155</v>
       </c>
       <c r="F56" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="G56" t="s">
         <v>158</v>
@@ -11281,7 +12783,7 @@
         <v>155</v>
       </c>
       <c r="F57" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="G57" t="s">
         <v>158</v>
@@ -11297,6 +12799,356 @@
       </c>
       <c r="K57" s="1">
         <v>18.7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" s="2">
+        <v>43776</v>
+      </c>
+      <c r="B58" t="s">
+        <v>3</v>
+      </c>
+      <c r="C58">
+        <v>-1</v>
+      </c>
+      <c r="D58">
+        <v>-110</v>
+      </c>
+      <c r="E58" t="s">
+        <v>155</v>
+      </c>
+      <c r="F58" t="s">
+        <v>253</v>
+      </c>
+      <c r="G58" t="s">
+        <v>199</v>
+      </c>
+      <c r="H58" t="s">
+        <v>253</v>
+      </c>
+      <c r="I58" t="s">
+        <v>23</v>
+      </c>
+      <c r="J58" s="1">
+        <v>10</v>
+      </c>
+      <c r="K58" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59" s="2">
+        <v>43776</v>
+      </c>
+      <c r="B59" t="s">
+        <v>89</v>
+      </c>
+      <c r="C59">
+        <v>12.5</v>
+      </c>
+      <c r="D59">
+        <v>-160</v>
+      </c>
+      <c r="E59" t="s">
+        <v>155</v>
+      </c>
+      <c r="F59" t="s">
+        <v>209</v>
+      </c>
+      <c r="G59" t="s">
+        <v>238</v>
+      </c>
+      <c r="H59" t="s">
+        <v>66</v>
+      </c>
+      <c r="I59" t="s">
+        <v>29</v>
+      </c>
+      <c r="J59" s="1">
+        <v>10</v>
+      </c>
+      <c r="K59" s="1">
+        <v>16.25</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60" s="2">
+        <v>43776</v>
+      </c>
+      <c r="B60" t="s">
+        <v>89</v>
+      </c>
+      <c r="C60">
+        <v>9.5</v>
+      </c>
+      <c r="D60">
+        <v>-125</v>
+      </c>
+      <c r="E60" t="s">
+        <v>155</v>
+      </c>
+      <c r="F60" t="s">
+        <v>156</v>
+      </c>
+      <c r="G60" t="s">
+        <v>238</v>
+      </c>
+      <c r="H60" t="s">
+        <v>66</v>
+      </c>
+      <c r="I60" t="s">
+        <v>23</v>
+      </c>
+      <c r="J60" s="1">
+        <v>10</v>
+      </c>
+      <c r="K60" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61" s="2">
+        <v>43776</v>
+      </c>
+      <c r="B61" t="s">
+        <v>89</v>
+      </c>
+      <c r="C61">
+        <v>8.5</v>
+      </c>
+      <c r="D61">
+        <v>-125</v>
+      </c>
+      <c r="E61" t="s">
+        <v>155</v>
+      </c>
+      <c r="F61" t="s">
+        <v>256</v>
+      </c>
+      <c r="G61" t="s">
+        <v>238</v>
+      </c>
+      <c r="H61" t="s">
+        <v>66</v>
+      </c>
+      <c r="I61" t="s">
+        <v>29</v>
+      </c>
+      <c r="J61" s="1">
+        <v>10</v>
+      </c>
+      <c r="K61" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62" s="2">
+        <v>43776</v>
+      </c>
+      <c r="B62" t="s">
+        <v>3</v>
+      </c>
+      <c r="C62">
+        <v>5.5</v>
+      </c>
+      <c r="D62">
+        <v>-110</v>
+      </c>
+      <c r="E62" t="s">
+        <v>155</v>
+      </c>
+      <c r="F62" t="s">
+        <v>191</v>
+      </c>
+      <c r="G62" t="s">
+        <v>200</v>
+      </c>
+      <c r="H62" t="s">
+        <v>200</v>
+      </c>
+      <c r="I62" t="s">
+        <v>23</v>
+      </c>
+      <c r="J62" s="1">
+        <v>10</v>
+      </c>
+      <c r="K62" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63" s="2">
+        <v>43776</v>
+      </c>
+      <c r="B63" t="s">
+        <v>3</v>
+      </c>
+      <c r="C63">
+        <v>5.5</v>
+      </c>
+      <c r="D63">
+        <v>-110</v>
+      </c>
+      <c r="E63" t="s">
+        <v>155</v>
+      </c>
+      <c r="F63" t="s">
+        <v>276</v>
+      </c>
+      <c r="G63" t="s">
+        <v>190</v>
+      </c>
+      <c r="H63" t="s">
+        <v>276</v>
+      </c>
+      <c r="I63" t="s">
+        <v>23</v>
+      </c>
+      <c r="J63" s="1">
+        <v>10</v>
+      </c>
+      <c r="K63" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64" s="2">
+        <v>43779</v>
+      </c>
+      <c r="B64" t="s">
+        <v>3</v>
+      </c>
+      <c r="C64">
+        <v>25.5</v>
+      </c>
+      <c r="D64">
+        <v>-115</v>
+      </c>
+      <c r="E64" t="s">
+        <v>229</v>
+      </c>
+      <c r="F64" t="s">
+        <v>257</v>
+      </c>
+      <c r="G64" t="s">
+        <v>259</v>
+      </c>
+      <c r="H64" t="s">
+        <v>257</v>
+      </c>
+      <c r="I64" t="s">
+        <v>29</v>
+      </c>
+      <c r="J64" s="1">
+        <v>10</v>
+      </c>
+      <c r="K64" s="1">
+        <v>18.7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65" s="2">
+        <v>43777</v>
+      </c>
+      <c r="B65" t="s">
+        <v>89</v>
+      </c>
+      <c r="C65">
+        <v>6.5</v>
+      </c>
+      <c r="D65">
+        <v>-115</v>
+      </c>
+      <c r="E65" t="s">
+        <v>155</v>
+      </c>
+      <c r="F65" t="s">
+        <v>277</v>
+      </c>
+      <c r="G65" t="s">
+        <v>238</v>
+      </c>
+      <c r="H65" t="s">
+        <v>66</v>
+      </c>
+      <c r="I65" t="s">
+        <v>23</v>
+      </c>
+      <c r="J65" s="1">
+        <v>10</v>
+      </c>
+      <c r="K65" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66" s="2">
+        <v>43777</v>
+      </c>
+      <c r="B66" t="s">
+        <v>89</v>
+      </c>
+      <c r="C66">
+        <v>8.5</v>
+      </c>
+      <c r="D66">
+        <v>-105</v>
+      </c>
+      <c r="E66" t="s">
+        <v>155</v>
+      </c>
+      <c r="F66" t="s">
+        <v>278</v>
+      </c>
+      <c r="G66" t="s">
+        <v>238</v>
+      </c>
+      <c r="H66" t="s">
+        <v>66</v>
+      </c>
+      <c r="I66" t="s">
+        <v>29</v>
+      </c>
+      <c r="J66" s="1">
+        <v>10</v>
+      </c>
+      <c r="K66" s="1">
+        <v>19.52</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A67" s="2">
+        <v>43777</v>
+      </c>
+      <c r="B67" t="s">
+        <v>89</v>
+      </c>
+      <c r="C67">
+        <v>6.5</v>
+      </c>
+      <c r="D67">
+        <v>-115</v>
+      </c>
+      <c r="E67" t="s">
+        <v>155</v>
+      </c>
+      <c r="F67" t="s">
+        <v>235</v>
+      </c>
+      <c r="G67" t="s">
+        <v>170</v>
+      </c>
+      <c r="H67" t="s">
+        <v>66</v>
+      </c>
+      <c r="I67" t="s">
+        <v>23</v>
+      </c>
+      <c r="J67" s="1">
+        <v>10</v>
+      </c>
+      <c r="K67" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/SportsBettingLogs.xlsx
+++ b/SportsBettingLogs.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1948" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2060" uniqueCount="289">
   <si>
     <t>Bet Type</t>
   </si>
@@ -865,6 +865,36 @@
   </si>
   <si>
     <t>Luke Kennard</t>
+  </si>
+  <si>
+    <t>JaVale McGee</t>
+  </si>
+  <si>
+    <t>Coll Charlestown</t>
+  </si>
+  <si>
+    <t>Oklahoma State</t>
+  </si>
+  <si>
+    <t>Coll Charleston</t>
+  </si>
+  <si>
+    <t>Ohio State</t>
+  </si>
+  <si>
+    <t>Villanova</t>
+  </si>
+  <si>
+    <t>VCU</t>
+  </si>
+  <si>
+    <t>Philadelphia 76ers</t>
+  </si>
+  <si>
+    <t>Washington Wizards</t>
+  </si>
+  <si>
+    <t>e</t>
   </si>
 </sst>
 </file>
@@ -956,7 +986,37 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="89">
+  <dxfs count="97">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1650,32 +1710,6 @@
       <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
     </dxf>
     <dxf>
@@ -1702,6 +1736,26 @@
     <dxf>
       <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
     </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1716,34 +1770,41 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table134" displayName="Table134" ref="A2:L225" totalsRowShown="0">
-  <autoFilter ref="A2:L225"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table134" displayName="Table134" ref="A2:L236" totalsRowCount="1">
+  <autoFilter ref="A2:L235"/>
+  <sortState ref="A3:L225">
+    <sortCondition ref="A2:A225"/>
+  </sortState>
   <tableColumns count="12">
-    <tableColumn id="17" name="Date Placed" dataDxfId="77"/>
-    <tableColumn id="11" name="NFL Week" dataDxfId="76"/>
-    <tableColumn id="1" name="Bet Type" dataDxfId="75"/>
-    <tableColumn id="10" name="Points" dataDxfId="74"/>
-    <tableColumn id="2" name="Odds" dataDxfId="73"/>
-    <tableColumn id="9" name="League" dataDxfId="72"/>
+    <tableColumn id="17" name="Date Placed" totalsRowLabel="Total" dataDxfId="96" totalsRowDxfId="7"/>
+    <tableColumn id="11" name="NFL Week" dataDxfId="95" totalsRowDxfId="6"/>
+    <tableColumn id="1" name="Bet Type" dataDxfId="94" totalsRowDxfId="5"/>
+    <tableColumn id="10" name="Points" dataDxfId="93" totalsRowDxfId="4"/>
+    <tableColumn id="2" name="Odds" dataDxfId="92" totalsRowDxfId="3"/>
+    <tableColumn id="9" name="League" dataDxfId="91" totalsRowDxfId="2"/>
     <tableColumn id="3" name="Home Team"/>
     <tableColumn id="4" name="Away Team"/>
     <tableColumn id="5" name="Outcome Chosen"/>
     <tableColumn id="6" name="Result"/>
-    <tableColumn id="7" name="Bet Size" dataDxfId="70" totalsRowDxfId="71"/>
-    <tableColumn id="8" name="Payout" dataDxfId="68" totalsRowDxfId="69"/>
+    <tableColumn id="7" name="Bet Size" totalsRowFunction="custom" dataDxfId="9" totalsRowDxfId="1">
+      <totalsRowFormula>SUMIF(Table134[Result],"&lt;&gt;",Table134[Bet Size])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="8" name="Payout" totalsRowFunction="custom" dataDxfId="8" totalsRowDxfId="0">
+      <totalsRowFormula>SUMIF(Table134[Result],"&lt;&gt;",Table134[Payout])</totalsRowFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A2:K67" totalsRowShown="0">
-  <autoFilter ref="A2:K67"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A2:K78" totalsRowCount="1">
+  <autoFilter ref="A2:K77"/>
   <sortState ref="A3:K64">
     <sortCondition ref="A2:A64"/>
   </sortState>
   <tableColumns count="11">
-    <tableColumn id="1" name="Date Placed" dataDxfId="88"/>
+    <tableColumn id="1" name="Date Placed" totalsRowLabel="Total" dataDxfId="90"/>
     <tableColumn id="2" name="Bet Type"/>
     <tableColumn id="3" name="Points"/>
     <tableColumn id="4" name="Odds"/>
@@ -1752,8 +1813,12 @@
     <tableColumn id="7" name="Away Team"/>
     <tableColumn id="8" name="Outcome Chosen"/>
     <tableColumn id="9" name="Result"/>
-    <tableColumn id="10" name="Bet Size" dataDxfId="87"/>
-    <tableColumn id="11" name="Payout" dataDxfId="86"/>
+    <tableColumn id="10" name="Bet Size" totalsRowFunction="custom" dataDxfId="89" totalsRowDxfId="79">
+      <totalsRowFormula>SUMIF(Table4[Result],"&lt;&gt;",Table4[Bet Size])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="11" name="Payout" totalsRowFunction="custom" dataDxfId="88" totalsRowDxfId="78">
+      <totalsRowFormula>SUMIF(Table4[Result],"&lt;&gt;",Table4[Payout])</totalsRowFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1766,17 +1831,17 @@
     <sortCondition ref="A2:A27"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="17" name="Date" totalsRowLabel="Total" dataDxfId="85"/>
+    <tableColumn id="17" name="Date" totalsRowLabel="Total" dataDxfId="87"/>
     <tableColumn id="1" name="Bet Type"/>
     <tableColumn id="2" name="Odds"/>
     <tableColumn id="3" name="Team 1"/>
     <tableColumn id="4" name="Team 2"/>
     <tableColumn id="5" name="Outcome Chosen"/>
     <tableColumn id="6" name="Result"/>
-    <tableColumn id="7" name="Bet Size" totalsRowFunction="custom" dataDxfId="84" totalsRowDxfId="83">
+    <tableColumn id="7" name="Bet Size" totalsRowFunction="custom" dataDxfId="86" totalsRowDxfId="85">
       <totalsRowFormula>SUMIF(Table1[Result],"&lt;&gt;",Table1[Bet Size])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" name="Payout" totalsRowFunction="custom" dataDxfId="82" totalsRowDxfId="81">
+    <tableColumn id="8" name="Payout" totalsRowFunction="custom" dataDxfId="84" totalsRowDxfId="83">
       <totalsRowFormula>SUMIF(Table1[Result],"&lt;&gt;",Table1[Payout])</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -1788,7 +1853,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A2:J3" totalsRowShown="0">
   <autoFilter ref="A2:J3"/>
   <tableColumns count="10">
-    <tableColumn id="17" name="Date" dataDxfId="80"/>
+    <tableColumn id="17" name="Date" dataDxfId="82"/>
     <tableColumn id="1" name="Bet Type"/>
     <tableColumn id="2" name="Odds"/>
     <tableColumn id="9" name="League"/>
@@ -1796,8 +1861,8 @@
     <tableColumn id="4" name="Team 2"/>
     <tableColumn id="5" name="Outcome Chosen"/>
     <tableColumn id="6" name="Result"/>
-    <tableColumn id="7" name="Bet Size" dataDxfId="79"/>
-    <tableColumn id="8" name="Payout" dataDxfId="78"/>
+    <tableColumn id="7" name="Bet Size" dataDxfId="81"/>
+    <tableColumn id="8" name="Payout" dataDxfId="80"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2112,10 +2177,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L225"/>
+  <dimension ref="A1:L238"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="74" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" topLeftCell="A215" zoomScale="74" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F238" sqref="F238"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2189,78 +2254,78 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
-        <v>43718</v>
+        <v>43395</v>
       </c>
       <c r="B3" s="5">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>3</v>
+        <v>89</v>
       </c>
       <c r="D3" s="6">
-        <v>-5</v>
+        <v>33.5</v>
       </c>
       <c r="E3" s="6">
-        <v>-110</v>
+        <v>-125</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>55</v>
       </c>
       <c r="G3" t="s">
-        <v>56</v>
+        <v>115</v>
       </c>
       <c r="H3" t="s">
-        <v>57</v>
+        <v>137</v>
       </c>
       <c r="I3" t="s">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="J3" t="s">
         <v>29</v>
       </c>
       <c r="K3" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="L3" s="1">
-        <v>19.09</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
-        <v>43718</v>
+        <v>43400</v>
       </c>
       <c r="B4" s="5">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>9</v>
+        <v>89</v>
       </c>
       <c r="D4" s="6">
-        <v>53</v>
+        <v>1.5</v>
       </c>
       <c r="E4" s="6">
-        <v>-110</v>
+        <v>-160</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>55</v>
       </c>
       <c r="G4" t="s">
-        <v>58</v>
+        <v>153</v>
       </c>
       <c r="H4" t="s">
-        <v>59</v>
+        <v>138</v>
       </c>
       <c r="I4" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="J4" t="s">
         <v>29</v>
       </c>
       <c r="K4" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="L4" s="1">
-        <v>19.09</v>
+        <v>32.5</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -2274,7 +2339,7 @@
         <v>3</v>
       </c>
       <c r="D5" s="6">
-        <v>-19</v>
+        <v>-5</v>
       </c>
       <c r="E5" s="6">
         <v>-110</v>
@@ -2283,13 +2348,13 @@
         <v>55</v>
       </c>
       <c r="G5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="H5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="I5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="J5" t="s">
         <v>29</v>
@@ -2309,25 +2374,25 @@
         <v>2</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D6" s="6">
-        <v>-3</v>
+        <v>53</v>
       </c>
       <c r="E6" s="6">
-        <v>100</v>
+        <v>-110</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>55</v>
       </c>
       <c r="G6" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="H6" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="I6" t="s">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="J6" t="s">
         <v>29</v>
@@ -2336,21 +2401,21 @@
         <v>10</v>
       </c>
       <c r="L6" s="1">
-        <v>20</v>
+        <v>19.09</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
-        <v>43719</v>
+        <v>43718</v>
       </c>
       <c r="B7" s="5">
         <v>2</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D7" s="6">
-        <v>51</v>
+        <v>-19</v>
       </c>
       <c r="E7" s="6">
         <v>-110</v>
@@ -2359,51 +2424,51 @@
         <v>55</v>
       </c>
       <c r="G7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="I7" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="J7" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K7" s="1">
         <v>10</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>19.09</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
-        <v>43724</v>
+        <v>43718</v>
       </c>
       <c r="B8" s="5">
+        <v>2</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>89</v>
-      </c>
       <c r="D8" s="6">
-        <v>35.5</v>
+        <v>-3</v>
       </c>
       <c r="E8" s="6">
-        <v>-115</v>
+        <v>100</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>55</v>
       </c>
       <c r="G8" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="H8" t="s">
-        <v>119</v>
+        <v>63</v>
       </c>
       <c r="I8" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="J8" t="s">
         <v>29</v>
@@ -2412,21 +2477,21 @@
         <v>10</v>
       </c>
       <c r="L8" s="1">
-        <v>18.7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
-        <v>43724</v>
+        <v>43719</v>
       </c>
       <c r="B9" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D9" s="6">
-        <v>-21</v>
+        <v>51</v>
       </c>
       <c r="E9" s="6">
         <v>-110</v>
@@ -2435,22 +2500,22 @@
         <v>55</v>
       </c>
       <c r="G9" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="H9" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="I9" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="J9" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="K9" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="L9" s="1">
-        <v>38.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -2461,39 +2526,39 @@
         <v>3</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>9</v>
+        <v>89</v>
       </c>
       <c r="D10" s="6">
-        <v>43.5</v>
+        <v>35.5</v>
       </c>
       <c r="E10" s="6">
-        <v>-110</v>
+        <v>-115</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>55</v>
       </c>
       <c r="G10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H10" t="s">
-        <v>70</v>
+        <v>119</v>
       </c>
       <c r="I10" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="J10" t="s">
         <v>29</v>
       </c>
       <c r="K10" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="L10" s="1">
-        <v>38.18</v>
+        <v>18.7</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
-        <v>43725</v>
+        <v>43724</v>
       </c>
       <c r="B11" s="5">
         <v>3</v>
@@ -2502,69 +2567,69 @@
         <v>3</v>
       </c>
       <c r="D11" s="6">
-        <v>7</v>
+        <v>-21</v>
       </c>
       <c r="E11" s="6">
-        <v>-120</v>
+        <v>-110</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>55</v>
       </c>
       <c r="G11" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="H11" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="I11" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="J11" t="s">
         <v>29</v>
       </c>
       <c r="K11" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="L11" s="1">
-        <v>18.329999999999998</v>
+        <v>38.18</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
-        <v>43725</v>
+        <v>43724</v>
       </c>
       <c r="B12" s="5">
         <v>3</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D12" s="6">
-        <v>7</v>
+        <v>43.5</v>
       </c>
       <c r="E12" s="6">
-        <v>-120</v>
+        <v>-110</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>55</v>
       </c>
       <c r="G12" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="H12" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="I12" t="s">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="J12" t="s">
         <v>29</v>
       </c>
       <c r="K12" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="L12" s="1">
-        <v>18.329999999999998</v>
+        <v>38.18</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -2575,34 +2640,34 @@
         <v>3</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D13" s="6">
-        <v>43.5</v>
+        <v>7</v>
       </c>
       <c r="E13" s="6">
-        <v>-110</v>
+        <v>-120</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>55</v>
       </c>
       <c r="G13" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="H13" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="I13" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="J13" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K13" s="1">
         <v>10</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>18.329999999999998</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -2625,13 +2690,13 @@
         <v>55</v>
       </c>
       <c r="G14" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I14" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="J14" t="s">
         <v>29</v>
@@ -2651,10 +2716,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D15" s="6">
-        <v>4</v>
+        <v>43.5</v>
       </c>
       <c r="E15" s="6">
         <v>-110</v>
@@ -2663,13 +2728,13 @@
         <v>55</v>
       </c>
       <c r="G15" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="H15" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="I15" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="J15" t="s">
         <v>23</v>
@@ -2683,31 +2748,31 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
-        <v>43735</v>
+        <v>43725</v>
       </c>
       <c r="B16" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D16" s="6">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="E16" s="6">
-        <v>-110</v>
+        <v>-120</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>55</v>
       </c>
       <c r="G16" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="H16" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I16" t="s">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="J16" t="s">
         <v>29</v>
@@ -2716,36 +2781,36 @@
         <v>10</v>
       </c>
       <c r="L16" s="1">
-        <v>19.09</v>
+        <v>18.329999999999998</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
-        <v>43735</v>
+        <v>43725</v>
       </c>
       <c r="B17" s="5">
+        <v>3</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="6">
         <v>4</v>
       </c>
-      <c r="C17" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="6">
-        <v>49.5</v>
-      </c>
       <c r="E17" s="6">
-        <v>-115</v>
+        <v>-110</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>55</v>
       </c>
       <c r="G17" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H17" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I17" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="J17" t="s">
         <v>23</v>
@@ -2765,10 +2830,10 @@
         <v>4</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D18" s="6">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="E18" s="6">
         <v>-110</v>
@@ -2777,13 +2842,13 @@
         <v>55</v>
       </c>
       <c r="G18" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="H18" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="I18" t="s">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="J18" t="s">
         <v>29</v>
@@ -2803,25 +2868,25 @@
         <v>4</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D19" s="6">
-        <v>3</v>
+        <v>49.5</v>
       </c>
       <c r="E19" s="6">
-        <v>110</v>
+        <v>-115</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>55</v>
       </c>
       <c r="G19" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="H19" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="I19" t="s">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="J19" t="s">
         <v>23</v>
@@ -2844,36 +2909,36 @@
         <v>3</v>
       </c>
       <c r="D20" s="6">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E20" s="6">
-        <v>-115</v>
+        <v>-110</v>
       </c>
       <c r="F20" s="6" t="s">
         <v>55</v>
       </c>
       <c r="G20" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H20" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="I20" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J20" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K20" s="1">
         <v>10</v>
       </c>
       <c r="L20" s="1">
-        <v>0</v>
+        <v>19.09</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
-        <v>43736</v>
+        <v>43735</v>
       </c>
       <c r="B21" s="5">
         <v>4</v>
@@ -2882,36 +2947,36 @@
         <v>3</v>
       </c>
       <c r="D21" s="6">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="E21" s="6">
-        <v>-115</v>
+        <v>110</v>
       </c>
       <c r="F21" s="6" t="s">
         <v>55</v>
       </c>
       <c r="G21" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="H21" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="I21" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="J21" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="K21" s="1">
         <v>10</v>
       </c>
       <c r="L21" s="1">
-        <v>18.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
-        <v>43736</v>
+        <v>43735</v>
       </c>
       <c r="B22" s="5">
         <v>4</v>
@@ -2920,7 +2985,7 @@
         <v>3</v>
       </c>
       <c r="D22" s="6">
-        <v>7.5</v>
+        <v>2</v>
       </c>
       <c r="E22" s="6">
         <v>-115</v>
@@ -2929,27 +2994,27 @@
         <v>55</v>
       </c>
       <c r="G22" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H22" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="I22" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="J22" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="K22" s="1">
         <v>10</v>
       </c>
       <c r="L22" s="1">
-        <v>18.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
-        <v>43737</v>
+        <v>43736</v>
       </c>
       <c r="B23" s="5">
         <v>4</v>
@@ -2958,36 +3023,36 @@
         <v>3</v>
       </c>
       <c r="D23" s="6">
-        <v>-7.5</v>
+        <v>-3</v>
       </c>
       <c r="E23" s="6">
-        <v>-105</v>
+        <v>-115</v>
       </c>
       <c r="F23" s="6" t="s">
         <v>55</v>
       </c>
       <c r="G23" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="H23" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="I23" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="J23" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K23" s="1">
         <v>10</v>
       </c>
       <c r="L23" s="1">
-        <v>0</v>
+        <v>18.7</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
-        <v>43737</v>
+        <v>43736</v>
       </c>
       <c r="B24" s="5">
         <v>4</v>
@@ -2996,22 +3061,22 @@
         <v>3</v>
       </c>
       <c r="D24" s="6">
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="E24" s="6">
-        <v>-105</v>
+        <v>-115</v>
       </c>
       <c r="F24" s="6" t="s">
         <v>55</v>
       </c>
       <c r="G24" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="H24" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="I24" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="J24" t="s">
         <v>29</v>
@@ -3020,7 +3085,7 @@
         <v>10</v>
       </c>
       <c r="L24" s="1">
-        <v>19.52</v>
+        <v>18.7</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -3033,33 +3098,32 @@
       <c r="C25" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D25" s="6" t="s">
-        <v>175</v>
+      <c r="D25" s="6">
+        <v>-7.5</v>
       </c>
       <c r="E25" s="6">
-        <v>110</v>
+        <v>-105</v>
       </c>
       <c r="F25" s="6" t="s">
         <v>55</v>
       </c>
       <c r="G25" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="H25" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="I25" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="J25" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="K25" s="1">
-        <v>2.5</v>
+        <v>10</v>
       </c>
       <c r="L25" s="1">
-        <f>13.39-6.38</f>
-        <v>7.0100000000000007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -3072,32 +3136,32 @@
       <c r="C26" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D26" s="6" t="s">
-        <v>175</v>
+      <c r="D26" s="6">
+        <v>5</v>
       </c>
       <c r="E26" s="6">
-        <v>155</v>
+        <v>-105</v>
       </c>
       <c r="F26" s="6" t="s">
         <v>55</v>
       </c>
       <c r="G26" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H26" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="I26" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="J26" t="s">
         <v>29</v>
       </c>
       <c r="K26" s="1">
-        <v>2.5</v>
+        <v>10</v>
       </c>
       <c r="L26" s="1">
-        <v>6.38</v>
+        <v>19.52</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
@@ -3108,51 +3172,52 @@
         <v>4</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="D27" s="6">
-        <v>20.5</v>
+        <v>3</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>175</v>
       </c>
       <c r="E27" s="6">
-        <v>-115</v>
+        <v>110</v>
       </c>
       <c r="F27" s="6" t="s">
         <v>55</v>
       </c>
       <c r="G27" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H27" t="s">
-        <v>117</v>
+        <v>69</v>
       </c>
       <c r="I27" t="s">
-        <v>13</v>
+        <v>87</v>
       </c>
       <c r="J27" t="s">
         <v>29</v>
       </c>
       <c r="K27" s="1">
-        <v>10</v>
+        <v>2.5</v>
       </c>
       <c r="L27" s="1">
-        <v>18.7</v>
+        <f>13.39-6.38</f>
+        <v>7.0100000000000007</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
-        <v>43739</v>
+        <v>43737</v>
       </c>
       <c r="B28" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D28" s="6">
-        <v>-3</v>
+      <c r="D28" s="6" t="s">
+        <v>175</v>
       </c>
       <c r="E28" s="6">
-        <v>-110</v>
+        <v>155</v>
       </c>
       <c r="F28" s="6" t="s">
         <v>55</v>
@@ -3161,48 +3226,48 @@
         <v>88</v>
       </c>
       <c r="H28" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="I28" t="s">
         <v>88</v>
       </c>
       <c r="J28" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K28" s="1">
-        <v>10</v>
+        <v>2.5</v>
       </c>
       <c r="L28" s="1">
-        <v>0</v>
+        <v>6.38</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
-        <v>43739</v>
+        <v>43737</v>
       </c>
       <c r="B29" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>3</v>
+        <v>89</v>
       </c>
       <c r="D29" s="6">
-        <v>15</v>
+        <v>20.5</v>
       </c>
       <c r="E29" s="6">
-        <v>-105</v>
+        <v>-115</v>
       </c>
       <c r="F29" s="6" t="s">
         <v>55</v>
       </c>
       <c r="G29" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H29" t="s">
-        <v>59</v>
+        <v>117</v>
       </c>
       <c r="I29" t="s">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="J29" t="s">
         <v>29</v>
@@ -3211,7 +3276,7 @@
         <v>10</v>
       </c>
       <c r="L29" s="1">
-        <v>19.52</v>
+        <v>18.7</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -3222,77 +3287,77 @@
         <v>5</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D30" s="6">
-        <v>45</v>
+        <v>-3</v>
       </c>
       <c r="E30" s="6">
-        <v>-105</v>
+        <v>-110</v>
       </c>
       <c r="F30" s="6" t="s">
         <v>55</v>
       </c>
       <c r="G30" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="H30" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I30" t="s">
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="J30" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="K30" s="1">
         <v>10</v>
       </c>
       <c r="L30" s="1">
-        <v>18.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
-        <v>43741</v>
+        <v>43739</v>
       </c>
       <c r="B31" s="5">
         <v>5</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D31" s="6">
-        <v>46.5</v>
+        <v>15</v>
       </c>
       <c r="E31" s="6">
-        <v>-110</v>
+        <v>-105</v>
       </c>
       <c r="F31" s="6" t="s">
         <v>55</v>
       </c>
       <c r="G31" t="s">
-        <v>58</v>
+        <v>93</v>
       </c>
       <c r="H31" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="I31" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="J31" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K31" s="1">
         <v>10</v>
       </c>
       <c r="L31" s="1">
-        <v>0</v>
+        <v>19.52</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
-        <v>43741</v>
+        <v>43739</v>
       </c>
       <c r="B32" s="5">
         <v>5</v>
@@ -3301,31 +3366,31 @@
         <v>9</v>
       </c>
       <c r="D32" s="6">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E32" s="6">
-        <v>-110</v>
+        <v>-105</v>
       </c>
       <c r="F32" s="6" t="s">
         <v>55</v>
       </c>
       <c r="G32" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="H32" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I32" t="s">
         <v>13</v>
       </c>
       <c r="J32" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K32" s="1">
         <v>10</v>
       </c>
       <c r="L32" s="1">
-        <v>0</v>
+        <v>18.7</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
@@ -3339,7 +3404,7 @@
         <v>9</v>
       </c>
       <c r="D33" s="6">
-        <v>49</v>
+        <v>46.5</v>
       </c>
       <c r="E33" s="6">
         <v>-110</v>
@@ -3348,22 +3413,22 @@
         <v>55</v>
       </c>
       <c r="G33" t="s">
-        <v>95</v>
+        <v>58</v>
       </c>
       <c r="H33" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="I33" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="J33" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="K33" s="1">
         <v>10</v>
       </c>
       <c r="L33" s="1">
-        <v>19.09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
@@ -3374,60 +3439,60 @@
         <v>5</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D34" s="6">
-        <v>3.5</v>
+        <v>41</v>
       </c>
       <c r="E34" s="6">
-        <v>-120</v>
+        <v>-110</v>
       </c>
       <c r="F34" s="6" t="s">
         <v>55</v>
       </c>
       <c r="G34" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="H34" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="I34" t="s">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="J34" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="K34" s="1">
         <v>10</v>
       </c>
       <c r="L34" s="1">
-        <v>18.329999999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
-        <v>43744</v>
+        <v>43741</v>
       </c>
       <c r="B35" s="5">
         <v>5</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>89</v>
+        <v>9</v>
       </c>
       <c r="D35" s="6">
-        <v>2.5</v>
+        <v>49</v>
       </c>
       <c r="E35" s="6">
-        <v>-115</v>
+        <v>-110</v>
       </c>
       <c r="F35" s="6" t="s">
         <v>55</v>
       </c>
       <c r="G35" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H35" t="s">
-        <v>119</v>
+        <v>65</v>
       </c>
       <c r="I35" t="s">
         <v>66</v>
@@ -3436,16 +3501,15 @@
         <v>29</v>
       </c>
       <c r="K35" s="1">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="L35" s="1">
-        <f>93.48*2</f>
-        <v>186.96</v>
+        <v>19.09</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
-        <v>43744</v>
+        <v>43741</v>
       </c>
       <c r="B36" s="5">
         <v>5</v>
@@ -3454,22 +3518,22 @@
         <v>3</v>
       </c>
       <c r="D36" s="6">
-        <v>-3</v>
+        <v>3.5</v>
       </c>
       <c r="E36" s="6">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F36" s="6" t="s">
         <v>55</v>
       </c>
       <c r="G36" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="H36" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="I36" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="J36" t="s">
         <v>29</v>
@@ -3489,107 +3553,108 @@
         <v>5</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>3</v>
+        <v>89</v>
       </c>
       <c r="D37" s="6">
-        <v>-3.5</v>
+        <v>2.5</v>
       </c>
       <c r="E37" s="6">
-        <v>-105</v>
+        <v>-115</v>
       </c>
       <c r="F37" s="6" t="s">
         <v>55</v>
       </c>
       <c r="G37" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="H37" t="s">
-        <v>71</v>
+        <v>119</v>
       </c>
       <c r="I37" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="J37" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K37" s="1">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="L37" s="1">
-        <v>0</v>
+        <f>93.48*2</f>
+        <v>186.96</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
-        <v>43748</v>
+        <v>43744</v>
       </c>
       <c r="B38" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>89</v>
+        <v>3</v>
       </c>
       <c r="D38" s="6">
-        <v>31.5</v>
+        <v>-3</v>
       </c>
       <c r="E38" s="6">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="F38" s="6" t="s">
         <v>55</v>
       </c>
       <c r="G38" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="H38" t="s">
-        <v>119</v>
+        <v>87</v>
       </c>
       <c r="I38" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="J38" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K38" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L38" s="1">
-        <v>0</v>
+        <v>18.329999999999998</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
-        <v>43748</v>
+        <v>43744</v>
       </c>
       <c r="B39" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>89</v>
+        <v>3</v>
       </c>
       <c r="D39" s="6">
-        <v>11.5</v>
+        <v>-3.5</v>
       </c>
       <c r="E39" s="6">
-        <v>-110</v>
+        <v>-105</v>
       </c>
       <c r="F39" s="6" t="s">
         <v>55</v>
       </c>
       <c r="G39" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="H39" t="s">
-        <v>119</v>
+        <v>71</v>
       </c>
       <c r="I39" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="J39" t="s">
         <v>23</v>
       </c>
       <c r="K39" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L39" s="1">
         <v>0</v>
@@ -3603,31 +3668,31 @@
         <v>6</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>9</v>
+        <v>89</v>
       </c>
       <c r="D40" s="6">
-        <v>41.5</v>
+        <v>31.5</v>
       </c>
       <c r="E40" s="6">
-        <v>-110</v>
+        <v>110</v>
       </c>
       <c r="F40" s="6" t="s">
         <v>55</v>
       </c>
       <c r="G40" t="s">
-        <v>60</v>
+        <v>97</v>
       </c>
       <c r="H40" t="s">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="I40" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="J40" t="s">
         <v>23</v>
       </c>
       <c r="K40" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="L40" s="1">
         <v>0</v>
@@ -3641,10 +3706,10 @@
         <v>6</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>3</v>
+        <v>89</v>
       </c>
       <c r="D41" s="6">
-        <v>17</v>
+        <v>11.5</v>
       </c>
       <c r="E41" s="6">
         <v>-110</v>
@@ -3653,22 +3718,22 @@
         <v>55</v>
       </c>
       <c r="G41" t="s">
-        <v>60</v>
+        <v>98</v>
       </c>
       <c r="H41" t="s">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="I41" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="J41" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="K41" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="L41" s="1">
-        <v>19.09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
@@ -3679,31 +3744,31 @@
         <v>6</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>89</v>
+        <v>9</v>
       </c>
       <c r="D42" s="6">
-        <v>60.5</v>
+        <v>41.5</v>
       </c>
       <c r="E42" s="6">
-        <v>-125</v>
+        <v>-110</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>99</v>
+        <v>55</v>
       </c>
       <c r="G42" t="s">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="H42" t="s">
-        <v>119</v>
+        <v>83</v>
       </c>
       <c r="I42" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="J42" t="s">
         <v>23</v>
       </c>
       <c r="K42" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L42" s="1">
         <v>0</v>
@@ -3717,34 +3782,34 @@
         <v>6</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>89</v>
+        <v>3</v>
       </c>
       <c r="D43" s="6">
-        <v>69.5</v>
+        <v>17</v>
       </c>
       <c r="E43" s="6">
-        <v>-125</v>
+        <v>-110</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>99</v>
+        <v>55</v>
       </c>
       <c r="G43" t="s">
-        <v>101</v>
+        <v>60</v>
       </c>
       <c r="H43" t="s">
-        <v>119</v>
+        <v>83</v>
       </c>
       <c r="I43" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="J43" t="s">
         <v>29</v>
       </c>
       <c r="K43" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L43" s="1">
-        <v>9.17</v>
+        <v>19.09</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
@@ -3758,31 +3823,31 @@
         <v>89</v>
       </c>
       <c r="D44" s="6">
-        <v>1</v>
+        <v>60.5</v>
       </c>
       <c r="E44" s="6">
-        <v>-160</v>
+        <v>-125</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>55</v>
+        <v>99</v>
       </c>
       <c r="G44" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H44" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I44" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="J44" t="s">
-        <v>104</v>
+        <v>23</v>
       </c>
       <c r="K44" s="1">
         <v>5</v>
       </c>
       <c r="L44" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
@@ -3793,34 +3858,34 @@
         <v>6</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>9</v>
+        <v>89</v>
       </c>
       <c r="D45" s="6">
-        <v>47</v>
+        <v>69.5</v>
       </c>
       <c r="E45" s="6">
-        <v>-110</v>
+        <v>-125</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>55</v>
+        <v>99</v>
       </c>
       <c r="G45" t="s">
-        <v>70</v>
+        <v>101</v>
       </c>
       <c r="H45" t="s">
-        <v>73</v>
+        <v>119</v>
       </c>
       <c r="I45" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="J45" t="s">
         <v>29</v>
       </c>
       <c r="K45" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="L45" s="1">
-        <v>19.09</v>
+        <v>9.17</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
@@ -3831,34 +3896,34 @@
         <v>6</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>3</v>
+        <v>89</v>
       </c>
       <c r="D46" s="6">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E46" s="6">
-        <v>-110</v>
+        <v>-160</v>
       </c>
       <c r="F46" s="6" t="s">
         <v>55</v>
       </c>
       <c r="G46" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="H46" t="s">
-        <v>81</v>
+        <v>120</v>
       </c>
       <c r="I46" t="s">
-        <v>87</v>
+        <v>13</v>
       </c>
       <c r="J46" t="s">
-        <v>23</v>
+        <v>104</v>
       </c>
       <c r="K46" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="L46" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
@@ -3869,10 +3934,10 @@
         <v>6</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D47" s="6">
-        <v>2</v>
+        <v>47</v>
       </c>
       <c r="E47" s="6">
         <v>-110</v>
@@ -3881,22 +3946,22 @@
         <v>55</v>
       </c>
       <c r="G47" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="H47" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="I47" t="s">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="J47" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K47" s="1">
         <v>10</v>
       </c>
       <c r="L47" s="1">
-        <v>0</v>
+        <v>19.09</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
@@ -3907,25 +3972,25 @@
         <v>6</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>108</v>
+        <v>3</v>
       </c>
       <c r="D48" s="6">
-        <v>8.5</v>
+        <v>-1</v>
       </c>
       <c r="E48" s="6">
-        <v>-335</v>
+        <v>-110</v>
       </c>
       <c r="F48" s="6" t="s">
         <v>55</v>
       </c>
       <c r="G48" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="H48" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="I48" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J48" t="s">
         <v>23</v>
@@ -3945,34 +4010,34 @@
         <v>6</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>108</v>
+        <v>3</v>
       </c>
       <c r="D49" s="6">
-        <v>7.5</v>
+        <v>2</v>
       </c>
       <c r="E49" s="6">
-        <v>-315</v>
+        <v>-110</v>
       </c>
       <c r="F49" s="6" t="s">
         <v>55</v>
       </c>
       <c r="G49" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="H49" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="I49" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="J49" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="K49" s="1">
         <v>10</v>
       </c>
       <c r="L49" s="1">
-        <v>13.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
@@ -3983,25 +4048,25 @@
         <v>6</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>9</v>
+        <v>108</v>
       </c>
       <c r="D50" s="6">
-        <v>50.5</v>
+        <v>8.5</v>
       </c>
       <c r="E50" s="6">
-        <v>-110</v>
+        <v>-335</v>
       </c>
       <c r="F50" s="6" t="s">
         <v>55</v>
       </c>
       <c r="G50" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="H50" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I50" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="J50" t="s">
         <v>23</v>
@@ -4021,25 +4086,25 @@
         <v>6</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>9</v>
+        <v>108</v>
       </c>
       <c r="D51" s="6">
-        <v>50.5</v>
+        <v>7.5</v>
       </c>
       <c r="E51" s="6">
-        <v>-110</v>
+        <v>-315</v>
       </c>
       <c r="F51" s="6" t="s">
         <v>55</v>
       </c>
       <c r="G51" t="s">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="H51" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="I51" t="s">
-        <v>13</v>
+        <v>81</v>
       </c>
       <c r="J51" t="s">
         <v>29</v>
@@ -4048,7 +4113,7 @@
         <v>10</v>
       </c>
       <c r="L51" s="1">
-        <v>19.52</v>
+        <v>13.17</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
@@ -4062,7 +4127,7 @@
         <v>9</v>
       </c>
       <c r="D52" s="6">
-        <v>46</v>
+        <v>50.5</v>
       </c>
       <c r="E52" s="6">
         <v>-110</v>
@@ -4071,13 +4136,13 @@
         <v>55</v>
       </c>
       <c r="G52" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H52" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="I52" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="J52" t="s">
         <v>23</v>
@@ -4091,16 +4156,16 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
-        <v>43751</v>
+        <v>43748</v>
       </c>
       <c r="B53" s="5">
         <v>6</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D53" s="6">
-        <v>6.5</v>
+        <v>50.5</v>
       </c>
       <c r="E53" s="6">
         <v>-110</v>
@@ -4109,13 +4174,13 @@
         <v>55</v>
       </c>
       <c r="G53" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H53" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="I53" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="J53" t="s">
         <v>29</v>
@@ -4124,45 +4189,45 @@
         <v>10</v>
       </c>
       <c r="L53" s="1">
-        <v>18.7</v>
+        <v>19.52</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
-        <v>43751</v>
+        <v>43748</v>
       </c>
       <c r="B54" s="5">
         <v>6</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D54" s="6">
-        <v>6.5</v>
+        <v>46</v>
       </c>
       <c r="E54" s="6">
-        <v>-105</v>
+        <v>-110</v>
       </c>
       <c r="F54" s="6" t="s">
         <v>55</v>
       </c>
       <c r="G54" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H54" t="s">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="I54" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="J54" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="K54" s="1">
         <v>10</v>
       </c>
       <c r="L54" s="1">
-        <v>19.52</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
@@ -4173,10 +4238,10 @@
         <v>6</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D55" s="6">
-        <v>43.5</v>
+        <v>6.5</v>
       </c>
       <c r="E55" s="6">
         <v>-110</v>
@@ -4185,13 +4250,13 @@
         <v>55</v>
       </c>
       <c r="G55" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H55" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I55" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="J55" t="s">
         <v>29</v>
@@ -4200,7 +4265,7 @@
         <v>10</v>
       </c>
       <c r="L55" s="1">
-        <v>19.09</v>
+        <v>18.7</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
@@ -4211,25 +4276,25 @@
         <v>6</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D56" s="6">
-        <v>40.5</v>
+        <v>6.5</v>
       </c>
       <c r="E56" s="6">
-        <v>-110</v>
+        <v>-105</v>
       </c>
       <c r="F56" s="6" t="s">
         <v>55</v>
       </c>
       <c r="G56" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="H56" t="s">
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="I56" t="s">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="J56" t="s">
         <v>29</v>
@@ -4238,7 +4303,7 @@
         <v>10</v>
       </c>
       <c r="L56" s="1">
-        <v>19.09</v>
+        <v>19.52</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
@@ -4249,22 +4314,22 @@
         <v>6</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>89</v>
+        <v>9</v>
       </c>
       <c r="D57" s="6">
-        <v>315.5</v>
+        <v>43.5</v>
       </c>
       <c r="E57" s="6">
-        <v>-125</v>
+        <v>-110</v>
       </c>
       <c r="F57" s="6" t="s">
         <v>55</v>
       </c>
       <c r="G57" t="s">
-        <v>105</v>
+        <v>63</v>
       </c>
       <c r="H57" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="I57" t="s">
         <v>66</v>
@@ -4276,7 +4341,7 @@
         <v>10</v>
       </c>
       <c r="L57" s="1">
-        <v>18</v>
+        <v>19.09</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
@@ -4290,7 +4355,7 @@
         <v>9</v>
       </c>
       <c r="D58" s="6">
-        <v>51.5</v>
+        <v>40.5</v>
       </c>
       <c r="E58" s="6">
         <v>-110</v>
@@ -4299,13 +4364,13 @@
         <v>55</v>
       </c>
       <c r="G58" t="s">
-        <v>103</v>
+        <v>69</v>
       </c>
       <c r="H58" t="s">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="I58" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="J58" t="s">
         <v>29</v>
@@ -4319,164 +4384,168 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
-        <v>43755</v>
+        <v>43751</v>
       </c>
       <c r="B59" s="5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="D59" s="6" t="s">
-        <v>175</v>
+        <v>89</v>
+      </c>
+      <c r="D59" s="6">
+        <v>315.5</v>
       </c>
       <c r="E59" s="6">
-        <v>150</v>
+        <v>-125</v>
       </c>
       <c r="F59" s="6" t="s">
         <v>55</v>
       </c>
       <c r="G59" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="H59" t="s">
-        <v>71</v>
+        <v>116</v>
       </c>
       <c r="I59" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="J59" t="s">
         <v>29</v>
       </c>
-      <c r="K59" s="1"/>
-      <c r="L59" s="1"/>
+      <c r="K59" s="1">
+        <v>10</v>
+      </c>
+      <c r="L59" s="1">
+        <v>18</v>
+      </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
-        <v>43755</v>
+        <v>43751</v>
       </c>
       <c r="B60" s="5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="D60" s="6" t="s">
-        <v>175</v>
+        <v>9</v>
+      </c>
+      <c r="D60" s="6">
+        <v>51.5</v>
       </c>
       <c r="E60" s="6">
-        <v>125</v>
+        <v>-110</v>
       </c>
       <c r="F60" s="6" t="s">
         <v>55</v>
       </c>
       <c r="G60" t="s">
-        <v>56</v>
+        <v>103</v>
       </c>
       <c r="H60" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="I60" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="J60" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K60" s="1">
         <v>10</v>
       </c>
       <c r="L60" s="1">
-        <v>0</v>
+        <v>19.09</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
-        <v>43755</v>
+        <v>43752</v>
       </c>
       <c r="B61" s="5">
         <v>7</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>108</v>
+        <v>9</v>
       </c>
       <c r="D61" s="6">
-        <v>7.5</v>
+        <v>49.5</v>
       </c>
       <c r="E61" s="6">
-        <v>-325</v>
+        <v>-110</v>
       </c>
       <c r="F61" s="6" t="s">
         <v>55</v>
       </c>
       <c r="G61" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="H61" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="I61" t="s">
-        <v>107</v>
+        <v>66</v>
       </c>
       <c r="J61" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="K61" s="1">
         <v>20</v>
       </c>
       <c r="L61" s="1">
-        <v>26.15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
-        <v>43755</v>
+        <v>43752</v>
       </c>
       <c r="B62" s="5">
         <v>7</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>108</v>
+        <v>9</v>
       </c>
       <c r="D62" s="6">
-        <v>8.5</v>
+        <v>41.5</v>
       </c>
       <c r="E62" s="6">
-        <v>-260</v>
+        <v>-110</v>
       </c>
       <c r="F62" s="6" t="s">
         <v>55</v>
       </c>
       <c r="G62" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="H62" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="I62" t="s">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="J62" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K62" s="1">
         <v>20</v>
       </c>
       <c r="L62" s="1">
-        <v>0</v>
+        <v>38.18</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
-        <v>43753</v>
+        <v>43752</v>
       </c>
       <c r="B63" s="5">
         <v>7</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D63" s="6">
-        <v>1</v>
+        <v>43.5</v>
       </c>
       <c r="E63" s="6">
         <v>-110</v>
@@ -4485,13 +4554,13 @@
         <v>55</v>
       </c>
       <c r="G63" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="H63" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="I63" t="s">
-        <v>95</v>
+        <v>13</v>
       </c>
       <c r="J63" t="s">
         <v>23</v>
@@ -4505,7 +4574,7 @@
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
-        <v>43753</v>
+        <v>43752</v>
       </c>
       <c r="B64" s="5">
         <v>7</v>
@@ -4514,31 +4583,31 @@
         <v>3</v>
       </c>
       <c r="D64" s="6">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="E64" s="6">
-        <v>-125</v>
+        <v>-115</v>
       </c>
       <c r="F64" s="6" t="s">
         <v>55</v>
       </c>
       <c r="G64" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="H64" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="I64" t="s">
-        <v>106</v>
+        <v>59</v>
       </c>
       <c r="J64" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K64" s="1">
         <v>20</v>
       </c>
       <c r="L64" s="1">
-        <v>0</v>
+        <v>37.39</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
@@ -4549,31 +4618,31 @@
         <v>7</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D65" s="6">
-        <v>49.5</v>
+        <v>-10</v>
       </c>
       <c r="E65" s="6">
-        <v>-110</v>
+        <v>-105</v>
       </c>
       <c r="F65" s="6" t="s">
         <v>55</v>
       </c>
       <c r="G65" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="H65" t="s">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="I65" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="J65" t="s">
         <v>23</v>
       </c>
       <c r="K65" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="L65" s="1">
         <v>0</v>
@@ -4587,10 +4656,10 @@
         <v>7</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D66" s="6">
-        <v>41.5</v>
+        <v>-3</v>
       </c>
       <c r="E66" s="6">
         <v>-110</v>
@@ -4599,13 +4668,13 @@
         <v>55</v>
       </c>
       <c r="G66" t="s">
-        <v>57</v>
+        <v>110</v>
       </c>
       <c r="H66" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="I66" t="s">
-        <v>13</v>
+        <v>87</v>
       </c>
       <c r="J66" t="s">
         <v>29</v>
@@ -4619,16 +4688,16 @@
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
-        <v>43752</v>
+        <v>43753</v>
       </c>
       <c r="B67" s="5">
         <v>7</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D67" s="6">
-        <v>43.5</v>
+        <v>1</v>
       </c>
       <c r="E67" s="6">
         <v>-110</v>
@@ -4637,13 +4706,13 @@
         <v>55</v>
       </c>
       <c r="G67" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="H67" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="I67" t="s">
-        <v>13</v>
+        <v>95</v>
       </c>
       <c r="J67" t="s">
         <v>23</v>
@@ -4657,7 +4726,7 @@
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
-        <v>43752</v>
+        <v>43753</v>
       </c>
       <c r="B68" s="5">
         <v>7</v>
@@ -4666,107 +4735,103 @@
         <v>3</v>
       </c>
       <c r="D68" s="6">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="E68" s="6">
-        <v>-115</v>
+        <v>-125</v>
       </c>
       <c r="F68" s="6" t="s">
         <v>55</v>
       </c>
       <c r="G68" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="H68" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="I68" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="J68" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="K68" s="1">
         <v>20</v>
       </c>
       <c r="L68" s="1">
-        <v>37.39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
-        <v>43752</v>
+        <v>43755</v>
       </c>
       <c r="B69" s="5">
         <v>7</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D69" s="6">
-        <v>-10</v>
+        <v>86</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>175</v>
       </c>
       <c r="E69" s="6">
-        <v>-105</v>
+        <v>150</v>
       </c>
       <c r="F69" s="6" t="s">
         <v>55</v>
       </c>
       <c r="G69" t="s">
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="H69" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="I69" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="J69" t="s">
-        <v>23</v>
-      </c>
-      <c r="K69" s="1">
-        <v>30</v>
-      </c>
-      <c r="L69" s="1">
-        <v>0</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="K69" s="1"/>
+      <c r="L69" s="1"/>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
-        <v>43752</v>
+        <v>43755</v>
       </c>
       <c r="B70" s="5">
         <v>7</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D70" s="6">
-        <v>-3</v>
+        <v>86</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>175</v>
       </c>
       <c r="E70" s="6">
-        <v>-110</v>
+        <v>125</v>
       </c>
       <c r="F70" s="6" t="s">
         <v>55</v>
       </c>
       <c r="G70" t="s">
-        <v>110</v>
+        <v>56</v>
       </c>
       <c r="H70" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="I70" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="J70" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="K70" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="L70" s="1">
-        <v>38.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
@@ -4777,25 +4842,25 @@
         <v>7</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>3</v>
+        <v>108</v>
       </c>
       <c r="D71" s="6">
-        <v>-3</v>
+        <v>7.5</v>
       </c>
       <c r="E71" s="6">
-        <v>-120</v>
+        <v>-325</v>
       </c>
       <c r="F71" s="6" t="s">
         <v>55</v>
       </c>
       <c r="G71" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="H71" t="s">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="I71" t="s">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="J71" t="s">
         <v>29</v>
@@ -4804,42 +4869,42 @@
         <v>20</v>
       </c>
       <c r="L71" s="1">
-        <v>36.67</v>
+        <v>26.15</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
-        <v>43756</v>
+        <v>43755</v>
       </c>
       <c r="B72" s="5">
         <v>7</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>9</v>
+        <v>108</v>
       </c>
       <c r="D72" s="6">
-        <v>47</v>
+        <v>8.5</v>
       </c>
       <c r="E72" s="6">
-        <v>-115</v>
+        <v>-260</v>
       </c>
       <c r="F72" s="6" t="s">
         <v>55</v>
       </c>
       <c r="G72" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H72" t="s">
-        <v>111</v>
+        <v>72</v>
       </c>
       <c r="I72" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="J72" t="s">
         <v>23</v>
       </c>
       <c r="K72" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="L72" s="1">
         <v>0</v>
@@ -4847,40 +4912,40 @@
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
-        <v>43756</v>
+        <v>43755</v>
       </c>
       <c r="B73" s="5">
         <v>7</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D73" s="6">
-        <v>38</v>
+        <v>-3</v>
       </c>
       <c r="E73" s="6">
-        <v>-110</v>
+        <v>-120</v>
       </c>
       <c r="F73" s="6" t="s">
         <v>55</v>
       </c>
       <c r="G73" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="H73" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="I73" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="J73" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K73" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="L73" s="1">
-        <v>0</v>
+        <v>36.67</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
@@ -4891,34 +4956,34 @@
         <v>7</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D74" s="6">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="E74" s="6">
-        <v>100</v>
+        <v>-115</v>
       </c>
       <c r="F74" s="6" t="s">
         <v>55</v>
       </c>
       <c r="G74" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="H74" t="s">
-        <v>81</v>
+        <v>111</v>
       </c>
       <c r="I74" t="s">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="J74" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="K74" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="L74" s="1">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
@@ -4929,31 +4994,31 @@
         <v>7</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D75" s="6">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="E75" s="6">
-        <v>-115</v>
+        <v>-110</v>
       </c>
       <c r="F75" s="6" t="s">
         <v>55</v>
       </c>
       <c r="G75" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="H75" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="I75" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="J75" t="s">
         <v>23</v>
       </c>
       <c r="K75" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="L75" s="1">
         <v>0</v>
@@ -4961,78 +5026,78 @@
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
-        <v>43758</v>
+        <v>43756</v>
       </c>
       <c r="B76" s="5">
         <v>7</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>89</v>
+        <v>3</v>
       </c>
       <c r="D76" s="6">
-        <v>56.5</v>
+        <v>3</v>
       </c>
       <c r="E76" s="6">
-        <v>-130</v>
+        <v>100</v>
       </c>
       <c r="F76" s="6" t="s">
         <v>55</v>
       </c>
       <c r="G76" t="s">
-        <v>112</v>
+        <v>77</v>
       </c>
       <c r="H76" t="s">
-        <v>119</v>
+        <v>81</v>
       </c>
       <c r="I76" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="J76" t="s">
         <v>29</v>
       </c>
       <c r="K76" s="1">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="L76" s="1">
-        <v>8.65</v>
+        <v>40</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
-        <v>43758</v>
+        <v>43756</v>
       </c>
       <c r="B77" s="5">
         <v>7</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>89</v>
+        <v>3</v>
       </c>
       <c r="D77" s="6">
-        <v>53.5</v>
+        <v>10</v>
       </c>
       <c r="E77" s="6">
-        <v>-135</v>
+        <v>-115</v>
       </c>
       <c r="F77" s="6" t="s">
         <v>55</v>
       </c>
       <c r="G77" t="s">
-        <v>113</v>
+        <v>63</v>
       </c>
       <c r="H77" t="s">
-        <v>118</v>
+        <v>60</v>
       </c>
       <c r="I77" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J77" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="K77" s="1">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="L77" s="1">
-        <v>8.6999999999999993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
@@ -5046,31 +5111,31 @@
         <v>89</v>
       </c>
       <c r="D78" s="6">
-        <v>51.5</v>
+        <v>56.5</v>
       </c>
       <c r="E78" s="6">
-        <v>-125</v>
+        <v>-130</v>
       </c>
       <c r="F78" s="6" t="s">
         <v>55</v>
       </c>
       <c r="G78" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H78" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I78" t="s">
         <v>66</v>
       </c>
       <c r="J78" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K78" s="1">
         <v>5</v>
       </c>
       <c r="L78" s="1">
-        <v>0</v>
+        <v>8.65</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
@@ -5084,31 +5149,31 @@
         <v>89</v>
       </c>
       <c r="D79" s="6">
-        <v>19.5</v>
+        <v>53.5</v>
       </c>
       <c r="E79" s="6">
-        <v>-125</v>
+        <v>-135</v>
       </c>
       <c r="F79" s="6" t="s">
         <v>55</v>
       </c>
       <c r="G79" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H79" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I79" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="J79" t="s">
         <v>29</v>
       </c>
       <c r="K79" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="L79" s="1">
-        <v>18</v>
+        <v>8.6999999999999993</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
@@ -5122,7 +5187,7 @@
         <v>89</v>
       </c>
       <c r="D80" s="6">
-        <v>203.5</v>
+        <v>51.5</v>
       </c>
       <c r="E80" s="6">
         <v>-125</v>
@@ -5131,22 +5196,22 @@
         <v>55</v>
       </c>
       <c r="G80" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H80" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="I80" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="J80" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="K80" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="L80" s="1">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
@@ -5160,10 +5225,10 @@
         <v>89</v>
       </c>
       <c r="D81" s="6">
-        <v>1.5</v>
+        <v>19.5</v>
       </c>
       <c r="E81" s="6">
-        <v>-220</v>
+        <v>-125</v>
       </c>
       <c r="F81" s="6" t="s">
         <v>55</v>
@@ -5172,7 +5237,7 @@
         <v>115</v>
       </c>
       <c r="H81" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="I81" t="s">
         <v>13</v>
@@ -5184,7 +5249,7 @@
         <v>10</v>
       </c>
       <c r="L81" s="1">
-        <v>14.55</v>
+        <v>18</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
@@ -5198,31 +5263,31 @@
         <v>89</v>
       </c>
       <c r="D82" s="6">
-        <v>1.5</v>
+        <v>203.5</v>
       </c>
       <c r="E82" s="6">
-        <v>-200</v>
+        <v>-125</v>
       </c>
       <c r="F82" s="6" t="s">
         <v>55</v>
       </c>
       <c r="G82" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="H82" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="I82" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="J82" t="s">
         <v>29</v>
       </c>
       <c r="K82" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L82" s="1">
-        <v>7.5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
@@ -5236,31 +5301,31 @@
         <v>89</v>
       </c>
       <c r="D83" s="6">
-        <v>315.5</v>
+        <v>1.5</v>
       </c>
       <c r="E83" s="6">
-        <v>-125</v>
+        <v>-220</v>
       </c>
       <c r="F83" s="6" t="s">
         <v>55</v>
       </c>
       <c r="G83" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="H83" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="I83" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="J83" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K83" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L83" s="1">
-        <v>0</v>
+        <v>14.55</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
@@ -5274,10 +5339,10 @@
         <v>89</v>
       </c>
       <c r="D84" s="6">
-        <v>295.5</v>
+        <v>1.5</v>
       </c>
       <c r="E84" s="6">
-        <v>-125</v>
+        <v>-200</v>
       </c>
       <c r="F84" s="6" t="s">
         <v>55</v>
@@ -5286,19 +5351,19 @@
         <v>121</v>
       </c>
       <c r="H84" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="I84" t="s">
         <v>66</v>
       </c>
       <c r="J84" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K84" s="1">
         <v>5</v>
       </c>
       <c r="L84" s="1">
-        <v>0</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
@@ -5312,7 +5377,7 @@
         <v>89</v>
       </c>
       <c r="D85" s="6">
-        <v>265.5</v>
+        <v>315.5</v>
       </c>
       <c r="E85" s="6">
         <v>-125</v>
@@ -5321,7 +5386,7 @@
         <v>55</v>
       </c>
       <c r="G85" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="H85" t="s">
         <v>116</v>
@@ -5350,7 +5415,7 @@
         <v>89</v>
       </c>
       <c r="D86" s="6">
-        <v>245.5</v>
+        <v>295.5</v>
       </c>
       <c r="E86" s="6">
         <v>-125</v>
@@ -5359,7 +5424,7 @@
         <v>55</v>
       </c>
       <c r="G86" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="H86" t="s">
         <v>116</v>
@@ -5388,7 +5453,7 @@
         <v>89</v>
       </c>
       <c r="D87" s="6">
-        <v>3</v>
+        <v>265.5</v>
       </c>
       <c r="E87" s="6">
         <v>-125</v>
@@ -5397,22 +5462,22 @@
         <v>55</v>
       </c>
       <c r="G87" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H87" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="I87" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="J87" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="K87" s="1">
         <v>5</v>
       </c>
       <c r="L87" s="1">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
@@ -5426,7 +5491,7 @@
         <v>89</v>
       </c>
       <c r="D88" s="6">
-        <v>35.5</v>
+        <v>245.5</v>
       </c>
       <c r="E88" s="6">
         <v>-125</v>
@@ -5435,10 +5500,10 @@
         <v>55</v>
       </c>
       <c r="G88" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="H88" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="I88" t="s">
         <v>66</v>
@@ -5464,22 +5529,22 @@
         <v>89</v>
       </c>
       <c r="D89" s="6">
-        <v>22.5</v>
+        <v>3</v>
       </c>
       <c r="E89" s="6">
-        <v>-130</v>
+        <v>-125</v>
       </c>
       <c r="F89" s="6" t="s">
         <v>55</v>
       </c>
       <c r="G89" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H89" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="I89" t="s">
-        <v>126</v>
+        <v>13</v>
       </c>
       <c r="J89" t="s">
         <v>29</v>
@@ -5488,7 +5553,7 @@
         <v>5</v>
       </c>
       <c r="L89" s="1">
-        <v>8.85</v>
+        <v>9</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
@@ -5502,19 +5567,19 @@
         <v>89</v>
       </c>
       <c r="D90" s="6">
-        <v>0.5</v>
+        <v>35.5</v>
       </c>
       <c r="E90" s="6">
-        <v>200</v>
+        <v>-125</v>
       </c>
       <c r="F90" s="6" t="s">
         <v>55</v>
       </c>
       <c r="G90" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="H90" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="I90" t="s">
         <v>66</v>
@@ -5540,31 +5605,31 @@
         <v>89</v>
       </c>
       <c r="D91" s="6">
-        <v>255.5</v>
+        <v>22.5</v>
       </c>
       <c r="E91" s="6">
-        <v>-115</v>
+        <v>-130</v>
       </c>
       <c r="F91" s="6" t="s">
         <v>55</v>
       </c>
       <c r="G91" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="H91" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="I91" t="s">
-        <v>13</v>
+        <v>126</v>
       </c>
       <c r="J91" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K91" s="1">
         <v>5</v>
       </c>
       <c r="L91" s="1">
-        <v>0</v>
+        <v>8.85</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
@@ -5578,19 +5643,19 @@
         <v>89</v>
       </c>
       <c r="D92" s="6">
-        <v>14.5</v>
+        <v>0.5</v>
       </c>
       <c r="E92" s="6">
-        <v>-135</v>
+        <v>200</v>
       </c>
       <c r="F92" s="6" t="s">
         <v>55</v>
       </c>
       <c r="G92" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H92" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="I92" t="s">
         <v>66</v>
@@ -5607,7 +5672,7 @@
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="4">
-        <v>43759</v>
+        <v>43758</v>
       </c>
       <c r="B93" s="5">
         <v>7</v>
@@ -5616,69 +5681,69 @@
         <v>89</v>
       </c>
       <c r="D93" s="6">
-        <v>3.5</v>
+        <v>255.5</v>
       </c>
       <c r="E93" s="6">
-        <v>-130</v>
+        <v>-115</v>
       </c>
       <c r="F93" s="6" t="s">
         <v>55</v>
       </c>
       <c r="G93" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="H93" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="I93" t="s">
         <v>13</v>
       </c>
       <c r="J93" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="K93" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="L93" s="1">
-        <v>17.690000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="4">
-        <v>43759</v>
+        <v>43758</v>
       </c>
       <c r="B94" s="5">
         <v>7</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>9</v>
+        <v>89</v>
       </c>
       <c r="D94" s="6">
-        <v>43</v>
+        <v>14.5</v>
       </c>
       <c r="E94" s="6">
-        <v>-110</v>
+        <v>-135</v>
       </c>
       <c r="F94" s="6" t="s">
         <v>55</v>
       </c>
       <c r="G94" t="s">
-        <v>63</v>
+        <v>130</v>
       </c>
       <c r="H94" t="s">
-        <v>60</v>
+        <v>119</v>
       </c>
       <c r="I94" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="J94" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="K94" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="L94" s="1">
-        <v>19.09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
@@ -5692,19 +5757,19 @@
         <v>89</v>
       </c>
       <c r="D95" s="6">
-        <v>49.5</v>
+        <v>3.5</v>
       </c>
       <c r="E95" s="6">
-        <v>105</v>
+        <v>-130</v>
       </c>
       <c r="F95" s="6" t="s">
         <v>55</v>
       </c>
       <c r="G95" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H95" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="I95" t="s">
         <v>13</v>
@@ -5716,21 +5781,21 @@
         <v>10</v>
       </c>
       <c r="L95" s="1">
-        <v>20.5</v>
+        <v>17.690000000000001</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="4">
-        <v>43760</v>
+        <v>43759</v>
       </c>
       <c r="B96" s="5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C96" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="6">
-        <v>43.5</v>
+        <v>43</v>
       </c>
       <c r="E96" s="6">
         <v>-110</v>
@@ -5739,60 +5804,60 @@
         <v>55</v>
       </c>
       <c r="G96" t="s">
-        <v>109</v>
+        <v>63</v>
       </c>
       <c r="H96" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="I96" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="J96" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K96" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="L96" s="1">
-        <v>0</v>
+        <v>19.09</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" s="4">
-        <v>43760</v>
+        <v>43759</v>
       </c>
       <c r="B97" s="5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>9</v>
+        <v>89</v>
       </c>
       <c r="D97" s="6">
-        <v>45.5</v>
+        <v>49.5</v>
       </c>
       <c r="E97" s="6">
-        <v>-110</v>
+        <v>105</v>
       </c>
       <c r="F97" s="6" t="s">
         <v>55</v>
       </c>
       <c r="G97" t="s">
-        <v>88</v>
+        <v>134</v>
       </c>
       <c r="H97" t="s">
-        <v>80</v>
+        <v>119</v>
       </c>
       <c r="I97" t="s">
         <v>13</v>
       </c>
       <c r="J97" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K97" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="L97" s="1">
-        <v>0</v>
+        <v>20.5</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
@@ -5806,31 +5871,31 @@
         <v>9</v>
       </c>
       <c r="D98" s="6">
-        <v>41.5</v>
+        <v>43.5</v>
       </c>
       <c r="E98" s="6">
-        <v>-115</v>
+        <v>-110</v>
       </c>
       <c r="F98" s="6" t="s">
         <v>55</v>
       </c>
       <c r="G98" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="H98" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="I98" t="s">
         <v>66</v>
       </c>
       <c r="J98" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="K98" s="1">
         <v>20</v>
       </c>
       <c r="L98" s="1">
-        <v>37.39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
@@ -5844,7 +5909,7 @@
         <v>9</v>
       </c>
       <c r="D99" s="6">
-        <v>46</v>
+        <v>45.5</v>
       </c>
       <c r="E99" s="6">
         <v>-110</v>
@@ -5853,22 +5918,22 @@
         <v>55</v>
       </c>
       <c r="G99" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="H99" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="I99" t="s">
         <v>13</v>
       </c>
       <c r="J99" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="K99" s="1">
         <v>20</v>
       </c>
       <c r="L99" s="1">
-        <v>38.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
@@ -5882,31 +5947,31 @@
         <v>9</v>
       </c>
       <c r="D100" s="6">
-        <v>51.5</v>
+        <v>41.5</v>
       </c>
       <c r="E100" s="6">
-        <v>-110</v>
+        <v>-115</v>
       </c>
       <c r="F100" s="6" t="s">
         <v>55</v>
       </c>
       <c r="G100" t="s">
-        <v>95</v>
+        <v>132</v>
       </c>
       <c r="H100" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="I100" t="s">
         <v>66</v>
       </c>
       <c r="J100" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K100" s="1">
         <v>20</v>
       </c>
       <c r="L100" s="1">
-        <v>0</v>
+        <v>37.39</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
@@ -5920,7 +5985,7 @@
         <v>9</v>
       </c>
       <c r="D101" s="6">
-        <v>47.5</v>
+        <v>46</v>
       </c>
       <c r="E101" s="6">
         <v>-110</v>
@@ -5929,22 +5994,22 @@
         <v>55</v>
       </c>
       <c r="G101" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="H101" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="I101" t="s">
         <v>13</v>
       </c>
       <c r="J101" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K101" s="1">
         <v>20</v>
       </c>
       <c r="L101" s="1">
-        <v>0</v>
+        <v>38.18</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
@@ -5958,7 +6023,7 @@
         <v>9</v>
       </c>
       <c r="D102" s="6">
-        <v>43</v>
+        <v>51.5</v>
       </c>
       <c r="E102" s="6">
         <v>-110</v>
@@ -5967,10 +6032,10 @@
         <v>55</v>
       </c>
       <c r="G102" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="H102" t="s">
-        <v>61</v>
+        <v>111</v>
       </c>
       <c r="I102" t="s">
         <v>66</v>
@@ -5993,34 +6058,34 @@
         <v>8</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D103" s="6">
-        <v>7</v>
+        <v>47.5</v>
       </c>
       <c r="E103" s="6">
-        <v>-120</v>
+        <v>-110</v>
       </c>
       <c r="F103" s="6" t="s">
         <v>55</v>
       </c>
       <c r="G103" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H103" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="I103" t="s">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="J103" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="K103" s="1">
         <v>20</v>
       </c>
       <c r="L103" s="1">
-        <v>36.67</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
@@ -6031,10 +6096,10 @@
         <v>8</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D104" s="6">
-        <v>-13.5</v>
+        <v>43</v>
       </c>
       <c r="E104" s="6">
         <v>-110</v>
@@ -6043,22 +6108,22 @@
         <v>55</v>
       </c>
       <c r="G104" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="H104" t="s">
-        <v>110</v>
+        <v>61</v>
       </c>
       <c r="I104" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="J104" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="K104" s="1">
         <v>20</v>
       </c>
       <c r="L104" s="1">
-        <v>38.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
@@ -6072,22 +6137,22 @@
         <v>3</v>
       </c>
       <c r="D105" s="6">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E105" s="6">
-        <v>-110</v>
+        <v>-120</v>
       </c>
       <c r="F105" s="6" t="s">
         <v>55</v>
       </c>
       <c r="G105" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="H105" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="I105" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="J105" t="s">
         <v>29</v>
@@ -6096,7 +6161,7 @@
         <v>20</v>
       </c>
       <c r="L105" s="1">
-        <v>38.18</v>
+        <v>36.67</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
@@ -6110,22 +6175,22 @@
         <v>3</v>
       </c>
       <c r="D106" s="6">
-        <v>14.5</v>
+        <v>-13.5</v>
       </c>
       <c r="E106" s="6">
-        <v>-115</v>
+        <v>-110</v>
       </c>
       <c r="F106" s="6" t="s">
         <v>55</v>
       </c>
       <c r="G106" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="H106" t="s">
-        <v>61</v>
+        <v>110</v>
       </c>
       <c r="I106" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J106" t="s">
         <v>29</v>
@@ -6134,7 +6199,7 @@
         <v>20</v>
       </c>
       <c r="L106" s="1">
-        <v>37.39</v>
+        <v>38.18</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
@@ -6148,31 +6213,31 @@
         <v>3</v>
       </c>
       <c r="D107" s="6">
-        <v>-16</v>
+        <v>4</v>
       </c>
       <c r="E107" s="6">
-        <v>-105</v>
+        <v>-110</v>
       </c>
       <c r="F107" s="6" t="s">
         <v>55</v>
       </c>
       <c r="G107" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="H107" t="s">
-        <v>57</v>
+        <v>107</v>
       </c>
       <c r="I107" t="s">
-        <v>82</v>
+        <v>107</v>
       </c>
       <c r="J107" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K107" s="1">
         <v>20</v>
       </c>
       <c r="L107" s="1">
-        <v>0</v>
+        <v>38.18</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
@@ -6186,31 +6251,31 @@
         <v>3</v>
       </c>
       <c r="D108" s="6">
-        <v>-7</v>
+        <v>14.5</v>
       </c>
       <c r="E108" s="6">
-        <v>100</v>
+        <v>-115</v>
       </c>
       <c r="F108" s="6" t="s">
         <v>55</v>
       </c>
       <c r="G108" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="H108" t="s">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="I108" t="s">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="J108" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K108" s="1">
         <v>20</v>
       </c>
       <c r="L108" s="1">
-        <v>0</v>
+        <v>37.39</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.25">
@@ -6221,25 +6286,25 @@
         <v>8</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D109" s="6">
-        <v>41.5</v>
+        <v>-16</v>
       </c>
       <c r="E109" s="6">
-        <v>-110</v>
+        <v>-105</v>
       </c>
       <c r="F109" s="6" t="s">
         <v>55</v>
       </c>
       <c r="G109" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="H109" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="I109" t="s">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="J109" t="s">
         <v>23</v>
@@ -6262,31 +6327,31 @@
         <v>3</v>
       </c>
       <c r="D110" s="6">
-        <v>-13</v>
+        <v>-7</v>
       </c>
       <c r="E110" s="6">
-        <v>-110</v>
+        <v>100</v>
       </c>
       <c r="F110" s="6" t="s">
         <v>55</v>
       </c>
       <c r="G110" t="s">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="H110" t="s">
-        <v>62</v>
+        <v>111</v>
       </c>
       <c r="I110" t="s">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="J110" t="s">
-        <v>145</v>
+        <v>23</v>
       </c>
       <c r="K110" s="1">
         <v>20</v>
       </c>
       <c r="L110" s="1">
-        <v>38.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
@@ -6297,31 +6362,35 @@
         <v>8</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>86</v>
+        <v>9</v>
       </c>
       <c r="D111" s="6">
-        <v>-3.5</v>
+        <v>41.5</v>
       </c>
       <c r="E111" s="6">
-        <v>-180</v>
+        <v>-110</v>
       </c>
       <c r="F111" s="6" t="s">
         <v>55</v>
       </c>
       <c r="G111" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="H111" t="s">
-        <v>111</v>
+        <v>63</v>
       </c>
       <c r="I111" t="s">
-        <v>95</v>
+        <v>13</v>
       </c>
       <c r="J111" t="s">
-        <v>29</v>
-      </c>
-      <c r="K111" s="1"/>
-      <c r="L111" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="K111" s="1">
+        <v>20</v>
+      </c>
+      <c r="L111" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" s="4">
@@ -6331,34 +6400,34 @@
         <v>8</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="D112" s="6">
-        <v>11.5</v>
+        <v>-13</v>
       </c>
       <c r="E112" s="6">
-        <v>-245</v>
+        <v>-110</v>
       </c>
       <c r="F112" s="6" t="s">
         <v>55</v>
       </c>
       <c r="G112" t="s">
-        <v>132</v>
+        <v>60</v>
       </c>
       <c r="H112" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="I112" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="J112" t="s">
-        <v>23</v>
+        <v>145</v>
       </c>
       <c r="K112" s="1">
         <v>20</v>
       </c>
       <c r="L112" s="1">
-        <v>0</v>
+        <v>38.18</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.25">
@@ -6372,25 +6441,25 @@
         <v>86</v>
       </c>
       <c r="D113" s="6">
-        <v>-2.5</v>
+        <v>-3.5</v>
       </c>
       <c r="E113" s="6">
-        <v>-205</v>
+        <v>-180</v>
       </c>
       <c r="F113" s="6" t="s">
         <v>55</v>
       </c>
       <c r="G113" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="H113" t="s">
-        <v>69</v>
+        <v>111</v>
       </c>
       <c r="I113" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="J113" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K113" s="1"/>
       <c r="L113" s="1"/>
@@ -6406,25 +6475,25 @@
         <v>86</v>
       </c>
       <c r="D114" s="6">
-        <v>-6.5</v>
+        <v>11.5</v>
       </c>
       <c r="E114" s="6">
-        <v>-280</v>
+        <v>-245</v>
       </c>
       <c r="F114" s="6" t="s">
         <v>55</v>
       </c>
       <c r="G114" t="s">
-        <v>60</v>
+        <v>132</v>
       </c>
       <c r="H114" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="I114" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="J114" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="K114" s="1">
         <v>20</v>
@@ -6444,25 +6513,25 @@
         <v>86</v>
       </c>
       <c r="D115" s="6">
-        <v>7.5</v>
+        <v>-2.5</v>
       </c>
       <c r="E115" s="6">
-        <v>-315</v>
+        <v>-205</v>
       </c>
       <c r="F115" s="6" t="s">
         <v>55</v>
       </c>
       <c r="G115" t="s">
-        <v>79</v>
+        <v>109</v>
       </c>
       <c r="H115" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="I115" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="J115" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="K115" s="1"/>
       <c r="L115" s="1"/>
@@ -6478,22 +6547,22 @@
         <v>86</v>
       </c>
       <c r="D116" s="6">
-        <v>8.5</v>
+        <v>-6.5</v>
       </c>
       <c r="E116" s="6">
-        <v>-315</v>
+        <v>-280</v>
       </c>
       <c r="F116" s="6" t="s">
         <v>55</v>
       </c>
       <c r="G116" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="H116" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="I116" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="J116" t="s">
         <v>29</v>
@@ -6502,7 +6571,7 @@
         <v>20</v>
       </c>
       <c r="L116" s="1">
-        <v>34.71</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.25">
@@ -6513,63 +6582,59 @@
         <v>8</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D117" s="6">
-        <v>86.5</v>
+        <v>7.5</v>
       </c>
       <c r="E117" s="6">
-        <v>-125</v>
+        <v>-315</v>
       </c>
       <c r="F117" s="6" t="s">
         <v>55</v>
       </c>
       <c r="G117" t="s">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="H117" t="s">
-        <v>119</v>
+        <v>74</v>
       </c>
       <c r="I117" t="s">
-        <v>13</v>
+        <v>106</v>
       </c>
       <c r="J117" t="s">
-        <v>23</v>
-      </c>
-      <c r="K117" s="1">
-        <v>20</v>
-      </c>
-      <c r="L117" s="1">
-        <v>0</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="K117" s="1"/>
+      <c r="L117" s="1"/>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" s="4">
-        <v>43395</v>
+        <v>43760</v>
       </c>
       <c r="B118" s="5">
         <v>8</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D118" s="6">
-        <v>33.5</v>
+        <v>8.5</v>
       </c>
       <c r="E118" s="6">
-        <v>-125</v>
+        <v>-315</v>
       </c>
       <c r="F118" s="6" t="s">
         <v>55</v>
       </c>
       <c r="G118" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="H118" t="s">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="I118" t="s">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="J118" t="s">
         <v>29</v>
@@ -6578,7 +6643,7 @@
         <v>20</v>
       </c>
       <c r="L118" s="1">
-        <v>36</v>
+        <v>34.71</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.25">
@@ -6592,31 +6657,31 @@
         <v>89</v>
       </c>
       <c r="D119" s="6">
-        <v>1.5</v>
+        <v>86.5</v>
       </c>
       <c r="E119" s="6">
-        <v>-230</v>
+        <v>-125</v>
       </c>
       <c r="F119" s="6" t="s">
         <v>55</v>
       </c>
       <c r="G119" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="H119" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="I119" t="s">
         <v>13</v>
       </c>
       <c r="J119" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="K119" s="1">
         <v>20</v>
       </c>
       <c r="L119" s="1">
-        <v>28.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.25">
@@ -6630,10 +6695,10 @@
         <v>89</v>
       </c>
       <c r="D120" s="6">
-        <v>219.5</v>
+        <v>1.5</v>
       </c>
       <c r="E120" s="6">
-        <v>-135</v>
+        <v>-230</v>
       </c>
       <c r="F120" s="6" t="s">
         <v>55</v>
@@ -6642,7 +6707,7 @@
         <v>115</v>
       </c>
       <c r="H120" t="s">
-        <v>116</v>
+        <v>138</v>
       </c>
       <c r="I120" t="s">
         <v>13</v>
@@ -6654,12 +6719,12 @@
         <v>20</v>
       </c>
       <c r="L120" s="1">
-        <v>34.82</v>
+        <v>28.7</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" s="4">
-        <v>43765</v>
+        <v>43760</v>
       </c>
       <c r="B121" s="5">
         <v>8</v>
@@ -6668,19 +6733,19 @@
         <v>89</v>
       </c>
       <c r="D121" s="6">
-        <v>3.5</v>
+        <v>219.5</v>
       </c>
       <c r="E121" s="6">
-        <v>-145</v>
+        <v>-135</v>
       </c>
       <c r="F121" s="6" t="s">
         <v>55</v>
       </c>
       <c r="G121" t="s">
-        <v>139</v>
+        <v>115</v>
       </c>
       <c r="H121" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="I121" t="s">
         <v>13</v>
@@ -6692,7 +6757,7 @@
         <v>20</v>
       </c>
       <c r="L121" s="1">
-        <v>33.79</v>
+        <v>34.82</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.25">
@@ -6706,19 +6771,19 @@
         <v>89</v>
       </c>
       <c r="D122" s="6">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="E122" s="6">
-        <v>-105</v>
+        <v>-145</v>
       </c>
       <c r="F122" s="6" t="s">
         <v>55</v>
       </c>
       <c r="G122" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H122" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="I122" t="s">
         <v>13</v>
@@ -6730,7 +6795,7 @@
         <v>20</v>
       </c>
       <c r="L122" s="1">
-        <v>39.049999999999997</v>
+        <v>33.79</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.25">
@@ -6744,31 +6809,31 @@
         <v>89</v>
       </c>
       <c r="D123" s="6">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="E123" s="6">
-        <v>-120</v>
+        <v>-105</v>
       </c>
       <c r="F123" s="6" t="s">
         <v>55</v>
       </c>
       <c r="G123" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H123" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="I123" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="J123" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K123" s="1">
         <v>20</v>
       </c>
       <c r="L123" s="1">
-        <v>0</v>
+        <v>39.049999999999997</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.25">
@@ -6782,31 +6847,31 @@
         <v>89</v>
       </c>
       <c r="D124" s="6">
-        <v>37.5</v>
+        <v>3.5</v>
       </c>
       <c r="E124" s="6">
-        <v>-115</v>
+        <v>-120</v>
       </c>
       <c r="F124" s="6" t="s">
         <v>55</v>
       </c>
       <c r="G124" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H124" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="I124" t="s">
         <v>66</v>
       </c>
       <c r="J124" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="K124" s="1">
         <v>20</v>
       </c>
       <c r="L124" s="1">
-        <v>27.39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.25">
@@ -6820,7 +6885,7 @@
         <v>89</v>
       </c>
       <c r="D125" s="6">
-        <v>60.5</v>
+        <v>37.5</v>
       </c>
       <c r="E125" s="6">
         <v>-115</v>
@@ -6829,22 +6894,22 @@
         <v>55</v>
       </c>
       <c r="G125" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H125" t="s">
         <v>119</v>
       </c>
       <c r="I125" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="J125" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K125" s="1">
         <v>20</v>
       </c>
       <c r="L125" s="1">
-        <v>0</v>
+        <v>27.39</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.25">
@@ -6858,7 +6923,7 @@
         <v>89</v>
       </c>
       <c r="D126" s="6">
-        <v>27.5</v>
+        <v>60.5</v>
       </c>
       <c r="E126" s="6">
         <v>-115</v>
@@ -6867,7 +6932,7 @@
         <v>55</v>
       </c>
       <c r="G126" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H126" t="s">
         <v>119</v>
@@ -6876,13 +6941,13 @@
         <v>13</v>
       </c>
       <c r="J126" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="K126" s="1">
         <v>20</v>
       </c>
       <c r="L126" s="1">
-        <v>37.39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.25">
@@ -6896,7 +6961,7 @@
         <v>89</v>
       </c>
       <c r="D127" s="6">
-        <v>59.5</v>
+        <v>27.5</v>
       </c>
       <c r="E127" s="6">
         <v>-115</v>
@@ -6905,10 +6970,10 @@
         <v>55</v>
       </c>
       <c r="G127" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H127" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I127" t="s">
         <v>13</v>
@@ -6920,7 +6985,7 @@
         <v>20</v>
       </c>
       <c r="L127" s="1">
-        <v>39.39</v>
+        <v>37.39</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.25">
@@ -6934,7 +6999,7 @@
         <v>89</v>
       </c>
       <c r="D128" s="6">
-        <v>69.5</v>
+        <v>59.5</v>
       </c>
       <c r="E128" s="6">
         <v>-115</v>
@@ -6943,10 +7008,10 @@
         <v>55</v>
       </c>
       <c r="G128" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H128" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I128" t="s">
         <v>13</v>
@@ -6958,7 +7023,7 @@
         <v>20</v>
       </c>
       <c r="L128" s="1">
-        <v>37.39</v>
+        <v>39.39</v>
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.25">
@@ -6972,7 +7037,7 @@
         <v>89</v>
       </c>
       <c r="D129" s="6">
-        <v>30.5</v>
+        <v>69.5</v>
       </c>
       <c r="E129" s="6">
         <v>-115</v>
@@ -6981,22 +7046,22 @@
         <v>55</v>
       </c>
       <c r="G129" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H129" t="s">
         <v>119</v>
       </c>
       <c r="I129" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="J129" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K129" s="1">
         <v>20</v>
       </c>
       <c r="L129" s="1">
-        <v>0</v>
+        <v>37.39</v>
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.25">
@@ -7010,31 +7075,31 @@
         <v>89</v>
       </c>
       <c r="D130" s="6">
-        <v>11.5</v>
+        <v>30.5</v>
       </c>
       <c r="E130" s="6">
-        <v>-120</v>
+        <v>-115</v>
       </c>
       <c r="F130" s="6" t="s">
         <v>55</v>
       </c>
       <c r="G130" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H130" t="s">
         <v>119</v>
       </c>
       <c r="I130" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="J130" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="K130" s="1">
         <v>20</v>
       </c>
       <c r="L130" s="1">
-        <v>36.67</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.25">
@@ -7048,31 +7113,31 @@
         <v>89</v>
       </c>
       <c r="D131" s="6">
-        <v>55.5</v>
+        <v>11.5</v>
       </c>
       <c r="E131" s="6">
-        <v>-115</v>
+        <v>-120</v>
       </c>
       <c r="F131" s="6" t="s">
         <v>55</v>
       </c>
       <c r="G131" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H131" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I131" t="s">
         <v>13</v>
       </c>
       <c r="J131" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K131" s="1">
         <v>20</v>
       </c>
       <c r="L131" s="1">
-        <v>0</v>
+        <v>36.67</v>
       </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.25">
@@ -7086,7 +7151,7 @@
         <v>89</v>
       </c>
       <c r="D132" s="6">
-        <v>4.5</v>
+        <v>55.5</v>
       </c>
       <c r="E132" s="6">
         <v>-115</v>
@@ -7095,10 +7160,10 @@
         <v>55</v>
       </c>
       <c r="G132" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H132" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="I132" t="s">
         <v>13</v>
@@ -7124,7 +7189,7 @@
         <v>89</v>
       </c>
       <c r="D133" s="6">
-        <v>40.5</v>
+        <v>4.5</v>
       </c>
       <c r="E133" s="6">
         <v>-115</v>
@@ -7133,13 +7198,13 @@
         <v>55</v>
       </c>
       <c r="G133" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H133" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="I133" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="J133" t="s">
         <v>23</v>
@@ -7153,7 +7218,7 @@
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134" s="4">
-        <v>43400</v>
+        <v>43765</v>
       </c>
       <c r="B134" s="5">
         <v>8</v>
@@ -7162,31 +7227,31 @@
         <v>89</v>
       </c>
       <c r="D134" s="6">
-        <v>1.5</v>
+        <v>40.5</v>
       </c>
       <c r="E134" s="6">
-        <v>-160</v>
+        <v>-115</v>
       </c>
       <c r="F134" s="6" t="s">
         <v>55</v>
       </c>
       <c r="G134" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H134" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="I134" t="s">
         <v>66</v>
       </c>
       <c r="J134" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="K134" s="1">
         <v>20</v>
       </c>
       <c r="L134" s="1">
-        <v>32.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.25">
@@ -9938,7 +10003,7 @@
     </row>
     <row r="209" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A209" s="4">
-        <v>43779</v>
+        <v>43776</v>
       </c>
       <c r="B209" s="5">
         <v>10</v>
@@ -9947,60 +10012,60 @@
         <v>89</v>
       </c>
       <c r="D209" s="6">
-        <v>4.5</v>
+        <v>83.5</v>
       </c>
       <c r="E209" s="6">
-        <v>-115</v>
+        <v>125</v>
       </c>
       <c r="F209" s="6" t="s">
         <v>55</v>
       </c>
       <c r="G209" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="H209" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="I209" t="s">
         <v>13</v>
       </c>
       <c r="J209" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K209" s="1">
         <v>10</v>
       </c>
       <c r="L209" s="1">
-        <v>0</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="210" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A210" s="4">
-        <v>43779</v>
+        <v>43777</v>
       </c>
       <c r="B210" s="5">
         <v>10</v>
       </c>
       <c r="C210" s="6" t="s">
-        <v>89</v>
+        <v>3</v>
       </c>
       <c r="D210" s="6">
-        <v>3.5</v>
+        <v>-6</v>
       </c>
       <c r="E210" s="6">
-        <v>-125</v>
+        <v>-110</v>
       </c>
       <c r="F210" s="6" t="s">
         <v>55</v>
       </c>
       <c r="G210" t="s">
-        <v>206</v>
+        <v>88</v>
       </c>
       <c r="H210" t="s">
-        <v>118</v>
+        <v>72</v>
       </c>
       <c r="I210" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="J210" t="s">
         <v>23</v>
@@ -10014,31 +10079,31 @@
     </row>
     <row r="211" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A211" s="4">
-        <v>43779</v>
+        <v>43777</v>
       </c>
       <c r="B211" s="5">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C211" s="6" t="s">
-        <v>89</v>
+        <v>3</v>
       </c>
       <c r="D211" s="6">
-        <v>210.5</v>
+        <v>35</v>
       </c>
       <c r="E211" s="6">
-        <v>-115</v>
+        <v>-110</v>
       </c>
       <c r="F211" s="6" t="s">
-        <v>55</v>
+        <v>230</v>
       </c>
       <c r="G211" t="s">
-        <v>90</v>
+        <v>274</v>
       </c>
       <c r="H211" t="s">
-        <v>116</v>
+        <v>275</v>
       </c>
       <c r="I211" t="s">
-        <v>13</v>
+        <v>275</v>
       </c>
       <c r="J211" t="s">
         <v>23</v>
@@ -10052,151 +10117,151 @@
     </row>
     <row r="212" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A212" s="4">
-        <v>43779</v>
+        <v>43778</v>
       </c>
       <c r="B212" s="5">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C212" s="6" t="s">
-        <v>89</v>
+        <v>3</v>
       </c>
       <c r="D212" s="6">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="E212" s="6">
-        <v>105</v>
+        <v>-110</v>
       </c>
       <c r="F212" s="6" t="s">
-        <v>55</v>
+        <v>230</v>
       </c>
       <c r="G212" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="H212" t="s">
-        <v>118</v>
+        <v>272</v>
       </c>
       <c r="I212" t="s">
-        <v>66</v>
+        <v>265</v>
       </c>
       <c r="J212" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K212" s="1">
         <v>10</v>
       </c>
       <c r="L212" s="1">
-        <v>0</v>
+        <v>19.09</v>
       </c>
     </row>
     <row r="213" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A213" s="4">
-        <v>43779</v>
+        <v>43778</v>
       </c>
       <c r="B213" s="5">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C213" s="6" t="s">
-        <v>89</v>
+        <v>3</v>
       </c>
       <c r="D213" s="6">
-        <v>10.5</v>
+        <v>3</v>
       </c>
       <c r="E213" s="6">
-        <v>-115</v>
+        <v>-110</v>
       </c>
       <c r="F213" s="6" t="s">
-        <v>55</v>
+        <v>230</v>
       </c>
       <c r="G213" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="H213" t="s">
-        <v>119</v>
+        <v>271</v>
       </c>
       <c r="I213" t="s">
-        <v>66</v>
+        <v>266</v>
       </c>
       <c r="J213" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K213" s="1">
         <v>10</v>
       </c>
       <c r="L213" s="1">
-        <v>0</v>
+        <v>19.09</v>
       </c>
     </row>
     <row r="214" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A214" s="4">
-        <v>43779</v>
+        <v>43778</v>
       </c>
       <c r="B214" s="5">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C214" s="6" t="s">
-        <v>89</v>
+        <v>3</v>
       </c>
       <c r="D214" s="6">
-        <v>3</v>
+        <v>-14</v>
       </c>
       <c r="E214" s="6">
-        <v>-125</v>
+        <v>-110</v>
       </c>
       <c r="F214" s="6" t="s">
-        <v>55</v>
+        <v>230</v>
       </c>
       <c r="G214" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="H214" t="s">
-        <v>135</v>
+        <v>268</v>
       </c>
       <c r="I214" t="s">
-        <v>13</v>
+        <v>267</v>
       </c>
       <c r="J214" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="K214" s="1">
         <v>10</v>
       </c>
       <c r="L214" s="1">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A215" s="4">
-        <v>43779</v>
+        <v>43778</v>
       </c>
       <c r="B215" s="5">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C215" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="D215" s="6">
-        <v>50.5</v>
+        <v>175</v>
+      </c>
+      <c r="D215" s="6" t="s">
+        <v>175</v>
       </c>
       <c r="E215" s="6">
-        <v>-115</v>
+        <v>-260</v>
       </c>
       <c r="F215" s="6" t="s">
-        <v>55</v>
+        <v>230</v>
       </c>
       <c r="G215" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="H215" t="s">
-        <v>119</v>
+        <v>270</v>
       </c>
       <c r="I215" t="s">
-        <v>13</v>
+        <v>270</v>
       </c>
       <c r="J215" t="s">
         <v>23</v>
       </c>
       <c r="K215" s="1">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="L215" s="1">
         <v>0</v>
@@ -10204,37 +10269,37 @@
     </row>
     <row r="216" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A216" s="4">
-        <v>43777</v>
+        <v>43778</v>
       </c>
       <c r="B216" s="5">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C216" s="6" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D216" s="6">
-        <v>-6</v>
+        <v>69.5</v>
       </c>
       <c r="E216" s="6">
-        <v>-110</v>
+        <v>-115</v>
       </c>
       <c r="F216" s="6" t="s">
-        <v>55</v>
+        <v>230</v>
       </c>
       <c r="G216" t="s">
-        <v>88</v>
+        <v>243</v>
       </c>
       <c r="H216" t="s">
-        <v>72</v>
+        <v>244</v>
       </c>
       <c r="I216" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="J216" t="s">
         <v>23</v>
       </c>
       <c r="K216" s="1">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="L216" s="1">
         <v>0</v>
@@ -10251,7 +10316,7 @@
         <v>89</v>
       </c>
       <c r="D217" s="6">
-        <v>66.5</v>
+        <v>4.5</v>
       </c>
       <c r="E217" s="6">
         <v>-115</v>
@@ -10260,22 +10325,22 @@
         <v>55</v>
       </c>
       <c r="G217" t="s">
-        <v>264</v>
+        <v>112</v>
       </c>
       <c r="H217" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="I217" t="s">
         <v>13</v>
       </c>
       <c r="J217" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="K217" s="1">
         <v>10</v>
       </c>
       <c r="L217" s="1">
-        <v>18.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:12" x14ac:dyDescent="0.25">
@@ -10289,136 +10354,136 @@
         <v>89</v>
       </c>
       <c r="D218" s="6">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="E218" s="6">
-        <v>-200</v>
+        <v>-125</v>
       </c>
       <c r="F218" s="6" t="s">
         <v>55</v>
       </c>
       <c r="G218" t="s">
-        <v>90</v>
+        <v>206</v>
       </c>
       <c r="H218" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I218" t="s">
         <v>13</v>
       </c>
       <c r="J218" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="K218" s="1">
         <v>10</v>
       </c>
       <c r="L218" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A219" s="4">
-        <v>43778</v>
+        <v>43779</v>
       </c>
       <c r="B219" s="5">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C219" s="6" t="s">
-        <v>3</v>
+        <v>89</v>
       </c>
       <c r="D219" s="6">
-        <v>7.5</v>
+        <v>210.5</v>
       </c>
       <c r="E219" s="6">
-        <v>-110</v>
+        <v>-115</v>
       </c>
       <c r="F219" s="6" t="s">
-        <v>230</v>
+        <v>55</v>
       </c>
       <c r="G219" t="s">
-        <v>265</v>
+        <v>90</v>
       </c>
       <c r="H219" t="s">
-        <v>272</v>
+        <v>116</v>
       </c>
       <c r="I219" t="s">
-        <v>265</v>
+        <v>13</v>
       </c>
       <c r="J219" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="K219" s="1">
         <v>10</v>
       </c>
       <c r="L219" s="1">
-        <v>19.09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A220" s="4">
-        <v>43778</v>
+        <v>43779</v>
       </c>
       <c r="B220" s="5">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C220" s="6" t="s">
-        <v>3</v>
+        <v>89</v>
       </c>
       <c r="D220" s="6">
-        <v>3</v>
+        <v>8.5</v>
       </c>
       <c r="E220" s="6">
-        <v>-110</v>
+        <v>105</v>
       </c>
       <c r="F220" s="6" t="s">
-        <v>230</v>
+        <v>55</v>
       </c>
       <c r="G220" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="H220" t="s">
-        <v>271</v>
+        <v>118</v>
       </c>
       <c r="I220" t="s">
-        <v>266</v>
+        <v>66</v>
       </c>
       <c r="J220" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="K220" s="1">
         <v>10</v>
       </c>
       <c r="L220" s="1">
-        <v>19.09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A221" s="4">
-        <v>43778</v>
+        <v>43779</v>
       </c>
       <c r="B221" s="5">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C221" s="6" t="s">
-        <v>3</v>
+        <v>89</v>
       </c>
       <c r="D221" s="6">
-        <v>-14</v>
+        <v>10.5</v>
       </c>
       <c r="E221" s="6">
-        <v>-110</v>
+        <v>-115</v>
       </c>
       <c r="F221" s="6" t="s">
-        <v>230</v>
+        <v>55</v>
       </c>
       <c r="G221" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="H221" t="s">
-        <v>268</v>
+        <v>119</v>
       </c>
       <c r="I221" t="s">
-        <v>267</v>
+        <v>66</v>
       </c>
       <c r="J221" t="s">
         <v>23</v>
@@ -10432,66 +10497,66 @@
     </row>
     <row r="222" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A222" s="4">
-        <v>43778</v>
+        <v>43779</v>
       </c>
       <c r="B222" s="5">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C222" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="D222" s="6" t="s">
-        <v>175</v>
+        <v>89</v>
+      </c>
+      <c r="D222" s="6">
+        <v>3</v>
       </c>
       <c r="E222" s="6">
-        <v>-260</v>
+        <v>-125</v>
       </c>
       <c r="F222" s="6" t="s">
-        <v>230</v>
+        <v>55</v>
       </c>
       <c r="G222" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="H222" t="s">
-        <v>270</v>
+        <v>135</v>
       </c>
       <c r="I222" t="s">
-        <v>270</v>
+        <v>13</v>
       </c>
       <c r="J222" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K222" s="1">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="L222" s="1">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="223" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A223" s="4">
-        <v>43778</v>
+        <v>43779</v>
       </c>
       <c r="B223" s="5">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C223" s="6" t="s">
-        <v>9</v>
+        <v>89</v>
       </c>
       <c r="D223" s="6">
-        <v>69.5</v>
+        <v>50.5</v>
       </c>
       <c r="E223" s="6">
         <v>-115</v>
       </c>
       <c r="F223" s="6" t="s">
-        <v>230</v>
+        <v>55</v>
       </c>
       <c r="G223" t="s">
-        <v>243</v>
+        <v>262</v>
       </c>
       <c r="H223" t="s">
-        <v>244</v>
+        <v>119</v>
       </c>
       <c r="I223" t="s">
         <v>13</v>
@@ -10500,7 +10565,7 @@
         <v>23</v>
       </c>
       <c r="K223" s="1">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="L223" s="1">
         <v>0</v>
@@ -10508,45 +10573,45 @@
     </row>
     <row r="224" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A224" s="4">
-        <v>43777</v>
+        <v>43779</v>
       </c>
       <c r="B224" s="5">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C224" s="6" t="s">
-        <v>3</v>
+        <v>89</v>
       </c>
       <c r="D224" s="6">
-        <v>35</v>
+        <v>66.5</v>
       </c>
       <c r="E224" s="6">
-        <v>-110</v>
+        <v>-115</v>
       </c>
       <c r="F224" s="6" t="s">
-        <v>230</v>
+        <v>55</v>
       </c>
       <c r="G224" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="H224" t="s">
-        <v>275</v>
+        <v>119</v>
       </c>
       <c r="I224" t="s">
-        <v>275</v>
+        <v>13</v>
       </c>
       <c r="J224" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K224" s="1">
         <v>10</v>
       </c>
       <c r="L224" s="1">
-        <v>0</v>
+        <v>18.7</v>
       </c>
     </row>
     <row r="225" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A225" s="4">
-        <v>43776</v>
+        <v>43779</v>
       </c>
       <c r="B225" s="5">
         <v>10</v>
@@ -10555,19 +10620,19 @@
         <v>89</v>
       </c>
       <c r="D225" s="6">
-        <v>83.5</v>
+        <v>1.5</v>
       </c>
       <c r="E225" s="6">
-        <v>125</v>
+        <v>-200</v>
       </c>
       <c r="F225" s="6" t="s">
         <v>55</v>
       </c>
       <c r="G225" t="s">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="H225" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="I225" t="s">
         <v>13</v>
@@ -10579,219 +10644,572 @@
         <v>10</v>
       </c>
       <c r="L225" s="1">
-        <v>22.5</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="226" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A226" s="4">
+        <v>43783</v>
+      </c>
+      <c r="B226" s="5">
+        <v>11</v>
+      </c>
+      <c r="C226" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D226" s="6">
+        <v>3</v>
+      </c>
+      <c r="E226" s="6">
+        <v>-115</v>
+      </c>
+      <c r="F226" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G226" t="s">
+        <v>109</v>
+      </c>
+      <c r="H226" t="s">
+        <v>87</v>
+      </c>
+      <c r="I226" t="s">
+        <v>87</v>
+      </c>
+      <c r="K226" s="1">
+        <v>10</v>
+      </c>
+      <c r="L226" s="1"/>
+    </row>
+    <row r="227" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A227" s="4">
+        <v>43783</v>
+      </c>
+      <c r="B227" s="5">
+        <v>11</v>
+      </c>
+      <c r="C227" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D227" s="6">
+        <v>6</v>
+      </c>
+      <c r="E227" s="6">
+        <v>-120</v>
+      </c>
+      <c r="F227" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G227" t="s">
+        <v>84</v>
+      </c>
+      <c r="H227" t="s">
+        <v>65</v>
+      </c>
+      <c r="I227" t="s">
+        <v>65</v>
+      </c>
+      <c r="K227" s="1">
+        <v>10</v>
+      </c>
+      <c r="L227" s="1"/>
+    </row>
+    <row r="228" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A228" s="4">
+        <v>43783</v>
+      </c>
+      <c r="B228" s="5">
+        <v>11</v>
+      </c>
+      <c r="C228" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D228" s="6">
+        <v>5.5</v>
+      </c>
+      <c r="E228" s="6">
+        <v>-110</v>
+      </c>
+      <c r="F228" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G228" t="s">
+        <v>80</v>
+      </c>
+      <c r="H228" t="s">
+        <v>81</v>
+      </c>
+      <c r="I228" t="s">
+        <v>80</v>
+      </c>
+      <c r="K228" s="1">
+        <v>10</v>
+      </c>
+      <c r="L228" s="1"/>
+    </row>
+    <row r="229" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A229" s="4">
+        <v>43783</v>
+      </c>
+      <c r="B229" s="5">
+        <v>11</v>
+      </c>
+      <c r="C229" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D229" s="6">
+        <v>1</v>
+      </c>
+      <c r="E229" s="6">
+        <v>-105</v>
+      </c>
+      <c r="F229" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G229" t="s">
+        <v>57</v>
+      </c>
+      <c r="H229" t="s">
+        <v>63</v>
+      </c>
+      <c r="I229" t="s">
+        <v>63</v>
+      </c>
+      <c r="K229" s="1">
+        <v>10</v>
+      </c>
+      <c r="L229" s="1"/>
+    </row>
+    <row r="230" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A230" s="4">
+        <v>43782</v>
+      </c>
+      <c r="B230" s="5">
+        <v>11</v>
+      </c>
+      <c r="C230" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D230" s="6">
+        <v>11.5</v>
+      </c>
+      <c r="E230" s="6">
+        <v>-115</v>
+      </c>
+      <c r="F230" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G230" t="s">
+        <v>132</v>
+      </c>
+      <c r="H230" t="s">
+        <v>103</v>
+      </c>
+      <c r="I230" t="s">
+        <v>103</v>
+      </c>
+      <c r="K230" s="1">
+        <v>10</v>
+      </c>
+      <c r="L230" s="1"/>
+    </row>
+    <row r="231" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A231" s="4">
+        <v>43783</v>
+      </c>
+      <c r="B231" s="5">
+        <v>11</v>
+      </c>
+      <c r="C231" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D231" s="6">
+        <v>44.5</v>
+      </c>
+      <c r="E231" s="6">
+        <v>-110</v>
+      </c>
+      <c r="F231" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G231" t="s">
+        <v>106</v>
+      </c>
+      <c r="H231" t="s">
+        <v>60</v>
+      </c>
+      <c r="I231" t="s">
+        <v>13</v>
+      </c>
+      <c r="K231" s="1">
+        <v>10</v>
+      </c>
+      <c r="L231" s="1"/>
+    </row>
+    <row r="232" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A232" s="4">
+        <v>43781</v>
+      </c>
+      <c r="B232" s="5">
+        <v>11</v>
+      </c>
+      <c r="C232" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D232" s="6">
+        <v>-3.5</v>
+      </c>
+      <c r="E232" s="6">
+        <v>-110</v>
+      </c>
+      <c r="F232" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G232" t="s">
+        <v>106</v>
+      </c>
+      <c r="H232" t="s">
+        <v>60</v>
+      </c>
+      <c r="I232" t="s">
+        <v>60</v>
+      </c>
+      <c r="K232" s="1">
+        <v>10</v>
+      </c>
+      <c r="L232" s="1"/>
+    </row>
+    <row r="233" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A233" s="4">
+        <v>43782</v>
+      </c>
+      <c r="B233" s="5">
+        <v>11</v>
+      </c>
+      <c r="C233" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D233" s="6">
+        <v>20.5</v>
+      </c>
+      <c r="E233" s="6">
+        <v>-110</v>
+      </c>
+      <c r="F233" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G233" t="s">
+        <v>59</v>
+      </c>
+      <c r="H233" t="s">
+        <v>77</v>
+      </c>
+      <c r="I233" t="s">
+        <v>13</v>
+      </c>
+      <c r="K233" s="1">
+        <v>10</v>
+      </c>
+      <c r="L233" s="1"/>
+    </row>
+    <row r="234" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A234" s="4">
+        <v>43781</v>
+      </c>
+      <c r="B234" s="5">
+        <v>11</v>
+      </c>
+      <c r="C234" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D234" s="6">
+        <v>7</v>
+      </c>
+      <c r="E234" s="6">
+        <v>-115</v>
+      </c>
+      <c r="F234" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G234" t="s">
+        <v>59</v>
+      </c>
+      <c r="H234" t="s">
+        <v>77</v>
+      </c>
+      <c r="I234" t="s">
+        <v>77</v>
+      </c>
+      <c r="K234" s="1">
+        <v>10</v>
+      </c>
+      <c r="L234" s="1"/>
+    </row>
+    <row r="235" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A235" s="4">
+        <v>43781</v>
+      </c>
+      <c r="B235" s="5">
+        <v>11</v>
+      </c>
+      <c r="C235" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D235" s="6">
+        <v>-2.5</v>
+      </c>
+      <c r="E235" s="6">
+        <v>-110</v>
+      </c>
+      <c r="F235" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G235" t="s">
+        <v>62</v>
+      </c>
+      <c r="H235" t="s">
+        <v>75</v>
+      </c>
+      <c r="I235" t="s">
+        <v>62</v>
+      </c>
+      <c r="K235" s="1">
+        <v>10</v>
+      </c>
+      <c r="L235" s="1"/>
+    </row>
+    <row r="236" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A236" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B236" s="6"/>
+      <c r="C236" s="6"/>
+      <c r="D236" s="6"/>
+      <c r="E236" s="6"/>
+      <c r="F236" s="6"/>
+      <c r="K236" s="1">
+        <f>SUMIF(Table134[Result],"&lt;&gt;",Table134[Bet Size])</f>
+        <v>3100</v>
+      </c>
+      <c r="L236" s="1">
+        <f>SUMIF(Table134[Result],"&lt;&gt;",Table134[Payout])</f>
+        <v>2969</v>
+      </c>
+    </row>
+    <row r="238" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F238" t="s">
+        <v>288</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:L1"/>
   </mergeCells>
-  <conditionalFormatting sqref="J44:J50 J1:J42 J52:J83 J87 J89:J90 J92:J93 J107 J109:J112 J96:J104 J117:J154 J178:J182 J156:J176 J185:J197 J199:J1027">
-    <cfRule type="containsText" dxfId="67" priority="55" operator="containsText" text="No Action">
+  <conditionalFormatting sqref="J44:J50 J1:J42 J52:J83 J87 J89:J90 J92:J93 J107 J109:J112 J96:J104 J117:J154 J178:J182 J156:J176 J185:J197 J199:J235 J237:J1028">
+    <cfRule type="containsText" dxfId="77" priority="55" operator="containsText" text="No Action">
       <formula>NOT(ISERROR(SEARCH("No Action",J1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="66" priority="56" operator="containsText" text="Win">
+    <cfRule type="containsText" dxfId="76" priority="56" operator="containsText" text="Win">
       <formula>NOT(ISERROR(SEARCH("Win",J1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="65" priority="57" operator="containsText" text="Loss">
+    <cfRule type="containsText" dxfId="75" priority="57" operator="containsText" text="Loss">
       <formula>NOT(ISERROR(SEARCH("Loss",J1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J43">
-    <cfRule type="containsText" dxfId="64" priority="52" operator="containsText" text="No Action">
+    <cfRule type="containsText" dxfId="74" priority="52" operator="containsText" text="No Action">
       <formula>NOT(ISERROR(SEARCH("No Action",J43)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="63" priority="53" operator="containsText" text="Win">
+    <cfRule type="containsText" dxfId="73" priority="53" operator="containsText" text="Win">
       <formula>NOT(ISERROR(SEARCH("Win",J43)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="62" priority="54" operator="containsText" text="Loss">
+    <cfRule type="containsText" dxfId="72" priority="54" operator="containsText" text="Loss">
       <formula>NOT(ISERROR(SEARCH("Loss",J43)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J51">
-    <cfRule type="containsText" dxfId="61" priority="49" operator="containsText" text="No Action">
+    <cfRule type="containsText" dxfId="71" priority="49" operator="containsText" text="No Action">
       <formula>NOT(ISERROR(SEARCH("No Action",J51)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="60" priority="50" operator="containsText" text="Win">
+    <cfRule type="containsText" dxfId="70" priority="50" operator="containsText" text="Win">
       <formula>NOT(ISERROR(SEARCH("Win",J51)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="59" priority="51" operator="containsText" text="Loss">
+    <cfRule type="containsText" dxfId="69" priority="51" operator="containsText" text="Loss">
       <formula>NOT(ISERROR(SEARCH("Loss",J51)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J84">
-    <cfRule type="containsText" dxfId="58" priority="46" operator="containsText" text="No Action">
+    <cfRule type="containsText" dxfId="68" priority="46" operator="containsText" text="No Action">
       <formula>NOT(ISERROR(SEARCH("No Action",J84)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="57" priority="47" operator="containsText" text="Win">
+    <cfRule type="containsText" dxfId="67" priority="47" operator="containsText" text="Win">
       <formula>NOT(ISERROR(SEARCH("Win",J84)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="56" priority="48" operator="containsText" text="Loss">
+    <cfRule type="containsText" dxfId="66" priority="48" operator="containsText" text="Loss">
       <formula>NOT(ISERROR(SEARCH("Loss",J84)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J85">
-    <cfRule type="containsText" dxfId="55" priority="43" operator="containsText" text="No Action">
+    <cfRule type="containsText" dxfId="65" priority="43" operator="containsText" text="No Action">
       <formula>NOT(ISERROR(SEARCH("No Action",J85)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="54" priority="44" operator="containsText" text="Win">
+    <cfRule type="containsText" dxfId="64" priority="44" operator="containsText" text="Win">
       <formula>NOT(ISERROR(SEARCH("Win",J85)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="53" priority="45" operator="containsText" text="Loss">
+    <cfRule type="containsText" dxfId="63" priority="45" operator="containsText" text="Loss">
       <formula>NOT(ISERROR(SEARCH("Loss",J85)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J86">
-    <cfRule type="containsText" dxfId="52" priority="40" operator="containsText" text="No Action">
+    <cfRule type="containsText" dxfId="62" priority="40" operator="containsText" text="No Action">
       <formula>NOT(ISERROR(SEARCH("No Action",J86)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="51" priority="41" operator="containsText" text="Win">
+    <cfRule type="containsText" dxfId="61" priority="41" operator="containsText" text="Win">
       <formula>NOT(ISERROR(SEARCH("Win",J86)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="42" operator="containsText" text="Loss">
+    <cfRule type="containsText" dxfId="60" priority="42" operator="containsText" text="Loss">
       <formula>NOT(ISERROR(SEARCH("Loss",J86)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J88">
-    <cfRule type="containsText" dxfId="49" priority="37" operator="containsText" text="No Action">
+    <cfRule type="containsText" dxfId="59" priority="37" operator="containsText" text="No Action">
       <formula>NOT(ISERROR(SEARCH("No Action",J88)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="38" operator="containsText" text="Win">
+    <cfRule type="containsText" dxfId="58" priority="38" operator="containsText" text="Win">
       <formula>NOT(ISERROR(SEARCH("Win",J88)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="47" priority="39" operator="containsText" text="Loss">
+    <cfRule type="containsText" dxfId="57" priority="39" operator="containsText" text="Loss">
       <formula>NOT(ISERROR(SEARCH("Loss",J88)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J91">
-    <cfRule type="containsText" dxfId="46" priority="34" operator="containsText" text="No Action">
+    <cfRule type="containsText" dxfId="56" priority="34" operator="containsText" text="No Action">
       <formula>NOT(ISERROR(SEARCH("No Action",J91)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="35" operator="containsText" text="Win">
+    <cfRule type="containsText" dxfId="55" priority="35" operator="containsText" text="Win">
       <formula>NOT(ISERROR(SEARCH("Win",J91)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="44" priority="36" operator="containsText" text="Loss">
+    <cfRule type="containsText" dxfId="54" priority="36" operator="containsText" text="Loss">
       <formula>NOT(ISERROR(SEARCH("Loss",J91)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J105">
-    <cfRule type="containsText" dxfId="43" priority="31" operator="containsText" text="No Action">
+    <cfRule type="containsText" dxfId="53" priority="31" operator="containsText" text="No Action">
       <formula>NOT(ISERROR(SEARCH("No Action",J105)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="32" operator="containsText" text="Win">
+    <cfRule type="containsText" dxfId="52" priority="32" operator="containsText" text="Win">
       <formula>NOT(ISERROR(SEARCH("Win",J105)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="41" priority="33" operator="containsText" text="Loss">
+    <cfRule type="containsText" dxfId="51" priority="33" operator="containsText" text="Loss">
       <formula>NOT(ISERROR(SEARCH("Loss",J105)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J106">
-    <cfRule type="containsText" dxfId="40" priority="28" operator="containsText" text="No Action">
+    <cfRule type="containsText" dxfId="50" priority="28" operator="containsText" text="No Action">
       <formula>NOT(ISERROR(SEARCH("No Action",J106)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="39" priority="29" operator="containsText" text="Win">
+    <cfRule type="containsText" dxfId="49" priority="29" operator="containsText" text="Win">
       <formula>NOT(ISERROR(SEARCH("Win",J106)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="30" operator="containsText" text="Loss">
+    <cfRule type="containsText" dxfId="48" priority="30" operator="containsText" text="Loss">
       <formula>NOT(ISERROR(SEARCH("Loss",J106)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J108">
-    <cfRule type="containsText" dxfId="37" priority="25" operator="containsText" text="No Action">
+    <cfRule type="containsText" dxfId="47" priority="25" operator="containsText" text="No Action">
       <formula>NOT(ISERROR(SEARCH("No Action",J108)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="26" operator="containsText" text="Win">
+    <cfRule type="containsText" dxfId="46" priority="26" operator="containsText" text="Win">
       <formula>NOT(ISERROR(SEARCH("Win",J108)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="35" priority="27" operator="containsText" text="Loss">
+    <cfRule type="containsText" dxfId="45" priority="27" operator="containsText" text="Loss">
       <formula>NOT(ISERROR(SEARCH("Loss",J108)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J113:J114">
-    <cfRule type="containsText" dxfId="34" priority="22" operator="containsText" text="No Action">
+    <cfRule type="containsText" dxfId="44" priority="22" operator="containsText" text="No Action">
       <formula>NOT(ISERROR(SEARCH("No Action",J113)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="23" operator="containsText" text="Win">
+    <cfRule type="containsText" dxfId="43" priority="23" operator="containsText" text="Win">
       <formula>NOT(ISERROR(SEARCH("Win",J113)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="24" operator="containsText" text="Loss">
+    <cfRule type="containsText" dxfId="42" priority="24" operator="containsText" text="Loss">
       <formula>NOT(ISERROR(SEARCH("Loss",J113)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J115:J116">
-    <cfRule type="containsText" dxfId="31" priority="19" operator="containsText" text="No Action">
+    <cfRule type="containsText" dxfId="41" priority="19" operator="containsText" text="No Action">
       <formula>NOT(ISERROR(SEARCH("No Action",J115)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="20" operator="containsText" text="Win">
+    <cfRule type="containsText" dxfId="40" priority="20" operator="containsText" text="Win">
       <formula>NOT(ISERROR(SEARCH("Win",J115)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="21" operator="containsText" text="Loss">
+    <cfRule type="containsText" dxfId="39" priority="21" operator="containsText" text="Loss">
       <formula>NOT(ISERROR(SEARCH("Loss",J115)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J94:J95">
-    <cfRule type="containsText" dxfId="28" priority="16" operator="containsText" text="No Action">
+    <cfRule type="containsText" dxfId="38" priority="16" operator="containsText" text="No Action">
       <formula>NOT(ISERROR(SEARCH("No Action",J94)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="17" operator="containsText" text="Win">
+    <cfRule type="containsText" dxfId="37" priority="17" operator="containsText" text="Win">
       <formula>NOT(ISERROR(SEARCH("Win",J94)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="18" operator="containsText" text="Loss">
+    <cfRule type="containsText" dxfId="36" priority="18" operator="containsText" text="Loss">
       <formula>NOT(ISERROR(SEARCH("Loss",J94)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J155">
-    <cfRule type="containsText" dxfId="25" priority="13" operator="containsText" text="No Action">
+    <cfRule type="containsText" dxfId="35" priority="13" operator="containsText" text="No Action">
       <formula>NOT(ISERROR(SEARCH("No Action",J155)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="14" operator="containsText" text="Win">
+    <cfRule type="containsText" dxfId="34" priority="14" operator="containsText" text="Win">
       <formula>NOT(ISERROR(SEARCH("Win",J155)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="15" operator="containsText" text="Loss">
+    <cfRule type="containsText" dxfId="33" priority="15" operator="containsText" text="Loss">
       <formula>NOT(ISERROR(SEARCH("Loss",J155)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J177">
-    <cfRule type="containsText" dxfId="22" priority="10" operator="containsText" text="No Action">
+    <cfRule type="containsText" dxfId="32" priority="10" operator="containsText" text="No Action">
       <formula>NOT(ISERROR(SEARCH("No Action",J177)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="11" operator="containsText" text="Win">
+    <cfRule type="containsText" dxfId="31" priority="11" operator="containsText" text="Win">
       <formula>NOT(ISERROR(SEARCH("Win",J177)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="12" operator="containsText" text="Loss">
+    <cfRule type="containsText" dxfId="30" priority="12" operator="containsText" text="Loss">
       <formula>NOT(ISERROR(SEARCH("Loss",J177)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J183">
-    <cfRule type="containsText" dxfId="19" priority="7" operator="containsText" text="No Action">
+    <cfRule type="containsText" dxfId="29" priority="7" operator="containsText" text="No Action">
       <formula>NOT(ISERROR(SEARCH("No Action",J183)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="8" operator="containsText" text="Win">
+    <cfRule type="containsText" dxfId="28" priority="8" operator="containsText" text="Win">
       <formula>NOT(ISERROR(SEARCH("Win",J183)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="9" operator="containsText" text="Loss">
+    <cfRule type="containsText" dxfId="27" priority="9" operator="containsText" text="Loss">
       <formula>NOT(ISERROR(SEARCH("Loss",J183)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J184">
-    <cfRule type="containsText" dxfId="16" priority="4" operator="containsText" text="No Action">
+    <cfRule type="containsText" dxfId="26" priority="4" operator="containsText" text="No Action">
       <formula>NOT(ISERROR(SEARCH("No Action",J184)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="5" operator="containsText" text="Win">
+    <cfRule type="containsText" dxfId="25" priority="5" operator="containsText" text="Win">
       <formula>NOT(ISERROR(SEARCH("Win",J184)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="6" operator="containsText" text="Loss">
+    <cfRule type="containsText" dxfId="24" priority="6" operator="containsText" text="Loss">
       <formula>NOT(ISERROR(SEARCH("Loss",J184)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J198">
-    <cfRule type="containsText" dxfId="13" priority="1" operator="containsText" text="No Action">
+    <cfRule type="containsText" dxfId="23" priority="1" operator="containsText" text="No Action">
       <formula>NOT(ISERROR(SEARCH("No Action",J198)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="2" operator="containsText" text="Win">
+    <cfRule type="containsText" dxfId="22" priority="2" operator="containsText" text="Win">
       <formula>NOT(ISERROR(SEARCH("Win",J198)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="3" operator="containsText" text="Loss">
+    <cfRule type="containsText" dxfId="21" priority="3" operator="containsText" text="Loss">
       <formula>NOT(ISERROR(SEARCH("Loss",J198)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10805,10 +11223,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K67"/>
+  <dimension ref="A1:K78"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J76" sqref="J76"/>
+    <sheetView topLeftCell="A50" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K78" sqref="K78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13151,18 +13569,378 @@
         <v>0</v>
       </c>
     </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A68" s="2">
+        <v>43782</v>
+      </c>
+      <c r="B68" t="s">
+        <v>3</v>
+      </c>
+      <c r="C68">
+        <v>2</v>
+      </c>
+      <c r="D68">
+        <v>-105</v>
+      </c>
+      <c r="E68" t="s">
+        <v>155</v>
+      </c>
+      <c r="F68" t="s">
+        <v>220</v>
+      </c>
+      <c r="G68" t="s">
+        <v>190</v>
+      </c>
+      <c r="H68" t="s">
+        <v>190</v>
+      </c>
+      <c r="I68" t="s">
+        <v>23</v>
+      </c>
+      <c r="J68" s="1">
+        <v>20</v>
+      </c>
+      <c r="K68" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A69" s="2">
+        <v>43782</v>
+      </c>
+      <c r="B69" t="s">
+        <v>9</v>
+      </c>
+      <c r="C69">
+        <v>221.5</v>
+      </c>
+      <c r="D69">
+        <v>-110</v>
+      </c>
+      <c r="E69" t="s">
+        <v>155</v>
+      </c>
+      <c r="F69" t="s">
+        <v>182</v>
+      </c>
+      <c r="G69" t="s">
+        <v>219</v>
+      </c>
+      <c r="H69" t="s">
+        <v>66</v>
+      </c>
+      <c r="I69" t="s">
+        <v>29</v>
+      </c>
+      <c r="J69" s="1">
+        <v>10</v>
+      </c>
+      <c r="K69" s="1">
+        <v>19.09</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A70" s="2">
+        <v>43782</v>
+      </c>
+      <c r="B70" t="s">
+        <v>9</v>
+      </c>
+      <c r="C70">
+        <v>227</v>
+      </c>
+      <c r="D70">
+        <v>-110</v>
+      </c>
+      <c r="E70" t="s">
+        <v>155</v>
+      </c>
+      <c r="F70" t="s">
+        <v>217</v>
+      </c>
+      <c r="G70" t="s">
+        <v>191</v>
+      </c>
+      <c r="H70" t="s">
+        <v>13</v>
+      </c>
+      <c r="I70" t="s">
+        <v>23</v>
+      </c>
+      <c r="J70" s="1">
+        <v>10</v>
+      </c>
+      <c r="K70" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A71" s="2">
+        <v>43782</v>
+      </c>
+      <c r="B71" t="s">
+        <v>89</v>
+      </c>
+      <c r="C71">
+        <v>7</v>
+      </c>
+      <c r="D71">
+        <v>-130</v>
+      </c>
+      <c r="E71" t="s">
+        <v>155</v>
+      </c>
+      <c r="F71" t="s">
+        <v>180</v>
+      </c>
+      <c r="G71" t="s">
+        <v>238</v>
+      </c>
+      <c r="I71" t="s">
+        <v>23</v>
+      </c>
+      <c r="J71" s="1">
+        <v>10</v>
+      </c>
+      <c r="K71" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A72" s="2">
+        <v>43782</v>
+      </c>
+      <c r="B72" t="s">
+        <v>89</v>
+      </c>
+      <c r="C72">
+        <v>10</v>
+      </c>
+      <c r="D72">
+        <v>-120</v>
+      </c>
+      <c r="E72" t="s">
+        <v>155</v>
+      </c>
+      <c r="F72" t="s">
+        <v>279</v>
+      </c>
+      <c r="G72" t="s">
+        <v>158</v>
+      </c>
+      <c r="H72" t="s">
+        <v>13</v>
+      </c>
+      <c r="I72" t="s">
+        <v>23</v>
+      </c>
+      <c r="J72" s="1">
+        <v>10</v>
+      </c>
+      <c r="K72" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A73" s="2">
+        <v>43782</v>
+      </c>
+      <c r="B73" t="s">
+        <v>3</v>
+      </c>
+      <c r="C73">
+        <v>4</v>
+      </c>
+      <c r="D73">
+        <v>-115</v>
+      </c>
+      <c r="E73" t="s">
+        <v>229</v>
+      </c>
+      <c r="F73" t="s">
+        <v>280</v>
+      </c>
+      <c r="G73" t="s">
+        <v>281</v>
+      </c>
+      <c r="H73" t="s">
+        <v>282</v>
+      </c>
+      <c r="I73" t="s">
+        <v>23</v>
+      </c>
+      <c r="J73" s="1">
+        <v>10</v>
+      </c>
+      <c r="K73" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A74" s="2">
+        <v>43782</v>
+      </c>
+      <c r="B74" t="s">
+        <v>3</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+      <c r="D74">
+        <v>-110</v>
+      </c>
+      <c r="E74" t="s">
+        <v>229</v>
+      </c>
+      <c r="F74" t="s">
+        <v>283</v>
+      </c>
+      <c r="G74" t="s">
+        <v>284</v>
+      </c>
+      <c r="H74" t="s">
+        <v>284</v>
+      </c>
+      <c r="I74" t="s">
+        <v>23</v>
+      </c>
+      <c r="J74" s="1">
+        <v>10</v>
+      </c>
+      <c r="K74" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A75" s="2">
+        <v>43782</v>
+      </c>
+      <c r="B75" t="s">
+        <v>3</v>
+      </c>
+      <c r="C75">
+        <v>-3</v>
+      </c>
+      <c r="D75">
+        <v>-110</v>
+      </c>
+      <c r="E75" t="s">
+        <v>229</v>
+      </c>
+      <c r="F75" t="s">
+        <v>285</v>
+      </c>
+      <c r="G75" t="s">
+        <v>244</v>
+      </c>
+      <c r="H75" t="s">
+        <v>285</v>
+      </c>
+      <c r="I75" t="s">
+        <v>23</v>
+      </c>
+      <c r="J75" s="1">
+        <v>30</v>
+      </c>
+      <c r="K75" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A76" s="2">
+        <v>43782</v>
+      </c>
+      <c r="B76" t="s">
+        <v>9</v>
+      </c>
+      <c r="C76">
+        <v>206.5</v>
+      </c>
+      <c r="D76">
+        <v>-110</v>
+      </c>
+      <c r="E76" t="s">
+        <v>155</v>
+      </c>
+      <c r="F76" t="s">
+        <v>233</v>
+      </c>
+      <c r="G76" t="s">
+        <v>286</v>
+      </c>
+      <c r="H76" t="s">
+        <v>66</v>
+      </c>
+      <c r="I76" t="s">
+        <v>29</v>
+      </c>
+      <c r="J76" s="1">
+        <v>10</v>
+      </c>
+      <c r="K76" s="1">
+        <v>19.09</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A77" s="2">
+        <v>43782</v>
+      </c>
+      <c r="B77" t="s">
+        <v>9</v>
+      </c>
+      <c r="C77">
+        <v>229.5</v>
+      </c>
+      <c r="D77">
+        <v>-110</v>
+      </c>
+      <c r="E77" t="s">
+        <v>155</v>
+      </c>
+      <c r="F77" t="s">
+        <v>222</v>
+      </c>
+      <c r="G77" t="s">
+        <v>287</v>
+      </c>
+      <c r="H77" t="s">
+        <v>66</v>
+      </c>
+      <c r="I77" t="s">
+        <v>29</v>
+      </c>
+      <c r="J77" s="1">
+        <v>10</v>
+      </c>
+      <c r="K77" s="1">
+        <v>19.09</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>51</v>
+      </c>
+      <c r="J78" s="1">
+        <f>SUMIF(Table4[Result],"&lt;&gt;",Table4[Bet Size])</f>
+        <v>790</v>
+      </c>
+      <c r="K78" s="1">
+        <f>SUMIF(Table4[Result],"&lt;&gt;",Table4[Payout])</f>
+        <v>717.26000000000022</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:K1"/>
   </mergeCells>
-  <conditionalFormatting sqref="I3:I158">
-    <cfRule type="containsText" dxfId="10" priority="21" operator="containsText" text="Win">
+  <conditionalFormatting sqref="I3:I77 I79:I159">
+    <cfRule type="containsText" dxfId="20" priority="21" operator="containsText" text="Win">
       <formula>NOT(ISERROR(SEARCH("Win",I3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="22" operator="containsText" text="Loss">
+    <cfRule type="containsText" dxfId="19" priority="22" operator="containsText" text="Loss">
       <formula>NOT(ISERROR(SEARCH("Loss",I3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="23" operator="containsText" text="No Action">
+    <cfRule type="containsText" dxfId="18" priority="23" operator="containsText" text="No Action">
       <formula>NOT(ISERROR(SEARCH("No Action",I3)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13178,7 +13956,7 @@
   <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13190,8 +13968,8 @@
     <col min="5" max="5" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.42578125" customWidth="1"/>
-    <col min="8" max="8" width="9.28515625" customWidth="1"/>
-    <col min="9" max="9" width="8.85546875" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -14157,10 +14935,10 @@
     <mergeCell ref="A1:I1"/>
   </mergeCells>
   <conditionalFormatting sqref="J34">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="16" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
     <cfRule type="colorScale" priority="3">
@@ -14175,13 +14953,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="No Action">
+    <cfRule type="containsText" dxfId="15" priority="4" operator="containsText" text="No Action">
       <formula>NOT(ISERROR(SEARCH("No Action",G1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="Win">
+    <cfRule type="containsText" dxfId="14" priority="5" operator="containsText" text="Win">
       <formula>NOT(ISERROR(SEARCH("Win",G1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="Loss">
+    <cfRule type="containsText" dxfId="13" priority="6" operator="containsText" text="Loss">
       <formula>NOT(ISERROR(SEARCH("Loss",G1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14297,13 +15075,13 @@
     <mergeCell ref="A1:J1"/>
   </mergeCells>
   <conditionalFormatting sqref="H1:H3">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="No Action">
+    <cfRule type="containsText" dxfId="12" priority="1" operator="containsText" text="No Action">
       <formula>NOT(ISERROR(SEARCH("No Action",H1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Win">
+    <cfRule type="containsText" dxfId="11" priority="2" operator="containsText" text="Win">
       <formula>NOT(ISERROR(SEARCH("Win",H1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="Loss">
+    <cfRule type="containsText" dxfId="10" priority="3" operator="containsText" text="Loss">
       <formula>NOT(ISERROR(SEARCH("Loss",H1)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/SportsBettingLogs.xlsx
+++ b/SportsBettingLogs.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2060" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2127" uniqueCount="300">
   <si>
     <t>Bet Type</t>
   </si>
@@ -894,7 +894,40 @@
     <t>Washington Wizards</t>
   </si>
   <si>
-    <t>e</t>
+    <t>Detroit Pistons</t>
+  </si>
+  <si>
+    <t>Missouri</t>
+  </si>
+  <si>
+    <t>Missouri Tigers</t>
+  </si>
+  <si>
+    <t>Coastal Carolina</t>
+  </si>
+  <si>
+    <t>Arkansas State</t>
+  </si>
+  <si>
+    <t>Florida</t>
+  </si>
+  <si>
+    <t>UNLV</t>
+  </si>
+  <si>
+    <t>Hawaii</t>
+  </si>
+  <si>
+    <t>Utah State</t>
+  </si>
+  <si>
+    <t>Wyoming</t>
+  </si>
+  <si>
+    <t>Colorado State</t>
+  </si>
+  <si>
+    <t>Air Force</t>
   </si>
 </sst>
 </file>
@@ -1010,12 +1043,6 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     </dxf>
     <dxf>
       <font>
@@ -1737,6 +1764,12 @@
       <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1770,10 +1803,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table134" displayName="Table134" ref="A2:L236" totalsRowCount="1">
-  <autoFilter ref="A2:L235"/>
-  <sortState ref="A3:L225">
-    <sortCondition ref="A2:A225"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table134" displayName="Table134" ref="A2:L247" totalsRowCount="1">
+  <autoFilter ref="A2:L246"/>
+  <sortState ref="A3:L235">
+    <sortCondition ref="A2:A235"/>
   </sortState>
   <tableColumns count="12">
     <tableColumn id="17" name="Date Placed" totalsRowLabel="Total" dataDxfId="96" totalsRowDxfId="7"/>
@@ -1786,10 +1819,10 @@
     <tableColumn id="4" name="Away Team"/>
     <tableColumn id="5" name="Outcome Chosen"/>
     <tableColumn id="6" name="Result"/>
-    <tableColumn id="7" name="Bet Size" totalsRowFunction="custom" dataDxfId="9" totalsRowDxfId="1">
+    <tableColumn id="7" name="Bet Size" totalsRowFunction="custom" dataDxfId="90" totalsRowDxfId="1">
       <totalsRowFormula>SUMIF(Table134[Result],"&lt;&gt;",Table134[Bet Size])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" name="Payout" totalsRowFunction="custom" dataDxfId="8" totalsRowDxfId="0">
+    <tableColumn id="8" name="Payout" totalsRowFunction="custom" dataDxfId="89" totalsRowDxfId="0">
       <totalsRowFormula>SUMIF(Table134[Result],"&lt;&gt;",Table134[Payout])</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -1798,13 +1831,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A2:K78" totalsRowCount="1">
-  <autoFilter ref="A2:K77"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A2:K80" totalsRowCount="1">
+  <autoFilter ref="A2:K79"/>
   <sortState ref="A3:K64">
     <sortCondition ref="A2:A64"/>
   </sortState>
   <tableColumns count="11">
-    <tableColumn id="1" name="Date Placed" totalsRowLabel="Total" dataDxfId="90"/>
+    <tableColumn id="1" name="Date Placed" totalsRowLabel="Total" dataDxfId="88"/>
     <tableColumn id="2" name="Bet Type"/>
     <tableColumn id="3" name="Points"/>
     <tableColumn id="4" name="Odds"/>
@@ -1813,10 +1846,10 @@
     <tableColumn id="7" name="Away Team"/>
     <tableColumn id="8" name="Outcome Chosen"/>
     <tableColumn id="9" name="Result"/>
-    <tableColumn id="10" name="Bet Size" totalsRowFunction="custom" dataDxfId="89" totalsRowDxfId="79">
+    <tableColumn id="10" name="Bet Size" totalsRowFunction="custom" dataDxfId="87" totalsRowDxfId="77">
       <totalsRowFormula>SUMIF(Table4[Result],"&lt;&gt;",Table4[Bet Size])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="11" name="Payout" totalsRowFunction="custom" dataDxfId="88" totalsRowDxfId="78">
+    <tableColumn id="11" name="Payout" totalsRowFunction="custom" dataDxfId="86" totalsRowDxfId="76">
       <totalsRowFormula>SUMIF(Table4[Result],"&lt;&gt;",Table4[Payout])</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -1831,17 +1864,17 @@
     <sortCondition ref="A2:A27"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="17" name="Date" totalsRowLabel="Total" dataDxfId="87"/>
+    <tableColumn id="17" name="Date" totalsRowLabel="Total" dataDxfId="85"/>
     <tableColumn id="1" name="Bet Type"/>
     <tableColumn id="2" name="Odds"/>
     <tableColumn id="3" name="Team 1"/>
     <tableColumn id="4" name="Team 2"/>
     <tableColumn id="5" name="Outcome Chosen"/>
     <tableColumn id="6" name="Result"/>
-    <tableColumn id="7" name="Bet Size" totalsRowFunction="custom" dataDxfId="86" totalsRowDxfId="85">
+    <tableColumn id="7" name="Bet Size" totalsRowFunction="custom" dataDxfId="84" totalsRowDxfId="83">
       <totalsRowFormula>SUMIF(Table1[Result],"&lt;&gt;",Table1[Bet Size])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" name="Payout" totalsRowFunction="custom" dataDxfId="84" totalsRowDxfId="83">
+    <tableColumn id="8" name="Payout" totalsRowFunction="custom" dataDxfId="82" totalsRowDxfId="81">
       <totalsRowFormula>SUMIF(Table1[Result],"&lt;&gt;",Table1[Payout])</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -1853,7 +1886,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A2:J3" totalsRowShown="0">
   <autoFilter ref="A2:J3"/>
   <tableColumns count="10">
-    <tableColumn id="17" name="Date" dataDxfId="82"/>
+    <tableColumn id="17" name="Date" dataDxfId="80"/>
     <tableColumn id="1" name="Bet Type"/>
     <tableColumn id="2" name="Odds"/>
     <tableColumn id="9" name="League"/>
@@ -1861,8 +1894,8 @@
     <tableColumn id="4" name="Team 2"/>
     <tableColumn id="5" name="Outcome Chosen"/>
     <tableColumn id="6" name="Result"/>
-    <tableColumn id="7" name="Bet Size" dataDxfId="81"/>
-    <tableColumn id="8" name="Payout" dataDxfId="80"/>
+    <tableColumn id="7" name="Bet Size" dataDxfId="79"/>
+    <tableColumn id="8" name="Payout" dataDxfId="78"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2177,10 +2210,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L238"/>
+  <dimension ref="A1:L247"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A215" zoomScale="74" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F238" sqref="F238"/>
+    <sheetView tabSelected="1" topLeftCell="A222" zoomScale="74" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="H243" sqref="H243"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10649,7 +10682,7 @@
     </row>
     <row r="226" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A226" s="4">
-        <v>43783</v>
+        <v>43781</v>
       </c>
       <c r="B226" s="5">
         <v>11</v>
@@ -10658,22 +10691,22 @@
         <v>3</v>
       </c>
       <c r="D226" s="6">
-        <v>3</v>
+        <v>-3.5</v>
       </c>
       <c r="E226" s="6">
-        <v>-115</v>
+        <v>-110</v>
       </c>
       <c r="F226" s="6" t="s">
         <v>55</v>
       </c>
       <c r="G226" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H226" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="I226" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="K226" s="1">
         <v>10</v>
@@ -10682,7 +10715,7 @@
     </row>
     <row r="227" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A227" s="4">
-        <v>43783</v>
+        <v>43781</v>
       </c>
       <c r="B227" s="5">
         <v>11</v>
@@ -10691,22 +10724,22 @@
         <v>3</v>
       </c>
       <c r="D227" s="6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E227" s="6">
-        <v>-120</v>
+        <v>-115</v>
       </c>
       <c r="F227" s="6" t="s">
         <v>55</v>
       </c>
       <c r="G227" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="H227" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="I227" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="K227" s="1">
         <v>10</v>
@@ -10715,7 +10748,7 @@
     </row>
     <row r="228" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A228" s="4">
-        <v>43783</v>
+        <v>43781</v>
       </c>
       <c r="B228" s="5">
         <v>11</v>
@@ -10724,7 +10757,7 @@
         <v>3</v>
       </c>
       <c r="D228" s="6">
-        <v>5.5</v>
+        <v>-2.5</v>
       </c>
       <c r="E228" s="6">
         <v>-110</v>
@@ -10733,22 +10766,27 @@
         <v>55</v>
       </c>
       <c r="G228" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="H228" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I228" t="s">
-        <v>80</v>
+        <v>62</v>
+      </c>
+      <c r="J228" t="s">
+        <v>29</v>
       </c>
       <c r="K228" s="1">
         <v>10</v>
       </c>
-      <c r="L228" s="1"/>
+      <c r="L228" s="1">
+        <v>19.09</v>
+      </c>
     </row>
     <row r="229" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A229" s="4">
-        <v>43783</v>
+        <v>43782</v>
       </c>
       <c r="B229" s="5">
         <v>11</v>
@@ -10757,22 +10795,22 @@
         <v>3</v>
       </c>
       <c r="D229" s="6">
-        <v>1</v>
+        <v>11.5</v>
       </c>
       <c r="E229" s="6">
-        <v>-105</v>
+        <v>-115</v>
       </c>
       <c r="F229" s="6" t="s">
         <v>55</v>
       </c>
       <c r="G229" t="s">
-        <v>57</v>
+        <v>132</v>
       </c>
       <c r="H229" t="s">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="I229" t="s">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="K229" s="1">
         <v>10</v>
@@ -10790,22 +10828,22 @@
         <v>3</v>
       </c>
       <c r="D230" s="6">
-        <v>11.5</v>
+        <v>20.5</v>
       </c>
       <c r="E230" s="6">
-        <v>-115</v>
+        <v>-110</v>
       </c>
       <c r="F230" s="6" t="s">
         <v>55</v>
       </c>
       <c r="G230" t="s">
-        <v>132</v>
+        <v>59</v>
       </c>
       <c r="H230" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="I230" t="s">
-        <v>103</v>
+        <v>13</v>
       </c>
       <c r="K230" s="1">
         <v>10</v>
@@ -10820,25 +10858,25 @@
         <v>11</v>
       </c>
       <c r="C231" s="6" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D231" s="6">
-        <v>44.5</v>
+        <v>3</v>
       </c>
       <c r="E231" s="6">
-        <v>-110</v>
+        <v>-115</v>
       </c>
       <c r="F231" s="6" t="s">
         <v>55</v>
       </c>
       <c r="G231" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="H231" t="s">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="I231" t="s">
-        <v>13</v>
+        <v>87</v>
       </c>
       <c r="K231" s="1">
         <v>10</v>
@@ -10847,7 +10885,7 @@
     </row>
     <row r="232" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A232" s="4">
-        <v>43781</v>
+        <v>43783</v>
       </c>
       <c r="B232" s="5">
         <v>11</v>
@@ -10856,22 +10894,22 @@
         <v>3</v>
       </c>
       <c r="D232" s="6">
-        <v>-3.5</v>
+        <v>6</v>
       </c>
       <c r="E232" s="6">
-        <v>-110</v>
+        <v>-120</v>
       </c>
       <c r="F232" s="6" t="s">
         <v>55</v>
       </c>
       <c r="G232" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="H232" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="I232" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="K232" s="1">
         <v>10</v>
@@ -10880,7 +10918,7 @@
     </row>
     <row r="233" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A233" s="4">
-        <v>43782</v>
+        <v>43783</v>
       </c>
       <c r="B233" s="5">
         <v>11</v>
@@ -10889,7 +10927,7 @@
         <v>3</v>
       </c>
       <c r="D233" s="6">
-        <v>20.5</v>
+        <v>5.5</v>
       </c>
       <c r="E233" s="6">
         <v>-110</v>
@@ -10898,13 +10936,13 @@
         <v>55</v>
       </c>
       <c r="G233" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="H233" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="I233" t="s">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="K233" s="1">
         <v>10</v>
@@ -10913,7 +10951,7 @@
     </row>
     <row r="234" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A234" s="4">
-        <v>43781</v>
+        <v>43783</v>
       </c>
       <c r="B234" s="5">
         <v>11</v>
@@ -10922,22 +10960,22 @@
         <v>3</v>
       </c>
       <c r="D234" s="6">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E234" s="6">
-        <v>-115</v>
+        <v>-105</v>
       </c>
       <c r="F234" s="6" t="s">
         <v>55</v>
       </c>
       <c r="G234" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H234" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="I234" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="K234" s="1">
         <v>10</v>
@@ -10946,16 +10984,16 @@
     </row>
     <row r="235" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A235" s="4">
-        <v>43781</v>
+        <v>43783</v>
       </c>
       <c r="B235" s="5">
         <v>11</v>
       </c>
       <c r="C235" s="6" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D235" s="6">
-        <v>-2.5</v>
+        <v>44.5</v>
       </c>
       <c r="E235" s="6">
         <v>-110</v>
@@ -10964,13 +11002,13 @@
         <v>55</v>
       </c>
       <c r="G235" t="s">
-        <v>62</v>
+        <v>106</v>
       </c>
       <c r="H235" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="I235" t="s">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="K235" s="1">
         <v>10</v>
@@ -10978,238 +11016,592 @@
       <c r="L235" s="1"/>
     </row>
     <row r="236" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A236" s="6" t="s">
+      <c r="A236" s="4">
+        <v>43784</v>
+      </c>
+      <c r="B236" s="5">
+        <v>11</v>
+      </c>
+      <c r="C236" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D236" s="6">
+        <v>8</v>
+      </c>
+      <c r="E236" s="6">
+        <v>-120</v>
+      </c>
+      <c r="F236" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G236" t="s">
+        <v>57</v>
+      </c>
+      <c r="H236" t="s">
+        <v>63</v>
+      </c>
+      <c r="I236" t="s">
+        <v>63</v>
+      </c>
+      <c r="K236" s="1"/>
+      <c r="L236" s="1"/>
+    </row>
+    <row r="237" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A237" s="4">
+        <v>43784</v>
+      </c>
+      <c r="B237" s="5">
+        <v>11</v>
+      </c>
+      <c r="C237" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D237" s="6">
+        <v>9</v>
+      </c>
+      <c r="E237" s="6">
+        <v>-120</v>
+      </c>
+      <c r="F237" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G237" t="s">
+        <v>109</v>
+      </c>
+      <c r="H237" t="s">
+        <v>87</v>
+      </c>
+      <c r="I237" t="s">
+        <v>87</v>
+      </c>
+      <c r="K237" s="1">
+        <v>10</v>
+      </c>
+      <c r="L237" s="1"/>
+    </row>
+    <row r="238" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A238" s="4">
+        <v>43784</v>
+      </c>
+      <c r="B238" s="5">
+        <v>11</v>
+      </c>
+      <c r="C238" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D238" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="E238" s="6">
+        <v>215</v>
+      </c>
+      <c r="F238" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G238" t="s">
+        <v>80</v>
+      </c>
+      <c r="H238" t="s">
+        <v>81</v>
+      </c>
+      <c r="I238" t="s">
+        <v>80</v>
+      </c>
+      <c r="K238" s="1"/>
+      <c r="L238" s="1"/>
+    </row>
+    <row r="239" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A239" s="4">
+        <v>43784</v>
+      </c>
+      <c r="B239" s="5">
+        <v>11</v>
+      </c>
+      <c r="C239" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D239" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="E239" s="6">
+        <v>175</v>
+      </c>
+      <c r="F239" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G239" t="s">
+        <v>84</v>
+      </c>
+      <c r="H239" t="s">
+        <v>65</v>
+      </c>
+      <c r="I239" t="s">
+        <v>65</v>
+      </c>
+      <c r="K239" s="1">
+        <v>10</v>
+      </c>
+      <c r="L239" s="1"/>
+    </row>
+    <row r="240" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A240" s="4">
+        <v>43784</v>
+      </c>
+      <c r="B240" s="5">
+        <v>12</v>
+      </c>
+      <c r="C240" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D240" s="6">
+        <v>7</v>
+      </c>
+      <c r="E240" s="6">
+        <v>-110</v>
+      </c>
+      <c r="F240" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="G240" t="s">
+        <v>289</v>
+      </c>
+      <c r="H240" t="s">
+        <v>293</v>
+      </c>
+      <c r="I240" t="s">
+        <v>290</v>
+      </c>
+      <c r="K240" s="1">
+        <v>10</v>
+      </c>
+      <c r="L240" s="1"/>
+    </row>
+    <row r="241" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A241" s="4">
+        <v>43784</v>
+      </c>
+      <c r="B241" s="5">
+        <v>11</v>
+      </c>
+      <c r="C241" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D241" s="6">
+        <v>50</v>
+      </c>
+      <c r="E241" s="6">
+        <v>-110</v>
+      </c>
+      <c r="F241" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G241" t="s">
+        <v>80</v>
+      </c>
+      <c r="H241" t="s">
+        <v>81</v>
+      </c>
+      <c r="I241" t="s">
+        <v>13</v>
+      </c>
+      <c r="K241" s="1">
+        <v>10</v>
+      </c>
+      <c r="L241" s="1"/>
+    </row>
+    <row r="242" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A242" s="4">
+        <v>43784</v>
+      </c>
+      <c r="B242" s="5">
+        <v>11</v>
+      </c>
+      <c r="C242" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D242" s="6">
+        <v>40.5</v>
+      </c>
+      <c r="E242" s="6">
+        <v>-115</v>
+      </c>
+      <c r="F242" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G242" t="s">
+        <v>82</v>
+      </c>
+      <c r="H242" t="s">
+        <v>69</v>
+      </c>
+      <c r="I242" t="s">
+        <v>13</v>
+      </c>
+      <c r="K242" s="1">
+        <v>10</v>
+      </c>
+      <c r="L242" s="1"/>
+    </row>
+    <row r="243" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A243" s="4">
+        <v>43784</v>
+      </c>
+      <c r="B243" s="5">
+        <v>12</v>
+      </c>
+      <c r="C243" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D243" s="6">
+        <v>14</v>
+      </c>
+      <c r="E243" s="6">
+        <v>-120</v>
+      </c>
+      <c r="F243" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="G243" t="s">
+        <v>292</v>
+      </c>
+      <c r="H243" t="s">
+        <v>291</v>
+      </c>
+      <c r="I243" t="s">
+        <v>291</v>
+      </c>
+      <c r="K243" s="1">
+        <v>10</v>
+      </c>
+      <c r="L243" s="1"/>
+    </row>
+    <row r="244" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A244" s="4">
+        <v>43784</v>
+      </c>
+      <c r="B244" s="5">
+        <v>12</v>
+      </c>
+      <c r="C244" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D244" s="6">
+        <v>7</v>
+      </c>
+      <c r="E244" s="6">
+        <v>-110</v>
+      </c>
+      <c r="F244" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="G244" t="s">
+        <v>294</v>
+      </c>
+      <c r="H244" t="s">
+        <v>295</v>
+      </c>
+      <c r="I244" t="s">
+        <v>294</v>
+      </c>
+      <c r="K244" s="1">
+        <v>10</v>
+      </c>
+      <c r="L244" s="1"/>
+    </row>
+    <row r="245" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A245" s="4">
+        <v>43784</v>
+      </c>
+      <c r="B245" s="5">
+        <v>12</v>
+      </c>
+      <c r="C245" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D245" s="6">
+        <v>50</v>
+      </c>
+      <c r="E245" s="6">
+        <v>-110</v>
+      </c>
+      <c r="F245" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="G245" t="s">
+        <v>296</v>
+      </c>
+      <c r="H245" t="s">
+        <v>297</v>
+      </c>
+      <c r="I245" t="s">
+        <v>13</v>
+      </c>
+      <c r="K245" s="1">
+        <v>10</v>
+      </c>
+      <c r="L245" s="1"/>
+    </row>
+    <row r="246" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A246" s="4">
+        <v>43784</v>
+      </c>
+      <c r="B246" s="5">
+        <v>12</v>
+      </c>
+      <c r="C246" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D246" s="6">
+        <v>10</v>
+      </c>
+      <c r="E246" s="6">
+        <v>-105</v>
+      </c>
+      <c r="F246" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="G246" t="s">
+        <v>298</v>
+      </c>
+      <c r="H246" t="s">
+        <v>299</v>
+      </c>
+      <c r="I246" t="s">
+        <v>298</v>
+      </c>
+      <c r="K246" s="1">
+        <v>10</v>
+      </c>
+      <c r="L246" s="1"/>
+    </row>
+    <row r="247" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A247" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B236" s="6"/>
-      <c r="C236" s="6"/>
-      <c r="D236" s="6"/>
-      <c r="E236" s="6"/>
-      <c r="F236" s="6"/>
-      <c r="K236" s="1">
+      <c r="B247" s="6"/>
+      <c r="C247" s="6"/>
+      <c r="D247" s="6"/>
+      <c r="E247" s="6"/>
+      <c r="F247" s="6"/>
+      <c r="K247" s="1">
         <f>SUMIF(Table134[Result],"&lt;&gt;",Table134[Bet Size])</f>
-        <v>3100</v>
-      </c>
-      <c r="L236" s="1">
+        <v>3110</v>
+      </c>
+      <c r="L247" s="1">
         <f>SUMIF(Table134[Result],"&lt;&gt;",Table134[Payout])</f>
-        <v>2969</v>
-      </c>
-    </row>
-    <row r="238" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F238" t="s">
-        <v>288</v>
+        <v>2988.09</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:L1"/>
   </mergeCells>
-  <conditionalFormatting sqref="J44:J50 J1:J42 J52:J83 J87 J89:J90 J92:J93 J107 J109:J112 J96:J104 J117:J154 J178:J182 J156:J176 J185:J197 J199:J235 J237:J1028">
-    <cfRule type="containsText" dxfId="77" priority="55" operator="containsText" text="No Action">
+  <conditionalFormatting sqref="J44:J50 J1:J42 J52:J83 J87 J89:J90 J92:J93 J107 J109:J112 J96:J104 J117:J154 J178:J182 J156:J176 J185:J197 J199:J235 J248:J1039">
+    <cfRule type="containsText" dxfId="75" priority="55" operator="containsText" text="No Action">
       <formula>NOT(ISERROR(SEARCH("No Action",J1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="76" priority="56" operator="containsText" text="Win">
+    <cfRule type="containsText" dxfId="74" priority="56" operator="containsText" text="Win">
       <formula>NOT(ISERROR(SEARCH("Win",J1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="75" priority="57" operator="containsText" text="Loss">
+    <cfRule type="containsText" dxfId="73" priority="57" operator="containsText" text="Loss">
       <formula>NOT(ISERROR(SEARCH("Loss",J1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J43">
-    <cfRule type="containsText" dxfId="74" priority="52" operator="containsText" text="No Action">
+    <cfRule type="containsText" dxfId="72" priority="52" operator="containsText" text="No Action">
       <formula>NOT(ISERROR(SEARCH("No Action",J43)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="73" priority="53" operator="containsText" text="Win">
+    <cfRule type="containsText" dxfId="71" priority="53" operator="containsText" text="Win">
       <formula>NOT(ISERROR(SEARCH("Win",J43)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="72" priority="54" operator="containsText" text="Loss">
+    <cfRule type="containsText" dxfId="70" priority="54" operator="containsText" text="Loss">
       <formula>NOT(ISERROR(SEARCH("Loss",J43)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J51">
-    <cfRule type="containsText" dxfId="71" priority="49" operator="containsText" text="No Action">
+    <cfRule type="containsText" dxfId="69" priority="49" operator="containsText" text="No Action">
       <formula>NOT(ISERROR(SEARCH("No Action",J51)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="70" priority="50" operator="containsText" text="Win">
+    <cfRule type="containsText" dxfId="68" priority="50" operator="containsText" text="Win">
       <formula>NOT(ISERROR(SEARCH("Win",J51)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="69" priority="51" operator="containsText" text="Loss">
+    <cfRule type="containsText" dxfId="67" priority="51" operator="containsText" text="Loss">
       <formula>NOT(ISERROR(SEARCH("Loss",J51)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J84">
-    <cfRule type="containsText" dxfId="68" priority="46" operator="containsText" text="No Action">
+    <cfRule type="containsText" dxfId="66" priority="46" operator="containsText" text="No Action">
       <formula>NOT(ISERROR(SEARCH("No Action",J84)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="67" priority="47" operator="containsText" text="Win">
+    <cfRule type="containsText" dxfId="65" priority="47" operator="containsText" text="Win">
       <formula>NOT(ISERROR(SEARCH("Win",J84)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="66" priority="48" operator="containsText" text="Loss">
+    <cfRule type="containsText" dxfId="64" priority="48" operator="containsText" text="Loss">
       <formula>NOT(ISERROR(SEARCH("Loss",J84)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J85">
-    <cfRule type="containsText" dxfId="65" priority="43" operator="containsText" text="No Action">
+    <cfRule type="containsText" dxfId="63" priority="43" operator="containsText" text="No Action">
       <formula>NOT(ISERROR(SEARCH("No Action",J85)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="64" priority="44" operator="containsText" text="Win">
+    <cfRule type="containsText" dxfId="62" priority="44" operator="containsText" text="Win">
       <formula>NOT(ISERROR(SEARCH("Win",J85)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="63" priority="45" operator="containsText" text="Loss">
+    <cfRule type="containsText" dxfId="61" priority="45" operator="containsText" text="Loss">
       <formula>NOT(ISERROR(SEARCH("Loss",J85)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J86">
-    <cfRule type="containsText" dxfId="62" priority="40" operator="containsText" text="No Action">
+    <cfRule type="containsText" dxfId="60" priority="40" operator="containsText" text="No Action">
       <formula>NOT(ISERROR(SEARCH("No Action",J86)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="61" priority="41" operator="containsText" text="Win">
+    <cfRule type="containsText" dxfId="59" priority="41" operator="containsText" text="Win">
       <formula>NOT(ISERROR(SEARCH("Win",J86)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="60" priority="42" operator="containsText" text="Loss">
+    <cfRule type="containsText" dxfId="58" priority="42" operator="containsText" text="Loss">
       <formula>NOT(ISERROR(SEARCH("Loss",J86)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J88">
-    <cfRule type="containsText" dxfId="59" priority="37" operator="containsText" text="No Action">
+    <cfRule type="containsText" dxfId="57" priority="37" operator="containsText" text="No Action">
       <formula>NOT(ISERROR(SEARCH("No Action",J88)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="58" priority="38" operator="containsText" text="Win">
+    <cfRule type="containsText" dxfId="56" priority="38" operator="containsText" text="Win">
       <formula>NOT(ISERROR(SEARCH("Win",J88)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="57" priority="39" operator="containsText" text="Loss">
+    <cfRule type="containsText" dxfId="55" priority="39" operator="containsText" text="Loss">
       <formula>NOT(ISERROR(SEARCH("Loss",J88)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J91">
-    <cfRule type="containsText" dxfId="56" priority="34" operator="containsText" text="No Action">
+    <cfRule type="containsText" dxfId="54" priority="34" operator="containsText" text="No Action">
       <formula>NOT(ISERROR(SEARCH("No Action",J91)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="55" priority="35" operator="containsText" text="Win">
+    <cfRule type="containsText" dxfId="53" priority="35" operator="containsText" text="Win">
       <formula>NOT(ISERROR(SEARCH("Win",J91)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="54" priority="36" operator="containsText" text="Loss">
+    <cfRule type="containsText" dxfId="52" priority="36" operator="containsText" text="Loss">
       <formula>NOT(ISERROR(SEARCH("Loss",J91)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J105">
-    <cfRule type="containsText" dxfId="53" priority="31" operator="containsText" text="No Action">
+    <cfRule type="containsText" dxfId="51" priority="31" operator="containsText" text="No Action">
       <formula>NOT(ISERROR(SEARCH("No Action",J105)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="32" operator="containsText" text="Win">
+    <cfRule type="containsText" dxfId="50" priority="32" operator="containsText" text="Win">
       <formula>NOT(ISERROR(SEARCH("Win",J105)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="51" priority="33" operator="containsText" text="Loss">
+    <cfRule type="containsText" dxfId="49" priority="33" operator="containsText" text="Loss">
       <formula>NOT(ISERROR(SEARCH("Loss",J105)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J106">
-    <cfRule type="containsText" dxfId="50" priority="28" operator="containsText" text="No Action">
+    <cfRule type="containsText" dxfId="48" priority="28" operator="containsText" text="No Action">
       <formula>NOT(ISERROR(SEARCH("No Action",J106)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="49" priority="29" operator="containsText" text="Win">
+    <cfRule type="containsText" dxfId="47" priority="29" operator="containsText" text="Win">
       <formula>NOT(ISERROR(SEARCH("Win",J106)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="30" operator="containsText" text="Loss">
+    <cfRule type="containsText" dxfId="46" priority="30" operator="containsText" text="Loss">
       <formula>NOT(ISERROR(SEARCH("Loss",J106)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J108">
-    <cfRule type="containsText" dxfId="47" priority="25" operator="containsText" text="No Action">
+    <cfRule type="containsText" dxfId="45" priority="25" operator="containsText" text="No Action">
       <formula>NOT(ISERROR(SEARCH("No Action",J108)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="26" operator="containsText" text="Win">
+    <cfRule type="containsText" dxfId="44" priority="26" operator="containsText" text="Win">
       <formula>NOT(ISERROR(SEARCH("Win",J108)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="27" operator="containsText" text="Loss">
+    <cfRule type="containsText" dxfId="43" priority="27" operator="containsText" text="Loss">
       <formula>NOT(ISERROR(SEARCH("Loss",J108)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J113:J114">
-    <cfRule type="containsText" dxfId="44" priority="22" operator="containsText" text="No Action">
+    <cfRule type="containsText" dxfId="42" priority="22" operator="containsText" text="No Action">
       <formula>NOT(ISERROR(SEARCH("No Action",J113)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="23" operator="containsText" text="Win">
+    <cfRule type="containsText" dxfId="41" priority="23" operator="containsText" text="Win">
       <formula>NOT(ISERROR(SEARCH("Win",J113)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="24" operator="containsText" text="Loss">
+    <cfRule type="containsText" dxfId="40" priority="24" operator="containsText" text="Loss">
       <formula>NOT(ISERROR(SEARCH("Loss",J113)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J115:J116">
-    <cfRule type="containsText" dxfId="41" priority="19" operator="containsText" text="No Action">
+    <cfRule type="containsText" dxfId="39" priority="19" operator="containsText" text="No Action">
       <formula>NOT(ISERROR(SEARCH("No Action",J115)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="20" operator="containsText" text="Win">
+    <cfRule type="containsText" dxfId="38" priority="20" operator="containsText" text="Win">
       <formula>NOT(ISERROR(SEARCH("Win",J115)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="39" priority="21" operator="containsText" text="Loss">
+    <cfRule type="containsText" dxfId="37" priority="21" operator="containsText" text="Loss">
       <formula>NOT(ISERROR(SEARCH("Loss",J115)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J94:J95">
-    <cfRule type="containsText" dxfId="38" priority="16" operator="containsText" text="No Action">
+    <cfRule type="containsText" dxfId="36" priority="16" operator="containsText" text="No Action">
       <formula>NOT(ISERROR(SEARCH("No Action",J94)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="17" operator="containsText" text="Win">
+    <cfRule type="containsText" dxfId="35" priority="17" operator="containsText" text="Win">
       <formula>NOT(ISERROR(SEARCH("Win",J94)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="18" operator="containsText" text="Loss">
+    <cfRule type="containsText" dxfId="34" priority="18" operator="containsText" text="Loss">
       <formula>NOT(ISERROR(SEARCH("Loss",J94)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J155">
-    <cfRule type="containsText" dxfId="35" priority="13" operator="containsText" text="No Action">
+    <cfRule type="containsText" dxfId="33" priority="13" operator="containsText" text="No Action">
       <formula>NOT(ISERROR(SEARCH("No Action",J155)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="14" operator="containsText" text="Win">
+    <cfRule type="containsText" dxfId="32" priority="14" operator="containsText" text="Win">
       <formula>NOT(ISERROR(SEARCH("Win",J155)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="15" operator="containsText" text="Loss">
+    <cfRule type="containsText" dxfId="31" priority="15" operator="containsText" text="Loss">
       <formula>NOT(ISERROR(SEARCH("Loss",J155)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J177">
-    <cfRule type="containsText" dxfId="32" priority="10" operator="containsText" text="No Action">
+    <cfRule type="containsText" dxfId="30" priority="10" operator="containsText" text="No Action">
       <formula>NOT(ISERROR(SEARCH("No Action",J177)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="11" operator="containsText" text="Win">
+    <cfRule type="containsText" dxfId="29" priority="11" operator="containsText" text="Win">
       <formula>NOT(ISERROR(SEARCH("Win",J177)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="12" operator="containsText" text="Loss">
+    <cfRule type="containsText" dxfId="28" priority="12" operator="containsText" text="Loss">
       <formula>NOT(ISERROR(SEARCH("Loss",J177)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J183">
-    <cfRule type="containsText" dxfId="29" priority="7" operator="containsText" text="No Action">
+    <cfRule type="containsText" dxfId="27" priority="7" operator="containsText" text="No Action">
       <formula>NOT(ISERROR(SEARCH("No Action",J183)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="8" operator="containsText" text="Win">
+    <cfRule type="containsText" dxfId="26" priority="8" operator="containsText" text="Win">
       <formula>NOT(ISERROR(SEARCH("Win",J183)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="9" operator="containsText" text="Loss">
+    <cfRule type="containsText" dxfId="25" priority="9" operator="containsText" text="Loss">
       <formula>NOT(ISERROR(SEARCH("Loss",J183)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J184">
-    <cfRule type="containsText" dxfId="26" priority="4" operator="containsText" text="No Action">
+    <cfRule type="containsText" dxfId="24" priority="4" operator="containsText" text="No Action">
       <formula>NOT(ISERROR(SEARCH("No Action",J184)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="5" operator="containsText" text="Win">
+    <cfRule type="containsText" dxfId="23" priority="5" operator="containsText" text="Win">
       <formula>NOT(ISERROR(SEARCH("Win",J184)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="6" operator="containsText" text="Loss">
+    <cfRule type="containsText" dxfId="22" priority="6" operator="containsText" text="Loss">
       <formula>NOT(ISERROR(SEARCH("Loss",J184)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J198">
-    <cfRule type="containsText" dxfId="23" priority="1" operator="containsText" text="No Action">
+    <cfRule type="containsText" dxfId="21" priority="1" operator="containsText" text="No Action">
       <formula>NOT(ISERROR(SEARCH("No Action",J198)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="2" operator="containsText" text="Win">
+    <cfRule type="containsText" dxfId="20" priority="2" operator="containsText" text="Win">
       <formula>NOT(ISERROR(SEARCH("Win",J198)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="3" operator="containsText" text="Loss">
+    <cfRule type="containsText" dxfId="19" priority="3" operator="containsText" text="Loss">
       <formula>NOT(ISERROR(SEARCH("Loss",J198)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11223,10 +11615,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K78"/>
+  <dimension ref="A1:K80"/>
   <sheetViews>
-    <sheetView topLeftCell="A50" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K78" sqref="K78"/>
+    <sheetView topLeftCell="A54" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A80" sqref="A80:XFD80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11237,7 +11629,7 @@
     <col min="4" max="4" width="7.7109375" customWidth="1"/>
     <col min="5" max="5" width="9.42578125" customWidth="1"/>
     <col min="6" max="6" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="24.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.42578125" bestFit="1" customWidth="1"/>
@@ -13917,14 +14309,74 @@
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+      <c r="A78" s="2">
+        <v>43784</v>
+      </c>
+      <c r="B78" t="s">
+        <v>9</v>
+      </c>
+      <c r="C78">
+        <v>220.5</v>
+      </c>
+      <c r="D78">
+        <v>-110</v>
+      </c>
+      <c r="E78" t="s">
+        <v>155</v>
+      </c>
+      <c r="F78" t="s">
+        <v>182</v>
+      </c>
+      <c r="G78" t="s">
+        <v>288</v>
+      </c>
+      <c r="H78" t="s">
+        <v>66</v>
+      </c>
+      <c r="J78" s="1">
+        <v>10</v>
+      </c>
+      <c r="K78" s="1"/>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A79" s="2">
+        <v>43784</v>
+      </c>
+      <c r="B79" t="s">
+        <v>9</v>
+      </c>
+      <c r="C79">
+        <v>214.5</v>
+      </c>
+      <c r="D79">
+        <v>-110</v>
+      </c>
+      <c r="E79" t="s">
+        <v>155</v>
+      </c>
+      <c r="F79" t="s">
+        <v>193</v>
+      </c>
+      <c r="G79" t="s">
+        <v>181</v>
+      </c>
+      <c r="H79" t="s">
+        <v>13</v>
+      </c>
+      <c r="J79" s="1">
+        <v>10</v>
+      </c>
+      <c r="K79" s="1"/>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
         <v>51</v>
       </c>
-      <c r="J78" s="1">
+      <c r="J80" s="1">
         <f>SUMIF(Table4[Result],"&lt;&gt;",Table4[Bet Size])</f>
         <v>790</v>
       </c>
-      <c r="K78" s="1">
+      <c r="K80" s="1">
         <f>SUMIF(Table4[Result],"&lt;&gt;",Table4[Payout])</f>
         <v>717.26000000000022</v>
       </c>
@@ -13933,14 +14385,14 @@
   <mergeCells count="1">
     <mergeCell ref="A1:K1"/>
   </mergeCells>
-  <conditionalFormatting sqref="I3:I77 I79:I159">
-    <cfRule type="containsText" dxfId="20" priority="21" operator="containsText" text="Win">
+  <conditionalFormatting sqref="I3:I79 I81:I161">
+    <cfRule type="containsText" dxfId="18" priority="21" operator="containsText" text="Win">
       <formula>NOT(ISERROR(SEARCH("Win",I3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="22" operator="containsText" text="Loss">
+    <cfRule type="containsText" dxfId="17" priority="22" operator="containsText" text="Loss">
       <formula>NOT(ISERROR(SEARCH("Loss",I3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="23" operator="containsText" text="No Action">
+    <cfRule type="containsText" dxfId="16" priority="23" operator="containsText" text="No Action">
       <formula>NOT(ISERROR(SEARCH("No Action",I3)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14935,10 +15387,10 @@
     <mergeCell ref="A1:I1"/>
   </mergeCells>
   <conditionalFormatting sqref="J34">
-    <cfRule type="cellIs" dxfId="17" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="14" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
     <cfRule type="colorScale" priority="3">
@@ -14953,13 +15405,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="containsText" dxfId="15" priority="4" operator="containsText" text="No Action">
+    <cfRule type="containsText" dxfId="13" priority="4" operator="containsText" text="No Action">
       <formula>NOT(ISERROR(SEARCH("No Action",G1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="5" operator="containsText" text="Win">
+    <cfRule type="containsText" dxfId="12" priority="5" operator="containsText" text="Win">
       <formula>NOT(ISERROR(SEARCH("Win",G1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="6" operator="containsText" text="Loss">
+    <cfRule type="containsText" dxfId="11" priority="6" operator="containsText" text="Loss">
       <formula>NOT(ISERROR(SEARCH("Loss",G1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15075,13 +15527,13 @@
     <mergeCell ref="A1:J1"/>
   </mergeCells>
   <conditionalFormatting sqref="H1:H3">
-    <cfRule type="containsText" dxfId="12" priority="1" operator="containsText" text="No Action">
+    <cfRule type="containsText" dxfId="10" priority="1" operator="containsText" text="No Action">
       <formula>NOT(ISERROR(SEARCH("No Action",H1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="2" operator="containsText" text="Win">
+    <cfRule type="containsText" dxfId="9" priority="2" operator="containsText" text="Win">
       <formula>NOT(ISERROR(SEARCH("Win",H1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="3" operator="containsText" text="Loss">
+    <cfRule type="containsText" dxfId="8" priority="3" operator="containsText" text="Loss">
       <formula>NOT(ISERROR(SEARCH("Loss",H1)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/SportsBettingLogs.xlsx
+++ b/SportsBettingLogs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Summary Tab" sheetId="4" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2127" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2217" uniqueCount="308">
   <si>
     <t>Bet Type</t>
   </si>
@@ -928,6 +928,30 @@
   </si>
   <si>
     <t>Air Force</t>
+  </si>
+  <si>
+    <t>Ronald Jones</t>
+  </si>
+  <si>
+    <t>Jacoby Brissett</t>
+  </si>
+  <si>
+    <t>Dak Prescott</t>
+  </si>
+  <si>
+    <t>Sony Michel</t>
+  </si>
+  <si>
+    <t>Rushing and Receiving Yards</t>
+  </si>
+  <si>
+    <t>Drew Brees</t>
+  </si>
+  <si>
+    <t>Mississippi State</t>
+  </si>
+  <si>
+    <t>11/172019</t>
   </si>
 </sst>
 </file>
@@ -1019,7 +1043,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="97">
+  <dxfs count="49">
     <dxf>
       <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     </dxf>
@@ -1043,6 +1067,42 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1186,26 +1246,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
@@ -1233,502 +1273,6 @@
           <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
@@ -1803,26 +1347,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table134" displayName="Table134" ref="A2:L247" totalsRowCount="1">
-  <autoFilter ref="A2:L246"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table134" displayName="Table134" ref="A2:L256" totalsRowCount="1">
+  <autoFilter ref="A2:L255"/>
   <sortState ref="A3:L235">
     <sortCondition ref="A2:A235"/>
   </sortState>
   <tableColumns count="12">
-    <tableColumn id="17" name="Date Placed" totalsRowLabel="Total" dataDxfId="96" totalsRowDxfId="7"/>
-    <tableColumn id="11" name="NFL Week" dataDxfId="95" totalsRowDxfId="6"/>
-    <tableColumn id="1" name="Bet Type" dataDxfId="94" totalsRowDxfId="5"/>
-    <tableColumn id="10" name="Points" dataDxfId="93" totalsRowDxfId="4"/>
-    <tableColumn id="2" name="Odds" dataDxfId="92" totalsRowDxfId="3"/>
-    <tableColumn id="9" name="League" dataDxfId="91" totalsRowDxfId="2"/>
+    <tableColumn id="17" name="Date Placed" totalsRowLabel="Total" dataDxfId="48" totalsRowDxfId="7"/>
+    <tableColumn id="11" name="NFL Week" dataDxfId="47" totalsRowDxfId="6"/>
+    <tableColumn id="1" name="Bet Type" dataDxfId="46" totalsRowDxfId="5"/>
+    <tableColumn id="10" name="Points" dataDxfId="45" totalsRowDxfId="4"/>
+    <tableColumn id="2" name="Odds" dataDxfId="44" totalsRowDxfId="3"/>
+    <tableColumn id="9" name="League" dataDxfId="43" totalsRowDxfId="2"/>
     <tableColumn id="3" name="Home Team"/>
     <tableColumn id="4" name="Away Team"/>
     <tableColumn id="5" name="Outcome Chosen"/>
     <tableColumn id="6" name="Result"/>
-    <tableColumn id="7" name="Bet Size" totalsRowFunction="custom" dataDxfId="90" totalsRowDxfId="1">
+    <tableColumn id="7" name="Bet Size" totalsRowFunction="custom" dataDxfId="42" totalsRowDxfId="1">
       <totalsRowFormula>SUMIF(Table134[Result],"&lt;&gt;",Table134[Bet Size])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" name="Payout" totalsRowFunction="custom" dataDxfId="89" totalsRowDxfId="0">
+    <tableColumn id="8" name="Payout" totalsRowFunction="custom" dataDxfId="41" totalsRowDxfId="0">
       <totalsRowFormula>SUMIF(Table134[Result],"&lt;&gt;",Table134[Payout])</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -1831,13 +1375,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A2:K80" totalsRowCount="1">
-  <autoFilter ref="A2:K79"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A2:K82" totalsRowCount="1">
+  <autoFilter ref="A2:K81"/>
   <sortState ref="A3:K64">
     <sortCondition ref="A2:A64"/>
   </sortState>
   <tableColumns count="11">
-    <tableColumn id="1" name="Date Placed" totalsRowLabel="Total" dataDxfId="88"/>
+    <tableColumn id="1" name="Date Placed" totalsRowLabel="Total" dataDxfId="40"/>
     <tableColumn id="2" name="Bet Type"/>
     <tableColumn id="3" name="Points"/>
     <tableColumn id="4" name="Odds"/>
@@ -1846,10 +1390,10 @@
     <tableColumn id="7" name="Away Team"/>
     <tableColumn id="8" name="Outcome Chosen"/>
     <tableColumn id="9" name="Result"/>
-    <tableColumn id="10" name="Bet Size" totalsRowFunction="custom" dataDxfId="87" totalsRowDxfId="77">
+    <tableColumn id="10" name="Bet Size" totalsRowFunction="custom" dataDxfId="39" totalsRowDxfId="9">
       <totalsRowFormula>SUMIF(Table4[Result],"&lt;&gt;",Table4[Bet Size])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="11" name="Payout" totalsRowFunction="custom" dataDxfId="86" totalsRowDxfId="76">
+    <tableColumn id="11" name="Payout" totalsRowFunction="custom" dataDxfId="38" totalsRowDxfId="8">
       <totalsRowFormula>SUMIF(Table4[Result],"&lt;&gt;",Table4[Payout])</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -1864,17 +1408,17 @@
     <sortCondition ref="A2:A27"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="17" name="Date" totalsRowLabel="Total" dataDxfId="85"/>
+    <tableColumn id="17" name="Date" totalsRowLabel="Total" dataDxfId="37"/>
     <tableColumn id="1" name="Bet Type"/>
     <tableColumn id="2" name="Odds"/>
     <tableColumn id="3" name="Team 1"/>
     <tableColumn id="4" name="Team 2"/>
     <tableColumn id="5" name="Outcome Chosen"/>
     <tableColumn id="6" name="Result"/>
-    <tableColumn id="7" name="Bet Size" totalsRowFunction="custom" dataDxfId="84" totalsRowDxfId="83">
+    <tableColumn id="7" name="Bet Size" totalsRowFunction="custom" dataDxfId="36" totalsRowDxfId="35">
       <totalsRowFormula>SUMIF(Table1[Result],"&lt;&gt;",Table1[Bet Size])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" name="Payout" totalsRowFunction="custom" dataDxfId="82" totalsRowDxfId="81">
+    <tableColumn id="8" name="Payout" totalsRowFunction="custom" dataDxfId="34" totalsRowDxfId="33">
       <totalsRowFormula>SUMIF(Table1[Result],"&lt;&gt;",Table1[Payout])</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -1886,7 +1430,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A2:J3" totalsRowShown="0">
   <autoFilter ref="A2:J3"/>
   <tableColumns count="10">
-    <tableColumn id="17" name="Date" dataDxfId="80"/>
+    <tableColumn id="17" name="Date" dataDxfId="32"/>
     <tableColumn id="1" name="Bet Type"/>
     <tableColumn id="2" name="Odds"/>
     <tableColumn id="9" name="League"/>
@@ -1894,8 +1438,8 @@
     <tableColumn id="4" name="Team 2"/>
     <tableColumn id="5" name="Outcome Chosen"/>
     <tableColumn id="6" name="Result"/>
-    <tableColumn id="7" name="Bet Size" dataDxfId="79"/>
-    <tableColumn id="8" name="Payout" dataDxfId="78"/>
+    <tableColumn id="7" name="Bet Size" dataDxfId="31"/>
+    <tableColumn id="8" name="Payout" dataDxfId="30"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2210,10 +1754,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L247"/>
+  <dimension ref="A1:L256"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A222" zoomScale="74" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="H243" sqref="H243"/>
+    <sheetView tabSelected="1" topLeftCell="A235" zoomScale="74" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="L230" sqref="L230"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10708,10 +10252,15 @@
       <c r="I226" t="s">
         <v>60</v>
       </c>
+      <c r="J226" t="s">
+        <v>29</v>
+      </c>
       <c r="K226" s="1">
         <v>10</v>
       </c>
-      <c r="L226" s="1"/>
+      <c r="L226" s="1">
+        <v>19.09</v>
+      </c>
     </row>
     <row r="227" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A227" s="4">
@@ -10741,10 +10290,15 @@
       <c r="I227" t="s">
         <v>77</v>
       </c>
+      <c r="J227" t="s">
+        <v>23</v>
+      </c>
       <c r="K227" s="1">
         <v>10</v>
       </c>
-      <c r="L227" s="1"/>
+      <c r="L227" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="228" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A228" s="4">
@@ -10812,10 +10366,15 @@
       <c r="I229" t="s">
         <v>103</v>
       </c>
+      <c r="J229" t="s">
+        <v>29</v>
+      </c>
       <c r="K229" s="1">
         <v>10</v>
       </c>
-      <c r="L229" s="1"/>
+      <c r="L229" s="1">
+        <v>18.7</v>
+      </c>
     </row>
     <row r="230" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A230" s="4">
@@ -10845,10 +10404,15 @@
       <c r="I230" t="s">
         <v>13</v>
       </c>
+      <c r="J230" t="s">
+        <v>29</v>
+      </c>
       <c r="K230" s="1">
         <v>10</v>
       </c>
-      <c r="L230" s="1"/>
+      <c r="L230" s="1">
+        <v>19.09</v>
+      </c>
     </row>
     <row r="231" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A231" s="4">
@@ -10878,10 +10442,15 @@
       <c r="I231" t="s">
         <v>87</v>
       </c>
+      <c r="J231" t="s">
+        <v>23</v>
+      </c>
       <c r="K231" s="1">
         <v>10</v>
       </c>
-      <c r="L231" s="1"/>
+      <c r="L231" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="232" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A232" s="4">
@@ -10911,10 +10480,15 @@
       <c r="I232" t="s">
         <v>65</v>
       </c>
+      <c r="J232" t="s">
+        <v>29</v>
+      </c>
       <c r="K232" s="1">
         <v>10</v>
       </c>
-      <c r="L232" s="1"/>
+      <c r="L232" s="1">
+        <v>18.329999999999998</v>
+      </c>
     </row>
     <row r="233" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A233" s="4">
@@ -10944,10 +10518,15 @@
       <c r="I233" t="s">
         <v>80</v>
       </c>
+      <c r="J233" t="s">
+        <v>23</v>
+      </c>
       <c r="K233" s="1">
         <v>10</v>
       </c>
-      <c r="L233" s="1"/>
+      <c r="L233" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="234" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A234" s="4">
@@ -10977,10 +10556,15 @@
       <c r="I234" t="s">
         <v>63</v>
       </c>
+      <c r="J234" t="s">
+        <v>29</v>
+      </c>
       <c r="K234" s="1">
         <v>10</v>
       </c>
-      <c r="L234" s="1"/>
+      <c r="L234" s="1">
+        <v>19.52</v>
+      </c>
     </row>
     <row r="235" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A235" s="4">
@@ -11010,10 +10594,15 @@
       <c r="I235" t="s">
         <v>13</v>
       </c>
+      <c r="J235" t="s">
+        <v>29</v>
+      </c>
       <c r="K235" s="1">
         <v>10</v>
       </c>
-      <c r="L235" s="1"/>
+      <c r="L235" s="1">
+        <v>19.09</v>
+      </c>
     </row>
     <row r="236" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A236" s="4">
@@ -11043,6 +10632,9 @@
       <c r="I236" t="s">
         <v>63</v>
       </c>
+      <c r="J236" t="s">
+        <v>29</v>
+      </c>
       <c r="K236" s="1"/>
       <c r="L236" s="1"/>
     </row>
@@ -11074,10 +10666,15 @@
       <c r="I237" t="s">
         <v>87</v>
       </c>
+      <c r="J237" t="s">
+        <v>23</v>
+      </c>
       <c r="K237" s="1">
         <v>10</v>
       </c>
-      <c r="L237" s="1"/>
+      <c r="L237" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="238" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A238" s="4">
@@ -11107,6 +10704,9 @@
       <c r="I238" t="s">
         <v>80</v>
       </c>
+      <c r="J238" t="s">
+        <v>23</v>
+      </c>
       <c r="K238" s="1"/>
       <c r="L238" s="1"/>
     </row>
@@ -11138,10 +10738,15 @@
       <c r="I239" t="s">
         <v>65</v>
       </c>
+      <c r="J239" t="s">
+        <v>29</v>
+      </c>
       <c r="K239" s="1">
         <v>10</v>
       </c>
-      <c r="L239" s="1"/>
+      <c r="L239" s="1">
+        <v>18.329999999999998</v>
+      </c>
     </row>
     <row r="240" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A240" s="4">
@@ -11171,10 +10776,15 @@
       <c r="I240" t="s">
         <v>290</v>
       </c>
+      <c r="J240" t="s">
+        <v>23</v>
+      </c>
       <c r="K240" s="1">
         <v>10</v>
       </c>
-      <c r="L240" s="1"/>
+      <c r="L240" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="241" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A241" s="4">
@@ -11204,10 +10814,15 @@
       <c r="I241" t="s">
         <v>13</v>
       </c>
+      <c r="J241" t="s">
+        <v>23</v>
+      </c>
       <c r="K241" s="1">
         <v>10</v>
       </c>
-      <c r="L241" s="1"/>
+      <c r="L241" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="242" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A242" s="4">
@@ -11237,10 +10852,15 @@
       <c r="I242" t="s">
         <v>13</v>
       </c>
+      <c r="J242" t="s">
+        <v>23</v>
+      </c>
       <c r="K242" s="1">
         <v>10</v>
       </c>
-      <c r="L242" s="1"/>
+      <c r="L242" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="243" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A243" s="4">
@@ -11270,10 +10890,15 @@
       <c r="I243" t="s">
         <v>291</v>
       </c>
+      <c r="J243" t="s">
+        <v>29</v>
+      </c>
       <c r="K243" s="1">
         <v>10</v>
       </c>
-      <c r="L243" s="1"/>
+      <c r="L243" s="1">
+        <v>18.329999999999998</v>
+      </c>
     </row>
     <row r="244" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A244" s="4">
@@ -11303,10 +10928,15 @@
       <c r="I244" t="s">
         <v>294</v>
       </c>
+      <c r="J244" t="s">
+        <v>23</v>
+      </c>
       <c r="K244" s="1">
         <v>10</v>
       </c>
-      <c r="L244" s="1"/>
+      <c r="L244" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="245" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A245" s="4">
@@ -11336,10 +10966,15 @@
       <c r="I245" t="s">
         <v>13</v>
       </c>
+      <c r="J245" t="s">
+        <v>29</v>
+      </c>
       <c r="K245" s="1">
         <v>10</v>
       </c>
-      <c r="L245" s="1"/>
+      <c r="L245" s="1">
+        <v>19.09</v>
+      </c>
     </row>
     <row r="246" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A246" s="4">
@@ -11369,240 +11004,389 @@
       <c r="I246" t="s">
         <v>298</v>
       </c>
+      <c r="J246" t="s">
+        <v>23</v>
+      </c>
       <c r="K246" s="1">
         <v>10</v>
       </c>
-      <c r="L246" s="1"/>
+      <c r="L246" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="247" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A247" s="6" t="s">
+      <c r="A247" s="4">
+        <v>43786</v>
+      </c>
+      <c r="B247" s="5">
+        <v>11</v>
+      </c>
+      <c r="C247" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D247" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="E247" s="6">
+        <v>-125</v>
+      </c>
+      <c r="F247" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G247" t="s">
+        <v>300</v>
+      </c>
+      <c r="H247" t="s">
+        <v>135</v>
+      </c>
+      <c r="I247" t="s">
+        <v>66</v>
+      </c>
+      <c r="J247" t="s">
+        <v>23</v>
+      </c>
+      <c r="K247" s="1">
+        <v>10</v>
+      </c>
+      <c r="L247" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A248" s="4">
+        <v>43786</v>
+      </c>
+      <c r="B248" s="5">
+        <v>11</v>
+      </c>
+      <c r="C248" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D248" s="6">
+        <v>18.5</v>
+      </c>
+      <c r="E248" s="6">
+        <v>-130</v>
+      </c>
+      <c r="F248" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G248" t="s">
+        <v>300</v>
+      </c>
+      <c r="H248" t="s">
+        <v>119</v>
+      </c>
+      <c r="I248" t="s">
+        <v>66</v>
+      </c>
+      <c r="J248" t="s">
+        <v>23</v>
+      </c>
+      <c r="K248" s="1">
+        <v>10</v>
+      </c>
+      <c r="L248" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A249" s="4">
+        <v>43786</v>
+      </c>
+      <c r="B249" s="5">
+        <v>11</v>
+      </c>
+      <c r="C249" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D249" s="6">
+        <v>10.5</v>
+      </c>
+      <c r="E249" s="6">
+        <v>-150</v>
+      </c>
+      <c r="F249" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G249" t="s">
+        <v>301</v>
+      </c>
+      <c r="H249" t="s">
+        <v>118</v>
+      </c>
+      <c r="I249" t="s">
+        <v>13</v>
+      </c>
+      <c r="J249" t="s">
+        <v>23</v>
+      </c>
+      <c r="K249" s="1">
+        <v>10</v>
+      </c>
+      <c r="L249" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A250" s="4">
+        <v>43786</v>
+      </c>
+      <c r="B250" s="5">
+        <v>11</v>
+      </c>
+      <c r="C250" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D250" s="6">
+        <v>270.5</v>
+      </c>
+      <c r="E250" s="6">
+        <v>-115</v>
+      </c>
+      <c r="F250" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G250" t="s">
+        <v>302</v>
+      </c>
+      <c r="H250" t="s">
+        <v>116</v>
+      </c>
+      <c r="I250" t="s">
+        <v>66</v>
+      </c>
+      <c r="J250" t="s">
+        <v>29</v>
+      </c>
+      <c r="K250" s="1">
+        <v>10</v>
+      </c>
+      <c r="L250" s="1">
+        <v>18.7</v>
+      </c>
+    </row>
+    <row r="251" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A251" s="4">
+        <v>43786</v>
+      </c>
+      <c r="B251" s="5">
+        <v>11</v>
+      </c>
+      <c r="C251" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D251" s="6">
+        <v>275.5</v>
+      </c>
+      <c r="E251" s="6">
+        <v>-115</v>
+      </c>
+      <c r="F251" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G251" t="s">
+        <v>105</v>
+      </c>
+      <c r="H251" t="s">
+        <v>116</v>
+      </c>
+      <c r="I251" t="s">
+        <v>66</v>
+      </c>
+      <c r="J251" t="s">
+        <v>29</v>
+      </c>
+      <c r="K251" s="1">
+        <v>10</v>
+      </c>
+      <c r="L251" s="1">
+        <v>18.7</v>
+      </c>
+    </row>
+    <row r="252" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A252" s="4">
+        <v>43786</v>
+      </c>
+      <c r="B252" s="5">
+        <v>11</v>
+      </c>
+      <c r="C252" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D252" s="6">
+        <v>315.5</v>
+      </c>
+      <c r="E252" s="6">
+        <v>-105</v>
+      </c>
+      <c r="F252" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G252" t="s">
+        <v>305</v>
+      </c>
+      <c r="H252" t="s">
+        <v>116</v>
+      </c>
+      <c r="I252" t="s">
+        <v>13</v>
+      </c>
+      <c r="J252" t="s">
+        <v>29</v>
+      </c>
+      <c r="K252" s="1">
+        <v>10</v>
+      </c>
+      <c r="L252" s="1">
+        <v>19.52</v>
+      </c>
+    </row>
+    <row r="253" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A253" s="4">
+        <v>43786</v>
+      </c>
+      <c r="B253" s="5">
+        <v>11</v>
+      </c>
+      <c r="C253" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D253" s="6">
+        <v>50.5</v>
+      </c>
+      <c r="E253" s="6">
+        <v>-115</v>
+      </c>
+      <c r="F253" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G253" t="s">
+        <v>303</v>
+      </c>
+      <c r="H253" t="s">
+        <v>304</v>
+      </c>
+      <c r="I253" t="s">
+        <v>66</v>
+      </c>
+      <c r="J253" t="s">
+        <v>23</v>
+      </c>
+      <c r="K253" s="1">
+        <v>10</v>
+      </c>
+      <c r="L253" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A254" s="4">
+        <v>43786</v>
+      </c>
+      <c r="B254" s="5">
+        <v>11</v>
+      </c>
+      <c r="C254" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D254" s="6">
+        <v>8.5</v>
+      </c>
+      <c r="E254" s="6">
+        <v>-115</v>
+      </c>
+      <c r="F254" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G254" t="s">
+        <v>203</v>
+      </c>
+      <c r="H254" t="s">
+        <v>118</v>
+      </c>
+      <c r="I254" t="s">
+        <v>66</v>
+      </c>
+      <c r="J254" t="s">
+        <v>23</v>
+      </c>
+      <c r="K254" s="1">
+        <v>10</v>
+      </c>
+      <c r="L254" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A255" s="4">
+        <v>43785</v>
+      </c>
+      <c r="B255" s="5">
+        <v>12</v>
+      </c>
+      <c r="C255" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D255" s="6">
+        <v>19</v>
+      </c>
+      <c r="E255" s="6">
+        <v>-110</v>
+      </c>
+      <c r="F255" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="G255" t="s">
+        <v>306</v>
+      </c>
+      <c r="H255" t="s">
+        <v>243</v>
+      </c>
+      <c r="I255" t="s">
+        <v>306</v>
+      </c>
+      <c r="J255" t="s">
+        <v>23</v>
+      </c>
+      <c r="K255" s="1">
+        <v>10</v>
+      </c>
+      <c r="L255" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A256" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B247" s="6"/>
-      <c r="C247" s="6"/>
-      <c r="D247" s="6"/>
-      <c r="E247" s="6"/>
-      <c r="F247" s="6"/>
-      <c r="K247" s="1">
+      <c r="B256" s="6"/>
+      <c r="C256" s="6"/>
+      <c r="D256" s="6"/>
+      <c r="E256" s="6"/>
+      <c r="F256" s="6"/>
+      <c r="K256" s="1">
         <f>SUMIF(Table134[Result],"&lt;&gt;",Table134[Bet Size])</f>
-        <v>3110</v>
-      </c>
-      <c r="L247" s="1">
+        <v>3380</v>
+      </c>
+      <c r="L256" s="1">
         <f>SUMIF(Table134[Result],"&lt;&gt;",Table134[Payout])</f>
-        <v>2988.09</v>
+        <v>3214.58</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:L1"/>
   </mergeCells>
-  <conditionalFormatting sqref="J44:J50 J1:J42 J52:J83 J87 J89:J90 J92:J93 J107 J109:J112 J96:J104 J117:J154 J178:J182 J156:J176 J185:J197 J199:J235 J248:J1039">
-    <cfRule type="containsText" dxfId="75" priority="55" operator="containsText" text="No Action">
+  <conditionalFormatting sqref="J1:J1001">
+    <cfRule type="containsText" dxfId="26" priority="55" operator="containsText" text="No Action">
       <formula>NOT(ISERROR(SEARCH("No Action",J1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="74" priority="56" operator="containsText" text="Win">
+    <cfRule type="containsText" dxfId="25" priority="56" operator="containsText" text="Win">
       <formula>NOT(ISERROR(SEARCH("Win",J1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="73" priority="57" operator="containsText" text="Loss">
+    <cfRule type="containsText" dxfId="24" priority="57" operator="containsText" text="Loss">
       <formula>NOT(ISERROR(SEARCH("Loss",J1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J43">
-    <cfRule type="containsText" dxfId="72" priority="52" operator="containsText" text="No Action">
-      <formula>NOT(ISERROR(SEARCH("No Action",J43)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="71" priority="53" operator="containsText" text="Win">
-      <formula>NOT(ISERROR(SEARCH("Win",J43)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="70" priority="54" operator="containsText" text="Loss">
-      <formula>NOT(ISERROR(SEARCH("Loss",J43)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J51">
-    <cfRule type="containsText" dxfId="69" priority="49" operator="containsText" text="No Action">
-      <formula>NOT(ISERROR(SEARCH("No Action",J51)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="68" priority="50" operator="containsText" text="Win">
-      <formula>NOT(ISERROR(SEARCH("Win",J51)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="67" priority="51" operator="containsText" text="Loss">
-      <formula>NOT(ISERROR(SEARCH("Loss",J51)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J84">
-    <cfRule type="containsText" dxfId="66" priority="46" operator="containsText" text="No Action">
-      <formula>NOT(ISERROR(SEARCH("No Action",J84)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="65" priority="47" operator="containsText" text="Win">
-      <formula>NOT(ISERROR(SEARCH("Win",J84)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="64" priority="48" operator="containsText" text="Loss">
-      <formula>NOT(ISERROR(SEARCH("Loss",J84)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J85">
-    <cfRule type="containsText" dxfId="63" priority="43" operator="containsText" text="No Action">
-      <formula>NOT(ISERROR(SEARCH("No Action",J85)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="62" priority="44" operator="containsText" text="Win">
-      <formula>NOT(ISERROR(SEARCH("Win",J85)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="61" priority="45" operator="containsText" text="Loss">
-      <formula>NOT(ISERROR(SEARCH("Loss",J85)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J86">
-    <cfRule type="containsText" dxfId="60" priority="40" operator="containsText" text="No Action">
-      <formula>NOT(ISERROR(SEARCH("No Action",J86)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="59" priority="41" operator="containsText" text="Win">
-      <formula>NOT(ISERROR(SEARCH("Win",J86)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="58" priority="42" operator="containsText" text="Loss">
-      <formula>NOT(ISERROR(SEARCH("Loss",J86)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J88">
-    <cfRule type="containsText" dxfId="57" priority="37" operator="containsText" text="No Action">
-      <formula>NOT(ISERROR(SEARCH("No Action",J88)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="56" priority="38" operator="containsText" text="Win">
-      <formula>NOT(ISERROR(SEARCH("Win",J88)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="55" priority="39" operator="containsText" text="Loss">
-      <formula>NOT(ISERROR(SEARCH("Loss",J88)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J91">
-    <cfRule type="containsText" dxfId="54" priority="34" operator="containsText" text="No Action">
-      <formula>NOT(ISERROR(SEARCH("No Action",J91)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="53" priority="35" operator="containsText" text="Win">
-      <formula>NOT(ISERROR(SEARCH("Win",J91)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="36" operator="containsText" text="Loss">
-      <formula>NOT(ISERROR(SEARCH("Loss",J91)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J105">
-    <cfRule type="containsText" dxfId="51" priority="31" operator="containsText" text="No Action">
-      <formula>NOT(ISERROR(SEARCH("No Action",J105)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="32" operator="containsText" text="Win">
-      <formula>NOT(ISERROR(SEARCH("Win",J105)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="49" priority="33" operator="containsText" text="Loss">
-      <formula>NOT(ISERROR(SEARCH("Loss",J105)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J106">
-    <cfRule type="containsText" dxfId="48" priority="28" operator="containsText" text="No Action">
-      <formula>NOT(ISERROR(SEARCH("No Action",J106)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="47" priority="29" operator="containsText" text="Win">
-      <formula>NOT(ISERROR(SEARCH("Win",J106)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="30" operator="containsText" text="Loss">
-      <formula>NOT(ISERROR(SEARCH("Loss",J106)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J108">
-    <cfRule type="containsText" dxfId="45" priority="25" operator="containsText" text="No Action">
-      <formula>NOT(ISERROR(SEARCH("No Action",J108)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="44" priority="26" operator="containsText" text="Win">
-      <formula>NOT(ISERROR(SEARCH("Win",J108)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="27" operator="containsText" text="Loss">
-      <formula>NOT(ISERROR(SEARCH("Loss",J108)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J113:J114">
-    <cfRule type="containsText" dxfId="42" priority="22" operator="containsText" text="No Action">
-      <formula>NOT(ISERROR(SEARCH("No Action",J113)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="41" priority="23" operator="containsText" text="Win">
-      <formula>NOT(ISERROR(SEARCH("Win",J113)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="24" operator="containsText" text="Loss">
-      <formula>NOT(ISERROR(SEARCH("Loss",J113)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J115:J116">
-    <cfRule type="containsText" dxfId="39" priority="19" operator="containsText" text="No Action">
-      <formula>NOT(ISERROR(SEARCH("No Action",J115)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="20" operator="containsText" text="Win">
-      <formula>NOT(ISERROR(SEARCH("Win",J115)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="21" operator="containsText" text="Loss">
-      <formula>NOT(ISERROR(SEARCH("Loss",J115)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J94:J95">
-    <cfRule type="containsText" dxfId="36" priority="16" operator="containsText" text="No Action">
-      <formula>NOT(ISERROR(SEARCH("No Action",J94)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="35" priority="17" operator="containsText" text="Win">
-      <formula>NOT(ISERROR(SEARCH("Win",J94)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="18" operator="containsText" text="Loss">
-      <formula>NOT(ISERROR(SEARCH("Loss",J94)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J155">
-    <cfRule type="containsText" dxfId="33" priority="13" operator="containsText" text="No Action">
-      <formula>NOT(ISERROR(SEARCH("No Action",J155)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="14" operator="containsText" text="Win">
-      <formula>NOT(ISERROR(SEARCH("Win",J155)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="15" operator="containsText" text="Loss">
-      <formula>NOT(ISERROR(SEARCH("Loss",J155)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J177">
-    <cfRule type="containsText" dxfId="30" priority="10" operator="containsText" text="No Action">
-      <formula>NOT(ISERROR(SEARCH("No Action",J177)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="11" operator="containsText" text="Win">
-      <formula>NOT(ISERROR(SEARCH("Win",J177)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="12" operator="containsText" text="Loss">
-      <formula>NOT(ISERROR(SEARCH("Loss",J177)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J183">
-    <cfRule type="containsText" dxfId="27" priority="7" operator="containsText" text="No Action">
-      <formula>NOT(ISERROR(SEARCH("No Action",J183)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="8" operator="containsText" text="Win">
-      <formula>NOT(ISERROR(SEARCH("Win",J183)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="9" operator="containsText" text="Loss">
-      <formula>NOT(ISERROR(SEARCH("Loss",J183)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J184">
-    <cfRule type="containsText" dxfId="24" priority="4" operator="containsText" text="No Action">
-      <formula>NOT(ISERROR(SEARCH("No Action",J184)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="5" operator="containsText" text="Win">
-      <formula>NOT(ISERROR(SEARCH("Win",J184)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="6" operator="containsText" text="Loss">
-      <formula>NOT(ISERROR(SEARCH("Loss",J184)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J198">
-    <cfRule type="containsText" dxfId="21" priority="1" operator="containsText" text="No Action">
-      <formula>NOT(ISERROR(SEARCH("No Action",J198)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="2" operator="containsText" text="Win">
-      <formula>NOT(ISERROR(SEARCH("Win",J198)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="3" operator="containsText" text="Loss">
-      <formula>NOT(ISERROR(SEARCH("Loss",J198)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11615,10 +11399,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K80"/>
+  <dimension ref="A1:K82"/>
   <sheetViews>
-    <sheetView topLeftCell="A54" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A80" sqref="A80:XFD80"/>
+    <sheetView topLeftCell="C54" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H72" sqref="H72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14088,6 +13872,9 @@
       <c r="G71" t="s">
         <v>238</v>
       </c>
+      <c r="H71" t="s">
+        <v>66</v>
+      </c>
       <c r="I71" t="s">
         <v>23</v>
       </c>
@@ -14333,10 +14120,15 @@
       <c r="H78" t="s">
         <v>66</v>
       </c>
+      <c r="I78" t="s">
+        <v>23</v>
+      </c>
       <c r="J78" s="1">
         <v>10</v>
       </c>
-      <c r="K78" s="1"/>
+      <c r="K78" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
@@ -14363,36 +14155,111 @@
       <c r="H79" t="s">
         <v>13</v>
       </c>
+      <c r="I79" t="s">
+        <v>29</v>
+      </c>
       <c r="J79" s="1">
         <v>10</v>
       </c>
-      <c r="K79" s="1"/>
+      <c r="K79" s="1">
+        <v>19.09</v>
+      </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+      <c r="A80" s="2">
+        <v>43785</v>
+      </c>
+      <c r="B80" t="s">
+        <v>3</v>
+      </c>
+      <c r="C80">
+        <v>-7</v>
+      </c>
+      <c r="D80">
+        <v>-110</v>
+      </c>
+      <c r="E80" t="s">
+        <v>155</v>
+      </c>
+      <c r="F80" t="s">
+        <v>199</v>
+      </c>
+      <c r="G80" t="s">
+        <v>195</v>
+      </c>
+      <c r="H80" t="s">
+        <v>199</v>
+      </c>
+      <c r="I80" t="s">
+        <v>29</v>
+      </c>
+      <c r="J80" s="1">
+        <v>20</v>
+      </c>
+      <c r="K80" s="1">
+        <v>38.18</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="B81" t="s">
+        <v>3</v>
+      </c>
+      <c r="C81">
+        <v>-6.5</v>
+      </c>
+      <c r="D81">
+        <v>-110</v>
+      </c>
+      <c r="E81" t="s">
+        <v>155</v>
+      </c>
+      <c r="F81" t="s">
+        <v>219</v>
+      </c>
+      <c r="G81" t="s">
+        <v>228</v>
+      </c>
+      <c r="H81" t="s">
+        <v>228</v>
+      </c>
+      <c r="I81" t="s">
+        <v>29</v>
+      </c>
+      <c r="J81" s="1">
+        <v>10</v>
+      </c>
+      <c r="K81" s="1">
+        <v>19.09</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
         <v>51</v>
       </c>
-      <c r="J80" s="1">
+      <c r="J82" s="1">
         <f>SUMIF(Table4[Result],"&lt;&gt;",Table4[Bet Size])</f>
-        <v>790</v>
-      </c>
-      <c r="K80" s="1">
+        <v>840</v>
+      </c>
+      <c r="K82" s="1">
         <f>SUMIF(Table4[Result],"&lt;&gt;",Table4[Payout])</f>
-        <v>717.26000000000022</v>
+        <v>793.62000000000023</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:K1"/>
   </mergeCells>
-  <conditionalFormatting sqref="I3:I79 I81:I161">
-    <cfRule type="containsText" dxfId="18" priority="21" operator="containsText" text="Win">
+  <conditionalFormatting sqref="I3:I81 I83:I163">
+    <cfRule type="containsText" dxfId="23" priority="21" operator="containsText" text="Win">
       <formula>NOT(ISERROR(SEARCH("Win",I3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="22" operator="containsText" text="Loss">
+    <cfRule type="containsText" dxfId="22" priority="22" operator="containsText" text="Loss">
       <formula>NOT(ISERROR(SEARCH("Loss",I3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="23" operator="containsText" text="No Action">
+    <cfRule type="containsText" dxfId="21" priority="23" operator="containsText" text="No Action">
       <formula>NOT(ISERROR(SEARCH("No Action",I3)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15387,10 +15254,10 @@
     <mergeCell ref="A1:I1"/>
   </mergeCells>
   <conditionalFormatting sqref="J34">
-    <cfRule type="cellIs" dxfId="15" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="20" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="19" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
     <cfRule type="colorScale" priority="3">
@@ -15405,13 +15272,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="containsText" dxfId="13" priority="4" operator="containsText" text="No Action">
+    <cfRule type="containsText" dxfId="18" priority="4" operator="containsText" text="No Action">
       <formula>NOT(ISERROR(SEARCH("No Action",G1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="5" operator="containsText" text="Win">
+    <cfRule type="containsText" dxfId="17" priority="5" operator="containsText" text="Win">
       <formula>NOT(ISERROR(SEARCH("Win",G1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="6" operator="containsText" text="Loss">
+    <cfRule type="containsText" dxfId="16" priority="6" operator="containsText" text="Loss">
       <formula>NOT(ISERROR(SEARCH("Loss",G1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15527,13 +15394,13 @@
     <mergeCell ref="A1:J1"/>
   </mergeCells>
   <conditionalFormatting sqref="H1:H3">
-    <cfRule type="containsText" dxfId="10" priority="1" operator="containsText" text="No Action">
+    <cfRule type="containsText" dxfId="15" priority="1" operator="containsText" text="No Action">
       <formula>NOT(ISERROR(SEARCH("No Action",H1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="2" operator="containsText" text="Win">
+    <cfRule type="containsText" dxfId="14" priority="2" operator="containsText" text="Win">
       <formula>NOT(ISERROR(SEARCH("Win",H1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="3" operator="containsText" text="Loss">
+    <cfRule type="containsText" dxfId="13" priority="3" operator="containsText" text="Loss">
       <formula>NOT(ISERROR(SEARCH("Loss",H1)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/SportsBettingLogs.xlsx
+++ b/SportsBettingLogs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Summary Tab" sheetId="4" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2217" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2276" uniqueCount="308">
   <si>
     <t>Bet Type</t>
   </si>
@@ -951,7 +951,7 @@
     <t>Mississippi State</t>
   </si>
   <si>
-    <t>11/172019</t>
+    <t>Brooklyn Nets</t>
   </si>
 </sst>
 </file>
@@ -1043,66 +1043,12 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="49">
+  <dxfs count="46">
     <dxf>
       <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1245,6 +1191,30 @@
       </fill>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C5700"/>
       </font>
@@ -1275,6 +1245,10 @@
       </fill>
     </dxf>
     <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     </dxf>
     <dxf>
@@ -1303,9 +1277,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
@@ -1347,26 +1318,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table134" displayName="Table134" ref="A2:L256" totalsRowCount="1">
-  <autoFilter ref="A2:L255"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table134" displayName="Table134" ref="A2:L263" totalsRowCount="1">
+  <autoFilter ref="A2:L262"/>
   <sortState ref="A3:L235">
     <sortCondition ref="A2:A235"/>
   </sortState>
   <tableColumns count="12">
-    <tableColumn id="17" name="Date Placed" totalsRowLabel="Total" dataDxfId="48" totalsRowDxfId="7"/>
-    <tableColumn id="11" name="NFL Week" dataDxfId="47" totalsRowDxfId="6"/>
-    <tableColumn id="1" name="Bet Type" dataDxfId="46" totalsRowDxfId="5"/>
-    <tableColumn id="10" name="Points" dataDxfId="45" totalsRowDxfId="4"/>
-    <tableColumn id="2" name="Odds" dataDxfId="44" totalsRowDxfId="3"/>
-    <tableColumn id="9" name="League" dataDxfId="43" totalsRowDxfId="2"/>
+    <tableColumn id="17" name="Date Placed" totalsRowLabel="Total" dataDxfId="45" totalsRowDxfId="23"/>
+    <tableColumn id="11" name="NFL Week" dataDxfId="44" totalsRowDxfId="22"/>
+    <tableColumn id="1" name="Bet Type" dataDxfId="43" totalsRowDxfId="21"/>
+    <tableColumn id="10" name="Points" dataDxfId="42" totalsRowDxfId="20"/>
+    <tableColumn id="2" name="Odds" dataDxfId="41" totalsRowDxfId="19"/>
+    <tableColumn id="9" name="League" dataDxfId="40" totalsRowDxfId="18"/>
     <tableColumn id="3" name="Home Team"/>
     <tableColumn id="4" name="Away Team"/>
     <tableColumn id="5" name="Outcome Chosen"/>
     <tableColumn id="6" name="Result"/>
-    <tableColumn id="7" name="Bet Size" totalsRowFunction="custom" dataDxfId="42" totalsRowDxfId="1">
+    <tableColumn id="7" name="Bet Size" totalsRowFunction="custom" dataDxfId="39" totalsRowDxfId="17">
       <totalsRowFormula>SUMIF(Table134[Result],"&lt;&gt;",Table134[Bet Size])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" name="Payout" totalsRowFunction="custom" dataDxfId="41" totalsRowDxfId="0">
+    <tableColumn id="8" name="Payout" totalsRowFunction="custom" dataDxfId="38" totalsRowDxfId="16">
       <totalsRowFormula>SUMIF(Table134[Result],"&lt;&gt;",Table134[Payout])</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -1375,13 +1346,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A2:K82" totalsRowCount="1">
-  <autoFilter ref="A2:K81"/>
-  <sortState ref="A3:K64">
-    <sortCondition ref="A2:A64"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A2:K86" totalsRowCount="1">
+  <autoFilter ref="A2:K85"/>
+  <sortState ref="A3:K82">
+    <sortCondition ref="A2:A82"/>
   </sortState>
   <tableColumns count="11">
-    <tableColumn id="1" name="Date Placed" totalsRowLabel="Total" dataDxfId="40"/>
+    <tableColumn id="1" name="Date Placed" totalsRowLabel="Total" dataDxfId="27"/>
     <tableColumn id="2" name="Bet Type"/>
     <tableColumn id="3" name="Points"/>
     <tableColumn id="4" name="Odds"/>
@@ -1390,10 +1361,10 @@
     <tableColumn id="7" name="Away Team"/>
     <tableColumn id="8" name="Outcome Chosen"/>
     <tableColumn id="9" name="Result"/>
-    <tableColumn id="10" name="Bet Size" totalsRowFunction="custom" dataDxfId="39" totalsRowDxfId="9">
+    <tableColumn id="10" name="Bet Size" totalsRowFunction="custom" dataDxfId="37" totalsRowDxfId="1">
       <totalsRowFormula>SUMIF(Table4[Result],"&lt;&gt;",Table4[Bet Size])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="11" name="Payout" totalsRowFunction="custom" dataDxfId="38" totalsRowDxfId="8">
+    <tableColumn id="11" name="Payout" totalsRowFunction="custom" dataDxfId="36" totalsRowDxfId="0">
       <totalsRowFormula>SUMIF(Table4[Result],"&lt;&gt;",Table4[Payout])</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -1408,17 +1379,17 @@
     <sortCondition ref="A2:A27"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="17" name="Date" totalsRowLabel="Total" dataDxfId="37"/>
+    <tableColumn id="17" name="Date" totalsRowLabel="Total" dataDxfId="35"/>
     <tableColumn id="1" name="Bet Type"/>
     <tableColumn id="2" name="Odds"/>
     <tableColumn id="3" name="Team 1"/>
     <tableColumn id="4" name="Team 2"/>
     <tableColumn id="5" name="Outcome Chosen"/>
     <tableColumn id="6" name="Result"/>
-    <tableColumn id="7" name="Bet Size" totalsRowFunction="custom" dataDxfId="36" totalsRowDxfId="35">
+    <tableColumn id="7" name="Bet Size" totalsRowFunction="custom" dataDxfId="34" totalsRowDxfId="33">
       <totalsRowFormula>SUMIF(Table1[Result],"&lt;&gt;",Table1[Bet Size])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" name="Payout" totalsRowFunction="custom" dataDxfId="34" totalsRowDxfId="33">
+    <tableColumn id="8" name="Payout" totalsRowFunction="custom" dataDxfId="32" totalsRowDxfId="31">
       <totalsRowFormula>SUMIF(Table1[Result],"&lt;&gt;",Table1[Payout])</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -1430,7 +1401,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A2:J3" totalsRowShown="0">
   <autoFilter ref="A2:J3"/>
   <tableColumns count="10">
-    <tableColumn id="17" name="Date" dataDxfId="32"/>
+    <tableColumn id="17" name="Date" dataDxfId="30"/>
     <tableColumn id="1" name="Bet Type"/>
     <tableColumn id="2" name="Odds"/>
     <tableColumn id="9" name="League"/>
@@ -1438,8 +1409,8 @@
     <tableColumn id="4" name="Team 2"/>
     <tableColumn id="5" name="Outcome Chosen"/>
     <tableColumn id="6" name="Result"/>
-    <tableColumn id="7" name="Bet Size" dataDxfId="31"/>
-    <tableColumn id="8" name="Payout" dataDxfId="30"/>
+    <tableColumn id="7" name="Bet Size" dataDxfId="29"/>
+    <tableColumn id="8" name="Payout" dataDxfId="28"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1754,10 +1725,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L256"/>
+  <dimension ref="A1:L263"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A235" zoomScale="74" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="L230" sqref="L230"/>
+    <sheetView topLeftCell="G235" zoomScale="74" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="J258" sqref="J258"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11357,35 +11328,276 @@
       </c>
     </row>
     <row r="256" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A256" s="6" t="s">
+      <c r="A256" s="4">
+        <v>43787</v>
+      </c>
+      <c r="B256" s="5">
+        <v>11</v>
+      </c>
+      <c r="C256" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D256" s="6">
+        <v>53</v>
+      </c>
+      <c r="E256" s="6">
+        <v>-115</v>
+      </c>
+      <c r="F256" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G256" t="s">
+        <v>107</v>
+      </c>
+      <c r="H256" t="s">
+        <v>72</v>
+      </c>
+      <c r="I256" t="s">
+        <v>13</v>
+      </c>
+      <c r="J256" t="s">
+        <v>29</v>
+      </c>
+      <c r="K256" s="1">
+        <v>10</v>
+      </c>
+      <c r="L256" s="1">
+        <v>18.7</v>
+      </c>
+    </row>
+    <row r="257" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A257" s="4">
+        <v>43787</v>
+      </c>
+      <c r="B257" s="5">
+        <v>11</v>
+      </c>
+      <c r="C257" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D257" s="6">
+        <v>5</v>
+      </c>
+      <c r="E257" s="6">
+        <v>-105</v>
+      </c>
+      <c r="F257" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G257" t="s">
+        <v>107</v>
+      </c>
+      <c r="H257" t="s">
+        <v>72</v>
+      </c>
+      <c r="I257" t="s">
+        <v>107</v>
+      </c>
+      <c r="J257" t="s">
+        <v>23</v>
+      </c>
+      <c r="K257" s="1">
+        <v>10</v>
+      </c>
+      <c r="L257" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A258" s="4">
+        <v>43789</v>
+      </c>
+      <c r="B258" s="5">
+        <v>12</v>
+      </c>
+      <c r="C258" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D258" s="6">
+        <v>45</v>
+      </c>
+      <c r="E258" s="6">
+        <v>-105</v>
+      </c>
+      <c r="F258" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G258" t="s">
+        <v>95</v>
+      </c>
+      <c r="H258" t="s">
+        <v>109</v>
+      </c>
+      <c r="I258" t="s">
+        <v>66</v>
+      </c>
+      <c r="K258" s="1">
+        <v>10</v>
+      </c>
+      <c r="L258" s="1"/>
+    </row>
+    <row r="259" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A259" s="4">
+        <v>43789</v>
+      </c>
+      <c r="B259" s="5">
+        <v>12</v>
+      </c>
+      <c r="C259" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D259" s="6">
+        <v>41.5</v>
+      </c>
+      <c r="E259" s="6">
+        <v>-110</v>
+      </c>
+      <c r="F259" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G259" t="s">
+        <v>57</v>
+      </c>
+      <c r="H259" t="s">
+        <v>73</v>
+      </c>
+      <c r="I259" t="s">
+        <v>13</v>
+      </c>
+      <c r="K259" s="1">
+        <v>10</v>
+      </c>
+      <c r="L259" s="1"/>
+    </row>
+    <row r="260" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A260" s="4">
+        <v>43788</v>
+      </c>
+      <c r="B260" s="5">
+        <v>12</v>
+      </c>
+      <c r="C260" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D260" s="6">
+        <v>3</v>
+      </c>
+      <c r="E260" s="6">
+        <v>-115</v>
+      </c>
+      <c r="F260" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G260" t="s">
+        <v>63</v>
+      </c>
+      <c r="H260" t="s">
+        <v>111</v>
+      </c>
+      <c r="I260" t="s">
+        <v>63</v>
+      </c>
+      <c r="K260" s="1">
+        <v>10</v>
+      </c>
+      <c r="L260" s="1"/>
+    </row>
+    <row r="261" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A261" s="4">
+        <v>43788</v>
+      </c>
+      <c r="B261" s="5">
+        <v>12</v>
+      </c>
+      <c r="C261" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D261" s="6">
+        <v>47</v>
+      </c>
+      <c r="E261" s="6">
+        <v>-110</v>
+      </c>
+      <c r="F261" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G261" t="s">
+        <v>58</v>
+      </c>
+      <c r="H261" t="s">
+        <v>84</v>
+      </c>
+      <c r="I261" t="s">
+        <v>13</v>
+      </c>
+      <c r="K261" s="1">
+        <v>10</v>
+      </c>
+      <c r="L261" s="1"/>
+    </row>
+    <row r="262" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A262" s="4">
+        <v>43789</v>
+      </c>
+      <c r="B262" s="5">
+        <v>12</v>
+      </c>
+      <c r="C262" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D262" s="6">
+        <v>39</v>
+      </c>
+      <c r="E262" s="6">
+        <v>-105</v>
+      </c>
+      <c r="F262" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G262" t="s">
+        <v>110</v>
+      </c>
+      <c r="H262" t="s">
+        <v>75</v>
+      </c>
+      <c r="I262" t="s">
+        <v>66</v>
+      </c>
+      <c r="K262" s="1">
+        <v>10</v>
+      </c>
+      <c r="L262" s="1"/>
+    </row>
+    <row r="263" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A263" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B256" s="6"/>
-      <c r="C256" s="6"/>
-      <c r="D256" s="6"/>
-      <c r="E256" s="6"/>
-      <c r="F256" s="6"/>
-      <c r="K256" s="1">
+      <c r="B263" s="6"/>
+      <c r="C263" s="6"/>
+      <c r="D263" s="6"/>
+      <c r="E263" s="6"/>
+      <c r="F263" s="6"/>
+      <c r="K263" s="1">
         <f>SUMIF(Table134[Result],"&lt;&gt;",Table134[Bet Size])</f>
-        <v>3380</v>
-      </c>
-      <c r="L256" s="1">
+        <v>3400</v>
+      </c>
+      <c r="L263" s="1">
         <f>SUMIF(Table134[Result],"&lt;&gt;",Table134[Payout])</f>
-        <v>3214.58</v>
+        <v>3233.2799999999997</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:L1"/>
   </mergeCells>
-  <conditionalFormatting sqref="J1:J1001">
-    <cfRule type="containsText" dxfId="26" priority="55" operator="containsText" text="No Action">
+  <conditionalFormatting sqref="J1:J1008">
+    <cfRule type="containsText" dxfId="15" priority="55" operator="containsText" text="No Action">
       <formula>NOT(ISERROR(SEARCH("No Action",J1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="56" operator="containsText" text="Win">
+    <cfRule type="containsText" dxfId="14" priority="56" operator="containsText" text="Win">
       <formula>NOT(ISERROR(SEARCH("Win",J1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="57" operator="containsText" text="Loss">
+    <cfRule type="containsText" dxfId="13" priority="57" operator="containsText" text="Loss">
       <formula>NOT(ISERROR(SEARCH("Loss",J1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11399,10 +11611,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K82"/>
+  <dimension ref="A1:K86"/>
   <sheetViews>
-    <sheetView topLeftCell="C54" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H72" sqref="H72"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F82" sqref="F82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11471,7 +11683,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+      <c r="A3" s="4">
         <v>43766</v>
       </c>
       <c r="B3" t="s">
@@ -11506,7 +11718,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+      <c r="A4" s="4">
         <v>43766</v>
       </c>
       <c r="B4" t="s">
@@ -11541,7 +11753,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+      <c r="A5" s="4">
         <v>43766</v>
       </c>
       <c r="B5" t="s">
@@ -11576,7 +11788,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="A6" s="4">
         <v>43766</v>
       </c>
       <c r="B6" t="s">
@@ -11611,7 +11823,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+      <c r="A7" s="4">
         <v>43766</v>
       </c>
       <c r="B7" t="s">
@@ -11646,7 +11858,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+      <c r="A8" s="4">
         <v>43766</v>
       </c>
       <c r="B8" t="s">
@@ -11681,7 +11893,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+      <c r="A9" s="4">
         <v>43767</v>
       </c>
       <c r="B9" t="s">
@@ -11716,7 +11928,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+      <c r="A10" s="4">
         <v>43767</v>
       </c>
       <c r="B10" t="s">
@@ -11751,7 +11963,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+      <c r="A11" s="4">
         <v>43767</v>
       </c>
       <c r="B11" t="s">
@@ -11786,7 +11998,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+      <c r="A12" s="4">
         <v>43767</v>
       </c>
       <c r="B12" t="s">
@@ -11821,7 +12033,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+      <c r="A13" s="4">
         <v>43767</v>
       </c>
       <c r="B13" t="s">
@@ -11856,7 +12068,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
+      <c r="A14" s="4">
         <v>43767</v>
       </c>
       <c r="B14" t="s">
@@ -11891,7 +12103,7 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
+      <c r="A15" s="4">
         <v>43767</v>
       </c>
       <c r="B15" t="s">
@@ -11926,7 +12138,7 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+      <c r="A16" s="4">
         <v>43768</v>
       </c>
       <c r="B16" t="s">
@@ -11961,7 +12173,7 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
+      <c r="A17" s="4">
         <v>43768</v>
       </c>
       <c r="B17" t="s">
@@ -11996,7 +12208,7 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
+      <c r="A18" s="4">
         <v>43768</v>
       </c>
       <c r="B18" t="s">
@@ -12031,7 +12243,7 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
+      <c r="A19" s="4">
         <v>43768</v>
       </c>
       <c r="B19" t="s">
@@ -12066,7 +12278,7 @@
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
+      <c r="A20" s="4">
         <v>43768</v>
       </c>
       <c r="B20" t="s">
@@ -12101,7 +12313,7 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
+      <c r="A21" s="4">
         <v>43768</v>
       </c>
       <c r="B21" t="s">
@@ -12136,7 +12348,7 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
+      <c r="A22" s="4">
         <v>43768</v>
       </c>
       <c r="B22" t="s">
@@ -12171,7 +12383,7 @@
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
+      <c r="A23" s="4">
         <v>43768</v>
       </c>
       <c r="B23" t="s">
@@ -12206,7 +12418,7 @@
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
+      <c r="A24" s="4">
         <v>43768</v>
       </c>
       <c r="B24" t="s">
@@ -12241,7 +12453,7 @@
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
+      <c r="A25" s="4">
         <v>43769</v>
       </c>
       <c r="B25" t="s">
@@ -12276,7 +12488,7 @@
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
+      <c r="A26" s="4">
         <v>43769</v>
       </c>
       <c r="B26" t="s">
@@ -12311,7 +12523,7 @@
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
+      <c r="A27" s="4">
         <v>43769</v>
       </c>
       <c r="B27" t="s">
@@ -12346,7 +12558,7 @@
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
+      <c r="A28" s="4">
         <v>43769</v>
       </c>
       <c r="B28" t="s">
@@ -12381,7 +12593,7 @@
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
+      <c r="A29" s="4">
         <v>43770</v>
       </c>
       <c r="B29" t="s">
@@ -12416,7 +12628,7 @@
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
+      <c r="A30" s="4">
         <v>43770</v>
       </c>
       <c r="B30" t="s">
@@ -12451,7 +12663,7 @@
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
+      <c r="A31" s="4">
         <v>43771</v>
       </c>
       <c r="B31" t="s">
@@ -12486,7 +12698,7 @@
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
+      <c r="A32" s="4">
         <v>43772</v>
       </c>
       <c r="B32" t="s">
@@ -12521,7 +12733,7 @@
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
+      <c r="A33" s="4">
         <v>43772</v>
       </c>
       <c r="B33" t="s">
@@ -12556,7 +12768,7 @@
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="2">
+      <c r="A34" s="4">
         <v>43773</v>
       </c>
       <c r="B34" t="s">
@@ -12591,7 +12803,7 @@
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="2">
+      <c r="A35" s="4">
         <v>43773</v>
       </c>
       <c r="B35" t="s">
@@ -12626,7 +12838,7 @@
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="2">
+      <c r="A36" s="4">
         <v>43773</v>
       </c>
       <c r="B36" t="s">
@@ -12661,7 +12873,7 @@
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="2">
+      <c r="A37" s="4">
         <v>43773</v>
       </c>
       <c r="B37" t="s">
@@ -12696,7 +12908,7 @@
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="2">
+      <c r="A38" s="4">
         <v>43773</v>
       </c>
       <c r="B38" t="s">
@@ -12731,7 +12943,7 @@
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="2">
+      <c r="A39" s="4">
         <v>43774</v>
       </c>
       <c r="B39" t="s">
@@ -12766,7 +12978,7 @@
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="2">
+      <c r="A40" s="4">
         <v>43774</v>
       </c>
       <c r="B40" t="s">
@@ -12801,7 +13013,7 @@
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="2">
+      <c r="A41" s="4">
         <v>43774</v>
       </c>
       <c r="B41" t="s">
@@ -12836,7 +13048,7 @@
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="2">
+      <c r="A42" s="4">
         <v>43774</v>
       </c>
       <c r="B42" t="s">
@@ -12871,7 +13083,7 @@
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="2">
+      <c r="A43" s="4">
         <v>43774</v>
       </c>
       <c r="B43" t="s">
@@ -12906,7 +13118,7 @@
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="2">
+      <c r="A44" s="4">
         <v>43774</v>
       </c>
       <c r="B44" t="s">
@@ -12941,7 +13153,7 @@
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="2">
+      <c r="A45" s="4">
         <v>43774</v>
       </c>
       <c r="B45" t="s">
@@ -12976,7 +13188,7 @@
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="2">
+      <c r="A46" s="4">
         <v>43775</v>
       </c>
       <c r="B46" t="s">
@@ -13011,7 +13223,7 @@
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="2">
+      <c r="A47" s="4">
         <v>43775</v>
       </c>
       <c r="B47" t="s">
@@ -13046,7 +13258,7 @@
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="2">
+      <c r="A48" s="4">
         <v>43775</v>
       </c>
       <c r="B48" t="s">
@@ -13081,7 +13293,7 @@
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="2">
+      <c r="A49" s="4">
         <v>43775</v>
       </c>
       <c r="B49" t="s">
@@ -13116,7 +13328,7 @@
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="2">
+      <c r="A50" s="4">
         <v>43775</v>
       </c>
       <c r="B50" t="s">
@@ -13151,7 +13363,7 @@
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" s="2">
+      <c r="A51" s="4">
         <v>43775</v>
       </c>
       <c r="B51" t="s">
@@ -13186,7 +13398,7 @@
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" s="2">
+      <c r="A52" s="4">
         <v>43775</v>
       </c>
       <c r="B52" t="s">
@@ -13221,7 +13433,7 @@
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" s="2">
+      <c r="A53" s="4">
         <v>43775</v>
       </c>
       <c r="B53" t="s">
@@ -13256,7 +13468,7 @@
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A54" s="2">
+      <c r="A54" s="4">
         <v>43775</v>
       </c>
       <c r="B54" t="s">
@@ -13291,7 +13503,7 @@
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A55" s="2">
+      <c r="A55" s="4">
         <v>43775</v>
       </c>
       <c r="B55" t="s">
@@ -13326,7 +13538,7 @@
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A56" s="2">
+      <c r="A56" s="4">
         <v>43775</v>
       </c>
       <c r="B56" t="s">
@@ -13361,7 +13573,7 @@
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A57" s="2">
+      <c r="A57" s="4">
         <v>43775</v>
       </c>
       <c r="B57" t="s">
@@ -13396,7 +13608,7 @@
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A58" s="2">
+      <c r="A58" s="4">
         <v>43776</v>
       </c>
       <c r="B58" t="s">
@@ -13431,7 +13643,7 @@
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A59" s="2">
+      <c r="A59" s="4">
         <v>43776</v>
       </c>
       <c r="B59" t="s">
@@ -13466,7 +13678,7 @@
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A60" s="2">
+      <c r="A60" s="4">
         <v>43776</v>
       </c>
       <c r="B60" t="s">
@@ -13501,7 +13713,7 @@
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A61" s="2">
+      <c r="A61" s="4">
         <v>43776</v>
       </c>
       <c r="B61" t="s">
@@ -13536,7 +13748,7 @@
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A62" s="2">
+      <c r="A62" s="4">
         <v>43776</v>
       </c>
       <c r="B62" t="s">
@@ -13571,7 +13783,7 @@
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A63" s="2">
+      <c r="A63" s="4">
         <v>43776</v>
       </c>
       <c r="B63" t="s">
@@ -13606,58 +13818,58 @@
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A64" s="2">
-        <v>43779</v>
+      <c r="A64" s="4">
+        <v>43777</v>
       </c>
       <c r="B64" t="s">
-        <v>3</v>
+        <v>89</v>
       </c>
       <c r="C64">
-        <v>25.5</v>
+        <v>6.5</v>
       </c>
       <c r="D64">
         <v>-115</v>
       </c>
       <c r="E64" t="s">
-        <v>229</v>
+        <v>155</v>
       </c>
       <c r="F64" t="s">
-        <v>257</v>
+        <v>277</v>
       </c>
       <c r="G64" t="s">
-        <v>259</v>
+        <v>238</v>
       </c>
       <c r="H64" t="s">
-        <v>257</v>
+        <v>66</v>
       </c>
       <c r="I64" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="J64" s="1">
         <v>10</v>
       </c>
       <c r="K64" s="1">
-        <v>18.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" s="2">
+      <c r="A65" s="4">
         <v>43777</v>
       </c>
       <c r="B65" t="s">
         <v>89</v>
       </c>
       <c r="C65">
-        <v>6.5</v>
+        <v>8.5</v>
       </c>
       <c r="D65">
-        <v>-115</v>
+        <v>-105</v>
       </c>
       <c r="E65" t="s">
         <v>155</v>
       </c>
       <c r="F65" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="G65" t="s">
         <v>238</v>
@@ -13666,87 +13878,87 @@
         <v>66</v>
       </c>
       <c r="I65" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J65" s="1">
         <v>10</v>
       </c>
       <c r="K65" s="1">
-        <v>0</v>
+        <v>19.52</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" s="2">
+      <c r="A66" s="4">
         <v>43777</v>
       </c>
       <c r="B66" t="s">
         <v>89</v>
       </c>
       <c r="C66">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="D66">
-        <v>-105</v>
+        <v>-115</v>
       </c>
       <c r="E66" t="s">
         <v>155</v>
       </c>
       <c r="F66" t="s">
-        <v>278</v>
+        <v>235</v>
       </c>
       <c r="G66" t="s">
-        <v>238</v>
+        <v>170</v>
       </c>
       <c r="H66" t="s">
         <v>66</v>
       </c>
       <c r="I66" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="J66" s="1">
         <v>10</v>
       </c>
       <c r="K66" s="1">
-        <v>19.52</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" s="2">
-        <v>43777</v>
+      <c r="A67" s="4">
+        <v>43779</v>
       </c>
       <c r="B67" t="s">
-        <v>89</v>
+        <v>3</v>
       </c>
       <c r="C67">
-        <v>6.5</v>
+        <v>25.5</v>
       </c>
       <c r="D67">
         <v>-115</v>
       </c>
       <c r="E67" t="s">
-        <v>155</v>
+        <v>229</v>
       </c>
       <c r="F67" t="s">
-        <v>235</v>
+        <v>257</v>
       </c>
       <c r="G67" t="s">
-        <v>170</v>
+        <v>259</v>
       </c>
       <c r="H67" t="s">
-        <v>66</v>
+        <v>257</v>
       </c>
       <c r="I67" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J67" s="1">
         <v>10</v>
       </c>
       <c r="K67" s="1">
-        <v>0</v>
+        <v>18.7</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A68" s="2">
+      <c r="A68" s="4">
         <v>43782</v>
       </c>
       <c r="B68" t="s">
@@ -13781,7 +13993,7 @@
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A69" s="2">
+      <c r="A69" s="4">
         <v>43782</v>
       </c>
       <c r="B69" t="s">
@@ -13816,7 +14028,7 @@
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A70" s="2">
+      <c r="A70" s="4">
         <v>43782</v>
       </c>
       <c r="B70" t="s">
@@ -13851,7 +14063,7 @@
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71" s="2">
+      <c r="A71" s="4">
         <v>43782</v>
       </c>
       <c r="B71" t="s">
@@ -13886,7 +14098,7 @@
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A72" s="2">
+      <c r="A72" s="4">
         <v>43782</v>
       </c>
       <c r="B72" t="s">
@@ -13921,7 +14133,7 @@
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A73" s="2">
+      <c r="A73" s="4">
         <v>43782</v>
       </c>
       <c r="B73" t="s">
@@ -13956,7 +14168,7 @@
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A74" s="2">
+      <c r="A74" s="4">
         <v>43782</v>
       </c>
       <c r="B74" t="s">
@@ -13991,7 +14203,7 @@
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A75" s="2">
+      <c r="A75" s="4">
         <v>43782</v>
       </c>
       <c r="B75" t="s">
@@ -14026,7 +14238,7 @@
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A76" s="2">
+      <c r="A76" s="4">
         <v>43782</v>
       </c>
       <c r="B76" t="s">
@@ -14061,7 +14273,7 @@
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77" s="2">
+      <c r="A77" s="4">
         <v>43782</v>
       </c>
       <c r="B77" t="s">
@@ -14096,7 +14308,7 @@
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="2">
+      <c r="A78" s="4">
         <v>43784</v>
       </c>
       <c r="B78" t="s">
@@ -14131,7 +14343,7 @@
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79" s="2">
+      <c r="A79" s="4">
         <v>43784</v>
       </c>
       <c r="B79" t="s">
@@ -14166,7 +14378,7 @@
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" s="2">
+      <c r="A80" s="4">
         <v>43785</v>
       </c>
       <c r="B80" t="s">
@@ -14201,8 +14413,8 @@
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A81" s="2" t="s">
-        <v>307</v>
+      <c r="A81" s="4">
+        <v>43786</v>
       </c>
       <c r="B81" t="s">
         <v>3</v>
@@ -14236,30 +14448,155 @@
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+      <c r="A82" s="4">
+        <v>43787</v>
+      </c>
+      <c r="B82" t="s">
+        <v>9</v>
+      </c>
+      <c r="C82">
+        <v>218.5</v>
+      </c>
+      <c r="D82">
+        <v>-110</v>
+      </c>
+      <c r="E82" t="s">
+        <v>155</v>
+      </c>
+      <c r="F82" t="s">
+        <v>307</v>
+      </c>
+      <c r="G82" t="s">
+        <v>223</v>
+      </c>
+      <c r="H82" t="s">
+        <v>13</v>
+      </c>
+      <c r="I82" t="s">
+        <v>29</v>
+      </c>
+      <c r="J82" s="1">
+        <v>10</v>
+      </c>
+      <c r="K82" s="1">
+        <v>19.09</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A83" s="4">
+        <v>43789</v>
+      </c>
+      <c r="B83" t="s">
+        <v>9</v>
+      </c>
+      <c r="C83">
+        <v>217</v>
+      </c>
+      <c r="D83">
+        <v>-110</v>
+      </c>
+      <c r="E83" t="s">
+        <v>155</v>
+      </c>
+      <c r="F83" t="s">
+        <v>192</v>
+      </c>
+      <c r="G83" t="s">
+        <v>194</v>
+      </c>
+      <c r="H83" t="s">
+        <v>13</v>
+      </c>
+      <c r="J83" s="1">
+        <v>10</v>
+      </c>
+      <c r="K83" s="1"/>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A84" s="4">
+        <v>43789</v>
+      </c>
+      <c r="B84" t="s">
+        <v>175</v>
+      </c>
+      <c r="C84" t="s">
+        <v>175</v>
+      </c>
+      <c r="D84">
+        <v>120</v>
+      </c>
+      <c r="E84" t="s">
+        <v>155</v>
+      </c>
+      <c r="F84" t="s">
+        <v>287</v>
+      </c>
+      <c r="G84" t="s">
+        <v>191</v>
+      </c>
+      <c r="H84" t="s">
+        <v>287</v>
+      </c>
+      <c r="J84" s="1">
+        <v>10</v>
+      </c>
+      <c r="K84" s="1"/>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A85" s="4">
+        <v>43789</v>
+      </c>
+      <c r="B85" t="s">
+        <v>175</v>
+      </c>
+      <c r="C85" t="s">
+        <v>175</v>
+      </c>
+      <c r="D85">
+        <v>100</v>
+      </c>
+      <c r="E85" t="s">
+        <v>155</v>
+      </c>
+      <c r="F85" t="s">
+        <v>228</v>
+      </c>
+      <c r="G85" t="s">
+        <v>220</v>
+      </c>
+      <c r="H85" t="s">
+        <v>220</v>
+      </c>
+      <c r="J85" s="1">
+        <v>10</v>
+      </c>
+      <c r="K85" s="1"/>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
         <v>51</v>
       </c>
-      <c r="J82" s="1">
+      <c r="J86" s="1">
         <f>SUMIF(Table4[Result],"&lt;&gt;",Table4[Bet Size])</f>
-        <v>840</v>
-      </c>
-      <c r="K82" s="1">
+        <v>850</v>
+      </c>
+      <c r="K86" s="1">
         <f>SUMIF(Table4[Result],"&lt;&gt;",Table4[Payout])</f>
-        <v>793.62000000000023</v>
+        <v>812.71000000000026</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:K1"/>
   </mergeCells>
-  <conditionalFormatting sqref="I3:I81 I83:I163">
-    <cfRule type="containsText" dxfId="23" priority="21" operator="containsText" text="Win">
+  <conditionalFormatting sqref="I3:I85 I87:I167">
+    <cfRule type="containsText" dxfId="12" priority="21" operator="containsText" text="Win">
       <formula>NOT(ISERROR(SEARCH("Win",I3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="22" operator="containsText" text="Loss">
+    <cfRule type="containsText" dxfId="11" priority="22" operator="containsText" text="Loss">
       <formula>NOT(ISERROR(SEARCH("Loss",I3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="23" operator="containsText" text="No Action">
+    <cfRule type="containsText" dxfId="10" priority="23" operator="containsText" text="No Action">
       <formula>NOT(ISERROR(SEARCH("No Action",I3)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15254,10 +15591,10 @@
     <mergeCell ref="A1:I1"/>
   </mergeCells>
   <conditionalFormatting sqref="J34">
-    <cfRule type="cellIs" dxfId="20" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
     <cfRule type="colorScale" priority="3">
@@ -15272,13 +15609,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="containsText" dxfId="18" priority="4" operator="containsText" text="No Action">
+    <cfRule type="containsText" dxfId="7" priority="4" operator="containsText" text="No Action">
       <formula>NOT(ISERROR(SEARCH("No Action",G1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="5" operator="containsText" text="Win">
+    <cfRule type="containsText" dxfId="6" priority="5" operator="containsText" text="Win">
       <formula>NOT(ISERROR(SEARCH("Win",G1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="6" operator="containsText" text="Loss">
+    <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="Loss">
       <formula>NOT(ISERROR(SEARCH("Loss",G1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15394,13 +15731,13 @@
     <mergeCell ref="A1:J1"/>
   </mergeCells>
   <conditionalFormatting sqref="H1:H3">
-    <cfRule type="containsText" dxfId="15" priority="1" operator="containsText" text="No Action">
+    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="No Action">
       <formula>NOT(ISERROR(SEARCH("No Action",H1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="2" operator="containsText" text="Win">
+    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="Win">
       <formula>NOT(ISERROR(SEARCH("Win",H1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="3" operator="containsText" text="Loss">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="Loss">
       <formula>NOT(ISERROR(SEARCH("Loss",H1)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/SportsBettingLogs.xlsx
+++ b/SportsBettingLogs.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brandon Croarkin\Documents\GitHub\SportsBetting\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brcro\OneDrive\Documents\GitHub\SportsBetting\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="5" documentId="11_53FDA074F688A2E8BD123843326BE335E5B1298B" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{53C21403-B586-49C9-B5BD-CFED7E35A8BA}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary Tab" sheetId="4" r:id="rId1"/>
@@ -18,17 +19,23 @@
     <sheet name="Baseball Bets" sheetId="1" r:id="rId4"/>
     <sheet name="Soccer Bets" sheetId="2" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2276" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2278" uniqueCount="308">
   <si>
     <t>Bet Type</t>
   </si>
@@ -957,7 +964,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
@@ -1043,12 +1050,45 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="46">
+  <dxfs count="43">
     <dxf>
       <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
     </dxf>
     <dxf>
       <font>
@@ -1079,6 +1119,21 @@
           <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
     </dxf>
     <dxf>
       <font>
@@ -1131,87 +1186,13 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1245,40 +1226,6 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     </dxf>
     <dxf>
@@ -1304,6 +1251,36 @@
       <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1318,26 +1295,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table134" displayName="Table134" ref="A2:L263" totalsRowCount="1">
-  <autoFilter ref="A2:L262"/>
-  <sortState ref="A3:L235">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table134" displayName="Table134" ref="A2:L263" totalsRowCount="1">
+  <autoFilter ref="A2:L262" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:L235">
     <sortCondition ref="A2:A235"/>
   </sortState>
   <tableColumns count="12">
-    <tableColumn id="17" name="Date Placed" totalsRowLabel="Total" dataDxfId="45" totalsRowDxfId="23"/>
-    <tableColumn id="11" name="NFL Week" dataDxfId="44" totalsRowDxfId="22"/>
-    <tableColumn id="1" name="Bet Type" dataDxfId="43" totalsRowDxfId="21"/>
-    <tableColumn id="10" name="Points" dataDxfId="42" totalsRowDxfId="20"/>
-    <tableColumn id="2" name="Odds" dataDxfId="41" totalsRowDxfId="19"/>
-    <tableColumn id="9" name="League" dataDxfId="40" totalsRowDxfId="18"/>
-    <tableColumn id="3" name="Home Team"/>
-    <tableColumn id="4" name="Away Team"/>
-    <tableColumn id="5" name="Outcome Chosen"/>
-    <tableColumn id="6" name="Result"/>
-    <tableColumn id="7" name="Bet Size" totalsRowFunction="custom" dataDxfId="39" totalsRowDxfId="17">
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Date Placed" totalsRowLabel="Total" dataDxfId="39" totalsRowDxfId="7"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="NFL Week" dataDxfId="38" totalsRowDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Bet Type" dataDxfId="37" totalsRowDxfId="5"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Points" dataDxfId="36" totalsRowDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Odds" dataDxfId="35" totalsRowDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="League" dataDxfId="34" totalsRowDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Home Team"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Away Team"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Outcome Chosen"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Result"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Bet Size" totalsRowFunction="custom" dataDxfId="33" totalsRowDxfId="1">
       <totalsRowFormula>SUMIF(Table134[Result],"&lt;&gt;",Table134[Bet Size])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" name="Payout" totalsRowFunction="custom" dataDxfId="38" totalsRowDxfId="16">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Payout" totalsRowFunction="custom" dataDxfId="32" totalsRowDxfId="0">
       <totalsRowFormula>SUMIF(Table134[Result],"&lt;&gt;",Table134[Payout])</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -1346,25 +1323,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A2:K86" totalsRowCount="1">
-  <autoFilter ref="A2:K85"/>
-  <sortState ref="A3:K82">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table4" displayName="Table4" ref="A2:K86" totalsRowCount="1">
+  <autoFilter ref="A2:K85" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:K82">
     <sortCondition ref="A2:A82"/>
   </sortState>
   <tableColumns count="11">
-    <tableColumn id="1" name="Date Placed" totalsRowLabel="Total" dataDxfId="27"/>
-    <tableColumn id="2" name="Bet Type"/>
-    <tableColumn id="3" name="Points"/>
-    <tableColumn id="4" name="Odds"/>
-    <tableColumn id="5" name="League"/>
-    <tableColumn id="6" name="Home Team"/>
-    <tableColumn id="7" name="Away Team"/>
-    <tableColumn id="8" name="Outcome Chosen"/>
-    <tableColumn id="9" name="Result"/>
-    <tableColumn id="10" name="Bet Size" totalsRowFunction="custom" dataDxfId="37" totalsRowDxfId="1">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Date Placed" totalsRowLabel="Total" dataDxfId="28"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Bet Type"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Points"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Odds"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="League"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Home Team"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Away Team"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Outcome Chosen"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Result"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Bet Size" totalsRowFunction="custom" dataDxfId="27" totalsRowDxfId="9">
       <totalsRowFormula>SUMIF(Table4[Result],"&lt;&gt;",Table4[Bet Size])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="11" name="Payout" totalsRowFunction="custom" dataDxfId="36" totalsRowDxfId="0">
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="Payout" totalsRowFunction="custom" dataDxfId="26" totalsRowDxfId="8">
       <totalsRowFormula>SUMIF(Table4[Result],"&lt;&gt;",Table4[Payout])</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -1373,23 +1350,23 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:I34" totalsRowCount="1">
-  <autoFilter ref="A2:I33"/>
-  <sortState ref="A3:I27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table1" displayName="Table1" ref="A2:I34" totalsRowCount="1">
+  <autoFilter ref="A2:I33" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:I27">
     <sortCondition ref="A2:A27"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="17" name="Date" totalsRowLabel="Total" dataDxfId="35"/>
-    <tableColumn id="1" name="Bet Type"/>
-    <tableColumn id="2" name="Odds"/>
-    <tableColumn id="3" name="Team 1"/>
-    <tableColumn id="4" name="Team 2"/>
-    <tableColumn id="5" name="Outcome Chosen"/>
-    <tableColumn id="6" name="Result"/>
-    <tableColumn id="7" name="Bet Size" totalsRowFunction="custom" dataDxfId="34" totalsRowDxfId="33">
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0200-000011000000}" name="Date" totalsRowLabel="Total" dataDxfId="20"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Bet Type"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Odds"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Team 1"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Team 2"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Outcome Chosen"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Result"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="Bet Size" totalsRowFunction="custom" dataDxfId="19" totalsRowDxfId="18">
       <totalsRowFormula>SUMIF(Table1[Result],"&lt;&gt;",Table1[Bet Size])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" name="Payout" totalsRowFunction="custom" dataDxfId="32" totalsRowDxfId="31">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="Payout" totalsRowFunction="custom" dataDxfId="17" totalsRowDxfId="16">
       <totalsRowFormula>SUMIF(Table1[Result],"&lt;&gt;",Table1[Payout])</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -1398,19 +1375,19 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A2:J3" totalsRowShown="0">
-  <autoFilter ref="A2:J3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table13" displayName="Table13" ref="A2:J3" totalsRowShown="0">
+  <autoFilter ref="A2:J3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="10">
-    <tableColumn id="17" name="Date" dataDxfId="30"/>
-    <tableColumn id="1" name="Bet Type"/>
-    <tableColumn id="2" name="Odds"/>
-    <tableColumn id="9" name="League"/>
-    <tableColumn id="3" name="Team 1"/>
-    <tableColumn id="4" name="Team 2"/>
-    <tableColumn id="5" name="Outcome Chosen"/>
-    <tableColumn id="6" name="Result"/>
-    <tableColumn id="7" name="Bet Size" dataDxfId="29"/>
-    <tableColumn id="8" name="Payout" dataDxfId="28"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0300-000011000000}" name="Date" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Bet Type"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Odds"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0300-000009000000}" name="League"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Team 1"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Team 2"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Outcome Chosen"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="Result"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="Bet Size" dataDxfId="11"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="Payout" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1712,41 +1689,41 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L263"/>
   <sheetViews>
-    <sheetView topLeftCell="G235" zoomScale="74" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J258" sqref="J258"/>
+    <sheetView tabSelected="1" topLeftCell="A229" zoomScale="74" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="G239" sqref="G239"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A1" s="7" t="s">
         <v>54</v>
       </c>
@@ -1762,7 +1739,7 @@
       <c r="K1" s="7"/>
       <c r="L1" s="7"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>78</v>
       </c>
@@ -1800,7 +1777,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>43395</v>
       </c>
@@ -1838,7 +1815,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>43400</v>
       </c>
@@ -1876,7 +1853,7 @@
         <v>32.5</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>43718</v>
       </c>
@@ -1914,7 +1891,7 @@
         <v>19.09</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>43718</v>
       </c>
@@ -1952,7 +1929,7 @@
         <v>19.09</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>43718</v>
       </c>
@@ -1990,7 +1967,7 @@
         <v>19.09</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>43718</v>
       </c>
@@ -2028,7 +2005,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>43719</v>
       </c>
@@ -2066,7 +2043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>43724</v>
       </c>
@@ -2104,7 +2081,7 @@
         <v>18.7</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>43724</v>
       </c>
@@ -2142,7 +2119,7 @@
         <v>38.18</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>43724</v>
       </c>
@@ -2180,7 +2157,7 @@
         <v>38.18</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>43725</v>
       </c>
@@ -2218,7 +2195,7 @@
         <v>18.329999999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>43725</v>
       </c>
@@ -2256,7 +2233,7 @@
         <v>18.329999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>43725</v>
       </c>
@@ -2294,7 +2271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>43725</v>
       </c>
@@ -2332,7 +2309,7 @@
         <v>18.329999999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>43725</v>
       </c>
@@ -2370,7 +2347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>43735</v>
       </c>
@@ -2408,7 +2385,7 @@
         <v>19.09</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>43735</v>
       </c>
@@ -2446,7 +2423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>43735</v>
       </c>
@@ -2484,7 +2461,7 @@
         <v>19.09</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>43735</v>
       </c>
@@ -2522,7 +2499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>43735</v>
       </c>
@@ -2560,7 +2537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>43736</v>
       </c>
@@ -2598,7 +2575,7 @@
         <v>18.7</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>43736</v>
       </c>
@@ -2636,7 +2613,7 @@
         <v>18.7</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>43737</v>
       </c>
@@ -2674,7 +2651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>43737</v>
       </c>
@@ -2712,7 +2689,7 @@
         <v>19.52</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>43737</v>
       </c>
@@ -2751,7 +2728,7 @@
         <v>7.0100000000000007</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>43737</v>
       </c>
@@ -2789,7 +2766,7 @@
         <v>6.38</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>43737</v>
       </c>
@@ -2827,7 +2804,7 @@
         <v>18.7</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>43739</v>
       </c>
@@ -2865,7 +2842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>43739</v>
       </c>
@@ -2903,7 +2880,7 @@
         <v>19.52</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>43739</v>
       </c>
@@ -2941,7 +2918,7 @@
         <v>18.7</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>43741</v>
       </c>
@@ -2979,7 +2956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>43741</v>
       </c>
@@ -3017,7 +2994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>43741</v>
       </c>
@@ -3055,7 +3032,7 @@
         <v>19.09</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>43741</v>
       </c>
@@ -3093,7 +3070,7 @@
         <v>18.329999999999998</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>43744</v>
       </c>
@@ -3132,7 +3109,7 @@
         <v>186.96</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>43744</v>
       </c>
@@ -3170,7 +3147,7 @@
         <v>18.329999999999998</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <v>43744</v>
       </c>
@@ -3208,7 +3185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>43748</v>
       </c>
@@ -3246,7 +3223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>43748</v>
       </c>
@@ -3284,7 +3261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <v>43748</v>
       </c>
@@ -3322,7 +3299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <v>43748</v>
       </c>
@@ -3360,7 +3337,7 @@
         <v>19.09</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>43748</v>
       </c>
@@ -3398,7 +3375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <v>43748</v>
       </c>
@@ -3436,7 +3413,7 @@
         <v>9.17</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <v>43748</v>
       </c>
@@ -3474,7 +3451,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" s="4">
         <v>43748</v>
       </c>
@@ -3512,7 +3489,7 @@
         <v>19.09</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
         <v>43748</v>
       </c>
@@ -3550,7 +3527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
         <v>43748</v>
       </c>
@@ -3588,7 +3565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
         <v>43748</v>
       </c>
@@ -3626,7 +3603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" s="4">
         <v>43748</v>
       </c>
@@ -3664,7 +3641,7 @@
         <v>13.17</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
         <v>43748</v>
       </c>
@@ -3702,7 +3679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" s="4">
         <v>43748</v>
       </c>
@@ -3740,7 +3717,7 @@
         <v>19.52</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" s="4">
         <v>43748</v>
       </c>
@@ -3778,7 +3755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
         <v>43751</v>
       </c>
@@ -3816,7 +3793,7 @@
         <v>18.7</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" s="4">
         <v>43751</v>
       </c>
@@ -3854,7 +3831,7 @@
         <v>19.52</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" s="4">
         <v>43751</v>
       </c>
@@ -3892,7 +3869,7 @@
         <v>19.09</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
         <v>43751</v>
       </c>
@@ -3930,7 +3907,7 @@
         <v>19.09</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" s="4">
         <v>43751</v>
       </c>
@@ -3968,7 +3945,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" s="4">
         <v>43751</v>
       </c>
@@ -4006,7 +3983,7 @@
         <v>19.09</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" s="4">
         <v>43752</v>
       </c>
@@ -4044,7 +4021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" s="4">
         <v>43752</v>
       </c>
@@ -4082,7 +4059,7 @@
         <v>38.18</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" s="4">
         <v>43752</v>
       </c>
@@ -4120,7 +4097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" s="4">
         <v>43752</v>
       </c>
@@ -4158,7 +4135,7 @@
         <v>37.39</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65" s="4">
         <v>43752</v>
       </c>
@@ -4196,7 +4173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" s="4">
         <v>43752</v>
       </c>
@@ -4234,7 +4211,7 @@
         <v>38.18</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67" s="4">
         <v>43753</v>
       </c>
@@ -4272,7 +4249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68" s="4">
         <v>43753</v>
       </c>
@@ -4310,7 +4287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69" s="4">
         <v>43755</v>
       </c>
@@ -4344,7 +4321,7 @@
       <c r="K69" s="1"/>
       <c r="L69" s="1"/>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70" s="4">
         <v>43755</v>
       </c>
@@ -4382,7 +4359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71" s="4">
         <v>43755</v>
       </c>
@@ -4420,7 +4397,7 @@
         <v>26.15</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72" s="4">
         <v>43755</v>
       </c>
@@ -4458,7 +4435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73" s="4">
         <v>43755</v>
       </c>
@@ -4496,7 +4473,7 @@
         <v>36.67</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74" s="4">
         <v>43756</v>
       </c>
@@ -4534,7 +4511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75" s="4">
         <v>43756</v>
       </c>
@@ -4572,7 +4549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76" s="4">
         <v>43756</v>
       </c>
@@ -4610,7 +4587,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77" s="4">
         <v>43756</v>
       </c>
@@ -4648,7 +4625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78" s="4">
         <v>43758</v>
       </c>
@@ -4686,7 +4663,7 @@
         <v>8.65</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79" s="4">
         <v>43758</v>
       </c>
@@ -4724,7 +4701,7 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80" s="4">
         <v>43758</v>
       </c>
@@ -4762,7 +4739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81" s="4">
         <v>43758</v>
       </c>
@@ -4800,7 +4777,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82" s="4">
         <v>43758</v>
       </c>
@@ -4838,7 +4815,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A83" s="4">
         <v>43758</v>
       </c>
@@ -4876,7 +4853,7 @@
         <v>14.55</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84" s="4">
         <v>43758</v>
       </c>
@@ -4914,7 +4891,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A85" s="4">
         <v>43758</v>
       </c>
@@ -4952,7 +4929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A86" s="4">
         <v>43758</v>
       </c>
@@ -4990,7 +4967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A87" s="4">
         <v>43758</v>
       </c>
@@ -5028,7 +5005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A88" s="4">
         <v>43758</v>
       </c>
@@ -5066,7 +5043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A89" s="4">
         <v>43758</v>
       </c>
@@ -5104,7 +5081,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A90" s="4">
         <v>43758</v>
       </c>
@@ -5142,7 +5119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A91" s="4">
         <v>43758</v>
       </c>
@@ -5180,7 +5157,7 @@
         <v>8.85</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A92" s="4">
         <v>43758</v>
       </c>
@@ -5218,7 +5195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A93" s="4">
         <v>43758</v>
       </c>
@@ -5256,7 +5233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A94" s="4">
         <v>43758</v>
       </c>
@@ -5294,7 +5271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A95" s="4">
         <v>43759</v>
       </c>
@@ -5332,7 +5309,7 @@
         <v>17.690000000000001</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A96" s="4">
         <v>43759</v>
       </c>
@@ -5370,7 +5347,7 @@
         <v>19.09</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A97" s="4">
         <v>43759</v>
       </c>
@@ -5408,7 +5385,7 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A98" s="4">
         <v>43760</v>
       </c>
@@ -5446,7 +5423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A99" s="4">
         <v>43760</v>
       </c>
@@ -5484,7 +5461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A100" s="4">
         <v>43760</v>
       </c>
@@ -5522,7 +5499,7 @@
         <v>37.39</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A101" s="4">
         <v>43760</v>
       </c>
@@ -5560,7 +5537,7 @@
         <v>38.18</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A102" s="4">
         <v>43760</v>
       </c>
@@ -5598,7 +5575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A103" s="4">
         <v>43760</v>
       </c>
@@ -5636,7 +5613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A104" s="4">
         <v>43760</v>
       </c>
@@ -5674,7 +5651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A105" s="4">
         <v>43760</v>
       </c>
@@ -5712,7 +5689,7 @@
         <v>36.67</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A106" s="4">
         <v>43760</v>
       </c>
@@ -5750,7 +5727,7 @@
         <v>38.18</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A107" s="4">
         <v>43760</v>
       </c>
@@ -5788,7 +5765,7 @@
         <v>38.18</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A108" s="4">
         <v>43760</v>
       </c>
@@ -5826,7 +5803,7 @@
         <v>37.39</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A109" s="4">
         <v>43760</v>
       </c>
@@ -5864,7 +5841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A110" s="4">
         <v>43760</v>
       </c>
@@ -5902,7 +5879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A111" s="4">
         <v>43760</v>
       </c>
@@ -5940,7 +5917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A112" s="4">
         <v>43760</v>
       </c>
@@ -5978,7 +5955,7 @@
         <v>38.18</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A113" s="4">
         <v>43760</v>
       </c>
@@ -6012,7 +5989,7 @@
       <c r="K113" s="1"/>
       <c r="L113" s="1"/>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A114" s="4">
         <v>43760</v>
       </c>
@@ -6050,7 +6027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A115" s="4">
         <v>43760</v>
       </c>
@@ -6084,7 +6061,7 @@
       <c r="K115" s="1"/>
       <c r="L115" s="1"/>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A116" s="4">
         <v>43760</v>
       </c>
@@ -6122,7 +6099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A117" s="4">
         <v>43760</v>
       </c>
@@ -6156,7 +6133,7 @@
       <c r="K117" s="1"/>
       <c r="L117" s="1"/>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A118" s="4">
         <v>43760</v>
       </c>
@@ -6194,7 +6171,7 @@
         <v>34.71</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A119" s="4">
         <v>43760</v>
       </c>
@@ -6232,7 +6209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A120" s="4">
         <v>43760</v>
       </c>
@@ -6270,7 +6247,7 @@
         <v>28.7</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A121" s="4">
         <v>43760</v>
       </c>
@@ -6308,7 +6285,7 @@
         <v>34.82</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A122" s="4">
         <v>43765</v>
       </c>
@@ -6346,7 +6323,7 @@
         <v>33.79</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A123" s="4">
         <v>43765</v>
       </c>
@@ -6384,7 +6361,7 @@
         <v>39.049999999999997</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A124" s="4">
         <v>43765</v>
       </c>
@@ -6422,7 +6399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A125" s="4">
         <v>43765</v>
       </c>
@@ -6460,7 +6437,7 @@
         <v>27.39</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A126" s="4">
         <v>43765</v>
       </c>
@@ -6498,7 +6475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A127" s="4">
         <v>43765</v>
       </c>
@@ -6536,7 +6513,7 @@
         <v>37.39</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A128" s="4">
         <v>43765</v>
       </c>
@@ -6574,7 +6551,7 @@
         <v>39.39</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A129" s="4">
         <v>43765</v>
       </c>
@@ -6612,7 +6589,7 @@
         <v>37.39</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A130" s="4">
         <v>43765</v>
       </c>
@@ -6650,7 +6627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A131" s="4">
         <v>43765</v>
       </c>
@@ -6688,7 +6665,7 @@
         <v>36.67</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A132" s="4">
         <v>43765</v>
       </c>
@@ -6726,7 +6703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A133" s="4">
         <v>43765</v>
       </c>
@@ -6764,7 +6741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A134" s="4">
         <v>43765</v>
       </c>
@@ -6802,7 +6779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A135" s="4">
         <v>43766</v>
       </c>
@@ -6841,7 +6818,7 @@
         <v>73.34</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A136" s="4">
         <v>43766</v>
       </c>
@@ -6879,7 +6856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A137" s="4">
         <v>43766</v>
       </c>
@@ -6917,7 +6894,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A138" s="4">
         <v>43766</v>
       </c>
@@ -6955,7 +6932,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A139" s="4">
         <v>43766</v>
       </c>
@@ -6993,7 +6970,7 @@
         <v>36.67</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A140" s="4">
         <v>43766</v>
       </c>
@@ -7031,7 +7008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A141" s="4">
         <v>43766</v>
       </c>
@@ -7069,7 +7046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A142" s="4">
         <v>43767</v>
       </c>
@@ -7107,7 +7084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A143" s="4">
         <v>43767</v>
       </c>
@@ -7141,7 +7118,7 @@
       <c r="K143" s="1"/>
       <c r="L143" s="1"/>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A144" s="4">
         <v>43767</v>
       </c>
@@ -7175,7 +7152,7 @@
       <c r="K144" s="1"/>
       <c r="L144" s="1"/>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A145" s="4">
         <v>43767</v>
       </c>
@@ -7209,7 +7186,7 @@
       <c r="K145" s="1"/>
       <c r="L145" s="1"/>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A146" s="4">
         <v>43767</v>
       </c>
@@ -7243,7 +7220,7 @@
       <c r="K146" s="1"/>
       <c r="L146" s="1"/>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A147" s="4">
         <v>43767</v>
       </c>
@@ -7281,7 +7258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A148" s="4">
         <v>43767</v>
       </c>
@@ -7319,7 +7296,7 @@
         <v>38.18</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A149" s="4">
         <v>43767</v>
       </c>
@@ -7351,7 +7328,7 @@
       <c r="K149" s="1"/>
       <c r="L149" s="1"/>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A150" s="4">
         <v>43767</v>
       </c>
@@ -7383,7 +7360,7 @@
       <c r="K150" s="1"/>
       <c r="L150" s="1"/>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A151" s="4">
         <v>43767</v>
       </c>
@@ -7415,7 +7392,7 @@
       <c r="K151" s="1"/>
       <c r="L151" s="1"/>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A152" s="4">
         <v>43767</v>
       </c>
@@ -7447,7 +7424,7 @@
       <c r="K152" s="1"/>
       <c r="L152" s="1"/>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A153" s="4">
         <v>43767</v>
       </c>
@@ -7485,7 +7462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A154" s="4">
         <v>43769</v>
       </c>
@@ -7523,7 +7500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A155" s="4">
         <v>43769</v>
       </c>
@@ -7561,7 +7538,7 @@
         <v>37.39</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A156" s="4">
         <v>43769</v>
       </c>
@@ -7599,7 +7576,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A157" s="4">
         <v>43769</v>
       </c>
@@ -7637,7 +7614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A158" s="4">
         <v>43769</v>
       </c>
@@ -7675,7 +7652,7 @@
         <v>36.18</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A159" s="4">
         <v>43769</v>
       </c>
@@ -7713,7 +7690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A160" s="4">
         <v>43769</v>
       </c>
@@ -7745,7 +7722,7 @@
       <c r="K160" s="1"/>
       <c r="L160" s="1"/>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A161" s="4">
         <v>43769</v>
       </c>
@@ -7783,7 +7760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A162" s="4">
         <v>43769</v>
       </c>
@@ -7821,7 +7798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A163" s="4">
         <v>43769</v>
       </c>
@@ -7859,7 +7836,7 @@
         <v>37.39</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A164" s="4">
         <v>43769</v>
       </c>
@@ -7897,7 +7874,7 @@
         <v>39.049999999999997</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A165" s="4">
         <v>43769</v>
       </c>
@@ -7935,7 +7912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A166" s="4">
         <v>43769</v>
       </c>
@@ -7973,7 +7950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A167" s="4">
         <v>43769</v>
       </c>
@@ -8011,7 +7988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A168" s="4">
         <v>43769</v>
       </c>
@@ -8049,7 +8026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A169" s="4">
         <v>43769</v>
       </c>
@@ -8087,7 +8064,7 @@
         <v>38.18</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A170" s="4">
         <v>43772</v>
       </c>
@@ -8125,7 +8102,7 @@
         <v>18.7</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A171" s="4">
         <v>43772</v>
       </c>
@@ -8163,7 +8140,7 @@
         <v>18.7</v>
       </c>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A172" s="4">
         <v>43772</v>
       </c>
@@ -8202,7 +8179,7 @@
         <v>36.700000000000003</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A173" s="4">
         <v>43772</v>
       </c>
@@ -8240,7 +8217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A174" s="4">
         <v>43772</v>
       </c>
@@ -8278,7 +8255,7 @@
         <v>18.7</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A175" s="4">
         <v>43772</v>
       </c>
@@ -8316,7 +8293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A176" s="4">
         <v>43772</v>
       </c>
@@ -8354,7 +8331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A177" s="4">
         <v>43772</v>
       </c>
@@ -8392,7 +8369,7 @@
         <v>18.7</v>
       </c>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A178" s="4">
         <v>43772</v>
       </c>
@@ -8430,7 +8407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A179" s="4">
         <v>43772</v>
       </c>
@@ -8468,7 +8445,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A180" s="4">
         <v>43772</v>
       </c>
@@ -8506,7 +8483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A181" s="4">
         <v>43772</v>
       </c>
@@ -8544,7 +8521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A182" s="4">
         <v>43773</v>
       </c>
@@ -8582,7 +8559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A183" s="4">
         <v>43773</v>
       </c>
@@ -8620,7 +8597,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A184" s="4">
         <v>43773</v>
       </c>
@@ -8658,7 +8635,7 @@
         <v>18.7</v>
       </c>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A185" s="4">
         <v>43773</v>
       </c>
@@ -8696,7 +8673,7 @@
         <v>59.05</v>
       </c>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A186" s="4">
         <v>43774</v>
       </c>
@@ -8735,7 +8712,7 @@
         <v>38.61</v>
       </c>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A187" s="4">
         <v>43774</v>
       </c>
@@ -8773,7 +8750,7 @@
         <v>19.09</v>
       </c>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A188" s="4">
         <v>43775</v>
       </c>
@@ -8811,7 +8788,7 @@
         <v>19.09</v>
       </c>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A189" s="4">
         <v>43775</v>
       </c>
@@ -8849,7 +8826,7 @@
         <v>37.39</v>
       </c>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A190" s="4">
         <v>43776</v>
       </c>
@@ -8887,7 +8864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A191" s="4">
         <v>43776</v>
       </c>
@@ -8925,7 +8902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A192" s="4">
         <v>43776</v>
       </c>
@@ -8963,7 +8940,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A193" s="4">
         <v>43776</v>
       </c>
@@ -9001,7 +8978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A194" s="4">
         <v>43776</v>
       </c>
@@ -9039,7 +9016,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A195" s="4">
         <v>43776</v>
       </c>
@@ -9077,7 +9054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A196" s="4">
         <v>43776</v>
       </c>
@@ -9115,7 +9092,7 @@
         <v>19.09</v>
       </c>
     </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A197" s="4">
         <v>43776</v>
       </c>
@@ -9153,7 +9130,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A198" s="4">
         <v>43776</v>
       </c>
@@ -9191,7 +9168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A199" s="4">
         <v>43776</v>
       </c>
@@ -9229,7 +9206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A200" s="4">
         <v>43776</v>
       </c>
@@ -9267,7 +9244,7 @@
         <v>19.09</v>
       </c>
     </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A201" s="4">
         <v>43776</v>
       </c>
@@ -9305,7 +9282,7 @@
         <v>19.09</v>
       </c>
     </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A202" s="4">
         <v>43776</v>
       </c>
@@ -9337,7 +9314,7 @@
       <c r="K202" s="1"/>
       <c r="L202" s="1"/>
     </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A203" s="4">
         <v>43776</v>
       </c>
@@ -9369,7 +9346,7 @@
       <c r="K203" s="1"/>
       <c r="L203" s="1"/>
     </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A204" s="4">
         <v>43776</v>
       </c>
@@ -9401,7 +9378,7 @@
       <c r="K204" s="1"/>
       <c r="L204" s="1"/>
     </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A205" s="4">
         <v>43776</v>
       </c>
@@ -9439,7 +9416,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A206" s="4">
         <v>43776</v>
       </c>
@@ -9473,7 +9450,7 @@
       <c r="K206" s="1"/>
       <c r="L206" s="1"/>
     </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A207" s="4">
         <v>43776</v>
       </c>
@@ -9511,7 +9488,7 @@
         <v>56.98</v>
       </c>
     </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A208" s="4">
         <v>43776</v>
       </c>
@@ -9549,7 +9526,7 @@
         <v>19.52</v>
       </c>
     </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A209" s="4">
         <v>43776</v>
       </c>
@@ -9587,7 +9564,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A210" s="4">
         <v>43777</v>
       </c>
@@ -9625,7 +9602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A211" s="4">
         <v>43777</v>
       </c>
@@ -9663,7 +9640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A212" s="4">
         <v>43778</v>
       </c>
@@ -9701,7 +9678,7 @@
         <v>19.09</v>
       </c>
     </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A213" s="4">
         <v>43778</v>
       </c>
@@ -9739,7 +9716,7 @@
         <v>19.09</v>
       </c>
     </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A214" s="4">
         <v>43778</v>
       </c>
@@ -9777,7 +9754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A215" s="4">
         <v>43778</v>
       </c>
@@ -9815,7 +9792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A216" s="4">
         <v>43778</v>
       </c>
@@ -9853,7 +9830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A217" s="4">
         <v>43779</v>
       </c>
@@ -9891,7 +9868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A218" s="4">
         <v>43779</v>
       </c>
@@ -9929,7 +9906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A219" s="4">
         <v>43779</v>
       </c>
@@ -9967,7 +9944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A220" s="4">
         <v>43779</v>
       </c>
@@ -10005,7 +9982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A221" s="4">
         <v>43779</v>
       </c>
@@ -10043,7 +10020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A222" s="4">
         <v>43779</v>
       </c>
@@ -10081,7 +10058,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A223" s="4">
         <v>43779</v>
       </c>
@@ -10119,7 +10096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A224" s="4">
         <v>43779</v>
       </c>
@@ -10157,7 +10134,7 @@
         <v>18.7</v>
       </c>
     </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A225" s="4">
         <v>43779</v>
       </c>
@@ -10195,7 +10172,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A226" s="4">
         <v>43781</v>
       </c>
@@ -10233,7 +10210,7 @@
         <v>19.09</v>
       </c>
     </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A227" s="4">
         <v>43781</v>
       </c>
@@ -10271,7 +10248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A228" s="4">
         <v>43781</v>
       </c>
@@ -10309,7 +10286,7 @@
         <v>19.09</v>
       </c>
     </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A229" s="4">
         <v>43782</v>
       </c>
@@ -10347,7 +10324,7 @@
         <v>18.7</v>
       </c>
     </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A230" s="4">
         <v>43782</v>
       </c>
@@ -10385,7 +10362,7 @@
         <v>19.09</v>
       </c>
     </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A231" s="4">
         <v>43783</v>
       </c>
@@ -10423,7 +10400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A232" s="4">
         <v>43783</v>
       </c>
@@ -10461,7 +10438,7 @@
         <v>18.329999999999998</v>
       </c>
     </row>
-    <row r="233" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A233" s="4">
         <v>43783</v>
       </c>
@@ -10499,7 +10476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A234" s="4">
         <v>43783</v>
       </c>
@@ -10537,7 +10514,7 @@
         <v>19.52</v>
       </c>
     </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A235" s="4">
         <v>43783</v>
       </c>
@@ -10575,7 +10552,7 @@
         <v>19.09</v>
       </c>
     </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A236" s="4">
         <v>43784</v>
       </c>
@@ -10609,7 +10586,7 @@
       <c r="K236" s="1"/>
       <c r="L236" s="1"/>
     </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A237" s="4">
         <v>43784</v>
       </c>
@@ -10647,7 +10624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A238" s="4">
         <v>43784</v>
       </c>
@@ -10681,7 +10658,7 @@
       <c r="K238" s="1"/>
       <c r="L238" s="1"/>
     </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A239" s="4">
         <v>43784</v>
       </c>
@@ -10719,7 +10696,7 @@
         <v>18.329999999999998</v>
       </c>
     </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A240" s="4">
         <v>43784</v>
       </c>
@@ -10757,7 +10734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A241" s="4">
         <v>43784</v>
       </c>
@@ -10795,7 +10772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A242" s="4">
         <v>43784</v>
       </c>
@@ -10833,7 +10810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A243" s="4">
         <v>43784</v>
       </c>
@@ -10871,7 +10848,7 @@
         <v>18.329999999999998</v>
       </c>
     </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A244" s="4">
         <v>43784</v>
       </c>
@@ -10909,7 +10886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A245" s="4">
         <v>43784</v>
       </c>
@@ -10947,7 +10924,7 @@
         <v>19.09</v>
       </c>
     </row>
-    <row r="246" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A246" s="4">
         <v>43784</v>
       </c>
@@ -10985,7 +10962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A247" s="4">
         <v>43786</v>
       </c>
@@ -11023,7 +11000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A248" s="4">
         <v>43786</v>
       </c>
@@ -11061,7 +11038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A249" s="4">
         <v>43786</v>
       </c>
@@ -11099,7 +11076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A250" s="4">
         <v>43786</v>
       </c>
@@ -11137,7 +11114,7 @@
         <v>18.7</v>
       </c>
     </row>
-    <row r="251" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A251" s="4">
         <v>43786</v>
       </c>
@@ -11175,7 +11152,7 @@
         <v>18.7</v>
       </c>
     </row>
-    <row r="252" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A252" s="4">
         <v>43786</v>
       </c>
@@ -11213,7 +11190,7 @@
         <v>19.52</v>
       </c>
     </row>
-    <row r="253" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A253" s="4">
         <v>43786</v>
       </c>
@@ -11251,7 +11228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A254" s="4">
         <v>43786</v>
       </c>
@@ -11289,7 +11266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A255" s="4">
         <v>43785</v>
       </c>
@@ -11327,7 +11304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A256" s="4">
         <v>43787</v>
       </c>
@@ -11365,7 +11342,7 @@
         <v>18.7</v>
       </c>
     </row>
-    <row r="257" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A257" s="4">
         <v>43787</v>
       </c>
@@ -11403,7 +11380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A258" s="4">
         <v>43789</v>
       </c>
@@ -11436,7 +11413,7 @@
       </c>
       <c r="L258" s="1"/>
     </row>
-    <row r="259" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A259" s="4">
         <v>43789</v>
       </c>
@@ -11469,7 +11446,7 @@
       </c>
       <c r="L259" s="1"/>
     </row>
-    <row r="260" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A260" s="4">
         <v>43788</v>
       </c>
@@ -11502,7 +11479,7 @@
       </c>
       <c r="L260" s="1"/>
     </row>
-    <row r="261" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A261" s="4">
         <v>43788</v>
       </c>
@@ -11522,7 +11499,7 @@
         <v>55</v>
       </c>
       <c r="G261" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="H261" t="s">
         <v>84</v>
@@ -11535,7 +11512,7 @@
       </c>
       <c r="L261" s="1"/>
     </row>
-    <row r="262" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A262" s="4">
         <v>43789</v>
       </c>
@@ -11568,7 +11545,7 @@
       </c>
       <c r="L262" s="1"/>
     </row>
-    <row r="263" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A263" s="6" t="s">
         <v>51</v>
       </c>
@@ -11591,13 +11568,13 @@
     <mergeCell ref="A1:L1"/>
   </mergeCells>
   <conditionalFormatting sqref="J1:J1008">
-    <cfRule type="containsText" dxfId="15" priority="55" operator="containsText" text="No Action">
+    <cfRule type="containsText" dxfId="42" priority="55" operator="containsText" text="No Action">
       <formula>NOT(ISERROR(SEARCH("No Action",J1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="56" operator="containsText" text="Win">
+    <cfRule type="containsText" dxfId="41" priority="56" operator="containsText" text="Win">
       <formula>NOT(ISERROR(SEARCH("Win",J1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="57" operator="containsText" text="Loss">
+    <cfRule type="containsText" dxfId="40" priority="57" operator="containsText" text="Loss">
       <formula>NOT(ISERROR(SEARCH("Loss",J1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11610,29 +11587,29 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F82" sqref="F82"/>
+    <sheetView topLeftCell="A61" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K84" sqref="K84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" customWidth="1"/>
-    <col min="4" max="4" width="7.7109375" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" customWidth="1"/>
-    <col min="6" max="6" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" customWidth="1"/>
+    <col min="2" max="2" width="10.88671875" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" customWidth="1"/>
+    <col min="5" max="5" width="9.44140625" customWidth="1"/>
+    <col min="6" max="6" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.44140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A1" s="7" t="s">
         <v>154</v>
       </c>
@@ -11647,7 +11624,7 @@
       <c r="J1" s="7"/>
       <c r="K1" s="7"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>78</v>
       </c>
@@ -11682,7 +11659,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>43766</v>
       </c>
@@ -11717,7 +11694,7 @@
         <v>19.09</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>43766</v>
       </c>
@@ -11752,7 +11729,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>43766</v>
       </c>
@@ -11787,7 +11764,7 @@
         <v>17.690000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>43766</v>
       </c>
@@ -11822,7 +11799,7 @@
         <v>19.52</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>43766</v>
       </c>
@@ -11857,7 +11834,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>43766</v>
       </c>
@@ -11892,7 +11869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>43767</v>
       </c>
@@ -11927,7 +11904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>43767</v>
       </c>
@@ -11962,7 +11939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>43767</v>
       </c>
@@ -11997,7 +11974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>43767</v>
       </c>
@@ -12032,7 +12009,7 @@
         <v>18.7</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>43767</v>
       </c>
@@ -12067,7 +12044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>43767</v>
       </c>
@@ -12102,7 +12079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>43767</v>
       </c>
@@ -12137,7 +12114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>43768</v>
       </c>
@@ -12172,7 +12149,7 @@
         <v>17.41</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>43768</v>
       </c>
@@ -12207,7 +12184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>43768</v>
       </c>
@@ -12242,7 +12219,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>43768</v>
       </c>
@@ -12277,7 +12254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>43768</v>
       </c>
@@ -12312,7 +12289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>43768</v>
       </c>
@@ -12347,7 +12324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>43768</v>
       </c>
@@ -12382,7 +12359,7 @@
         <v>19.09</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>43768</v>
       </c>
@@ -12417,7 +12394,7 @@
         <v>19.52</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>43768</v>
       </c>
@@ -12452,7 +12429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>43769</v>
       </c>
@@ -12487,7 +12464,7 @@
         <v>19.52</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>43769</v>
       </c>
@@ -12522,7 +12499,7 @@
         <v>19.09</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>43769</v>
       </c>
@@ -12557,7 +12534,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>43769</v>
       </c>
@@ -12592,7 +12569,7 @@
         <v>18.7</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>43770</v>
       </c>
@@ -12627,7 +12604,7 @@
         <v>18.7</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>43770</v>
       </c>
@@ -12662,7 +12639,7 @@
         <v>19.52</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>43771</v>
       </c>
@@ -12697,7 +12674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>43772</v>
       </c>
@@ -12732,7 +12709,7 @@
         <v>17.41</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>43772</v>
       </c>
@@ -12767,7 +12744,7 @@
         <v>18.329999999999998</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>43773</v>
       </c>
@@ -12802,7 +12779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>43773</v>
       </c>
@@ -12837,7 +12814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>43773</v>
       </c>
@@ -12872,7 +12849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>43773</v>
       </c>
@@ -12907,7 +12884,7 @@
         <v>19.09</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>43773</v>
       </c>
@@ -12942,7 +12919,7 @@
         <v>19.09</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <v>43774</v>
       </c>
@@ -12977,7 +12954,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>43774</v>
       </c>
@@ -13012,7 +12989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>43774</v>
       </c>
@@ -13047,7 +13024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <v>43774</v>
       </c>
@@ -13082,7 +13059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <v>43774</v>
       </c>
@@ -13117,7 +13094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>43774</v>
       </c>
@@ -13152,7 +13129,7 @@
         <v>19.09</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <v>43774</v>
       </c>
@@ -13187,7 +13164,7 @@
         <v>18.7</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <v>43775</v>
       </c>
@@ -13222,7 +13199,7 @@
         <v>19.09</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="4">
         <v>43775</v>
       </c>
@@ -13257,7 +13234,7 @@
         <v>36.67</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
         <v>43775</v>
       </c>
@@ -13292,7 +13269,7 @@
         <v>18.7</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
         <v>43775</v>
       </c>
@@ -13327,7 +13304,7 @@
         <v>18.7</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
         <v>43775</v>
       </c>
@@ -13362,7 +13339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="4">
         <v>43775</v>
       </c>
@@ -13397,7 +13374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
         <v>43775</v>
       </c>
@@ -13432,7 +13409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="4">
         <v>43775</v>
       </c>
@@ -13467,7 +13444,7 @@
         <v>18.7</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="4">
         <v>43775</v>
       </c>
@@ -13502,7 +13479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
         <v>43775</v>
       </c>
@@ -13537,7 +13514,7 @@
         <v>18.7</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="4">
         <v>43775</v>
       </c>
@@ -13572,7 +13549,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="4">
         <v>43775</v>
       </c>
@@ -13607,7 +13584,7 @@
         <v>18.7</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
         <v>43776</v>
       </c>
@@ -13642,7 +13619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="4">
         <v>43776</v>
       </c>
@@ -13677,7 +13654,7 @@
         <v>16.25</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="4">
         <v>43776</v>
       </c>
@@ -13712,7 +13689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="4">
         <v>43776</v>
       </c>
@@ -13747,7 +13724,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="4">
         <v>43776</v>
       </c>
@@ -13782,7 +13759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="4">
         <v>43776</v>
       </c>
@@ -13817,7 +13794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="4">
         <v>43777</v>
       </c>
@@ -13852,7 +13829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="4">
         <v>43777</v>
       </c>
@@ -13887,7 +13864,7 @@
         <v>19.52</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="4">
         <v>43777</v>
       </c>
@@ -13922,7 +13899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="4">
         <v>43779</v>
       </c>
@@ -13957,7 +13934,7 @@
         <v>18.7</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="4">
         <v>43782</v>
       </c>
@@ -13992,7 +13969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="4">
         <v>43782</v>
       </c>
@@ -14027,7 +14004,7 @@
         <v>19.09</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="4">
         <v>43782</v>
       </c>
@@ -14062,7 +14039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="4">
         <v>43782</v>
       </c>
@@ -14097,7 +14074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="4">
         <v>43782</v>
       </c>
@@ -14132,7 +14109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="4">
         <v>43782</v>
       </c>
@@ -14167,7 +14144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="4">
         <v>43782</v>
       </c>
@@ -14202,7 +14179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="4">
         <v>43782</v>
       </c>
@@ -14237,7 +14214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="4">
         <v>43782</v>
       </c>
@@ -14272,7 +14249,7 @@
         <v>19.09</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="4">
         <v>43782</v>
       </c>
@@ -14307,7 +14284,7 @@
         <v>19.09</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="4">
         <v>43784</v>
       </c>
@@ -14342,7 +14319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="4">
         <v>43784</v>
       </c>
@@ -14377,7 +14354,7 @@
         <v>19.09</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="4">
         <v>43785</v>
       </c>
@@ -14412,7 +14389,7 @@
         <v>38.18</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="4">
         <v>43786</v>
       </c>
@@ -14447,7 +14424,7 @@
         <v>19.09</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="4">
         <v>43787</v>
       </c>
@@ -14482,7 +14459,7 @@
         <v>19.09</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="4">
         <v>43789</v>
       </c>
@@ -14507,12 +14484,17 @@
       <c r="H83" t="s">
         <v>13</v>
       </c>
+      <c r="I83" t="s">
+        <v>23</v>
+      </c>
       <c r="J83" s="1">
         <v>10</v>
       </c>
-      <c r="K83" s="1"/>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K83" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="4">
         <v>43789</v>
       </c>
@@ -14537,12 +14519,17 @@
       <c r="H84" t="s">
         <v>287</v>
       </c>
+      <c r="I84" t="s">
+        <v>29</v>
+      </c>
       <c r="J84" s="1">
         <v>10</v>
       </c>
-      <c r="K84" s="1"/>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K84" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="4">
         <v>43789</v>
       </c>
@@ -14572,17 +14559,17 @@
       </c>
       <c r="K85" s="1"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>51</v>
       </c>
       <c r="J86" s="1">
         <f>SUMIF(Table4[Result],"&lt;&gt;",Table4[Bet Size])</f>
-        <v>850</v>
+        <v>870</v>
       </c>
       <c r="K86" s="1">
         <f>SUMIF(Table4[Result],"&lt;&gt;",Table4[Payout])</f>
-        <v>812.71000000000026</v>
+        <v>834.71000000000026</v>
       </c>
     </row>
   </sheetData>
@@ -14590,13 +14577,13 @@
     <mergeCell ref="A1:K1"/>
   </mergeCells>
   <conditionalFormatting sqref="I3:I85 I87:I167">
-    <cfRule type="containsText" dxfId="12" priority="21" operator="containsText" text="Win">
+    <cfRule type="containsText" dxfId="31" priority="21" operator="containsText" text="Win">
       <formula>NOT(ISERROR(SEARCH("Win",I3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="22" operator="containsText" text="Loss">
+    <cfRule type="containsText" dxfId="30" priority="22" operator="containsText" text="Loss">
       <formula>NOT(ISERROR(SEARCH("Loss",I3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="23" operator="containsText" text="No Action">
+    <cfRule type="containsText" dxfId="29" priority="23" operator="containsText" text="No Action">
       <formula>NOT(ISERROR(SEARCH("No Action",I3)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14608,27 +14595,27 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.44140625" customWidth="1"/>
+    <col min="8" max="8" width="14.44140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>20</v>
       </c>
@@ -14641,7 +14628,7 @@
       <c r="H1" s="8"/>
       <c r="I1" s="8"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>33</v>
       </c>
@@ -14670,7 +14657,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>43685</v>
       </c>
@@ -14699,7 +14686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>43685</v>
       </c>
@@ -14728,7 +14715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>43685</v>
       </c>
@@ -14757,7 +14744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>43685</v>
       </c>
@@ -14786,7 +14773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>43685</v>
       </c>
@@ -14815,7 +14802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>43686</v>
       </c>
@@ -14844,7 +14831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>43686</v>
       </c>
@@ -14873,7 +14860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>43686</v>
       </c>
@@ -14902,7 +14889,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>43686</v>
       </c>
@@ -14931,7 +14918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>43686</v>
       </c>
@@ -14960,7 +14947,7 @@
         <v>9.76</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>43687</v>
       </c>
@@ -14989,7 +14976,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>43687</v>
       </c>
@@ -15018,7 +15005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>43687</v>
       </c>
@@ -15047,7 +15034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>43687</v>
       </c>
@@ -15076,7 +15063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>43687</v>
       </c>
@@ -15105,7 +15092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>43697</v>
       </c>
@@ -15134,7 +15121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>43697</v>
       </c>
@@ -15163,7 +15150,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>43697</v>
       </c>
@@ -15192,7 +15179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>43697</v>
       </c>
@@ -15221,7 +15208,7 @@
         <v>8.57</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>43698</v>
       </c>
@@ -15250,7 +15237,7 @@
         <v>8.9700000000000006</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>43698</v>
       </c>
@@ -15279,7 +15266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>43698</v>
       </c>
@@ -15308,7 +15295,7 @@
         <v>8.14</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>43698</v>
       </c>
@@ -15337,7 +15324,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>43699</v>
       </c>
@@ -15366,7 +15353,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>43699</v>
       </c>
@@ -15395,7 +15382,7 @@
         <v>14.65</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>43704</v>
       </c>
@@ -15424,7 +15411,7 @@
         <v>15.1</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>43704</v>
       </c>
@@ -15453,7 +15440,7 @@
         <v>8.65</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>43704</v>
       </c>
@@ -15482,7 +15469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>43705</v>
       </c>
@@ -15511,7 +15498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>43705</v>
       </c>
@@ -15540,7 +15527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>43705</v>
       </c>
@@ -15569,7 +15556,7 @@
         <v>8.33</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>51</v>
       </c>
@@ -15591,10 +15578,10 @@
     <mergeCell ref="A1:I1"/>
   </mergeCells>
   <conditionalFormatting sqref="J34">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="25" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="24" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
     <cfRule type="colorScale" priority="3">
@@ -15609,13 +15596,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="containsText" dxfId="7" priority="4" operator="containsText" text="No Action">
+    <cfRule type="containsText" dxfId="23" priority="4" operator="containsText" text="No Action">
       <formula>NOT(ISERROR(SEARCH("No Action",G1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="5" operator="containsText" text="Win">
+    <cfRule type="containsText" dxfId="22" priority="5" operator="containsText" text="Win">
       <formula>NOT(ISERROR(SEARCH("Win",G1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="Loss">
+    <cfRule type="containsText" dxfId="21" priority="6" operator="containsText" text="Loss">
       <formula>NOT(ISERROR(SEARCH("Loss",G1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15627,28 +15614,28 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5703125" customWidth="1"/>
-    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5546875" customWidth="1"/>
+    <col min="5" max="5" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>45</v>
       </c>
@@ -15662,7 +15649,7 @@
       <c r="I1" s="8"/>
       <c r="J1" s="8"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>33</v>
       </c>
@@ -15694,7 +15681,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>43698</v>
       </c>
@@ -15731,13 +15718,13 @@
     <mergeCell ref="A1:J1"/>
   </mergeCells>
   <conditionalFormatting sqref="H1:H3">
-    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="No Action">
+    <cfRule type="containsText" dxfId="15" priority="1" operator="containsText" text="No Action">
       <formula>NOT(ISERROR(SEARCH("No Action",H1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="Win">
+    <cfRule type="containsText" dxfId="14" priority="2" operator="containsText" text="Win">
       <formula>NOT(ISERROR(SEARCH("Win",H1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="Loss">
+    <cfRule type="containsText" dxfId="13" priority="3" operator="containsText" text="Loss">
       <formula>NOT(ISERROR(SEARCH("Loss",H1)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/SportsBettingLogs.xlsx
+++ b/SportsBettingLogs.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brcro\OneDrive\Documents\GitHub\SportsBetting\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brandon Croarkin\Documents\GitHub\SportsBetting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="11_53FDA074F688A2E8BD123843326BE335E5B1298B" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{53C21403-B586-49C9-B5BD-CFED7E35A8BA}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Summary Tab" sheetId="4" r:id="rId1"/>
@@ -19,7 +18,7 @@
     <sheet name="Baseball Bets" sheetId="1" r:id="rId4"/>
     <sheet name="Soccer Bets" sheetId="2" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2278" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2346" uniqueCount="315">
   <si>
     <t>Bet Type</t>
   </si>
@@ -959,12 +958,33 @@
   </si>
   <si>
     <t>Brooklyn Nets</t>
+  </si>
+  <si>
+    <t>The Citadel</t>
+  </si>
+  <si>
+    <t>UC Davis</t>
+  </si>
+  <si>
+    <t>Sacramento State</t>
+  </si>
+  <si>
+    <t>Texas A&amp;M</t>
+  </si>
+  <si>
+    <t>Morehead State</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>Georgia Tech</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
@@ -1050,7 +1070,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="43">
+  <dxfs count="53">
     <dxf>
       <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     </dxf>
@@ -1074,21 +1094,6 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
     </dxf>
     <dxf>
       <font>
@@ -1119,21 +1124,6 @@
           <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
     </dxf>
     <dxf>
       <font>
@@ -1186,14 +1176,70 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     </dxf>
     <dxf>
       <font>
@@ -1226,6 +1272,82 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     </dxf>
     <dxf>
@@ -1251,36 +1373,6 @@
       <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1295,26 +1387,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table134" displayName="Table134" ref="A2:L263" totalsRowCount="1">
-  <autoFilter ref="A2:L262" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:L235">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table134" displayName="Table134" ref="A2:L272" totalsRowCount="1">
+  <autoFilter ref="A2:L271"/>
+  <sortState ref="A3:L235">
     <sortCondition ref="A2:A235"/>
   </sortState>
   <tableColumns count="12">
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Date Placed" totalsRowLabel="Total" dataDxfId="39" totalsRowDxfId="7"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="NFL Week" dataDxfId="38" totalsRowDxfId="6"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Bet Type" dataDxfId="37" totalsRowDxfId="5"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Points" dataDxfId="36" totalsRowDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Odds" dataDxfId="35" totalsRowDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="League" dataDxfId="34" totalsRowDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Home Team"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Away Team"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Outcome Chosen"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Result"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Bet Size" totalsRowFunction="custom" dataDxfId="33" totalsRowDxfId="1">
+    <tableColumn id="17" name="Date Placed" totalsRowLabel="Total" dataDxfId="52" totalsRowDxfId="7"/>
+    <tableColumn id="11" name="NFL Week" dataDxfId="51" totalsRowDxfId="6"/>
+    <tableColumn id="1" name="Bet Type" dataDxfId="50" totalsRowDxfId="5"/>
+    <tableColumn id="10" name="Points" dataDxfId="49" totalsRowDxfId="4"/>
+    <tableColumn id="2" name="Odds" dataDxfId="48" totalsRowDxfId="3"/>
+    <tableColumn id="9" name="League" dataDxfId="47" totalsRowDxfId="2"/>
+    <tableColumn id="3" name="Home Team"/>
+    <tableColumn id="4" name="Away Team"/>
+    <tableColumn id="5" name="Outcome Chosen"/>
+    <tableColumn id="6" name="Result"/>
+    <tableColumn id="7" name="Bet Size" totalsRowFunction="custom" dataDxfId="46" totalsRowDxfId="1">
       <totalsRowFormula>SUMIF(Table134[Result],"&lt;&gt;",Table134[Bet Size])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Payout" totalsRowFunction="custom" dataDxfId="32" totalsRowDxfId="0">
+    <tableColumn id="8" name="Payout" totalsRowFunction="custom" dataDxfId="45" totalsRowDxfId="0">
       <totalsRowFormula>SUMIF(Table134[Result],"&lt;&gt;",Table134[Payout])</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -1323,25 +1415,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table4" displayName="Table4" ref="A2:K86" totalsRowCount="1">
-  <autoFilter ref="A2:K85" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:K82">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A2:K91" totalsRowCount="1">
+  <autoFilter ref="A2:K90"/>
+  <sortState ref="A3:K82">
     <sortCondition ref="A2:A82"/>
   </sortState>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Date Placed" totalsRowLabel="Total" dataDxfId="28"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Bet Type"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Points"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Odds"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="League"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Home Team"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Away Team"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Outcome Chosen"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Result"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Bet Size" totalsRowFunction="custom" dataDxfId="27" totalsRowDxfId="9">
+    <tableColumn id="1" name="Date Placed" totalsRowLabel="Total" dataDxfId="34"/>
+    <tableColumn id="2" name="Bet Type" dataDxfId="33"/>
+    <tableColumn id="3" name="Points" dataDxfId="32"/>
+    <tableColumn id="4" name="Odds" dataDxfId="31"/>
+    <tableColumn id="5" name="League" dataDxfId="30"/>
+    <tableColumn id="6" name="Home Team"/>
+    <tableColumn id="7" name="Away Team"/>
+    <tableColumn id="8" name="Outcome Chosen"/>
+    <tableColumn id="9" name="Result"/>
+    <tableColumn id="10" name="Bet Size" totalsRowFunction="custom" dataDxfId="44" totalsRowDxfId="23">
       <totalsRowFormula>SUMIF(Table4[Result],"&lt;&gt;",Table4[Bet Size])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="Payout" totalsRowFunction="custom" dataDxfId="26" totalsRowDxfId="8">
+    <tableColumn id="11" name="Payout" totalsRowFunction="custom" dataDxfId="43" totalsRowDxfId="22">
       <totalsRowFormula>SUMIF(Table4[Result],"&lt;&gt;",Table4[Payout])</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -1350,23 +1442,23 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table1" displayName="Table1" ref="A2:I34" totalsRowCount="1">
-  <autoFilter ref="A2:I33" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:I27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:I34" totalsRowCount="1">
+  <autoFilter ref="A2:I33"/>
+  <sortState ref="A3:I27">
     <sortCondition ref="A2:A27"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0200-000011000000}" name="Date" totalsRowLabel="Total" dataDxfId="20"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Bet Type"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Odds"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Team 1"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Team 2"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Outcome Chosen"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Result"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="Bet Size" totalsRowFunction="custom" dataDxfId="19" totalsRowDxfId="18">
+    <tableColumn id="17" name="Date" totalsRowLabel="Total" dataDxfId="42"/>
+    <tableColumn id="1" name="Bet Type"/>
+    <tableColumn id="2" name="Odds"/>
+    <tableColumn id="3" name="Team 1"/>
+    <tableColumn id="4" name="Team 2"/>
+    <tableColumn id="5" name="Outcome Chosen"/>
+    <tableColumn id="6" name="Result"/>
+    <tableColumn id="7" name="Bet Size" totalsRowFunction="custom" dataDxfId="41" totalsRowDxfId="40">
       <totalsRowFormula>SUMIF(Table1[Result],"&lt;&gt;",Table1[Bet Size])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="Payout" totalsRowFunction="custom" dataDxfId="17" totalsRowDxfId="16">
+    <tableColumn id="8" name="Payout" totalsRowFunction="custom" dataDxfId="39" totalsRowDxfId="38">
       <totalsRowFormula>SUMIF(Table1[Result],"&lt;&gt;",Table1[Payout])</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -1375,19 +1467,19 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table13" displayName="Table13" ref="A2:J3" totalsRowShown="0">
-  <autoFilter ref="A2:J3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A2:J3" totalsRowShown="0">
+  <autoFilter ref="A2:J3"/>
   <tableColumns count="10">
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0300-000011000000}" name="Date" dataDxfId="12"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Bet Type"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Odds"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0300-000009000000}" name="League"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Team 1"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Team 2"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Outcome Chosen"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="Result"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="Bet Size" dataDxfId="11"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="Payout" dataDxfId="10"/>
+    <tableColumn id="17" name="Date" dataDxfId="37"/>
+    <tableColumn id="1" name="Bet Type"/>
+    <tableColumn id="2" name="Odds"/>
+    <tableColumn id="9" name="League"/>
+    <tableColumn id="3" name="Team 1"/>
+    <tableColumn id="4" name="Team 2"/>
+    <tableColumn id="5" name="Outcome Chosen"/>
+    <tableColumn id="6" name="Result"/>
+    <tableColumn id="7" name="Bet Size" dataDxfId="36"/>
+    <tableColumn id="8" name="Payout" dataDxfId="35"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1689,41 +1781,41 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L263"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L272"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A229" zoomScale="74" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="G239" sqref="G239"/>
+    <sheetView tabSelected="1" topLeftCell="A246" zoomScale="74" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="G273" sqref="G273"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="24.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:12" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="7" t="s">
         <v>54</v>
       </c>
@@ -1739,7 +1831,7 @@
       <c r="K1" s="7"/>
       <c r="L1" s="7"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>78</v>
       </c>
@@ -1777,7 +1869,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>43395</v>
       </c>
@@ -1815,7 +1907,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>43400</v>
       </c>
@@ -1853,7 +1945,7 @@
         <v>32.5</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>43718</v>
       </c>
@@ -1891,7 +1983,7 @@
         <v>19.09</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>43718</v>
       </c>
@@ -1929,7 +2021,7 @@
         <v>19.09</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>43718</v>
       </c>
@@ -1967,7 +2059,7 @@
         <v>19.09</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>43718</v>
       </c>
@@ -2005,7 +2097,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>43719</v>
       </c>
@@ -2043,7 +2135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>43724</v>
       </c>
@@ -2081,7 +2173,7 @@
         <v>18.7</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>43724</v>
       </c>
@@ -2119,7 +2211,7 @@
         <v>38.18</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>43724</v>
       </c>
@@ -2157,7 +2249,7 @@
         <v>38.18</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>43725</v>
       </c>
@@ -2195,7 +2287,7 @@
         <v>18.329999999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>43725</v>
       </c>
@@ -2233,7 +2325,7 @@
         <v>18.329999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>43725</v>
       </c>
@@ -2271,7 +2363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>43725</v>
       </c>
@@ -2309,7 +2401,7 @@
         <v>18.329999999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>43725</v>
       </c>
@@ -2347,7 +2439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>43735</v>
       </c>
@@ -2385,7 +2477,7 @@
         <v>19.09</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>43735</v>
       </c>
@@ -2423,7 +2515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>43735</v>
       </c>
@@ -2461,7 +2553,7 @@
         <v>19.09</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>43735</v>
       </c>
@@ -2499,7 +2591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>43735</v>
       </c>
@@ -2537,7 +2629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>43736</v>
       </c>
@@ -2575,7 +2667,7 @@
         <v>18.7</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>43736</v>
       </c>
@@ -2613,7 +2705,7 @@
         <v>18.7</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>43737</v>
       </c>
@@ -2651,7 +2743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>43737</v>
       </c>
@@ -2689,7 +2781,7 @@
         <v>19.52</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>43737</v>
       </c>
@@ -2728,7 +2820,7 @@
         <v>7.0100000000000007</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>43737</v>
       </c>
@@ -2766,7 +2858,7 @@
         <v>6.38</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>43737</v>
       </c>
@@ -2804,7 +2896,7 @@
         <v>18.7</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>43739</v>
       </c>
@@ -2842,7 +2934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>43739</v>
       </c>
@@ -2880,7 +2972,7 @@
         <v>19.52</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>43739</v>
       </c>
@@ -2918,7 +3010,7 @@
         <v>18.7</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>43741</v>
       </c>
@@ -2956,7 +3048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>43741</v>
       </c>
@@ -2994,7 +3086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>43741</v>
       </c>
@@ -3032,7 +3124,7 @@
         <v>19.09</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>43741</v>
       </c>
@@ -3070,7 +3162,7 @@
         <v>18.329999999999998</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>43744</v>
       </c>
@@ -3109,7 +3201,7 @@
         <v>186.96</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>43744</v>
       </c>
@@ -3147,7 +3239,7 @@
         <v>18.329999999999998</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>43744</v>
       </c>
@@ -3185,7 +3277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>43748</v>
       </c>
@@ -3223,7 +3315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>43748</v>
       </c>
@@ -3261,7 +3353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>43748</v>
       </c>
@@ -3299,7 +3391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>43748</v>
       </c>
@@ -3337,7 +3429,7 @@
         <v>19.09</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>43748</v>
       </c>
@@ -3375,7 +3467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>43748</v>
       </c>
@@ -3413,7 +3505,7 @@
         <v>9.17</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>43748</v>
       </c>
@@ -3451,7 +3543,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>43748</v>
       </c>
@@ -3489,7 +3581,7 @@
         <v>19.09</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>43748</v>
       </c>
@@ -3527,7 +3619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>43748</v>
       </c>
@@ -3565,7 +3657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>43748</v>
       </c>
@@ -3603,7 +3695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>43748</v>
       </c>
@@ -3641,7 +3733,7 @@
         <v>13.17</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>43748</v>
       </c>
@@ -3679,7 +3771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>43748</v>
       </c>
@@ -3717,7 +3809,7 @@
         <v>19.52</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <v>43748</v>
       </c>
@@ -3755,7 +3847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>43751</v>
       </c>
@@ -3793,7 +3885,7 @@
         <v>18.7</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <v>43751</v>
       </c>
@@ -3831,7 +3923,7 @@
         <v>19.52</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <v>43751</v>
       </c>
@@ -3869,7 +3961,7 @@
         <v>19.09</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <v>43751</v>
       </c>
@@ -3907,7 +3999,7 @@
         <v>19.09</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <v>43751</v>
       </c>
@@ -3945,7 +4037,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
         <v>43751</v>
       </c>
@@ -3983,7 +4075,7 @@
         <v>19.09</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
         <v>43752</v>
       </c>
@@ -4021,7 +4113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
         <v>43752</v>
       </c>
@@ -4059,7 +4151,7 @@
         <v>38.18</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
         <v>43752</v>
       </c>
@@ -4097,7 +4189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
         <v>43752</v>
       </c>
@@ -4135,7 +4227,7 @@
         <v>37.39</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
         <v>43752</v>
       </c>
@@ -4173,7 +4265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
         <v>43752</v>
       </c>
@@ -4211,7 +4303,7 @@
         <v>38.18</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
         <v>43753</v>
       </c>
@@ -4249,7 +4341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
         <v>43753</v>
       </c>
@@ -4287,7 +4379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
         <v>43755</v>
       </c>
@@ -4321,7 +4413,7 @@
       <c r="K69" s="1"/>
       <c r="L69" s="1"/>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
         <v>43755</v>
       </c>
@@ -4359,7 +4451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
         <v>43755</v>
       </c>
@@ -4397,7 +4489,7 @@
         <v>26.15</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
         <v>43755</v>
       </c>
@@ -4435,7 +4527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
         <v>43755</v>
       </c>
@@ -4473,7 +4565,7 @@
         <v>36.67</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
         <v>43756</v>
       </c>
@@ -4511,7 +4603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
         <v>43756</v>
       </c>
@@ -4549,7 +4641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
         <v>43756</v>
       </c>
@@ -4587,7 +4679,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
         <v>43756</v>
       </c>
@@ -4625,7 +4717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
         <v>43758</v>
       </c>
@@ -4663,7 +4755,7 @@
         <v>8.65</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
         <v>43758</v>
       </c>
@@ -4701,7 +4793,7 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
         <v>43758</v>
       </c>
@@ -4739,7 +4831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
         <v>43758</v>
       </c>
@@ -4777,7 +4869,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
         <v>43758</v>
       </c>
@@ -4815,7 +4907,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
         <v>43758</v>
       </c>
@@ -4853,7 +4945,7 @@
         <v>14.55</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
         <v>43758</v>
       </c>
@@ -4891,7 +4983,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
         <v>43758</v>
       </c>
@@ -4929,7 +5021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
         <v>43758</v>
       </c>
@@ -4967,7 +5059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
         <v>43758</v>
       </c>
@@ -5005,7 +5097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
         <v>43758</v>
       </c>
@@ -5043,7 +5135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="4">
         <v>43758</v>
       </c>
@@ -5081,7 +5173,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="4">
         <v>43758</v>
       </c>
@@ -5119,7 +5211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="4">
         <v>43758</v>
       </c>
@@ -5157,7 +5249,7 @@
         <v>8.85</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="4">
         <v>43758</v>
       </c>
@@ -5195,7 +5287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="4">
         <v>43758</v>
       </c>
@@ -5233,7 +5325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="4">
         <v>43758</v>
       </c>
@@ -5271,7 +5363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="4">
         <v>43759</v>
       </c>
@@ -5309,7 +5401,7 @@
         <v>17.690000000000001</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="4">
         <v>43759</v>
       </c>
@@ -5347,7 +5439,7 @@
         <v>19.09</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" s="4">
         <v>43759</v>
       </c>
@@ -5385,7 +5477,7 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" s="4">
         <v>43760</v>
       </c>
@@ -5423,7 +5515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" s="4">
         <v>43760</v>
       </c>
@@ -5461,7 +5553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" s="4">
         <v>43760</v>
       </c>
@@ -5499,7 +5591,7 @@
         <v>37.39</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" s="4">
         <v>43760</v>
       </c>
@@ -5537,7 +5629,7 @@
         <v>38.18</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" s="4">
         <v>43760</v>
       </c>
@@ -5575,7 +5667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" s="4">
         <v>43760</v>
       </c>
@@ -5613,7 +5705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" s="4">
         <v>43760</v>
       </c>
@@ -5651,7 +5743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" s="4">
         <v>43760</v>
       </c>
@@ -5689,7 +5781,7 @@
         <v>36.67</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" s="4">
         <v>43760</v>
       </c>
@@ -5727,7 +5819,7 @@
         <v>38.18</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" s="4">
         <v>43760</v>
       </c>
@@ -5765,7 +5857,7 @@
         <v>38.18</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" s="4">
         <v>43760</v>
       </c>
@@ -5803,7 +5895,7 @@
         <v>37.39</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" s="4">
         <v>43760</v>
       </c>
@@ -5841,7 +5933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" s="4">
         <v>43760</v>
       </c>
@@ -5879,7 +5971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" s="4">
         <v>43760</v>
       </c>
@@ -5917,7 +6009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" s="4">
         <v>43760</v>
       </c>
@@ -5955,7 +6047,7 @@
         <v>38.18</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" s="4">
         <v>43760</v>
       </c>
@@ -5989,7 +6081,7 @@
       <c r="K113" s="1"/>
       <c r="L113" s="1"/>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" s="4">
         <v>43760</v>
       </c>
@@ -6027,7 +6119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" s="4">
         <v>43760</v>
       </c>
@@ -6061,7 +6153,7 @@
       <c r="K115" s="1"/>
       <c r="L115" s="1"/>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" s="4">
         <v>43760</v>
       </c>
@@ -6099,7 +6191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" s="4">
         <v>43760</v>
       </c>
@@ -6133,7 +6225,7 @@
       <c r="K117" s="1"/>
       <c r="L117" s="1"/>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" s="4">
         <v>43760</v>
       </c>
@@ -6171,7 +6263,7 @@
         <v>34.71</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" s="4">
         <v>43760</v>
       </c>
@@ -6209,7 +6301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" s="4">
         <v>43760</v>
       </c>
@@ -6247,7 +6339,7 @@
         <v>28.7</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" s="4">
         <v>43760</v>
       </c>
@@ -6285,7 +6377,7 @@
         <v>34.82</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122" s="4">
         <v>43765</v>
       </c>
@@ -6323,7 +6415,7 @@
         <v>33.79</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" s="4">
         <v>43765</v>
       </c>
@@ -6361,7 +6453,7 @@
         <v>39.049999999999997</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124" s="4">
         <v>43765</v>
       </c>
@@ -6399,7 +6491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125" s="4">
         <v>43765</v>
       </c>
@@ -6437,7 +6529,7 @@
         <v>27.39</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126" s="4">
         <v>43765</v>
       </c>
@@ -6475,7 +6567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" s="4">
         <v>43765</v>
       </c>
@@ -6513,7 +6605,7 @@
         <v>37.39</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128" s="4">
         <v>43765</v>
       </c>
@@ -6551,7 +6643,7 @@
         <v>39.39</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129" s="4">
         <v>43765</v>
       </c>
@@ -6589,7 +6681,7 @@
         <v>37.39</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130" s="4">
         <v>43765</v>
       </c>
@@ -6627,7 +6719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" s="4">
         <v>43765</v>
       </c>
@@ -6665,7 +6757,7 @@
         <v>36.67</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132" s="4">
         <v>43765</v>
       </c>
@@ -6703,7 +6795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133" s="4">
         <v>43765</v>
       </c>
@@ -6741,7 +6833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134" s="4">
         <v>43765</v>
       </c>
@@ -6779,7 +6871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135" s="4">
         <v>43766</v>
       </c>
@@ -6818,7 +6910,7 @@
         <v>73.34</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136" s="4">
         <v>43766</v>
       </c>
@@ -6856,7 +6948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137" s="4">
         <v>43766</v>
       </c>
@@ -6894,7 +6986,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138" s="4">
         <v>43766</v>
       </c>
@@ -6932,7 +7024,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139" s="4">
         <v>43766</v>
       </c>
@@ -6970,7 +7062,7 @@
         <v>36.67</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140" s="4">
         <v>43766</v>
       </c>
@@ -7008,7 +7100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141" s="4">
         <v>43766</v>
       </c>
@@ -7046,7 +7138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A142" s="4">
         <v>43767</v>
       </c>
@@ -7084,7 +7176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143" s="4">
         <v>43767</v>
       </c>
@@ -7118,7 +7210,7 @@
       <c r="K143" s="1"/>
       <c r="L143" s="1"/>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A144" s="4">
         <v>43767</v>
       </c>
@@ -7152,7 +7244,7 @@
       <c r="K144" s="1"/>
       <c r="L144" s="1"/>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145" s="4">
         <v>43767</v>
       </c>
@@ -7186,7 +7278,7 @@
       <c r="K145" s="1"/>
       <c r="L145" s="1"/>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146" s="4">
         <v>43767</v>
       </c>
@@ -7220,7 +7312,7 @@
       <c r="K146" s="1"/>
       <c r="L146" s="1"/>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147" s="4">
         <v>43767</v>
       </c>
@@ -7258,7 +7350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148" s="4">
         <v>43767</v>
       </c>
@@ -7296,7 +7388,7 @@
         <v>38.18</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149" s="4">
         <v>43767</v>
       </c>
@@ -7328,7 +7420,7 @@
       <c r="K149" s="1"/>
       <c r="L149" s="1"/>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150" s="4">
         <v>43767</v>
       </c>
@@ -7360,7 +7452,7 @@
       <c r="K150" s="1"/>
       <c r="L150" s="1"/>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151" s="4">
         <v>43767</v>
       </c>
@@ -7392,7 +7484,7 @@
       <c r="K151" s="1"/>
       <c r="L151" s="1"/>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A152" s="4">
         <v>43767</v>
       </c>
@@ -7424,7 +7516,7 @@
       <c r="K152" s="1"/>
       <c r="L152" s="1"/>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A153" s="4">
         <v>43767</v>
       </c>
@@ -7462,7 +7554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A154" s="4">
         <v>43769</v>
       </c>
@@ -7500,7 +7592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A155" s="4">
         <v>43769</v>
       </c>
@@ -7538,7 +7630,7 @@
         <v>37.39</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A156" s="4">
         <v>43769</v>
       </c>
@@ -7576,7 +7668,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A157" s="4">
         <v>43769</v>
       </c>
@@ -7614,7 +7706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A158" s="4">
         <v>43769</v>
       </c>
@@ -7652,7 +7744,7 @@
         <v>36.18</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A159" s="4">
         <v>43769</v>
       </c>
@@ -7690,7 +7782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A160" s="4">
         <v>43769</v>
       </c>
@@ -7722,7 +7814,7 @@
       <c r="K160" s="1"/>
       <c r="L160" s="1"/>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A161" s="4">
         <v>43769</v>
       </c>
@@ -7760,7 +7852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A162" s="4">
         <v>43769</v>
       </c>
@@ -7798,7 +7890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A163" s="4">
         <v>43769</v>
       </c>
@@ -7836,7 +7928,7 @@
         <v>37.39</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A164" s="4">
         <v>43769</v>
       </c>
@@ -7874,7 +7966,7 @@
         <v>39.049999999999997</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A165" s="4">
         <v>43769</v>
       </c>
@@ -7912,7 +8004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A166" s="4">
         <v>43769</v>
       </c>
@@ -7950,7 +8042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A167" s="4">
         <v>43769</v>
       </c>
@@ -7988,7 +8080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A168" s="4">
         <v>43769</v>
       </c>
@@ -8026,7 +8118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A169" s="4">
         <v>43769</v>
       </c>
@@ -8064,7 +8156,7 @@
         <v>38.18</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A170" s="4">
         <v>43772</v>
       </c>
@@ -8102,7 +8194,7 @@
         <v>18.7</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A171" s="4">
         <v>43772</v>
       </c>
@@ -8140,7 +8232,7 @@
         <v>18.7</v>
       </c>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A172" s="4">
         <v>43772</v>
       </c>
@@ -8179,7 +8271,7 @@
         <v>36.700000000000003</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A173" s="4">
         <v>43772</v>
       </c>
@@ -8217,7 +8309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A174" s="4">
         <v>43772</v>
       </c>
@@ -8255,7 +8347,7 @@
         <v>18.7</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A175" s="4">
         <v>43772</v>
       </c>
@@ -8293,7 +8385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A176" s="4">
         <v>43772</v>
       </c>
@@ -8331,7 +8423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A177" s="4">
         <v>43772</v>
       </c>
@@ -8369,7 +8461,7 @@
         <v>18.7</v>
       </c>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A178" s="4">
         <v>43772</v>
       </c>
@@ -8407,7 +8499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A179" s="4">
         <v>43772</v>
       </c>
@@ -8445,7 +8537,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A180" s="4">
         <v>43772</v>
       </c>
@@ -8483,7 +8575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A181" s="4">
         <v>43772</v>
       </c>
@@ -8521,7 +8613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A182" s="4">
         <v>43773</v>
       </c>
@@ -8559,7 +8651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A183" s="4">
         <v>43773</v>
       </c>
@@ -8597,7 +8689,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A184" s="4">
         <v>43773</v>
       </c>
@@ -8635,7 +8727,7 @@
         <v>18.7</v>
       </c>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A185" s="4">
         <v>43773</v>
       </c>
@@ -8673,7 +8765,7 @@
         <v>59.05</v>
       </c>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A186" s="4">
         <v>43774</v>
       </c>
@@ -8712,7 +8804,7 @@
         <v>38.61</v>
       </c>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A187" s="4">
         <v>43774</v>
       </c>
@@ -8750,7 +8842,7 @@
         <v>19.09</v>
       </c>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A188" s="4">
         <v>43775</v>
       </c>
@@ -8788,7 +8880,7 @@
         <v>19.09</v>
       </c>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A189" s="4">
         <v>43775</v>
       </c>
@@ -8826,7 +8918,7 @@
         <v>37.39</v>
       </c>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A190" s="4">
         <v>43776</v>
       </c>
@@ -8864,7 +8956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A191" s="4">
         <v>43776</v>
       </c>
@@ -8902,7 +8994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A192" s="4">
         <v>43776</v>
       </c>
@@ -8940,7 +9032,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A193" s="4">
         <v>43776</v>
       </c>
@@ -8978,7 +9070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A194" s="4">
         <v>43776</v>
       </c>
@@ -9016,7 +9108,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A195" s="4">
         <v>43776</v>
       </c>
@@ -9054,7 +9146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A196" s="4">
         <v>43776</v>
       </c>
@@ -9092,7 +9184,7 @@
         <v>19.09</v>
       </c>
     </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A197" s="4">
         <v>43776</v>
       </c>
@@ -9130,7 +9222,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A198" s="4">
         <v>43776</v>
       </c>
@@ -9168,7 +9260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A199" s="4">
         <v>43776</v>
       </c>
@@ -9206,7 +9298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A200" s="4">
         <v>43776</v>
       </c>
@@ -9244,7 +9336,7 @@
         <v>19.09</v>
       </c>
     </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A201" s="4">
         <v>43776</v>
       </c>
@@ -9282,7 +9374,7 @@
         <v>19.09</v>
       </c>
     </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A202" s="4">
         <v>43776</v>
       </c>
@@ -9314,7 +9406,7 @@
       <c r="K202" s="1"/>
       <c r="L202" s="1"/>
     </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A203" s="4">
         <v>43776</v>
       </c>
@@ -9346,7 +9438,7 @@
       <c r="K203" s="1"/>
       <c r="L203" s="1"/>
     </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A204" s="4">
         <v>43776</v>
       </c>
@@ -9378,7 +9470,7 @@
       <c r="K204" s="1"/>
       <c r="L204" s="1"/>
     </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A205" s="4">
         <v>43776</v>
       </c>
@@ -9416,7 +9508,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A206" s="4">
         <v>43776</v>
       </c>
@@ -9450,7 +9542,7 @@
       <c r="K206" s="1"/>
       <c r="L206" s="1"/>
     </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A207" s="4">
         <v>43776</v>
       </c>
@@ -9488,7 +9580,7 @@
         <v>56.98</v>
       </c>
     </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A208" s="4">
         <v>43776</v>
       </c>
@@ -9526,7 +9618,7 @@
         <v>19.52</v>
       </c>
     </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A209" s="4">
         <v>43776</v>
       </c>
@@ -9564,7 +9656,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A210" s="4">
         <v>43777</v>
       </c>
@@ -9602,7 +9694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A211" s="4">
         <v>43777</v>
       </c>
@@ -9640,7 +9732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A212" s="4">
         <v>43778</v>
       </c>
@@ -9678,7 +9770,7 @@
         <v>19.09</v>
       </c>
     </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A213" s="4">
         <v>43778</v>
       </c>
@@ -9716,7 +9808,7 @@
         <v>19.09</v>
       </c>
     </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A214" s="4">
         <v>43778</v>
       </c>
@@ -9754,7 +9846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A215" s="4">
         <v>43778</v>
       </c>
@@ -9792,7 +9884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A216" s="4">
         <v>43778</v>
       </c>
@@ -9830,7 +9922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A217" s="4">
         <v>43779</v>
       </c>
@@ -9868,7 +9960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A218" s="4">
         <v>43779</v>
       </c>
@@ -9906,7 +9998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A219" s="4">
         <v>43779</v>
       </c>
@@ -9944,7 +10036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A220" s="4">
         <v>43779</v>
       </c>
@@ -9982,7 +10074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A221" s="4">
         <v>43779</v>
       </c>
@@ -10020,7 +10112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A222" s="4">
         <v>43779</v>
       </c>
@@ -10058,7 +10150,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A223" s="4">
         <v>43779</v>
       </c>
@@ -10096,7 +10188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A224" s="4">
         <v>43779</v>
       </c>
@@ -10134,7 +10226,7 @@
         <v>18.7</v>
       </c>
     </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A225" s="4">
         <v>43779</v>
       </c>
@@ -10172,7 +10264,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A226" s="4">
         <v>43781</v>
       </c>
@@ -10210,7 +10302,7 @@
         <v>19.09</v>
       </c>
     </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A227" s="4">
         <v>43781</v>
       </c>
@@ -10248,7 +10340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A228" s="4">
         <v>43781</v>
       </c>
@@ -10286,7 +10378,7 @@
         <v>19.09</v>
       </c>
     </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A229" s="4">
         <v>43782</v>
       </c>
@@ -10324,7 +10416,7 @@
         <v>18.7</v>
       </c>
     </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A230" s="4">
         <v>43782</v>
       </c>
@@ -10362,7 +10454,7 @@
         <v>19.09</v>
       </c>
     </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A231" s="4">
         <v>43783</v>
       </c>
@@ -10400,7 +10492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A232" s="4">
         <v>43783</v>
       </c>
@@ -10438,7 +10530,7 @@
         <v>18.329999999999998</v>
       </c>
     </row>
-    <row r="233" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A233" s="4">
         <v>43783</v>
       </c>
@@ -10476,7 +10568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A234" s="4">
         <v>43783</v>
       </c>
@@ -10514,7 +10606,7 @@
         <v>19.52</v>
       </c>
     </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A235" s="4">
         <v>43783</v>
       </c>
@@ -10552,7 +10644,7 @@
         <v>19.09</v>
       </c>
     </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A236" s="4">
         <v>43784</v>
       </c>
@@ -10565,9 +10657,7 @@
       <c r="D236" s="6">
         <v>8</v>
       </c>
-      <c r="E236" s="6">
-        <v>-120</v>
-      </c>
+      <c r="E236" s="6"/>
       <c r="F236" s="6" t="s">
         <v>55</v>
       </c>
@@ -10586,7 +10676,7 @@
       <c r="K236" s="1"/>
       <c r="L236" s="1"/>
     </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A237" s="4">
         <v>43784</v>
       </c>
@@ -10624,7 +10714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A238" s="4">
         <v>43784</v>
       </c>
@@ -10658,7 +10748,7 @@
       <c r="K238" s="1"/>
       <c r="L238" s="1"/>
     </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A239" s="4">
         <v>43784</v>
       </c>
@@ -10696,7 +10786,7 @@
         <v>18.329999999999998</v>
       </c>
     </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A240" s="4">
         <v>43784</v>
       </c>
@@ -10734,7 +10824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A241" s="4">
         <v>43784</v>
       </c>
@@ -10772,7 +10862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A242" s="4">
         <v>43784</v>
       </c>
@@ -10810,7 +10900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A243" s="4">
         <v>43784</v>
       </c>
@@ -10848,7 +10938,7 @@
         <v>18.329999999999998</v>
       </c>
     </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A244" s="4">
         <v>43784</v>
       </c>
@@ -10886,7 +10976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A245" s="4">
         <v>43784</v>
       </c>
@@ -10924,7 +11014,7 @@
         <v>19.09</v>
       </c>
     </row>
-    <row r="246" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A246" s="4">
         <v>43784</v>
       </c>
@@ -10962,7 +11052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A247" s="4">
         <v>43786</v>
       </c>
@@ -11000,7 +11090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A248" s="4">
         <v>43786</v>
       </c>
@@ -11038,7 +11128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A249" s="4">
         <v>43786</v>
       </c>
@@ -11076,7 +11166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A250" s="4">
         <v>43786</v>
       </c>
@@ -11114,7 +11204,7 @@
         <v>18.7</v>
       </c>
     </row>
-    <row r="251" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A251" s="4">
         <v>43786</v>
       </c>
@@ -11152,7 +11242,7 @@
         <v>18.7</v>
       </c>
     </row>
-    <row r="252" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A252" s="4">
         <v>43786</v>
       </c>
@@ -11190,7 +11280,7 @@
         <v>19.52</v>
       </c>
     </row>
-    <row r="253" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A253" s="4">
         <v>43786</v>
       </c>
@@ -11228,7 +11318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A254" s="4">
         <v>43786</v>
       </c>
@@ -11266,7 +11356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A255" s="4">
         <v>43785</v>
       </c>
@@ -11304,7 +11394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A256" s="4">
         <v>43787</v>
       </c>
@@ -11342,7 +11432,7 @@
         <v>18.7</v>
       </c>
     </row>
-    <row r="257" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A257" s="4">
         <v>43787</v>
       </c>
@@ -11380,7 +11470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A258" s="4">
         <v>43789</v>
       </c>
@@ -11413,7 +11503,7 @@
       </c>
       <c r="L258" s="1"/>
     </row>
-    <row r="259" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A259" s="4">
         <v>43789</v>
       </c>
@@ -11446,7 +11536,7 @@
       </c>
       <c r="L259" s="1"/>
     </row>
-    <row r="260" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A260" s="4">
         <v>43788</v>
       </c>
@@ -11479,7 +11569,7 @@
       </c>
       <c r="L260" s="1"/>
     </row>
-    <row r="261" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A261" s="4">
         <v>43788</v>
       </c>
@@ -11512,7 +11602,7 @@
       </c>
       <c r="L261" s="1"/>
     </row>
-    <row r="262" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A262" s="4">
         <v>43789</v>
       </c>
@@ -11545,20 +11635,275 @@
       </c>
       <c r="L262" s="1"/>
     </row>
-    <row r="263" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A263" s="6" t="s">
+    <row r="263" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A263" s="4">
+        <v>43789</v>
+      </c>
+      <c r="B263" s="5">
+        <v>12</v>
+      </c>
+      <c r="C263" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D263" s="6">
+        <v>7</v>
+      </c>
+      <c r="E263" s="6">
+        <v>-125</v>
+      </c>
+      <c r="F263" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G263" t="s">
+        <v>110</v>
+      </c>
+      <c r="H263" t="s">
+        <v>75</v>
+      </c>
+      <c r="I263" t="s">
+        <v>110</v>
+      </c>
+      <c r="K263" s="1">
+        <v>10</v>
+      </c>
+      <c r="L263" s="1"/>
+    </row>
+    <row r="264" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A264" s="4">
+        <v>43789</v>
+      </c>
+      <c r="B264" s="5">
+        <v>12</v>
+      </c>
+      <c r="C264" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D264" s="6">
+        <v>-3</v>
+      </c>
+      <c r="E264" s="6">
+        <v>-115</v>
+      </c>
+      <c r="F264" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G264" t="s">
+        <v>76</v>
+      </c>
+      <c r="H264" t="s">
+        <v>70</v>
+      </c>
+      <c r="I264" t="s">
+        <v>76</v>
+      </c>
+      <c r="K264" s="1">
+        <v>10</v>
+      </c>
+      <c r="L264" s="1"/>
+    </row>
+    <row r="265" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A265" s="4">
+        <v>43789</v>
+      </c>
+      <c r="B265" s="5">
+        <v>12</v>
+      </c>
+      <c r="C265" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D265" s="6">
+        <v>51.5</v>
+      </c>
+      <c r="E265" s="6">
+        <v>-110</v>
+      </c>
+      <c r="F265" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G265" t="s">
+        <v>65</v>
+      </c>
+      <c r="H265" t="s">
+        <v>80</v>
+      </c>
+      <c r="I265" t="s">
+        <v>66</v>
+      </c>
+      <c r="K265" s="1">
+        <v>10</v>
+      </c>
+      <c r="L265" s="1"/>
+    </row>
+    <row r="266" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A266" s="4">
+        <v>43789</v>
+      </c>
+      <c r="B266" s="5">
+        <v>12</v>
+      </c>
+      <c r="C266" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D266" s="6">
+        <v>4</v>
+      </c>
+      <c r="E266" s="6">
+        <v>-110</v>
+      </c>
+      <c r="F266" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G266" t="s">
+        <v>79</v>
+      </c>
+      <c r="H266" t="s">
+        <v>69</v>
+      </c>
+      <c r="I266" t="s">
+        <v>69</v>
+      </c>
+      <c r="K266" s="1">
+        <v>10</v>
+      </c>
+      <c r="L266" s="1"/>
+    </row>
+    <row r="267" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A267" s="4">
+        <v>43789</v>
+      </c>
+      <c r="B267" s="5">
+        <v>12</v>
+      </c>
+      <c r="C267" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D267" s="6">
+        <v>10</v>
+      </c>
+      <c r="E267" s="6"/>
+      <c r="F267" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G267" t="s">
+        <v>76</v>
+      </c>
+      <c r="H267" t="s">
+        <v>70</v>
+      </c>
+      <c r="I267" t="s">
+        <v>70</v>
+      </c>
+      <c r="K267" s="1"/>
+      <c r="L267" s="1"/>
+    </row>
+    <row r="268" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A268" s="4">
+        <v>43789</v>
+      </c>
+      <c r="B268" s="5">
+        <v>12</v>
+      </c>
+      <c r="C268" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D268" s="6">
+        <v>10</v>
+      </c>
+      <c r="E268" s="6"/>
+      <c r="F268" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G268" t="s">
+        <v>63</v>
+      </c>
+      <c r="H268" t="s">
+        <v>111</v>
+      </c>
+      <c r="I268" t="s">
+        <v>63</v>
+      </c>
+      <c r="K268" s="1"/>
+      <c r="L268" s="1"/>
+    </row>
+    <row r="269" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A269" s="4">
+        <v>43789</v>
+      </c>
+      <c r="B269" s="5">
+        <v>12</v>
+      </c>
+      <c r="C269" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D269" s="6">
+        <v>10</v>
+      </c>
+      <c r="E269" s="6">
+        <v>120</v>
+      </c>
+      <c r="F269" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G269" t="s">
+        <v>106</v>
+      </c>
+      <c r="H269" t="s">
+        <v>93</v>
+      </c>
+      <c r="I269" t="s">
+        <v>93</v>
+      </c>
+      <c r="K269" s="1">
+        <v>10</v>
+      </c>
+      <c r="L269" s="1"/>
+    </row>
+    <row r="270" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A270" s="4">
+        <v>43789</v>
+      </c>
+      <c r="B270" s="5">
+        <v>12</v>
+      </c>
+      <c r="C270" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D270" s="6"/>
+      <c r="E270" s="6"/>
+      <c r="F270" s="6"/>
+      <c r="K270" s="1"/>
+      <c r="L270" s="1"/>
+    </row>
+    <row r="271" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A271" s="4">
+        <v>43789</v>
+      </c>
+      <c r="B271" s="5">
+        <v>12</v>
+      </c>
+      <c r="C271" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D271" s="6"/>
+      <c r="E271" s="6"/>
+      <c r="F271" s="6"/>
+      <c r="K271" s="1"/>
+      <c r="L271" s="1"/>
+    </row>
+    <row r="272" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A272" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B263" s="6"/>
-      <c r="C263" s="6"/>
-      <c r="D263" s="6"/>
-      <c r="E263" s="6"/>
-      <c r="F263" s="6"/>
-      <c r="K263" s="1">
+      <c r="B272" s="6"/>
+      <c r="C272" s="6"/>
+      <c r="D272" s="6"/>
+      <c r="E272" s="6"/>
+      <c r="F272" s="6"/>
+      <c r="K272" s="1">
         <f>SUMIF(Table134[Result],"&lt;&gt;",Table134[Bet Size])</f>
         <v>3400</v>
       </c>
-      <c r="L263" s="1">
+      <c r="L272" s="1">
         <f>SUMIF(Table134[Result],"&lt;&gt;",Table134[Payout])</f>
         <v>3233.2799999999997</v>
       </c>
@@ -11567,14 +11912,14 @@
   <mergeCells count="1">
     <mergeCell ref="A1:L1"/>
   </mergeCells>
-  <conditionalFormatting sqref="J1:J1008">
-    <cfRule type="containsText" dxfId="42" priority="55" operator="containsText" text="No Action">
+  <conditionalFormatting sqref="J1:J1017">
+    <cfRule type="containsText" dxfId="21" priority="55" operator="containsText" text="No Action">
       <formula>NOT(ISERROR(SEARCH("No Action",J1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="41" priority="56" operator="containsText" text="Win">
+    <cfRule type="containsText" dxfId="20" priority="56" operator="containsText" text="Win">
       <formula>NOT(ISERROR(SEARCH("Win",J1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="57" operator="containsText" text="Loss">
+    <cfRule type="containsText" dxfId="19" priority="57" operator="containsText" text="Loss">
       <formula>NOT(ISERROR(SEARCH("Loss",J1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11587,29 +11932,29 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:K86"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K91"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K84" sqref="K84"/>
+    <sheetView topLeftCell="E64" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A91" sqref="A91"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" customWidth="1"/>
-    <col min="2" max="2" width="10.88671875" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" customWidth="1"/>
-    <col min="4" max="4" width="7.6640625" customWidth="1"/>
-    <col min="5" max="5" width="9.44140625" customWidth="1"/>
-    <col min="6" max="6" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" customWidth="1"/>
+    <col min="6" max="6" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:11" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="7" t="s">
         <v>154</v>
       </c>
@@ -11624,7 +11969,7 @@
       <c r="J1" s="7"/>
       <c r="K1" s="7"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>78</v>
       </c>
@@ -11659,20 +12004,20 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>43766</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="6">
         <v>5.5</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="6">
         <v>-110</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="6" t="s">
         <v>155</v>
       </c>
       <c r="F3" t="s">
@@ -11694,20 +12039,20 @@
         <v>19.09</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>43766</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="6">
         <v>10.5</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="6">
         <v>-125</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="6" t="s">
         <v>155</v>
       </c>
       <c r="F4" t="s">
@@ -11729,20 +12074,20 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>43766</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="6">
         <v>5.5</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="6">
         <v>-130</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="6" t="s">
         <v>155</v>
       </c>
       <c r="F5" t="s">
@@ -11764,20 +12109,20 @@
         <v>17.690000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>43766</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="6">
         <v>4.5</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="6">
         <v>-105</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="6" t="s">
         <v>155</v>
       </c>
       <c r="F6" t="s">
@@ -11799,20 +12144,20 @@
         <v>19.52</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>43766</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="6">
         <v>15.5</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="6">
         <v>-125</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="6" t="s">
         <v>155</v>
       </c>
       <c r="F7" t="s">
@@ -11834,20 +12179,20 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>43766</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="6">
         <v>-2</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="6">
         <v>-110</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="6" t="s">
         <v>155</v>
       </c>
       <c r="F8" t="s">
@@ -11869,20 +12214,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>43767</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="6">
         <v>13.5</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="6">
         <v>-105</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="6" t="s">
         <v>155</v>
       </c>
       <c r="F9" t="s">
@@ -11904,20 +12249,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>43767</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="6">
         <v>4.5</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="6">
         <v>110</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="6" t="s">
         <v>155</v>
       </c>
       <c r="F10" t="s">
@@ -11939,20 +12284,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>43767</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="6">
         <v>8.5</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="6">
         <v>-115</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="6" t="s">
         <v>155</v>
       </c>
       <c r="F11" t="s">
@@ -11974,20 +12319,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>43767</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="6">
         <v>13.5</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="6">
         <v>-115</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="6" t="s">
         <v>155</v>
       </c>
       <c r="F12" t="s">
@@ -12009,20 +12354,20 @@
         <v>18.7</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>43767</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="6">
         <v>9.5</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="6">
         <v>-115</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="6" t="s">
         <v>155</v>
       </c>
       <c r="F13" t="s">
@@ -12044,20 +12389,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>43767</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="6">
         <v>7.5</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="6">
         <v>-115</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="6" t="s">
         <v>155</v>
       </c>
       <c r="F14" t="s">
@@ -12079,20 +12424,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>43767</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="6">
         <v>13.5</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="6">
         <v>-105</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="6" t="s">
         <v>155</v>
       </c>
       <c r="F15" t="s">
@@ -12114,20 +12459,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>43768</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="6">
         <v>13.5</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="6">
         <v>-135</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="6" t="s">
         <v>155</v>
       </c>
       <c r="F16" t="s">
@@ -12149,20 +12494,20 @@
         <v>17.41</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>43768</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="6">
         <v>10.5</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="6">
         <v>-115</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="6" t="s">
         <v>155</v>
       </c>
       <c r="F17" t="s">
@@ -12184,20 +12529,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>43768</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="6">
         <v>3.5</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="6">
         <v>-125</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="6" t="s">
         <v>155</v>
       </c>
       <c r="F18" t="s">
@@ -12219,20 +12564,20 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>43768</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="6">
         <v>4.5</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="6">
         <v>100</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="6" t="s">
         <v>155</v>
       </c>
       <c r="F19" t="s">
@@ -12254,20 +12599,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>43768</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="6">
         <v>6.5</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="6">
         <v>-130</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="6" t="s">
         <v>155</v>
       </c>
       <c r="F20" t="s">
@@ -12289,20 +12634,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>43768</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="6">
         <v>-7</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="6">
         <v>-115</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="6" t="s">
         <v>155</v>
       </c>
       <c r="F21" t="s">
@@ -12324,20 +12669,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>43768</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="6">
         <v>223</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="6">
         <v>-110</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="6" t="s">
         <v>155</v>
       </c>
       <c r="F22" t="s">
@@ -12359,20 +12704,20 @@
         <v>19.09</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>43768</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="6">
         <v>4.5</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="6">
         <v>-105</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="6" t="s">
         <v>155</v>
       </c>
       <c r="F23" t="s">
@@ -12394,20 +12739,20 @@
         <v>19.52</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>43768</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="6">
         <v>8.5</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="6">
         <v>110</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="6" t="s">
         <v>155</v>
       </c>
       <c r="F24" t="s">
@@ -12429,20 +12774,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>43769</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="6">
         <v>-4.5</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="6">
         <v>-105</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="6" t="s">
         <v>155</v>
       </c>
       <c r="F25" t="s">
@@ -12464,20 +12809,20 @@
         <v>19.52</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>43769</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="6">
         <v>-5</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="6">
         <v>-110</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="6" t="s">
         <v>155</v>
       </c>
       <c r="F26" t="s">
@@ -12499,20 +12844,20 @@
         <v>19.09</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>43769</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="6">
         <v>22</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="6">
         <v>-125</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="6" t="s">
         <v>155</v>
       </c>
       <c r="F27" t="s">
@@ -12534,20 +12879,20 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>43769</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="6">
         <v>-6.5</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="6">
         <v>-115</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" s="6" t="s">
         <v>155</v>
       </c>
       <c r="F28" t="s">
@@ -12569,20 +12914,20 @@
         <v>18.7</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>43770</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="6">
         <v>6.5</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="6">
         <v>-115</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" s="6" t="s">
         <v>155</v>
       </c>
       <c r="F29" t="s">
@@ -12604,20 +12949,20 @@
         <v>18.7</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>43770</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="6">
         <v>-7.5</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="6">
         <v>-105</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" s="6" t="s">
         <v>155</v>
       </c>
       <c r="F30" t="s">
@@ -12639,20 +12984,20 @@
         <v>19.52</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>43771</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="6">
         <v>2.5</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="6">
         <v>-110</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" s="6" t="s">
         <v>155</v>
       </c>
       <c r="F31" t="s">
@@ -12674,20 +13019,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>43772</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="6">
         <v>7.5</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="6">
         <v>-135</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E32" s="6" t="s">
         <v>155</v>
       </c>
       <c r="F32" t="s">
@@ -12709,20 +13054,20 @@
         <v>17.41</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>43772</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="6">
         <v>27</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="6">
         <v>-120</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E33" s="6" t="s">
         <v>155</v>
       </c>
       <c r="F33" t="s">
@@ -12744,20 +13089,20 @@
         <v>18.329999999999998</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>43773</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="6">
         <v>8.5</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="6">
         <v>-120</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E34" s="6" t="s">
         <v>155</v>
       </c>
       <c r="F34" t="s">
@@ -12779,20 +13124,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>43773</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="6">
         <v>8.5</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="6">
         <v>-130</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E35" s="6" t="s">
         <v>155</v>
       </c>
       <c r="F35" t="s">
@@ -12814,20 +13159,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>43773</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="6">
         <v>220.5</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="6">
         <v>-110</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E36" s="6" t="s">
         <v>155</v>
       </c>
       <c r="F36" t="s">
@@ -12849,20 +13194,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>43773</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="6">
         <v>-7.5</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="6">
         <v>-110</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E37" s="6" t="s">
         <v>155</v>
       </c>
       <c r="F37" t="s">
@@ -12884,20 +13229,20 @@
         <v>19.09</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>43773</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="6">
         <v>-6</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="6">
         <v>-110</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E38" s="6" t="s">
         <v>155</v>
       </c>
       <c r="F38" t="s">
@@ -12919,20 +13264,20 @@
         <v>19.09</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>43774</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="6">
         <v>-6</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="6">
         <v>-115</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E39" s="6" t="s">
         <v>155</v>
       </c>
       <c r="F39" t="s">
@@ -12954,20 +13299,20 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>43774</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="6">
         <v>-3.5</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="6">
         <v>-110</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E40" s="6" t="s">
         <v>155</v>
       </c>
       <c r="F40" t="s">
@@ -12989,20 +13334,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>43774</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="6">
         <v>5.5</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="6">
         <v>-110</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E41" s="6" t="s">
         <v>155</v>
       </c>
       <c r="F41" t="s">
@@ -13024,20 +13369,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>43774</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="6">
         <v>15.5</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="6">
         <v>-125</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E42" s="6" t="s">
         <v>155</v>
       </c>
       <c r="F42" t="s">
@@ -13059,20 +13404,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>43774</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="6">
         <v>8</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="6">
         <v>-105</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E43" s="6" t="s">
         <v>155</v>
       </c>
       <c r="F43" t="s">
@@ -13094,20 +13439,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>43774</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="6">
         <v>-5</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="6">
         <v>-110</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E44" s="6" t="s">
         <v>155</v>
       </c>
       <c r="F44" t="s">
@@ -13129,20 +13474,20 @@
         <v>19.09</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>43774</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="6">
         <v>-5.5</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="6">
         <v>-115</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E45" s="6" t="s">
         <v>155</v>
       </c>
       <c r="F45" t="s">
@@ -13164,20 +13509,20 @@
         <v>18.7</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>43775</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="6">
         <v>-3</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="6">
         <v>-110</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E46" s="6" t="s">
         <v>229</v>
       </c>
       <c r="F46" t="s">
@@ -13199,20 +13544,20 @@
         <v>19.09</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>43775</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="6">
         <v>7</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="6">
         <v>-120</v>
       </c>
-      <c r="E47" t="s">
+      <c r="E47" s="6" t="s">
         <v>155</v>
       </c>
       <c r="F47" t="s">
@@ -13234,20 +13579,20 @@
         <v>36.67</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>43775</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="6">
         <v>4.5</v>
       </c>
-      <c r="D48">
+      <c r="D48" s="6">
         <v>-115</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E48" s="6" t="s">
         <v>229</v>
       </c>
       <c r="F48" t="s">
@@ -13269,20 +13614,20 @@
         <v>18.7</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>43775</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="6">
         <v>7</v>
       </c>
-      <c r="D49">
+      <c r="D49" s="6">
         <v>-115</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E49" s="6" t="s">
         <v>155</v>
       </c>
       <c r="F49" t="s">
@@ -13304,20 +13649,20 @@
         <v>18.7</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>43775</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="6">
         <v>-8</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="6">
         <v>-110</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E50" s="6" t="s">
         <v>155</v>
       </c>
       <c r="F50" t="s">
@@ -13339,20 +13684,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>43775</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="C51">
-        <v>0</v>
-      </c>
-      <c r="D51">
+      <c r="C51" s="6">
+        <v>0</v>
+      </c>
+      <c r="D51" s="6">
         <v>-115</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E51" s="6" t="s">
         <v>155</v>
       </c>
       <c r="F51" t="s">
@@ -13374,20 +13719,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>43775</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="6">
         <v>18.5</v>
       </c>
-      <c r="D52">
+      <c r="D52" s="6">
         <v>-110</v>
       </c>
-      <c r="E52" t="s">
+      <c r="E52" s="6" t="s">
         <v>155</v>
       </c>
       <c r="F52" t="s">
@@ -13409,20 +13754,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>43775</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C53">
+      <c r="C53" s="6">
         <v>4.5</v>
       </c>
-      <c r="D53">
+      <c r="D53" s="6">
         <v>-115</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E53" s="6" t="s">
         <v>155</v>
       </c>
       <c r="F53" t="s">
@@ -13444,20 +13789,20 @@
         <v>18.7</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <v>43775</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C54">
+      <c r="C54" s="6">
         <v>221.5</v>
       </c>
-      <c r="D54">
+      <c r="D54" s="6">
         <v>-110</v>
       </c>
-      <c r="E54" t="s">
+      <c r="E54" s="6" t="s">
         <v>155</v>
       </c>
       <c r="F54" t="s">
@@ -13479,20 +13824,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>43775</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C55">
+      <c r="C55" s="6">
         <v>10.5</v>
       </c>
-      <c r="D55">
+      <c r="D55" s="6">
         <v>-115</v>
       </c>
-      <c r="E55" t="s">
+      <c r="E55" s="6" t="s">
         <v>155</v>
       </c>
       <c r="F55" t="s">
@@ -13514,20 +13859,20 @@
         <v>18.7</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <v>43775</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C56">
+      <c r="C56" s="6">
         <v>11.5</v>
       </c>
-      <c r="D56">
+      <c r="D56" s="6">
         <v>-125</v>
       </c>
-      <c r="E56" t="s">
+      <c r="E56" s="6" t="s">
         <v>155</v>
       </c>
       <c r="F56" t="s">
@@ -13549,20 +13894,20 @@
         <v>18</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <v>43775</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C57">
+      <c r="C57" s="6">
         <v>18.5</v>
       </c>
-      <c r="D57">
+      <c r="D57" s="6">
         <v>-115</v>
       </c>
-      <c r="E57" t="s">
+      <c r="E57" s="6" t="s">
         <v>155</v>
       </c>
       <c r="F57" t="s">
@@ -13584,20 +13929,20 @@
         <v>18.7</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <v>43776</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C58">
+      <c r="C58" s="6">
         <v>-1</v>
       </c>
-      <c r="D58">
+      <c r="D58" s="6">
         <v>-110</v>
       </c>
-      <c r="E58" t="s">
+      <c r="E58" s="6" t="s">
         <v>155</v>
       </c>
       <c r="F58" t="s">
@@ -13619,20 +13964,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <v>43776</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C59">
+      <c r="C59" s="6">
         <v>12.5</v>
       </c>
-      <c r="D59">
+      <c r="D59" s="6">
         <v>-160</v>
       </c>
-      <c r="E59" t="s">
+      <c r="E59" s="6" t="s">
         <v>155</v>
       </c>
       <c r="F59" t="s">
@@ -13654,20 +13999,20 @@
         <v>16.25</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
         <v>43776</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C60">
+      <c r="C60" s="6">
         <v>9.5</v>
       </c>
-      <c r="D60">
+      <c r="D60" s="6">
         <v>-125</v>
       </c>
-      <c r="E60" t="s">
+      <c r="E60" s="6" t="s">
         <v>155</v>
       </c>
       <c r="F60" t="s">
@@ -13689,20 +14034,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
         <v>43776</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C61">
+      <c r="C61" s="6">
         <v>8.5</v>
       </c>
-      <c r="D61">
+      <c r="D61" s="6">
         <v>-125</v>
       </c>
-      <c r="E61" t="s">
+      <c r="E61" s="6" t="s">
         <v>155</v>
       </c>
       <c r="F61" t="s">
@@ -13724,20 +14069,20 @@
         <v>18</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
         <v>43776</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C62">
+      <c r="C62" s="6">
         <v>5.5</v>
       </c>
-      <c r="D62">
+      <c r="D62" s="6">
         <v>-110</v>
       </c>
-      <c r="E62" t="s">
+      <c r="E62" s="6" t="s">
         <v>155</v>
       </c>
       <c r="F62" t="s">
@@ -13759,20 +14104,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
         <v>43776</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C63">
+      <c r="C63" s="6">
         <v>5.5</v>
       </c>
-      <c r="D63">
+      <c r="D63" s="6">
         <v>-110</v>
       </c>
-      <c r="E63" t="s">
+      <c r="E63" s="6" t="s">
         <v>155</v>
       </c>
       <c r="F63" t="s">
@@ -13794,20 +14139,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
         <v>43777</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C64">
+      <c r="C64" s="6">
         <v>6.5</v>
       </c>
-      <c r="D64">
+      <c r="D64" s="6">
         <v>-115</v>
       </c>
-      <c r="E64" t="s">
+      <c r="E64" s="6" t="s">
         <v>155</v>
       </c>
       <c r="F64" t="s">
@@ -13829,20 +14174,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
         <v>43777</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C65">
+      <c r="C65" s="6">
         <v>8.5</v>
       </c>
-      <c r="D65">
+      <c r="D65" s="6">
         <v>-105</v>
       </c>
-      <c r="E65" t="s">
+      <c r="E65" s="6" t="s">
         <v>155</v>
       </c>
       <c r="F65" t="s">
@@ -13864,20 +14209,20 @@
         <v>19.52</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
         <v>43777</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C66">
+      <c r="C66" s="6">
         <v>6.5</v>
       </c>
-      <c r="D66">
+      <c r="D66" s="6">
         <v>-115</v>
       </c>
-      <c r="E66" t="s">
+      <c r="E66" s="6" t="s">
         <v>155</v>
       </c>
       <c r="F66" t="s">
@@ -13899,20 +14244,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
         <v>43779</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C67">
+      <c r="C67" s="6">
         <v>25.5</v>
       </c>
-      <c r="D67">
+      <c r="D67" s="6">
         <v>-115</v>
       </c>
-      <c r="E67" t="s">
+      <c r="E67" s="6" t="s">
         <v>229</v>
       </c>
       <c r="F67" t="s">
@@ -13934,20 +14279,20 @@
         <v>18.7</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
         <v>43782</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C68">
+      <c r="C68" s="6">
         <v>2</v>
       </c>
-      <c r="D68">
+      <c r="D68" s="6">
         <v>-105</v>
       </c>
-      <c r="E68" t="s">
+      <c r="E68" s="6" t="s">
         <v>155</v>
       </c>
       <c r="F68" t="s">
@@ -13969,20 +14314,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
         <v>43782</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C69">
+      <c r="C69" s="6">
         <v>221.5</v>
       </c>
-      <c r="D69">
+      <c r="D69" s="6">
         <v>-110</v>
       </c>
-      <c r="E69" t="s">
+      <c r="E69" s="6" t="s">
         <v>155</v>
       </c>
       <c r="F69" t="s">
@@ -14004,20 +14349,20 @@
         <v>19.09</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
         <v>43782</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C70">
+      <c r="C70" s="6">
         <v>227</v>
       </c>
-      <c r="D70">
+      <c r="D70" s="6">
         <v>-110</v>
       </c>
-      <c r="E70" t="s">
+      <c r="E70" s="6" t="s">
         <v>155</v>
       </c>
       <c r="F70" t="s">
@@ -14039,20 +14384,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
         <v>43782</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C71">
+      <c r="C71" s="6">
         <v>7</v>
       </c>
-      <c r="D71">
+      <c r="D71" s="6">
         <v>-130</v>
       </c>
-      <c r="E71" t="s">
+      <c r="E71" s="6" t="s">
         <v>155</v>
       </c>
       <c r="F71" t="s">
@@ -14074,20 +14419,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
         <v>43782</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C72">
-        <v>10</v>
-      </c>
-      <c r="D72">
+      <c r="C72" s="6">
+        <v>10</v>
+      </c>
+      <c r="D72" s="6">
         <v>-120</v>
       </c>
-      <c r="E72" t="s">
+      <c r="E72" s="6" t="s">
         <v>155</v>
       </c>
       <c r="F72" t="s">
@@ -14109,20 +14454,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
         <v>43782</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C73">
+      <c r="C73" s="6">
         <v>4</v>
       </c>
-      <c r="D73">
+      <c r="D73" s="6">
         <v>-115</v>
       </c>
-      <c r="E73" t="s">
+      <c r="E73" s="6" t="s">
         <v>229</v>
       </c>
       <c r="F73" t="s">
@@ -14144,20 +14489,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
         <v>43782</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C74">
+      <c r="C74" s="6">
         <v>1</v>
       </c>
-      <c r="D74">
+      <c r="D74" s="6">
         <v>-110</v>
       </c>
-      <c r="E74" t="s">
+      <c r="E74" s="6" t="s">
         <v>229</v>
       </c>
       <c r="F74" t="s">
@@ -14179,20 +14524,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
         <v>43782</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C75">
+      <c r="C75" s="6">
         <v>-3</v>
       </c>
-      <c r="D75">
+      <c r="D75" s="6">
         <v>-110</v>
       </c>
-      <c r="E75" t="s">
+      <c r="E75" s="6" t="s">
         <v>229</v>
       </c>
       <c r="F75" t="s">
@@ -14214,20 +14559,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
         <v>43782</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C76">
+      <c r="C76" s="6">
         <v>206.5</v>
       </c>
-      <c r="D76">
+      <c r="D76" s="6">
         <v>-110</v>
       </c>
-      <c r="E76" t="s">
+      <c r="E76" s="6" t="s">
         <v>155</v>
       </c>
       <c r="F76" t="s">
@@ -14249,20 +14594,20 @@
         <v>19.09</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
         <v>43782</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C77">
+      <c r="C77" s="6">
         <v>229.5</v>
       </c>
-      <c r="D77">
+      <c r="D77" s="6">
         <v>-110</v>
       </c>
-      <c r="E77" t="s">
+      <c r="E77" s="6" t="s">
         <v>155</v>
       </c>
       <c r="F77" t="s">
@@ -14284,20 +14629,20 @@
         <v>19.09</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
         <v>43784</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C78">
+      <c r="C78" s="6">
         <v>220.5</v>
       </c>
-      <c r="D78">
+      <c r="D78" s="6">
         <v>-110</v>
       </c>
-      <c r="E78" t="s">
+      <c r="E78" s="6" t="s">
         <v>155</v>
       </c>
       <c r="F78" t="s">
@@ -14319,20 +14664,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
         <v>43784</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C79">
+      <c r="C79" s="6">
         <v>214.5</v>
       </c>
-      <c r="D79">
+      <c r="D79" s="6">
         <v>-110</v>
       </c>
-      <c r="E79" t="s">
+      <c r="E79" s="6" t="s">
         <v>155</v>
       </c>
       <c r="F79" t="s">
@@ -14354,20 +14699,20 @@
         <v>19.09</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
         <v>43785</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C80">
+      <c r="C80" s="6">
         <v>-7</v>
       </c>
-      <c r="D80">
+      <c r="D80" s="6">
         <v>-110</v>
       </c>
-      <c r="E80" t="s">
+      <c r="E80" s="6" t="s">
         <v>155</v>
       </c>
       <c r="F80" t="s">
@@ -14389,20 +14734,20 @@
         <v>38.18</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
         <v>43786</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C81">
+      <c r="C81" s="6">
         <v>-6.5</v>
       </c>
-      <c r="D81">
+      <c r="D81" s="6">
         <v>-110</v>
       </c>
-      <c r="E81" t="s">
+      <c r="E81" s="6" t="s">
         <v>155</v>
       </c>
       <c r="F81" t="s">
@@ -14424,20 +14769,20 @@
         <v>19.09</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
         <v>43787</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C82">
+      <c r="C82" s="6">
         <v>218.5</v>
       </c>
-      <c r="D82">
+      <c r="D82" s="6">
         <v>-110</v>
       </c>
-      <c r="E82" t="s">
+      <c r="E82" s="6" t="s">
         <v>155</v>
       </c>
       <c r="F82" t="s">
@@ -14459,20 +14804,20 @@
         <v>19.09</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
         <v>43789</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C83">
+      <c r="C83" s="6">
         <v>217</v>
       </c>
-      <c r="D83">
+      <c r="D83" s="6">
         <v>-110</v>
       </c>
-      <c r="E83" t="s">
+      <c r="E83" s="6" t="s">
         <v>155</v>
       </c>
       <c r="F83" t="s">
@@ -14494,20 +14839,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
         <v>43789</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C84" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="D84">
+      <c r="D84" s="6">
         <v>120</v>
       </c>
-      <c r="E84" t="s">
+      <c r="E84" s="6" t="s">
         <v>155</v>
       </c>
       <c r="F84" t="s">
@@ -14529,20 +14874,20 @@
         <v>22</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
         <v>43789</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C85" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="D85">
+      <c r="D85" s="6">
         <v>100</v>
       </c>
-      <c r="E85" t="s">
+      <c r="E85" s="6" t="s">
         <v>155</v>
       </c>
       <c r="F85" t="s">
@@ -14554,36 +14899,216 @@
       <c r="H85" t="s">
         <v>220</v>
       </c>
+      <c r="I85" t="s">
+        <v>23</v>
+      </c>
       <c r="J85" s="1">
         <v>10</v>
       </c>
-      <c r="K85" s="1"/>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
+      <c r="K85" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A86" s="4">
+        <v>43789</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C86" s="6">
+        <v>162.5</v>
+      </c>
+      <c r="D86" s="6">
+        <v>-110</v>
+      </c>
+      <c r="E86" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="F86" t="s">
+        <v>268</v>
+      </c>
+      <c r="G86" t="s">
+        <v>308</v>
+      </c>
+      <c r="H86" t="s">
+        <v>13</v>
+      </c>
+      <c r="I86" t="s">
+        <v>29</v>
+      </c>
+      <c r="J86" s="1">
+        <v>10</v>
+      </c>
+      <c r="K86" s="1">
+        <v>19.09</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A87" s="4">
+        <v>43789</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C87" s="6">
+        <v>-5</v>
+      </c>
+      <c r="D87" s="6">
+        <v>-110</v>
+      </c>
+      <c r="E87" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="F87" t="s">
+        <v>309</v>
+      </c>
+      <c r="G87" t="s">
+        <v>310</v>
+      </c>
+      <c r="H87" t="s">
+        <v>310</v>
+      </c>
+      <c r="I87" t="s">
+        <v>29</v>
+      </c>
+      <c r="J87" s="1">
+        <v>10</v>
+      </c>
+      <c r="K87" s="1">
+        <v>19.09</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A88" s="4">
+        <v>43789</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C88" s="6">
+        <v>134</v>
+      </c>
+      <c r="D88" s="6">
+        <v>-110</v>
+      </c>
+      <c r="E88" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="F88" t="s">
+        <v>311</v>
+      </c>
+      <c r="G88" t="s">
+        <v>266</v>
+      </c>
+      <c r="H88" t="s">
+        <v>13</v>
+      </c>
+      <c r="I88" t="s">
+        <v>29</v>
+      </c>
+      <c r="J88" s="1">
+        <v>10</v>
+      </c>
+      <c r="K88" s="1">
+        <v>19.09</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A89" s="4">
+        <v>43789</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C89" s="6">
+        <v>132.5</v>
+      </c>
+      <c r="D89" s="6">
+        <v>-110</v>
+      </c>
+      <c r="E89" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="F89" t="s">
+        <v>289</v>
+      </c>
+      <c r="G89" t="s">
+        <v>312</v>
+      </c>
+      <c r="H89" t="s">
+        <v>13</v>
+      </c>
+      <c r="I89" t="s">
+        <v>29</v>
+      </c>
+      <c r="J89" s="1">
+        <v>10</v>
+      </c>
+      <c r="K89" s="1">
+        <v>19.09</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A90" s="4">
+        <v>43789</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C90" s="6">
+        <v>-5.5</v>
+      </c>
+      <c r="D90" s="6">
+        <v>-115</v>
+      </c>
+      <c r="E90" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="F90" t="s">
+        <v>313</v>
+      </c>
+      <c r="G90" t="s">
+        <v>314</v>
+      </c>
+      <c r="H90" t="s">
+        <v>313</v>
+      </c>
+      <c r="I90" t="s">
+        <v>23</v>
+      </c>
+      <c r="J90" s="1">
+        <v>10</v>
+      </c>
+      <c r="K90" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
         <v>51</v>
       </c>
-      <c r="J86" s="1">
+      <c r="J91" s="1">
         <f>SUMIF(Table4[Result],"&lt;&gt;",Table4[Bet Size])</f>
-        <v>870</v>
-      </c>
-      <c r="K86" s="1">
+        <v>930</v>
+      </c>
+      <c r="K91" s="1">
         <f>SUMIF(Table4[Result],"&lt;&gt;",Table4[Payout])</f>
-        <v>834.71000000000026</v>
+        <v>911.07000000000039</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:K1"/>
   </mergeCells>
-  <conditionalFormatting sqref="I3:I85 I87:I167">
-    <cfRule type="containsText" dxfId="31" priority="21" operator="containsText" text="Win">
+  <conditionalFormatting sqref="I3:I90 I92:I172">
+    <cfRule type="containsText" dxfId="18" priority="21" operator="containsText" text="Win">
       <formula>NOT(ISERROR(SEARCH("Win",I3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="22" operator="containsText" text="Loss">
+    <cfRule type="containsText" dxfId="17" priority="22" operator="containsText" text="Loss">
       <formula>NOT(ISERROR(SEARCH("Loss",I3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="23" operator="containsText" text="No Action">
+    <cfRule type="containsText" dxfId="16" priority="23" operator="containsText" text="No Action">
       <formula>NOT(ISERROR(SEARCH("No Action",I3)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14595,27 +15120,27 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" customWidth="1"/>
-    <col min="4" max="4" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.44140625" customWidth="1"/>
-    <col min="8" max="8" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>20</v>
       </c>
@@ -14628,7 +15153,7 @@
       <c r="H1" s="8"/>
       <c r="I1" s="8"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>33</v>
       </c>
@@ -14657,7 +15182,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>43685</v>
       </c>
@@ -14686,7 +15211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>43685</v>
       </c>
@@ -14715,7 +15240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>43685</v>
       </c>
@@ -14744,7 +15269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>43685</v>
       </c>
@@ -14773,7 +15298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>43685</v>
       </c>
@@ -14802,7 +15327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>43686</v>
       </c>
@@ -14831,7 +15356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>43686</v>
       </c>
@@ -14860,7 +15385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>43686</v>
       </c>
@@ -14889,7 +15414,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>43686</v>
       </c>
@@ -14918,7 +15443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>43686</v>
       </c>
@@ -14947,7 +15472,7 @@
         <v>9.76</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>43687</v>
       </c>
@@ -14976,7 +15501,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>43687</v>
       </c>
@@ -15005,7 +15530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>43687</v>
       </c>
@@ -15034,7 +15559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>43687</v>
       </c>
@@ -15063,7 +15588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>43687</v>
       </c>
@@ -15092,7 +15617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>43697</v>
       </c>
@@ -15121,7 +15646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>43697</v>
       </c>
@@ -15150,7 +15675,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>43697</v>
       </c>
@@ -15179,7 +15704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>43697</v>
       </c>
@@ -15208,7 +15733,7 @@
         <v>8.57</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>43698</v>
       </c>
@@ -15237,7 +15762,7 @@
         <v>8.9700000000000006</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>43698</v>
       </c>
@@ -15266,7 +15791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>43698</v>
       </c>
@@ -15295,7 +15820,7 @@
         <v>8.14</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>43698</v>
       </c>
@@ -15324,7 +15849,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>43699</v>
       </c>
@@ -15353,7 +15878,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>43699</v>
       </c>
@@ -15382,7 +15907,7 @@
         <v>14.65</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>43704</v>
       </c>
@@ -15411,7 +15936,7 @@
         <v>15.1</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>43704</v>
       </c>
@@ -15440,7 +15965,7 @@
         <v>8.65</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>43704</v>
       </c>
@@ -15469,7 +15994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>43705</v>
       </c>
@@ -15498,7 +16023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>43705</v>
       </c>
@@ -15527,7 +16052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>43705</v>
       </c>
@@ -15556,7 +16081,7 @@
         <v>8.33</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>51</v>
       </c>
@@ -15578,10 +16103,10 @@
     <mergeCell ref="A1:I1"/>
   </mergeCells>
   <conditionalFormatting sqref="J34">
-    <cfRule type="cellIs" dxfId="25" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="14" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
     <cfRule type="colorScale" priority="3">
@@ -15596,13 +16121,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="containsText" dxfId="23" priority="4" operator="containsText" text="No Action">
+    <cfRule type="containsText" dxfId="13" priority="4" operator="containsText" text="No Action">
       <formula>NOT(ISERROR(SEARCH("No Action",G1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="5" operator="containsText" text="Win">
+    <cfRule type="containsText" dxfId="12" priority="5" operator="containsText" text="Win">
       <formula>NOT(ISERROR(SEARCH("Win",G1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="6" operator="containsText" text="Loss">
+    <cfRule type="containsText" dxfId="11" priority="6" operator="containsText" text="Loss">
       <formula>NOT(ISERROR(SEARCH("Loss",G1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15614,28 +16139,28 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5546875" customWidth="1"/>
-    <col min="5" max="5" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>45</v>
       </c>
@@ -15649,7 +16174,7 @@
       <c r="I1" s="8"/>
       <c r="J1" s="8"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>33</v>
       </c>
@@ -15681,7 +16206,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>43698</v>
       </c>
@@ -15718,13 +16243,13 @@
     <mergeCell ref="A1:J1"/>
   </mergeCells>
   <conditionalFormatting sqref="H1:H3">
-    <cfRule type="containsText" dxfId="15" priority="1" operator="containsText" text="No Action">
+    <cfRule type="containsText" dxfId="10" priority="1" operator="containsText" text="No Action">
       <formula>NOT(ISERROR(SEARCH("No Action",H1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="2" operator="containsText" text="Win">
+    <cfRule type="containsText" dxfId="9" priority="2" operator="containsText" text="Win">
       <formula>NOT(ISERROR(SEARCH("Win",H1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="3" operator="containsText" text="Loss">
+    <cfRule type="containsText" dxfId="8" priority="3" operator="containsText" text="Loss">
       <formula>NOT(ISERROR(SEARCH("Loss",H1)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/SportsBettingLogs.xlsx
+++ b/SportsBettingLogs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Summary Tab" sheetId="4" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2346" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2409" uniqueCount="320">
   <si>
     <t>Bet Type</t>
   </si>
@@ -678,9 +678,6 @@
     <t>Kicking Points</t>
   </si>
   <si>
-    <t>Portland Blazers</t>
-  </si>
-  <si>
     <t>Golden Tate</t>
   </si>
   <si>
@@ -979,6 +976,24 @@
   </si>
   <si>
     <t>Georgia Tech</t>
+  </si>
+  <si>
+    <t>Oregon</t>
+  </si>
+  <si>
+    <t>Houston</t>
+  </si>
+  <si>
+    <t>George Washington</t>
+  </si>
+  <si>
+    <t>UMKC</t>
+  </si>
+  <si>
+    <t>UMBC</t>
+  </si>
+  <si>
+    <t>Eastern Michigan</t>
   </si>
 </sst>
 </file>
@@ -1070,7 +1085,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="53">
+  <dxfs count="56">
     <dxf>
       <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     </dxf>
@@ -1207,6 +1222,36 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -1302,22 +1347,6 @@
       </fill>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     </dxf>
     <dxf>
@@ -1346,6 +1375,22 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
@@ -1393,20 +1438,20 @@
     <sortCondition ref="A2:A235"/>
   </sortState>
   <tableColumns count="12">
-    <tableColumn id="17" name="Date Placed" totalsRowLabel="Total" dataDxfId="52" totalsRowDxfId="7"/>
-    <tableColumn id="11" name="NFL Week" dataDxfId="51" totalsRowDxfId="6"/>
-    <tableColumn id="1" name="Bet Type" dataDxfId="50" totalsRowDxfId="5"/>
-    <tableColumn id="10" name="Points" dataDxfId="49" totalsRowDxfId="4"/>
-    <tableColumn id="2" name="Odds" dataDxfId="48" totalsRowDxfId="3"/>
-    <tableColumn id="9" name="League" dataDxfId="47" totalsRowDxfId="2"/>
+    <tableColumn id="17" name="Date Placed" totalsRowLabel="Total" dataDxfId="55" totalsRowDxfId="7"/>
+    <tableColumn id="11" name="NFL Week" dataDxfId="54" totalsRowDxfId="6"/>
+    <tableColumn id="1" name="Bet Type" dataDxfId="53" totalsRowDxfId="5"/>
+    <tableColumn id="10" name="Points" dataDxfId="52" totalsRowDxfId="4"/>
+    <tableColumn id="2" name="Odds" dataDxfId="51" totalsRowDxfId="3"/>
+    <tableColumn id="9" name="League" dataDxfId="50" totalsRowDxfId="2"/>
     <tableColumn id="3" name="Home Team"/>
     <tableColumn id="4" name="Away Team"/>
     <tableColumn id="5" name="Outcome Chosen"/>
     <tableColumn id="6" name="Result"/>
-    <tableColumn id="7" name="Bet Size" totalsRowFunction="custom" dataDxfId="46" totalsRowDxfId="1">
+    <tableColumn id="7" name="Bet Size" totalsRowFunction="custom" dataDxfId="49" totalsRowDxfId="1">
       <totalsRowFormula>SUMIF(Table134[Result],"&lt;&gt;",Table134[Bet Size])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" name="Payout" totalsRowFunction="custom" dataDxfId="45" totalsRowDxfId="0">
+    <tableColumn id="8" name="Payout" totalsRowFunction="custom" dataDxfId="48" totalsRowDxfId="0">
       <totalsRowFormula>SUMIF(Table134[Result],"&lt;&gt;",Table134[Payout])</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -1415,25 +1460,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A2:K91" totalsRowCount="1">
-  <autoFilter ref="A2:K90"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A2:K98" totalsRowCount="1">
+  <autoFilter ref="A2:K97"/>
   <sortState ref="A3:K82">
     <sortCondition ref="A2:A82"/>
   </sortState>
   <tableColumns count="11">
-    <tableColumn id="1" name="Date Placed" totalsRowLabel="Total" dataDxfId="34"/>
-    <tableColumn id="2" name="Bet Type" dataDxfId="33"/>
-    <tableColumn id="3" name="Points" dataDxfId="32"/>
-    <tableColumn id="4" name="Odds" dataDxfId="31"/>
-    <tableColumn id="5" name="League" dataDxfId="30"/>
+    <tableColumn id="1" name="Date Placed" totalsRowLabel="Total" dataDxfId="47"/>
+    <tableColumn id="2" name="Bet Type" dataDxfId="46"/>
+    <tableColumn id="3" name="Points" dataDxfId="45"/>
+    <tableColumn id="4" name="Odds" dataDxfId="44"/>
+    <tableColumn id="5" name="League" dataDxfId="43"/>
     <tableColumn id="6" name="Home Team"/>
     <tableColumn id="7" name="Away Team"/>
     <tableColumn id="8" name="Outcome Chosen"/>
     <tableColumn id="9" name="Result"/>
-    <tableColumn id="10" name="Bet Size" totalsRowFunction="custom" dataDxfId="44" totalsRowDxfId="23">
+    <tableColumn id="10" name="Bet Size" totalsRowFunction="custom" dataDxfId="42" totalsRowDxfId="26">
       <totalsRowFormula>SUMIF(Table4[Result],"&lt;&gt;",Table4[Bet Size])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="11" name="Payout" totalsRowFunction="custom" dataDxfId="43" totalsRowDxfId="22">
+    <tableColumn id="11" name="Payout" totalsRowFunction="custom" dataDxfId="41" totalsRowDxfId="25">
       <totalsRowFormula>SUMIF(Table4[Result],"&lt;&gt;",Table4[Payout])</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -1448,17 +1493,17 @@
     <sortCondition ref="A2:A27"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="17" name="Date" totalsRowLabel="Total" dataDxfId="42"/>
+    <tableColumn id="17" name="Date" totalsRowLabel="Total" dataDxfId="40"/>
     <tableColumn id="1" name="Bet Type"/>
     <tableColumn id="2" name="Odds"/>
     <tableColumn id="3" name="Team 1"/>
     <tableColumn id="4" name="Team 2"/>
     <tableColumn id="5" name="Outcome Chosen"/>
     <tableColumn id="6" name="Result"/>
-    <tableColumn id="7" name="Bet Size" totalsRowFunction="custom" dataDxfId="41" totalsRowDxfId="40">
+    <tableColumn id="7" name="Bet Size" totalsRowFunction="custom" dataDxfId="39" totalsRowDxfId="38">
       <totalsRowFormula>SUMIF(Table1[Result],"&lt;&gt;",Table1[Bet Size])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" name="Payout" totalsRowFunction="custom" dataDxfId="39" totalsRowDxfId="38">
+    <tableColumn id="8" name="Payout" totalsRowFunction="custom" dataDxfId="37" totalsRowDxfId="36">
       <totalsRowFormula>SUMIF(Table1[Result],"&lt;&gt;",Table1[Payout])</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -1470,7 +1515,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A2:J3" totalsRowShown="0">
   <autoFilter ref="A2:J3"/>
   <tableColumns count="10">
-    <tableColumn id="17" name="Date" dataDxfId="37"/>
+    <tableColumn id="17" name="Date" dataDxfId="35"/>
     <tableColumn id="1" name="Bet Type"/>
     <tableColumn id="2" name="Odds"/>
     <tableColumn id="9" name="League"/>
@@ -1478,8 +1523,8 @@
     <tableColumn id="4" name="Team 2"/>
     <tableColumn id="5" name="Outcome Chosen"/>
     <tableColumn id="6" name="Result"/>
-    <tableColumn id="7" name="Bet Size" dataDxfId="36"/>
-    <tableColumn id="8" name="Payout" dataDxfId="35"/>
+    <tableColumn id="7" name="Bet Size" dataDxfId="34"/>
+    <tableColumn id="8" name="Payout" dataDxfId="33"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1796,8 +1841,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L272"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A246" zoomScale="74" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="G273" sqref="G273"/>
+    <sheetView tabSelected="1" topLeftCell="A247" zoomScale="74" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="L271" sqref="L271"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8671,7 +8716,7 @@
         <v>55</v>
       </c>
       <c r="G183" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H183" t="s">
         <v>119</v>
@@ -8709,7 +8754,7 @@
         <v>55</v>
       </c>
       <c r="G184" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H184" t="s">
         <v>119</v>
@@ -8859,16 +8904,16 @@
         <v>-110</v>
       </c>
       <c r="F188" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G188" t="s">
+        <v>242</v>
+      </c>
+      <c r="H188" t="s">
         <v>243</v>
       </c>
-      <c r="H188" t="s">
-        <v>244</v>
-      </c>
       <c r="I188" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="J188" t="s">
         <v>29</v>
@@ -8897,13 +8942,13 @@
         <v>-115</v>
       </c>
       <c r="F189" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G189" t="s">
+        <v>240</v>
+      </c>
+      <c r="H189" t="s">
         <v>241</v>
-      </c>
-      <c r="H189" t="s">
-        <v>242</v>
       </c>
       <c r="I189" t="s">
         <v>13</v>
@@ -8935,16 +8980,16 @@
         <v>-110</v>
       </c>
       <c r="F190" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G190" t="s">
+        <v>244</v>
+      </c>
+      <c r="H190" t="s">
         <v>245</v>
       </c>
-      <c r="H190" t="s">
-        <v>246</v>
-      </c>
       <c r="I190" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J190" t="s">
         <v>23</v>
@@ -8973,13 +9018,13 @@
         <v>-110</v>
       </c>
       <c r="F191" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G191" t="s">
+        <v>246</v>
+      </c>
+      <c r="H191" t="s">
         <v>247</v>
-      </c>
-      <c r="H191" t="s">
-        <v>248</v>
       </c>
       <c r="I191" t="s">
         <v>13</v>
@@ -9011,13 +9056,13 @@
         <v>-115</v>
       </c>
       <c r="F192" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G192" t="s">
+        <v>248</v>
+      </c>
+      <c r="H192" t="s">
         <v>249</v>
-      </c>
-      <c r="H192" t="s">
-        <v>250</v>
       </c>
       <c r="I192" t="s">
         <v>13</v>
@@ -9049,16 +9094,16 @@
         <v>-105</v>
       </c>
       <c r="F193" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G193" t="s">
+        <v>250</v>
+      </c>
+      <c r="H193" t="s">
         <v>251</v>
       </c>
-      <c r="H193" t="s">
-        <v>252</v>
-      </c>
       <c r="I193" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J193" t="s">
         <v>23</v>
@@ -9204,7 +9249,7 @@
         <v>55</v>
       </c>
       <c r="G197" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H197" t="s">
         <v>118</v>
@@ -9280,7 +9325,7 @@
         <v>55</v>
       </c>
       <c r="G199" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H199" t="s">
         <v>119</v>
@@ -9711,16 +9756,16 @@
         <v>-110</v>
       </c>
       <c r="F211" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G211" t="s">
+        <v>273</v>
+      </c>
+      <c r="H211" t="s">
         <v>274</v>
       </c>
-      <c r="H211" t="s">
-        <v>275</v>
-      </c>
       <c r="I211" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J211" t="s">
         <v>23</v>
@@ -9749,16 +9794,16 @@
         <v>-110</v>
       </c>
       <c r="F212" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G212" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H212" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I212" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="J212" t="s">
         <v>29</v>
@@ -9787,16 +9832,16 @@
         <v>-110</v>
       </c>
       <c r="F213" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G213" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H213" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I213" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="J213" t="s">
         <v>29</v>
@@ -9825,16 +9870,16 @@
         <v>-110</v>
       </c>
       <c r="F214" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G214" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H214" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I214" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="J214" t="s">
         <v>23</v>
@@ -9863,16 +9908,16 @@
         <v>-260</v>
       </c>
       <c r="F215" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G215" t="s">
+        <v>268</v>
+      </c>
+      <c r="H215" t="s">
         <v>269</v>
       </c>
-      <c r="H215" t="s">
-        <v>270</v>
-      </c>
       <c r="I215" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="J215" t="s">
         <v>23</v>
@@ -9901,13 +9946,13 @@
         <v>-115</v>
       </c>
       <c r="F216" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G216" t="s">
+        <v>242</v>
+      </c>
+      <c r="H216" t="s">
         <v>243</v>
-      </c>
-      <c r="H216" t="s">
-        <v>244</v>
       </c>
       <c r="I216" t="s">
         <v>13</v>
@@ -10056,7 +10101,7 @@
         <v>55</v>
       </c>
       <c r="G220" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H220" t="s">
         <v>118</v>
@@ -10094,7 +10139,7 @@
         <v>55</v>
       </c>
       <c r="G221" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H221" t="s">
         <v>119</v>
@@ -10132,7 +10177,7 @@
         <v>55</v>
       </c>
       <c r="G222" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H222" t="s">
         <v>135</v>
@@ -10170,7 +10215,7 @@
         <v>55</v>
       </c>
       <c r="G223" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H223" t="s">
         <v>119</v>
@@ -10208,7 +10253,7 @@
         <v>55</v>
       </c>
       <c r="G224" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H224" t="s">
         <v>119</v>
@@ -10803,16 +10848,16 @@
         <v>-110</v>
       </c>
       <c r="F240" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G240" t="s">
+        <v>288</v>
+      </c>
+      <c r="H240" t="s">
+        <v>292</v>
+      </c>
+      <c r="I240" t="s">
         <v>289</v>
-      </c>
-      <c r="H240" t="s">
-        <v>293</v>
-      </c>
-      <c r="I240" t="s">
-        <v>290</v>
       </c>
       <c r="J240" t="s">
         <v>23</v>
@@ -10917,16 +10962,16 @@
         <v>-120</v>
       </c>
       <c r="F243" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G243" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H243" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I243" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="J243" t="s">
         <v>29</v>
@@ -10955,16 +11000,16 @@
         <v>-110</v>
       </c>
       <c r="F244" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G244" t="s">
+        <v>293</v>
+      </c>
+      <c r="H244" t="s">
         <v>294</v>
       </c>
-      <c r="H244" t="s">
-        <v>295</v>
-      </c>
       <c r="I244" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J244" t="s">
         <v>23</v>
@@ -10993,13 +11038,13 @@
         <v>-110</v>
       </c>
       <c r="F245" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G245" t="s">
+        <v>295</v>
+      </c>
+      <c r="H245" t="s">
         <v>296</v>
-      </c>
-      <c r="H245" t="s">
-        <v>297</v>
       </c>
       <c r="I245" t="s">
         <v>13</v>
@@ -11031,16 +11076,16 @@
         <v>-105</v>
       </c>
       <c r="F246" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G246" t="s">
+        <v>297</v>
+      </c>
+      <c r="H246" t="s">
         <v>298</v>
       </c>
-      <c r="H246" t="s">
-        <v>299</v>
-      </c>
       <c r="I246" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="J246" t="s">
         <v>23</v>
@@ -11072,7 +11117,7 @@
         <v>55</v>
       </c>
       <c r="G247" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H247" t="s">
         <v>135</v>
@@ -11110,7 +11155,7 @@
         <v>55</v>
       </c>
       <c r="G248" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H248" t="s">
         <v>119</v>
@@ -11148,7 +11193,7 @@
         <v>55</v>
       </c>
       <c r="G249" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H249" t="s">
         <v>118</v>
@@ -11186,7 +11231,7 @@
         <v>55</v>
       </c>
       <c r="G250" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H250" t="s">
         <v>116</v>
@@ -11262,7 +11307,7 @@
         <v>55</v>
       </c>
       <c r="G252" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H252" t="s">
         <v>116</v>
@@ -11300,10 +11345,10 @@
         <v>55</v>
       </c>
       <c r="G253" t="s">
+        <v>302</v>
+      </c>
+      <c r="H253" t="s">
         <v>303</v>
-      </c>
-      <c r="H253" t="s">
-        <v>304</v>
       </c>
       <c r="I253" t="s">
         <v>66</v>
@@ -11373,16 +11418,16 @@
         <v>-110</v>
       </c>
       <c r="F255" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G255" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H255" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I255" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J255" t="s">
         <v>23</v>
@@ -11498,10 +11543,15 @@
       <c r="I258" t="s">
         <v>66</v>
       </c>
+      <c r="J258" t="s">
+        <v>23</v>
+      </c>
       <c r="K258" s="1">
         <v>10</v>
       </c>
-      <c r="L258" s="1"/>
+      <c r="L258" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="259" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A259" s="4">
@@ -11531,10 +11581,15 @@
       <c r="I259" t="s">
         <v>13</v>
       </c>
+      <c r="J259" t="s">
+        <v>29</v>
+      </c>
       <c r="K259" s="1">
         <v>10</v>
       </c>
-      <c r="L259" s="1"/>
+      <c r="L259" s="1">
+        <v>19.09</v>
+      </c>
     </row>
     <row r="260" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A260" s="4">
@@ -11564,10 +11619,15 @@
       <c r="I260" t="s">
         <v>63</v>
       </c>
+      <c r="J260" t="s">
+        <v>29</v>
+      </c>
       <c r="K260" s="1">
         <v>10</v>
       </c>
-      <c r="L260" s="1"/>
+      <c r="L260" s="1">
+        <v>18.7</v>
+      </c>
     </row>
     <row r="261" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A261" s="4">
@@ -11597,10 +11657,15 @@
       <c r="I261" t="s">
         <v>13</v>
       </c>
+      <c r="J261" t="s">
+        <v>23</v>
+      </c>
       <c r="K261" s="1">
         <v>10</v>
       </c>
-      <c r="L261" s="1"/>
+      <c r="L261" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="262" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A262" s="4">
@@ -11630,10 +11695,15 @@
       <c r="I262" t="s">
         <v>66</v>
       </c>
+      <c r="J262" t="s">
+        <v>23</v>
+      </c>
       <c r="K262" s="1">
         <v>10</v>
       </c>
-      <c r="L262" s="1"/>
+      <c r="L262" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="263" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A263" s="4">
@@ -11663,10 +11733,15 @@
       <c r="I263" t="s">
         <v>110</v>
       </c>
+      <c r="J263" t="s">
+        <v>29</v>
+      </c>
       <c r="K263" s="1">
         <v>10</v>
       </c>
-      <c r="L263" s="1"/>
+      <c r="L263" s="1">
+        <v>18</v>
+      </c>
     </row>
     <row r="264" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A264" s="4">
@@ -11682,7 +11757,7 @@
         <v>-3</v>
       </c>
       <c r="E264" s="6">
-        <v>-115</v>
+        <v>-105</v>
       </c>
       <c r="F264" s="6" t="s">
         <v>55</v>
@@ -11696,10 +11771,16 @@
       <c r="I264" t="s">
         <v>76</v>
       </c>
+      <c r="J264" t="s">
+        <v>29</v>
+      </c>
       <c r="K264" s="1">
-        <v>10</v>
-      </c>
-      <c r="L264" s="1"/>
+        <v>30</v>
+      </c>
+      <c r="L264" s="1">
+        <f>18.7+40</f>
+        <v>58.7</v>
+      </c>
     </row>
     <row r="265" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A265" s="4">
@@ -11729,10 +11810,15 @@
       <c r="I265" t="s">
         <v>66</v>
       </c>
+      <c r="J265" t="s">
+        <v>29</v>
+      </c>
       <c r="K265" s="1">
         <v>10</v>
       </c>
-      <c r="L265" s="1"/>
+      <c r="L265" s="1">
+        <v>19.09</v>
+      </c>
     </row>
     <row r="266" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A266" s="4">
@@ -11762,39 +11848,53 @@
       <c r="I266" t="s">
         <v>69</v>
       </c>
+      <c r="J266" t="s">
+        <v>23</v>
+      </c>
       <c r="K266" s="1">
         <v>10</v>
       </c>
-      <c r="L266" s="1"/>
+      <c r="L266" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="267" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A267" s="4">
-        <v>43789</v>
+        <v>43790</v>
       </c>
       <c r="B267" s="5">
         <v>12</v>
       </c>
       <c r="C267" s="6" t="s">
-        <v>108</v>
+        <v>3</v>
       </c>
       <c r="D267" s="6">
-        <v>10</v>
-      </c>
-      <c r="E267" s="6"/>
+        <v>7</v>
+      </c>
+      <c r="E267" s="6">
+        <v>-125</v>
+      </c>
       <c r="F267" s="6" t="s">
         <v>55</v>
       </c>
       <c r="G267" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="H267" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="I267" t="s">
-        <v>70</v>
-      </c>
-      <c r="K267" s="1"/>
-      <c r="L267" s="1"/>
+        <v>56</v>
+      </c>
+      <c r="J267" t="s">
+        <v>29</v>
+      </c>
+      <c r="K267" s="1">
+        <v>10</v>
+      </c>
+      <c r="L267" s="1">
+        <v>18</v>
+      </c>
     </row>
     <row r="268" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A268" s="4">
@@ -11814,13 +11914,16 @@
         <v>55</v>
       </c>
       <c r="G268" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="H268" t="s">
-        <v>111</v>
+        <v>70</v>
       </c>
       <c r="I268" t="s">
-        <v>63</v>
+        <v>70</v>
+      </c>
+      <c r="J268" t="s">
+        <v>23</v>
       </c>
       <c r="K268" s="1"/>
       <c r="L268" s="1"/>
@@ -11838,24 +11941,23 @@
       <c r="D269" s="6">
         <v>10</v>
       </c>
-      <c r="E269" s="6">
-        <v>120</v>
-      </c>
+      <c r="E269" s="6"/>
       <c r="F269" s="6" t="s">
         <v>55</v>
       </c>
       <c r="G269" t="s">
-        <v>106</v>
+        <v>63</v>
       </c>
       <c r="H269" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="I269" t="s">
-        <v>93</v>
-      </c>
-      <c r="K269" s="1">
-        <v>10</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="J269" t="s">
+        <v>29</v>
+      </c>
+      <c r="K269" s="1"/>
       <c r="L269" s="1"/>
     </row>
     <row r="270" spans="1:12" x14ac:dyDescent="0.25">
@@ -11866,28 +11968,67 @@
         <v>12</v>
       </c>
       <c r="C270" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="D270" s="6"/>
-      <c r="E270" s="6"/>
-      <c r="F270" s="6"/>
-      <c r="K270" s="1"/>
-      <c r="L270" s="1"/>
+        <v>108</v>
+      </c>
+      <c r="D270" s="6">
+        <v>10</v>
+      </c>
+      <c r="E270" s="6">
+        <v>120</v>
+      </c>
+      <c r="F270" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G270" t="s">
+        <v>106</v>
+      </c>
+      <c r="H270" t="s">
+        <v>93</v>
+      </c>
+      <c r="I270" t="s">
+        <v>93</v>
+      </c>
+      <c r="J270" t="s">
+        <v>29</v>
+      </c>
+      <c r="K270" s="1">
+        <v>10</v>
+      </c>
+      <c r="L270" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="271" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A271" s="4">
-        <v>43789</v>
+        <v>43794</v>
       </c>
       <c r="B271" s="5">
         <v>12</v>
       </c>
       <c r="C271" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="D271" s="6"/>
-      <c r="E271" s="6"/>
-      <c r="F271" s="6"/>
-      <c r="K271" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="D271" s="6">
+        <v>3.5</v>
+      </c>
+      <c r="E271" s="6">
+        <v>100</v>
+      </c>
+      <c r="F271" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G271" t="s">
+        <v>59</v>
+      </c>
+      <c r="H271" t="s">
+        <v>71</v>
+      </c>
+      <c r="I271" t="s">
+        <v>59</v>
+      </c>
+      <c r="K271" s="1">
+        <v>20</v>
+      </c>
       <c r="L271" s="1"/>
     </row>
     <row r="272" spans="1:12" x14ac:dyDescent="0.25">
@@ -11901,11 +12042,11 @@
       <c r="F272" s="6"/>
       <c r="K272" s="1">
         <f>SUMIF(Table134[Result],"&lt;&gt;",Table134[Bet Size])</f>
-        <v>3400</v>
+        <v>3530</v>
       </c>
       <c r="L272" s="1">
         <f>SUMIF(Table134[Result],"&lt;&gt;",Table134[Payout])</f>
-        <v>3233.2799999999997</v>
+        <v>3384.8599999999997</v>
       </c>
     </row>
   </sheetData>
@@ -11913,13 +12054,13 @@
     <mergeCell ref="A1:L1"/>
   </mergeCells>
   <conditionalFormatting sqref="J1:J1017">
-    <cfRule type="containsText" dxfId="21" priority="55" operator="containsText" text="No Action">
+    <cfRule type="containsText" dxfId="24" priority="55" operator="containsText" text="No Action">
       <formula>NOT(ISERROR(SEARCH("No Action",J1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="56" operator="containsText" text="Win">
+    <cfRule type="containsText" dxfId="23" priority="56" operator="containsText" text="Win">
       <formula>NOT(ISERROR(SEARCH("Win",J1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="57" operator="containsText" text="Loss">
+    <cfRule type="containsText" dxfId="22" priority="57" operator="containsText" text="Loss">
       <formula>NOT(ISERROR(SEARCH("Loss",J1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11933,10 +12074,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K91"/>
+  <dimension ref="A1:K98"/>
   <sheetViews>
-    <sheetView topLeftCell="E64" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A91" sqref="A91"/>
+    <sheetView topLeftCell="A73" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H96" sqref="H96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13179,7 +13320,7 @@
         <v>194</v>
       </c>
       <c r="G36" t="s">
-        <v>214</v>
+        <v>275</v>
       </c>
       <c r="H36" t="s">
         <v>13</v>
@@ -13211,13 +13352,13 @@
         <v>155</v>
       </c>
       <c r="F37" t="s">
+        <v>216</v>
+      </c>
+      <c r="G37" t="s">
         <v>217</v>
       </c>
-      <c r="G37" t="s">
-        <v>218</v>
-      </c>
       <c r="H37" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I37" t="s">
         <v>29</v>
@@ -13246,13 +13387,13 @@
         <v>155</v>
       </c>
       <c r="F38" t="s">
+        <v>218</v>
+      </c>
+      <c r="G38" t="s">
         <v>219</v>
       </c>
-      <c r="G38" t="s">
-        <v>220</v>
-      </c>
       <c r="H38" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I38" t="s">
         <v>29</v>
@@ -13281,13 +13422,13 @@
         <v>155</v>
       </c>
       <c r="F39" t="s">
+        <v>220</v>
+      </c>
+      <c r="G39" t="s">
         <v>221</v>
       </c>
-      <c r="G39" t="s">
-        <v>222</v>
-      </c>
       <c r="H39" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I39" t="s">
         <v>104</v>
@@ -13319,10 +13460,10 @@
         <v>182</v>
       </c>
       <c r="G40" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H40" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I40" t="s">
         <v>23</v>
@@ -13351,13 +13492,13 @@
         <v>155</v>
       </c>
       <c r="F41" t="s">
+        <v>223</v>
+      </c>
+      <c r="G41" t="s">
         <v>224</v>
       </c>
-      <c r="G41" t="s">
-        <v>225</v>
-      </c>
       <c r="H41" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I41" t="s">
         <v>23</v>
@@ -13386,7 +13527,7 @@
         <v>155</v>
       </c>
       <c r="F42" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G42" t="s">
         <v>158</v>
@@ -13421,7 +13562,7 @@
         <v>155</v>
       </c>
       <c r="F43" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G43" t="s">
         <v>158</v>
@@ -13456,13 +13597,13 @@
         <v>155</v>
       </c>
       <c r="F44" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G44" t="s">
         <v>199</v>
       </c>
       <c r="H44" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I44" t="s">
         <v>29</v>
@@ -13523,16 +13664,16 @@
         <v>-110</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F46" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G46" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H46" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I46" t="s">
         <v>29</v>
@@ -13593,16 +13734,16 @@
         <v>-115</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F48" t="s">
+        <v>230</v>
+      </c>
+      <c r="G48" t="s">
         <v>231</v>
       </c>
-      <c r="G48" t="s">
-        <v>232</v>
-      </c>
       <c r="H48" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I48" t="s">
         <v>29</v>
@@ -13634,10 +13775,10 @@
         <v>192</v>
       </c>
       <c r="G49" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H49" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I49" t="s">
         <v>29</v>
@@ -13666,13 +13807,13 @@
         <v>155</v>
       </c>
       <c r="F50" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G50" t="s">
         <v>181</v>
       </c>
       <c r="H50" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I50" t="s">
         <v>23</v>
@@ -13736,7 +13877,7 @@
         <v>155</v>
       </c>
       <c r="F52" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G52" t="s">
         <v>158</v>
@@ -13771,7 +13912,7 @@
         <v>155</v>
       </c>
       <c r="F53" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G53" t="s">
         <v>170</v>
@@ -13841,10 +13982,10 @@
         <v>155</v>
       </c>
       <c r="F55" t="s">
+        <v>236</v>
+      </c>
+      <c r="G55" t="s">
         <v>237</v>
-      </c>
-      <c r="G55" t="s">
-        <v>238</v>
       </c>
       <c r="H55" t="s">
         <v>13</v>
@@ -13876,7 +14017,7 @@
         <v>155</v>
       </c>
       <c r="F56" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G56" t="s">
         <v>158</v>
@@ -13911,7 +14052,7 @@
         <v>155</v>
       </c>
       <c r="F57" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G57" t="s">
         <v>158</v>
@@ -13946,13 +14087,13 @@
         <v>155</v>
       </c>
       <c r="F58" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G58" t="s">
         <v>199</v>
       </c>
       <c r="H58" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I58" t="s">
         <v>23</v>
@@ -13984,7 +14125,7 @@
         <v>209</v>
       </c>
       <c r="G59" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H59" t="s">
         <v>66</v>
@@ -14019,7 +14160,7 @@
         <v>156</v>
       </c>
       <c r="G60" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H60" t="s">
         <v>66</v>
@@ -14051,10 +14192,10 @@
         <v>155</v>
       </c>
       <c r="F61" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G61" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H61" t="s">
         <v>66</v>
@@ -14121,13 +14262,13 @@
         <v>155</v>
       </c>
       <c r="F63" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G63" t="s">
         <v>190</v>
       </c>
       <c r="H63" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I63" t="s">
         <v>23</v>
@@ -14156,10 +14297,10 @@
         <v>155</v>
       </c>
       <c r="F64" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G64" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H64" t="s">
         <v>66</v>
@@ -14191,10 +14332,10 @@
         <v>155</v>
       </c>
       <c r="F65" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G65" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H65" t="s">
         <v>66</v>
@@ -14226,7 +14367,7 @@
         <v>155</v>
       </c>
       <c r="F66" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G66" t="s">
         <v>170</v>
@@ -14258,16 +14399,16 @@
         <v>-115</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F67" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G67" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H67" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I67" t="s">
         <v>29</v>
@@ -14296,7 +14437,7 @@
         <v>155</v>
       </c>
       <c r="F68" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G68" t="s">
         <v>190</v>
@@ -14334,7 +14475,7 @@
         <v>182</v>
       </c>
       <c r="G69" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H69" t="s">
         <v>66</v>
@@ -14366,7 +14507,7 @@
         <v>155</v>
       </c>
       <c r="F70" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G70" t="s">
         <v>191</v>
@@ -14404,7 +14545,7 @@
         <v>180</v>
       </c>
       <c r="G71" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H71" t="s">
         <v>66</v>
@@ -14436,7 +14577,7 @@
         <v>155</v>
       </c>
       <c r="F72" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G72" t="s">
         <v>158</v>
@@ -14468,16 +14609,16 @@
         <v>-115</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F73" t="s">
+        <v>279</v>
+      </c>
+      <c r="G73" t="s">
         <v>280</v>
       </c>
-      <c r="G73" t="s">
+      <c r="H73" t="s">
         <v>281</v>
-      </c>
-      <c r="H73" t="s">
-        <v>282</v>
       </c>
       <c r="I73" t="s">
         <v>23</v>
@@ -14503,16 +14644,16 @@
         <v>-110</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F74" t="s">
+        <v>282</v>
+      </c>
+      <c r="G74" t="s">
         <v>283</v>
       </c>
-      <c r="G74" t="s">
-        <v>284</v>
-      </c>
       <c r="H74" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I74" t="s">
         <v>23</v>
@@ -14538,16 +14679,16 @@
         <v>-110</v>
       </c>
       <c r="E75" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F75" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G75" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H75" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I75" t="s">
         <v>23</v>
@@ -14576,10 +14717,10 @@
         <v>155</v>
       </c>
       <c r="F76" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G76" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H76" t="s">
         <v>66</v>
@@ -14611,10 +14752,10 @@
         <v>155</v>
       </c>
       <c r="F77" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G77" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H77" t="s">
         <v>66</v>
@@ -14649,7 +14790,7 @@
         <v>182</v>
       </c>
       <c r="G78" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H78" t="s">
         <v>66</v>
@@ -14751,13 +14892,13 @@
         <v>155</v>
       </c>
       <c r="F81" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G81" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H81" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I81" t="s">
         <v>29</v>
@@ -14786,10 +14927,10 @@
         <v>155</v>
       </c>
       <c r="F82" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G82" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H82" t="s">
         <v>13</v>
@@ -14856,13 +14997,13 @@
         <v>155</v>
       </c>
       <c r="F84" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G84" t="s">
         <v>191</v>
       </c>
       <c r="H84" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I84" t="s">
         <v>29</v>
@@ -14891,13 +15032,13 @@
         <v>155</v>
       </c>
       <c r="F85" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G85" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H85" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I85" t="s">
         <v>23</v>
@@ -14923,13 +15064,13 @@
         <v>-110</v>
       </c>
       <c r="E86" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F86" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G86" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H86" t="s">
         <v>13</v>
@@ -14958,16 +15099,16 @@
         <v>-110</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F87" t="s">
+        <v>308</v>
+      </c>
+      <c r="G87" t="s">
         <v>309</v>
       </c>
-      <c r="G87" t="s">
-        <v>310</v>
-      </c>
       <c r="H87" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="I87" t="s">
         <v>29</v>
@@ -14993,13 +15134,13 @@
         <v>-110</v>
       </c>
       <c r="E88" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F88" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G88" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H88" t="s">
         <v>13</v>
@@ -15028,13 +15169,13 @@
         <v>-110</v>
       </c>
       <c r="E89" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F89" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G89" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H89" t="s">
         <v>13</v>
@@ -15063,53 +15204,309 @@
         <v>-115</v>
       </c>
       <c r="E90" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F90" t="s">
+        <v>312</v>
+      </c>
+      <c r="G90" t="s">
         <v>313</v>
       </c>
-      <c r="G90" t="s">
+      <c r="H90" t="s">
+        <v>312</v>
+      </c>
+      <c r="I90" t="s">
+        <v>23</v>
+      </c>
+      <c r="J90" s="1">
+        <v>10</v>
+      </c>
+      <c r="K90" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A91" s="4">
+        <v>43790</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C91" s="6">
+        <v>-12</v>
+      </c>
+      <c r="D91" s="6">
+        <v>-110</v>
+      </c>
+      <c r="E91" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="F91" t="s">
+        <v>217</v>
+      </c>
+      <c r="G91" t="s">
+        <v>275</v>
+      </c>
+      <c r="H91" t="s">
+        <v>217</v>
+      </c>
+      <c r="I91" t="s">
+        <v>23</v>
+      </c>
+      <c r="J91" s="1">
+        <v>10</v>
+      </c>
+      <c r="K91" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A92" s="4">
+        <v>43790</v>
+      </c>
+      <c r="B92" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C92" s="6">
+        <v>230</v>
+      </c>
+      <c r="D92" s="6">
+        <v>-110</v>
+      </c>
+      <c r="E92" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="F92" t="s">
+        <v>217</v>
+      </c>
+      <c r="G92" t="s">
+        <v>275</v>
+      </c>
+      <c r="H92" t="s">
+        <v>13</v>
+      </c>
+      <c r="I92" t="s">
+        <v>23</v>
+      </c>
+      <c r="J92" s="1">
+        <v>10</v>
+      </c>
+      <c r="K92" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A93" s="4">
+        <v>43791</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C93" s="6">
+        <v>7.5</v>
+      </c>
+      <c r="D93" s="6">
+        <v>-110</v>
+      </c>
+      <c r="E93" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="F93" t="s">
         <v>314</v>
       </c>
-      <c r="H90" t="s">
-        <v>313</v>
-      </c>
-      <c r="I90" t="s">
-        <v>23</v>
-      </c>
-      <c r="J90" s="1">
-        <v>10</v>
-      </c>
-      <c r="K90" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
+      <c r="G93" t="s">
+        <v>315</v>
+      </c>
+      <c r="H93" t="s">
+        <v>315</v>
+      </c>
+      <c r="I93" t="s">
+        <v>23</v>
+      </c>
+      <c r="J93" s="1">
+        <v>10</v>
+      </c>
+      <c r="K93" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A94" s="4">
+        <v>43791</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C94" s="6">
+        <v>1</v>
+      </c>
+      <c r="D94" s="6">
+        <v>-110</v>
+      </c>
+      <c r="E94" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="F94" t="s">
+        <v>316</v>
+      </c>
+      <c r="G94" t="s">
+        <v>317</v>
+      </c>
+      <c r="H94" t="s">
+        <v>317</v>
+      </c>
+      <c r="I94" t="s">
+        <v>29</v>
+      </c>
+      <c r="J94" s="1">
+        <v>10</v>
+      </c>
+      <c r="K94" s="1">
+        <v>19.09</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A95" s="4">
+        <v>43791</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C95" s="6">
+        <v>122.5</v>
+      </c>
+      <c r="D95" s="6">
+        <v>-110</v>
+      </c>
+      <c r="E95" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="F95" t="s">
+        <v>316</v>
+      </c>
+      <c r="G95" t="s">
+        <v>317</v>
+      </c>
+      <c r="H95" t="s">
+        <v>13</v>
+      </c>
+      <c r="I95" t="s">
+        <v>23</v>
+      </c>
+      <c r="J95" s="1">
+        <v>10</v>
+      </c>
+      <c r="K95" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A96" s="4">
+        <v>43791</v>
+      </c>
+      <c r="B96" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C96" s="6">
+        <v>1</v>
+      </c>
+      <c r="D96" s="6">
+        <v>-110</v>
+      </c>
+      <c r="E96" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="F96" t="s">
+        <v>318</v>
+      </c>
+      <c r="G96" t="s">
+        <v>319</v>
+      </c>
+      <c r="H96" t="s">
+        <v>319</v>
+      </c>
+      <c r="I96" t="s">
+        <v>29</v>
+      </c>
+      <c r="J96" s="1">
+        <v>10</v>
+      </c>
+      <c r="K96" s="1">
+        <v>19.09</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A97" s="4">
+        <v>43791</v>
+      </c>
+      <c r="B97" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C97" s="6">
+        <v>118</v>
+      </c>
+      <c r="D97" s="6">
+        <v>-110</v>
+      </c>
+      <c r="E97" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="F97" t="s">
+        <v>318</v>
+      </c>
+      <c r="G97" t="s">
+        <v>319</v>
+      </c>
+      <c r="H97" t="s">
+        <v>13</v>
+      </c>
+      <c r="I97" t="s">
+        <v>29</v>
+      </c>
+      <c r="J97" s="1">
+        <v>10</v>
+      </c>
+      <c r="K97" s="1">
+        <v>19.09</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
         <v>51</v>
       </c>
-      <c r="J91" s="1">
+      <c r="J98" s="1">
         <f>SUMIF(Table4[Result],"&lt;&gt;",Table4[Bet Size])</f>
-        <v>930</v>
-      </c>
-      <c r="K91" s="1">
+        <v>1000</v>
+      </c>
+      <c r="K98" s="1">
         <f>SUMIF(Table4[Result],"&lt;&gt;",Table4[Payout])</f>
-        <v>911.07000000000039</v>
+        <v>968.34000000000049</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:K1"/>
   </mergeCells>
-  <conditionalFormatting sqref="I3:I90 I92:I172">
-    <cfRule type="containsText" dxfId="18" priority="21" operator="containsText" text="Win">
+  <conditionalFormatting sqref="I3:I95 I99:I179">
+    <cfRule type="containsText" dxfId="21" priority="24" operator="containsText" text="Win">
       <formula>NOT(ISERROR(SEARCH("Win",I3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="22" operator="containsText" text="Loss">
+    <cfRule type="containsText" dxfId="20" priority="25" operator="containsText" text="Loss">
       <formula>NOT(ISERROR(SEARCH("Loss",I3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="23" operator="containsText" text="No Action">
+    <cfRule type="containsText" dxfId="19" priority="26" operator="containsText" text="No Action">
       <formula>NOT(ISERROR(SEARCH("No Action",I3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I96:I97">
+    <cfRule type="containsText" dxfId="18" priority="1" operator="containsText" text="Win">
+      <formula>NOT(ISERROR(SEARCH("Win",I96)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="17" priority="2" operator="containsText" text="Loss">
+      <formula>NOT(ISERROR(SEARCH("Loss",I96)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="16" priority="3" operator="containsText" text="No Action">
+      <formula>NOT(ISERROR(SEARCH("No Action",I96)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SportsBettingLogs.xlsx
+++ b/SportsBettingLogs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Summary Tab" sheetId="4" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2409" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2568" uniqueCount="323">
   <si>
     <t>Bet Type</t>
   </si>
@@ -994,6 +994,15 @@
   </si>
   <si>
     <t>Eastern Michigan</t>
+  </si>
+  <si>
+    <t>Utah Jazz</t>
+  </si>
+  <si>
+    <t>Virginia Cavaliers</t>
+  </si>
+  <si>
+    <t>Virginia Tech Hokies</t>
   </si>
 </sst>
 </file>
@@ -1085,7 +1094,73 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="56">
+  <dxfs count="53">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     </dxf>
@@ -1251,102 +1326,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     </dxf>
     <dxf>
@@ -1432,26 +1411,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table134" displayName="Table134" ref="A2:L272" totalsRowCount="1">
-  <autoFilter ref="A2:L271"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table134" displayName="Table134" ref="A2:L293" totalsRowCount="1">
+  <autoFilter ref="A2:L292"/>
   <sortState ref="A3:L235">
     <sortCondition ref="A2:A235"/>
   </sortState>
   <tableColumns count="12">
-    <tableColumn id="17" name="Date Placed" totalsRowLabel="Total" dataDxfId="55" totalsRowDxfId="7"/>
-    <tableColumn id="11" name="NFL Week" dataDxfId="54" totalsRowDxfId="6"/>
-    <tableColumn id="1" name="Bet Type" dataDxfId="53" totalsRowDxfId="5"/>
-    <tableColumn id="10" name="Points" dataDxfId="52" totalsRowDxfId="4"/>
-    <tableColumn id="2" name="Odds" dataDxfId="51" totalsRowDxfId="3"/>
-    <tableColumn id="9" name="League" dataDxfId="50" totalsRowDxfId="2"/>
+    <tableColumn id="17" name="Date Placed" totalsRowLabel="Total" dataDxfId="52" totalsRowDxfId="15"/>
+    <tableColumn id="11" name="NFL Week" dataDxfId="51" totalsRowDxfId="14"/>
+    <tableColumn id="1" name="Bet Type" dataDxfId="50" totalsRowDxfId="13"/>
+    <tableColumn id="10" name="Points" dataDxfId="49" totalsRowDxfId="12"/>
+    <tableColumn id="2" name="Odds" dataDxfId="48" totalsRowDxfId="11"/>
+    <tableColumn id="9" name="League" dataDxfId="47" totalsRowDxfId="10"/>
     <tableColumn id="3" name="Home Team"/>
     <tableColumn id="4" name="Away Team"/>
     <tableColumn id="5" name="Outcome Chosen"/>
     <tableColumn id="6" name="Result"/>
-    <tableColumn id="7" name="Bet Size" totalsRowFunction="custom" dataDxfId="49" totalsRowDxfId="1">
+    <tableColumn id="7" name="Bet Size" totalsRowFunction="custom" dataDxfId="46" totalsRowDxfId="9">
       <totalsRowFormula>SUMIF(Table134[Result],"&lt;&gt;",Table134[Bet Size])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" name="Payout" totalsRowFunction="custom" dataDxfId="48" totalsRowDxfId="0">
+    <tableColumn id="8" name="Payout" totalsRowFunction="custom" dataDxfId="45" totalsRowDxfId="8">
       <totalsRowFormula>SUMIF(Table134[Result],"&lt;&gt;",Table134[Payout])</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -1460,25 +1439,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A2:K98" totalsRowCount="1">
-  <autoFilter ref="A2:K97"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A2:K104" totalsRowCount="1">
+  <autoFilter ref="A2:K103"/>
   <sortState ref="A3:K82">
     <sortCondition ref="A2:A82"/>
   </sortState>
   <tableColumns count="11">
-    <tableColumn id="1" name="Date Placed" totalsRowLabel="Total" dataDxfId="47"/>
-    <tableColumn id="2" name="Bet Type" dataDxfId="46"/>
-    <tableColumn id="3" name="Points" dataDxfId="45"/>
-    <tableColumn id="4" name="Odds" dataDxfId="44"/>
-    <tableColumn id="5" name="League" dataDxfId="43"/>
+    <tableColumn id="1" name="Date Placed" totalsRowLabel="Total" dataDxfId="44"/>
+    <tableColumn id="2" name="Bet Type" dataDxfId="43"/>
+    <tableColumn id="3" name="Points" dataDxfId="42"/>
+    <tableColumn id="4" name="Odds" dataDxfId="41"/>
+    <tableColumn id="5" name="League" dataDxfId="40"/>
     <tableColumn id="6" name="Home Team"/>
     <tableColumn id="7" name="Away Team"/>
     <tableColumn id="8" name="Outcome Chosen"/>
     <tableColumn id="9" name="Result"/>
-    <tableColumn id="10" name="Bet Size" totalsRowFunction="custom" dataDxfId="42" totalsRowDxfId="26">
+    <tableColumn id="10" name="Bet Size" totalsRowFunction="custom" dataDxfId="39" totalsRowDxfId="1">
       <totalsRowFormula>SUMIF(Table4[Result],"&lt;&gt;",Table4[Bet Size])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="11" name="Payout" totalsRowFunction="custom" dataDxfId="41" totalsRowDxfId="25">
+    <tableColumn id="11" name="Payout" totalsRowFunction="custom" dataDxfId="38" totalsRowDxfId="0">
       <totalsRowFormula>SUMIF(Table4[Result],"&lt;&gt;",Table4[Payout])</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -1493,17 +1472,17 @@
     <sortCondition ref="A2:A27"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="17" name="Date" totalsRowLabel="Total" dataDxfId="40"/>
+    <tableColumn id="17" name="Date" totalsRowLabel="Total" dataDxfId="37"/>
     <tableColumn id="1" name="Bet Type"/>
     <tableColumn id="2" name="Odds"/>
     <tableColumn id="3" name="Team 1"/>
     <tableColumn id="4" name="Team 2"/>
     <tableColumn id="5" name="Outcome Chosen"/>
     <tableColumn id="6" name="Result"/>
-    <tableColumn id="7" name="Bet Size" totalsRowFunction="custom" dataDxfId="39" totalsRowDxfId="38">
+    <tableColumn id="7" name="Bet Size" totalsRowFunction="custom" dataDxfId="36" totalsRowDxfId="35">
       <totalsRowFormula>SUMIF(Table1[Result],"&lt;&gt;",Table1[Bet Size])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" name="Payout" totalsRowFunction="custom" dataDxfId="37" totalsRowDxfId="36">
+    <tableColumn id="8" name="Payout" totalsRowFunction="custom" dataDxfId="34" totalsRowDxfId="33">
       <totalsRowFormula>SUMIF(Table1[Result],"&lt;&gt;",Table1[Payout])</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -1515,7 +1494,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A2:J3" totalsRowShown="0">
   <autoFilter ref="A2:J3"/>
   <tableColumns count="10">
-    <tableColumn id="17" name="Date" dataDxfId="35"/>
+    <tableColumn id="17" name="Date" dataDxfId="32"/>
     <tableColumn id="1" name="Bet Type"/>
     <tableColumn id="2" name="Odds"/>
     <tableColumn id="9" name="League"/>
@@ -1523,8 +1502,8 @@
     <tableColumn id="4" name="Team 2"/>
     <tableColumn id="5" name="Outcome Chosen"/>
     <tableColumn id="6" name="Result"/>
-    <tableColumn id="7" name="Bet Size" dataDxfId="34"/>
-    <tableColumn id="8" name="Payout" dataDxfId="33"/>
+    <tableColumn id="7" name="Bet Size" dataDxfId="31"/>
+    <tableColumn id="8" name="Payout" dataDxfId="30"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1839,10 +1818,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L272"/>
+  <dimension ref="A1:L293"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A247" zoomScale="74" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="L271" sqref="L271"/>
+    <sheetView tabSelected="1" topLeftCell="D259" zoomScale="74" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="J286" sqref="J286"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12026,41 +12005,770 @@
       <c r="I271" t="s">
         <v>59</v>
       </c>
+      <c r="J271" t="s">
+        <v>23</v>
+      </c>
       <c r="K271" s="1">
         <v>20</v>
       </c>
-      <c r="L271" s="1"/>
+      <c r="L271" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="272" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A272" s="6" t="s">
+      <c r="A272" s="4">
+        <v>43797</v>
+      </c>
+      <c r="B272" s="5">
+        <v>13</v>
+      </c>
+      <c r="C272" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D272" s="6">
+        <v>3</v>
+      </c>
+      <c r="E272" s="6">
+        <v>-120</v>
+      </c>
+      <c r="F272" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G272" t="s">
+        <v>93</v>
+      </c>
+      <c r="H272" t="s">
+        <v>82</v>
+      </c>
+      <c r="I272" t="s">
+        <v>82</v>
+      </c>
+      <c r="K272" s="1">
+        <v>20</v>
+      </c>
+      <c r="L272" s="1"/>
+    </row>
+    <row r="273" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A273" s="4">
+        <v>43797</v>
+      </c>
+      <c r="B273" s="5">
+        <v>13</v>
+      </c>
+      <c r="C273" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D273" s="6">
+        <v>-10</v>
+      </c>
+      <c r="E273" s="6">
+        <v>-110</v>
+      </c>
+      <c r="F273" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G273" t="s">
+        <v>72</v>
+      </c>
+      <c r="H273" t="s">
+        <v>111</v>
+      </c>
+      <c r="I273" t="s">
+        <v>72</v>
+      </c>
+      <c r="K273" s="1">
+        <v>10</v>
+      </c>
+      <c r="L273" s="1"/>
+    </row>
+    <row r="274" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A274" s="4">
+        <v>43797</v>
+      </c>
+      <c r="B274" s="5">
+        <v>13</v>
+      </c>
+      <c r="C274" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D274" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="E274" s="6">
+        <v>-110</v>
+      </c>
+      <c r="F274" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G274" t="s">
+        <v>109</v>
+      </c>
+      <c r="H274" t="s">
+        <v>88</v>
+      </c>
+      <c r="I274" t="s">
+        <v>88</v>
+      </c>
+      <c r="J274" t="s">
+        <v>29</v>
+      </c>
+      <c r="K274" s="1">
+        <v>20</v>
+      </c>
+      <c r="L274" s="1">
+        <f>19.09+19.09</f>
+        <v>38.18</v>
+      </c>
+    </row>
+    <row r="275" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A275" s="4">
+        <v>43797</v>
+      </c>
+      <c r="B275" s="5">
+        <v>13</v>
+      </c>
+      <c r="C275" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D275" s="6">
+        <v>8</v>
+      </c>
+      <c r="E275" s="6"/>
+      <c r="F275" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G275" t="s">
+        <v>109</v>
+      </c>
+      <c r="H275" t="s">
+        <v>88</v>
+      </c>
+      <c r="I275" t="s">
+        <v>88</v>
+      </c>
+      <c r="J275" t="s">
+        <v>29</v>
+      </c>
+      <c r="K275" s="1"/>
+      <c r="L275" s="1"/>
+    </row>
+    <row r="276" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A276" s="4">
+        <v>43797</v>
+      </c>
+      <c r="B276" s="5">
+        <v>13</v>
+      </c>
+      <c r="C276" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D276" s="6">
+        <v>8</v>
+      </c>
+      <c r="E276" s="6">
+        <v>-120</v>
+      </c>
+      <c r="F276" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G276" t="s">
+        <v>93</v>
+      </c>
+      <c r="H276" t="s">
+        <v>82</v>
+      </c>
+      <c r="I276" t="s">
+        <v>82</v>
+      </c>
+      <c r="K276" s="1">
+        <v>10</v>
+      </c>
+      <c r="L276" s="1"/>
+    </row>
+    <row r="277" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A277" s="4">
+        <v>43795</v>
+      </c>
+      <c r="B277" s="5">
+        <v>13</v>
+      </c>
+      <c r="C277" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D277" s="6">
+        <v>49</v>
+      </c>
+      <c r="E277" s="6">
+        <v>-110</v>
+      </c>
+      <c r="F277" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G277" t="s">
+        <v>93</v>
+      </c>
+      <c r="H277" t="s">
+        <v>82</v>
+      </c>
+      <c r="I277" t="s">
+        <v>13</v>
+      </c>
+      <c r="K277" s="1">
+        <v>10</v>
+      </c>
+      <c r="L277" s="1"/>
+    </row>
+    <row r="278" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A278" s="4">
+        <v>43797</v>
+      </c>
+      <c r="B278" s="5">
+        <v>13</v>
+      </c>
+      <c r="C278" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D278" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="E278" s="6">
+        <v>-550</v>
+      </c>
+      <c r="F278" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G278" t="s">
+        <v>72</v>
+      </c>
+      <c r="H278" t="s">
+        <v>111</v>
+      </c>
+      <c r="I278" t="s">
+        <v>72</v>
+      </c>
+      <c r="K278" s="1"/>
+      <c r="L278" s="1"/>
+    </row>
+    <row r="279" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A279" s="4">
+        <v>43797</v>
+      </c>
+      <c r="B279" s="5">
+        <v>13</v>
+      </c>
+      <c r="C279" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D279" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="E279" s="6">
+        <v>125</v>
+      </c>
+      <c r="F279" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G279" t="s">
+        <v>93</v>
+      </c>
+      <c r="H279" t="s">
+        <v>82</v>
+      </c>
+      <c r="I279" t="s">
+        <v>82</v>
+      </c>
+      <c r="K279" s="1"/>
+      <c r="L279" s="1"/>
+    </row>
+    <row r="280" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A280" s="4">
+        <v>43797</v>
+      </c>
+      <c r="B280" s="5">
+        <v>13</v>
+      </c>
+      <c r="C280" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D280" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="E280" s="6">
+        <v>130</v>
+      </c>
+      <c r="F280" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G280" t="s">
+        <v>103</v>
+      </c>
+      <c r="H280" t="s">
+        <v>59</v>
+      </c>
+      <c r="I280" t="s">
+        <v>103</v>
+      </c>
+      <c r="K280" s="1"/>
+      <c r="L280" s="1"/>
+    </row>
+    <row r="281" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A281" s="4">
+        <v>43797</v>
+      </c>
+      <c r="B281" s="5">
+        <v>13</v>
+      </c>
+      <c r="C281" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D281" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="E281" s="6">
+        <v>-500</v>
+      </c>
+      <c r="F281" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G281" t="s">
+        <v>84</v>
+      </c>
+      <c r="H281" t="s">
+        <v>57</v>
+      </c>
+      <c r="I281" t="s">
+        <v>84</v>
+      </c>
+      <c r="J281" t="s">
+        <v>23</v>
+      </c>
+      <c r="K281" s="1"/>
+      <c r="L281" s="1"/>
+    </row>
+    <row r="282" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A282" s="4">
+        <v>43797</v>
+      </c>
+      <c r="B282" s="5">
+        <v>13</v>
+      </c>
+      <c r="C282" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D282" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="E282" s="6">
+        <v>-500</v>
+      </c>
+      <c r="F282" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G282" t="s">
+        <v>61</v>
+      </c>
+      <c r="H282" t="s">
+        <v>74</v>
+      </c>
+      <c r="I282" t="s">
+        <v>106</v>
+      </c>
+      <c r="J282" t="s">
+        <v>23</v>
+      </c>
+      <c r="K282" s="1"/>
+      <c r="L282" s="1"/>
+    </row>
+    <row r="283" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A283" s="4">
+        <v>43797</v>
+      </c>
+      <c r="B283" s="5">
+        <v>13</v>
+      </c>
+      <c r="C283" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D283" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="E283" s="6">
+        <v>-290</v>
+      </c>
+      <c r="F283" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G283" t="s">
+        <v>83</v>
+      </c>
+      <c r="H283" t="s">
+        <v>70</v>
+      </c>
+      <c r="I283" t="s">
+        <v>70</v>
+      </c>
+      <c r="J283" t="s">
+        <v>29</v>
+      </c>
+      <c r="K283" s="1"/>
+      <c r="L283" s="1"/>
+    </row>
+    <row r="284" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A284" s="4">
+        <v>43797</v>
+      </c>
+      <c r="B284" s="5">
+        <v>13</v>
+      </c>
+      <c r="C284" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D284" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="E284" s="6">
+        <v>-270</v>
+      </c>
+      <c r="F284" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G284" t="s">
+        <v>56</v>
+      </c>
+      <c r="H284" t="s">
+        <v>79</v>
+      </c>
+      <c r="I284" t="s">
+        <v>56</v>
+      </c>
+      <c r="J284" t="s">
+        <v>23</v>
+      </c>
+      <c r="K284" s="1"/>
+      <c r="L284" s="1"/>
+    </row>
+    <row r="285" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A285" s="4">
+        <v>43797</v>
+      </c>
+      <c r="B285" s="5">
+        <v>13</v>
+      </c>
+      <c r="C285" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D285" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="E285" s="6">
+        <v>-260</v>
+      </c>
+      <c r="F285" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G285" t="s">
+        <v>73</v>
+      </c>
+      <c r="H285" t="s">
+        <v>77</v>
+      </c>
+      <c r="I285" t="s">
+        <v>77</v>
+      </c>
+      <c r="J285" t="s">
+        <v>29</v>
+      </c>
+      <c r="K285" s="1">
+        <v>10</v>
+      </c>
+      <c r="L285" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A286" s="4">
+        <v>43797</v>
+      </c>
+      <c r="B286" s="5">
+        <v>13</v>
+      </c>
+      <c r="C286" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D286" s="6">
+        <v>-7</v>
+      </c>
+      <c r="E286" s="6">
+        <v>105</v>
+      </c>
+      <c r="F286" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G286" t="s">
+        <v>83</v>
+      </c>
+      <c r="H286" t="s">
+        <v>70</v>
+      </c>
+      <c r="I286" t="s">
+        <v>70</v>
+      </c>
+      <c r="J286" t="s">
+        <v>29</v>
+      </c>
+      <c r="K286" s="1">
+        <v>10</v>
+      </c>
+      <c r="L286" s="1">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="287" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A287" s="4">
+        <v>43797</v>
+      </c>
+      <c r="B287" s="5">
+        <v>13</v>
+      </c>
+      <c r="C287" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D287" s="6">
+        <v>-10</v>
+      </c>
+      <c r="E287" s="6">
+        <v>-105</v>
+      </c>
+      <c r="F287" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G287" t="s">
+        <v>61</v>
+      </c>
+      <c r="H287" t="s">
+        <v>74</v>
+      </c>
+      <c r="I287" t="s">
+        <v>106</v>
+      </c>
+      <c r="J287" t="s">
+        <v>23</v>
+      </c>
+      <c r="K287" s="1">
+        <v>10</v>
+      </c>
+      <c r="L287" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A288" s="4">
+        <v>43797</v>
+      </c>
+      <c r="B288" s="5">
+        <v>13</v>
+      </c>
+      <c r="C288" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D288" s="6">
+        <v>12</v>
+      </c>
+      <c r="E288" s="6"/>
+      <c r="F288" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G288" t="s">
+        <v>73</v>
+      </c>
+      <c r="H288" t="s">
+        <v>77</v>
+      </c>
+      <c r="I288" t="s">
+        <v>73</v>
+      </c>
+      <c r="J288" t="s">
+        <v>29</v>
+      </c>
+      <c r="K288" s="1"/>
+      <c r="L288" s="1"/>
+    </row>
+    <row r="289" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A289" s="4">
+        <v>43797</v>
+      </c>
+      <c r="B289" s="5">
+        <v>13</v>
+      </c>
+      <c r="C289" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D289" s="6">
+        <v>12.5</v>
+      </c>
+      <c r="E289" s="6">
+        <v>-120</v>
+      </c>
+      <c r="F289" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G289" t="s">
+        <v>56</v>
+      </c>
+      <c r="H289" t="s">
+        <v>79</v>
+      </c>
+      <c r="I289" t="s">
+        <v>79</v>
+      </c>
+      <c r="J289" t="s">
+        <v>29</v>
+      </c>
+      <c r="K289" s="1">
+        <v>10</v>
+      </c>
+      <c r="L289" s="1">
+        <v>18.329999999999998</v>
+      </c>
+    </row>
+    <row r="290" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A290" s="4">
+        <v>43797</v>
+      </c>
+      <c r="B290" s="5">
+        <v>13</v>
+      </c>
+      <c r="C290" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D290" s="6">
+        <v>-0.5</v>
+      </c>
+      <c r="E290" s="6"/>
+      <c r="F290" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G290" t="s">
+        <v>56</v>
+      </c>
+      <c r="H290" t="s">
+        <v>79</v>
+      </c>
+      <c r="I290" t="s">
+        <v>56</v>
+      </c>
+      <c r="J290" t="s">
+        <v>23</v>
+      </c>
+      <c r="K290" s="1"/>
+      <c r="L290" s="1"/>
+    </row>
+    <row r="291" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A291" s="4">
+        <v>43797</v>
+      </c>
+      <c r="B291" s="5">
+        <v>13</v>
+      </c>
+      <c r="C291" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D291" s="6">
+        <v>8.5</v>
+      </c>
+      <c r="E291" s="6">
+        <v>-120</v>
+      </c>
+      <c r="F291" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G291" t="s">
+        <v>75</v>
+      </c>
+      <c r="H291" t="s">
+        <v>62</v>
+      </c>
+      <c r="I291" t="s">
+        <v>75</v>
+      </c>
+      <c r="J291" t="s">
+        <v>29</v>
+      </c>
+      <c r="K291" s="1">
+        <v>10</v>
+      </c>
+      <c r="L291" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A292" s="4">
+        <v>43795</v>
+      </c>
+      <c r="B292" s="5">
+        <v>12</v>
+      </c>
+      <c r="C292" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D292" s="6">
+        <v>25</v>
+      </c>
+      <c r="E292" s="6">
+        <v>-105</v>
+      </c>
+      <c r="F292" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="G292" t="s">
+        <v>321</v>
+      </c>
+      <c r="H292" t="s">
+        <v>322</v>
+      </c>
+      <c r="I292" t="s">
+        <v>321</v>
+      </c>
+      <c r="J292" t="s">
+        <v>29</v>
+      </c>
+      <c r="K292" s="1">
+        <v>10</v>
+      </c>
+      <c r="L292" s="1">
+        <v>19.52</v>
+      </c>
+    </row>
+    <row r="293" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A293" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B272" s="6"/>
-      <c r="C272" s="6"/>
-      <c r="D272" s="6"/>
-      <c r="E272" s="6"/>
-      <c r="F272" s="6"/>
-      <c r="K272" s="1">
+      <c r="B293" s="6"/>
+      <c r="C293" s="6"/>
+      <c r="D293" s="6"/>
+      <c r="E293" s="6"/>
+      <c r="F293" s="6"/>
+      <c r="K293" s="1">
         <f>SUMIF(Table134[Result],"&lt;&gt;",Table134[Bet Size])</f>
-        <v>3530</v>
-      </c>
-      <c r="L272" s="1">
+        <v>3630</v>
+      </c>
+      <c r="L293" s="1">
         <f>SUMIF(Table134[Result],"&lt;&gt;",Table134[Payout])</f>
-        <v>3384.8599999999997</v>
+        <v>3481.3899999999994</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:L1"/>
   </mergeCells>
-  <conditionalFormatting sqref="J1:J1017">
-    <cfRule type="containsText" dxfId="24" priority="55" operator="containsText" text="No Action">
+  <conditionalFormatting sqref="J1:J1038">
+    <cfRule type="containsText" dxfId="7" priority="55" operator="containsText" text="No Action">
       <formula>NOT(ISERROR(SEARCH("No Action",J1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="56" operator="containsText" text="Win">
+    <cfRule type="containsText" dxfId="6" priority="56" operator="containsText" text="Win">
       <formula>NOT(ISERROR(SEARCH("Win",J1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="57" operator="containsText" text="Loss">
+    <cfRule type="containsText" dxfId="5" priority="57" operator="containsText" text="Loss">
       <formula>NOT(ISERROR(SEARCH("Loss",J1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12074,10 +12782,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K98"/>
+  <dimension ref="A1:K104"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H96" sqref="H96"/>
+    <sheetView topLeftCell="E74" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K100" sqref="K100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15471,41 +16179,225 @@
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
+      <c r="A98" s="4">
+        <v>43796</v>
+      </c>
+      <c r="B98" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="D98" s="6">
+        <v>100</v>
+      </c>
+      <c r="E98" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="F98" t="s">
+        <v>222</v>
+      </c>
+      <c r="G98" t="s">
+        <v>320</v>
+      </c>
+      <c r="H98" t="s">
+        <v>320</v>
+      </c>
+      <c r="I98" t="s">
+        <v>23</v>
+      </c>
+      <c r="J98" s="1">
+        <v>10</v>
+      </c>
+      <c r="K98" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A99" s="4">
+        <v>43796</v>
+      </c>
+      <c r="B99" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C99" s="6">
+        <v>209</v>
+      </c>
+      <c r="D99" s="6">
+        <v>-110</v>
+      </c>
+      <c r="E99" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="F99" t="s">
+        <v>220</v>
+      </c>
+      <c r="G99" t="s">
+        <v>232</v>
+      </c>
+      <c r="H99" t="s">
+        <v>66</v>
+      </c>
+      <c r="I99" t="s">
+        <v>29</v>
+      </c>
+      <c r="J99" s="1">
+        <v>10</v>
+      </c>
+      <c r="K99" s="1">
+        <v>19.09</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A100" s="4">
+        <v>43796</v>
+      </c>
+      <c r="B100" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C100" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="D100" s="6">
+        <v>-115</v>
+      </c>
+      <c r="E100" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="F100" t="s">
+        <v>275</v>
+      </c>
+      <c r="G100" t="s">
+        <v>200</v>
+      </c>
+      <c r="H100" t="s">
+        <v>200</v>
+      </c>
+      <c r="I100" t="s">
+        <v>23</v>
+      </c>
+      <c r="J100" s="1">
+        <v>10</v>
+      </c>
+      <c r="K100" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A101" s="4">
+        <v>43796</v>
+      </c>
+      <c r="B101" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C101" s="6">
+        <v>-3</v>
+      </c>
+      <c r="D101" s="6">
+        <v>-105</v>
+      </c>
+      <c r="E101" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="F101" t="s">
+        <v>195</v>
+      </c>
+      <c r="G101" t="s">
+        <v>193</v>
+      </c>
+      <c r="H101" t="s">
+        <v>193</v>
+      </c>
+      <c r="I101" t="s">
+        <v>23</v>
+      </c>
+      <c r="J101" s="1">
+        <v>10</v>
+      </c>
+      <c r="K101" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A102" s="4">
+        <v>43796</v>
+      </c>
+      <c r="B102" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C102" s="6">
+        <v>104</v>
+      </c>
+      <c r="D102" s="6">
+        <v>-105</v>
+      </c>
+      <c r="E102" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="F102" t="s">
+        <v>221</v>
+      </c>
+      <c r="G102" t="s">
+        <v>306</v>
+      </c>
+      <c r="H102" t="s">
+        <v>13</v>
+      </c>
+      <c r="I102" t="s">
+        <v>23</v>
+      </c>
+      <c r="J102" s="1">
+        <v>10</v>
+      </c>
+      <c r="K102" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A103" s="4"/>
+      <c r="B103" s="6"/>
+      <c r="C103" s="6"/>
+      <c r="D103" s="6"/>
+      <c r="E103" s="6"/>
+      <c r="J103" s="1"/>
+      <c r="K103" s="1"/>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
         <v>51</v>
       </c>
-      <c r="J98" s="1">
+      <c r="J104" s="1">
         <f>SUMIF(Table4[Result],"&lt;&gt;",Table4[Bet Size])</f>
-        <v>1000</v>
-      </c>
-      <c r="K98" s="1">
+        <v>1050</v>
+      </c>
+      <c r="K104" s="1">
         <f>SUMIF(Table4[Result],"&lt;&gt;",Table4[Payout])</f>
-        <v>968.34000000000049</v>
+        <v>987.43000000000052</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:K1"/>
   </mergeCells>
-  <conditionalFormatting sqref="I3:I95 I99:I179">
-    <cfRule type="containsText" dxfId="21" priority="24" operator="containsText" text="Win">
+  <conditionalFormatting sqref="I3:I95 I105:I185">
+    <cfRule type="containsText" dxfId="29" priority="24" operator="containsText" text="Win">
       <formula>NOT(ISERROR(SEARCH("Win",I3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="25" operator="containsText" text="Loss">
+    <cfRule type="containsText" dxfId="28" priority="25" operator="containsText" text="Loss">
       <formula>NOT(ISERROR(SEARCH("Loss",I3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="26" operator="containsText" text="No Action">
+    <cfRule type="containsText" dxfId="27" priority="26" operator="containsText" text="No Action">
       <formula>NOT(ISERROR(SEARCH("No Action",I3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I96:I97">
-    <cfRule type="containsText" dxfId="18" priority="1" operator="containsText" text="Win">
+    <cfRule type="containsText" dxfId="26" priority="1" operator="containsText" text="Win">
       <formula>NOT(ISERROR(SEARCH("Win",I96)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="2" operator="containsText" text="Loss">
+    <cfRule type="containsText" dxfId="25" priority="2" operator="containsText" text="Loss">
       <formula>NOT(ISERROR(SEARCH("Loss",I96)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="3" operator="containsText" text="No Action">
+    <cfRule type="containsText" dxfId="24" priority="3" operator="containsText" text="No Action">
       <formula>NOT(ISERROR(SEARCH("No Action",I96)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16500,10 +17392,10 @@
     <mergeCell ref="A1:I1"/>
   </mergeCells>
   <conditionalFormatting sqref="J34">
-    <cfRule type="cellIs" dxfId="15" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="22" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
     <cfRule type="colorScale" priority="3">
@@ -16518,13 +17410,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="containsText" dxfId="13" priority="4" operator="containsText" text="No Action">
+    <cfRule type="containsText" dxfId="21" priority="4" operator="containsText" text="No Action">
       <formula>NOT(ISERROR(SEARCH("No Action",G1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="5" operator="containsText" text="Win">
+    <cfRule type="containsText" dxfId="20" priority="5" operator="containsText" text="Win">
       <formula>NOT(ISERROR(SEARCH("Win",G1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="6" operator="containsText" text="Loss">
+    <cfRule type="containsText" dxfId="19" priority="6" operator="containsText" text="Loss">
       <formula>NOT(ISERROR(SEARCH("Loss",G1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16640,13 +17532,13 @@
     <mergeCell ref="A1:J1"/>
   </mergeCells>
   <conditionalFormatting sqref="H1:H3">
-    <cfRule type="containsText" dxfId="10" priority="1" operator="containsText" text="No Action">
+    <cfRule type="containsText" dxfId="18" priority="1" operator="containsText" text="No Action">
       <formula>NOT(ISERROR(SEARCH("No Action",H1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="2" operator="containsText" text="Win">
+    <cfRule type="containsText" dxfId="17" priority="2" operator="containsText" text="Win">
       <formula>NOT(ISERROR(SEARCH("Win",H1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="3" operator="containsText" text="Loss">
+    <cfRule type="containsText" dxfId="16" priority="3" operator="containsText" text="Loss">
       <formula>NOT(ISERROR(SEARCH("Loss",H1)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/SportsBettingLogs.xlsx
+++ b/SportsBettingLogs.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2568" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2601" uniqueCount="332">
   <si>
     <t>Bet Type</t>
   </si>
@@ -1003,6 +1003,33 @@
   </si>
   <si>
     <t>Virginia Tech Hokies</t>
+  </si>
+  <si>
+    <t>Utah Utes</t>
+  </si>
+  <si>
+    <t>Oregon Ducks</t>
+  </si>
+  <si>
+    <t>Appalachian State Mountaineers</t>
+  </si>
+  <si>
+    <t>Lousiana-Lafayette</t>
+  </si>
+  <si>
+    <t>Clemson Tigers</t>
+  </si>
+  <si>
+    <t>Oklahoma Sooners</t>
+  </si>
+  <si>
+    <t>Baylor Bears</t>
+  </si>
+  <si>
+    <t>Central Michigan Chippewas</t>
+  </si>
+  <si>
+    <t>Miami Ohio Red Hawks</t>
   </si>
 </sst>
 </file>
@@ -1094,12 +1121,30 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="53">
+  <dxfs count="56">
     <dxf>
       <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1160,30 +1205,6 @@
           <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1326,6 +1347,36 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     </dxf>
     <dxf>
@@ -1348,6 +1399,12 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
@@ -1411,26 +1468,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table134" displayName="Table134" ref="A2:L293" totalsRowCount="1">
-  <autoFilter ref="A2:L292"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table134" displayName="Table134" ref="A2:L299" totalsRowCount="1">
+  <autoFilter ref="A2:L298"/>
   <sortState ref="A3:L235">
     <sortCondition ref="A2:A235"/>
   </sortState>
   <tableColumns count="12">
-    <tableColumn id="17" name="Date Placed" totalsRowLabel="Total" dataDxfId="52" totalsRowDxfId="15"/>
-    <tableColumn id="11" name="NFL Week" dataDxfId="51" totalsRowDxfId="14"/>
-    <tableColumn id="1" name="Bet Type" dataDxfId="50" totalsRowDxfId="13"/>
-    <tableColumn id="10" name="Points" dataDxfId="49" totalsRowDxfId="12"/>
-    <tableColumn id="2" name="Odds" dataDxfId="48" totalsRowDxfId="11"/>
-    <tableColumn id="9" name="League" dataDxfId="47" totalsRowDxfId="10"/>
+    <tableColumn id="17" name="Date Placed" totalsRowLabel="Total" dataDxfId="55" totalsRowDxfId="7"/>
+    <tableColumn id="11" name="NFL Week" dataDxfId="54" totalsRowDxfId="6"/>
+    <tableColumn id="1" name="Bet Type" dataDxfId="53" totalsRowDxfId="5"/>
+    <tableColumn id="10" name="Points" dataDxfId="52" totalsRowDxfId="4"/>
+    <tableColumn id="2" name="Odds" dataDxfId="51" totalsRowDxfId="3"/>
+    <tableColumn id="9" name="League" dataDxfId="50" totalsRowDxfId="2"/>
     <tableColumn id="3" name="Home Team"/>
     <tableColumn id="4" name="Away Team"/>
     <tableColumn id="5" name="Outcome Chosen"/>
     <tableColumn id="6" name="Result"/>
-    <tableColumn id="7" name="Bet Size" totalsRowFunction="custom" dataDxfId="46" totalsRowDxfId="9">
+    <tableColumn id="7" name="Bet Size" totalsRowFunction="custom" dataDxfId="49" totalsRowDxfId="1">
       <totalsRowFormula>SUMIF(Table134[Result],"&lt;&gt;",Table134[Bet Size])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" name="Payout" totalsRowFunction="custom" dataDxfId="45" totalsRowDxfId="8">
+    <tableColumn id="8" name="Payout" totalsRowFunction="custom" dataDxfId="48" totalsRowDxfId="0">
       <totalsRowFormula>SUMIF(Table134[Result],"&lt;&gt;",Table134[Payout])</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -1445,19 +1502,19 @@
     <sortCondition ref="A2:A82"/>
   </sortState>
   <tableColumns count="11">
-    <tableColumn id="1" name="Date Placed" totalsRowLabel="Total" dataDxfId="44"/>
-    <tableColumn id="2" name="Bet Type" dataDxfId="43"/>
-    <tableColumn id="3" name="Points" dataDxfId="42"/>
-    <tableColumn id="4" name="Odds" dataDxfId="41"/>
-    <tableColumn id="5" name="League" dataDxfId="40"/>
+    <tableColumn id="1" name="Date Placed" totalsRowLabel="Total" dataDxfId="47"/>
+    <tableColumn id="2" name="Bet Type" dataDxfId="46"/>
+    <tableColumn id="3" name="Points" dataDxfId="45"/>
+    <tableColumn id="4" name="Odds" dataDxfId="44"/>
+    <tableColumn id="5" name="League" dataDxfId="43"/>
     <tableColumn id="6" name="Home Team"/>
     <tableColumn id="7" name="Away Team"/>
     <tableColumn id="8" name="Outcome Chosen"/>
     <tableColumn id="9" name="Result"/>
-    <tableColumn id="10" name="Bet Size" totalsRowFunction="custom" dataDxfId="39" totalsRowDxfId="1">
+    <tableColumn id="10" name="Bet Size" totalsRowFunction="custom" dataDxfId="42" totalsRowDxfId="41">
       <totalsRowFormula>SUMIF(Table4[Result],"&lt;&gt;",Table4[Bet Size])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="11" name="Payout" totalsRowFunction="custom" dataDxfId="38" totalsRowDxfId="0">
+    <tableColumn id="11" name="Payout" totalsRowFunction="custom" dataDxfId="40" totalsRowDxfId="39">
       <totalsRowFormula>SUMIF(Table4[Result],"&lt;&gt;",Table4[Payout])</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -1472,17 +1529,17 @@
     <sortCondition ref="A2:A27"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="17" name="Date" totalsRowLabel="Total" dataDxfId="37"/>
+    <tableColumn id="17" name="Date" totalsRowLabel="Total" dataDxfId="38"/>
     <tableColumn id="1" name="Bet Type"/>
     <tableColumn id="2" name="Odds"/>
     <tableColumn id="3" name="Team 1"/>
     <tableColumn id="4" name="Team 2"/>
     <tableColumn id="5" name="Outcome Chosen"/>
     <tableColumn id="6" name="Result"/>
-    <tableColumn id="7" name="Bet Size" totalsRowFunction="custom" dataDxfId="36" totalsRowDxfId="35">
+    <tableColumn id="7" name="Bet Size" totalsRowFunction="custom" dataDxfId="37" totalsRowDxfId="36">
       <totalsRowFormula>SUMIF(Table1[Result],"&lt;&gt;",Table1[Bet Size])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" name="Payout" totalsRowFunction="custom" dataDxfId="34" totalsRowDxfId="33">
+    <tableColumn id="8" name="Payout" totalsRowFunction="custom" dataDxfId="35" totalsRowDxfId="34">
       <totalsRowFormula>SUMIF(Table1[Result],"&lt;&gt;",Table1[Payout])</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -1494,7 +1551,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A2:J3" totalsRowShown="0">
   <autoFilter ref="A2:J3"/>
   <tableColumns count="10">
-    <tableColumn id="17" name="Date" dataDxfId="32"/>
+    <tableColumn id="17" name="Date" dataDxfId="33"/>
     <tableColumn id="1" name="Bet Type"/>
     <tableColumn id="2" name="Odds"/>
     <tableColumn id="9" name="League"/>
@@ -1502,8 +1559,8 @@
     <tableColumn id="4" name="Team 2"/>
     <tableColumn id="5" name="Outcome Chosen"/>
     <tableColumn id="6" name="Result"/>
-    <tableColumn id="7" name="Bet Size" dataDxfId="31"/>
-    <tableColumn id="8" name="Payout" dataDxfId="30"/>
+    <tableColumn id="7" name="Bet Size" dataDxfId="32"/>
+    <tableColumn id="8" name="Payout" dataDxfId="31"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1818,10 +1875,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L293"/>
+  <dimension ref="A1:L299"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D259" zoomScale="74" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J286" sqref="J286"/>
+    <sheetView tabSelected="1" topLeftCell="D281" zoomScale="74" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="H293" sqref="H293"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12043,10 +12100,15 @@
       <c r="I272" t="s">
         <v>82</v>
       </c>
+      <c r="J272" t="s">
+        <v>23</v>
+      </c>
       <c r="K272" s="1">
         <v>20</v>
       </c>
-      <c r="L272" s="1"/>
+      <c r="L272" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="273" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A273" s="4">
@@ -12076,10 +12138,15 @@
       <c r="I273" t="s">
         <v>72</v>
       </c>
+      <c r="J273" t="s">
+        <v>29</v>
+      </c>
       <c r="K273" s="1">
         <v>10</v>
       </c>
-      <c r="L273" s="1"/>
+      <c r="L273" s="1">
+        <v>19.09</v>
+      </c>
     </row>
     <row r="274" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A274" s="4">
@@ -12180,10 +12247,15 @@
       <c r="I276" t="s">
         <v>82</v>
       </c>
+      <c r="J276" t="s">
+        <v>29</v>
+      </c>
       <c r="K276" s="1">
         <v>10</v>
       </c>
-      <c r="L276" s="1"/>
+      <c r="L276" s="1">
+        <v>18.329999999999998</v>
+      </c>
     </row>
     <row r="277" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A277" s="4">
@@ -12740,36 +12812,244 @@
       </c>
     </row>
     <row r="293" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A293" s="6" t="s">
+      <c r="A293" s="4">
+        <v>43805</v>
+      </c>
+      <c r="B293" s="5"/>
+      <c r="C293" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D293" s="6">
+        <v>46</v>
+      </c>
+      <c r="E293" s="6">
+        <v>-115</v>
+      </c>
+      <c r="F293" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="G293" t="s">
+        <v>323</v>
+      </c>
+      <c r="H293" t="s">
+        <v>324</v>
+      </c>
+      <c r="I293" t="s">
+        <v>13</v>
+      </c>
+      <c r="K293" s="1">
+        <v>10</v>
+      </c>
+      <c r="L293" s="1"/>
+    </row>
+    <row r="294" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A294" s="4">
+        <v>43805</v>
+      </c>
+      <c r="B294" s="5"/>
+      <c r="C294" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D294" s="6">
+        <v>6.5</v>
+      </c>
+      <c r="E294" s="6">
+        <v>-105</v>
+      </c>
+      <c r="F294" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="G294" t="s">
+        <v>325</v>
+      </c>
+      <c r="H294" t="s">
+        <v>326</v>
+      </c>
+      <c r="I294" t="s">
+        <v>326</v>
+      </c>
+      <c r="K294" s="1">
+        <v>10</v>
+      </c>
+      <c r="L294" s="1"/>
+    </row>
+    <row r="295" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A295" s="4">
+        <v>43805</v>
+      </c>
+      <c r="B295" s="5"/>
+      <c r="C295" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D295" s="6">
+        <v>28.5</v>
+      </c>
+      <c r="E295" s="6">
+        <v>-110</v>
+      </c>
+      <c r="F295" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="G295" t="s">
+        <v>327</v>
+      </c>
+      <c r="H295" t="s">
+        <v>321</v>
+      </c>
+      <c r="I295" t="s">
+        <v>321</v>
+      </c>
+      <c r="K295" s="1">
+        <v>10</v>
+      </c>
+      <c r="L295" s="1"/>
+    </row>
+    <row r="296" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A296" s="4">
+        <v>43805</v>
+      </c>
+      <c r="B296" s="5"/>
+      <c r="C296" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D296" s="6">
+        <v>9</v>
+      </c>
+      <c r="E296" s="6">
+        <v>-115</v>
+      </c>
+      <c r="F296" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="G296" t="s">
+        <v>328</v>
+      </c>
+      <c r="H296" t="s">
+        <v>329</v>
+      </c>
+      <c r="I296" t="s">
+        <v>329</v>
+      </c>
+      <c r="K296" s="1">
+        <v>10</v>
+      </c>
+      <c r="L296" s="1"/>
+    </row>
+    <row r="297" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A297" s="4">
+        <v>43805</v>
+      </c>
+      <c r="B297" s="5"/>
+      <c r="C297" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D297" s="6">
+        <v>6.5</v>
+      </c>
+      <c r="E297" s="6">
+        <v>-105</v>
+      </c>
+      <c r="F297" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="G297" t="s">
+        <v>330</v>
+      </c>
+      <c r="H297" t="s">
+        <v>331</v>
+      </c>
+      <c r="I297" t="s">
+        <v>331</v>
+      </c>
+      <c r="K297" s="1">
+        <v>10</v>
+      </c>
+      <c r="L297" s="1"/>
+    </row>
+    <row r="298" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A298" s="4">
+        <v>43805</v>
+      </c>
+      <c r="B298" s="5"/>
+      <c r="C298" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D298" s="6">
+        <v>6.5</v>
+      </c>
+      <c r="E298" s="6">
+        <v>-105</v>
+      </c>
+      <c r="F298" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="G298" t="s">
+        <v>323</v>
+      </c>
+      <c r="H298" t="s">
+        <v>324</v>
+      </c>
+      <c r="I298" t="s">
+        <v>324</v>
+      </c>
+      <c r="K298" s="1">
+        <v>10</v>
+      </c>
+      <c r="L298" s="1"/>
+    </row>
+    <row r="299" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A299" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B293" s="6"/>
-      <c r="C293" s="6"/>
-      <c r="D293" s="6"/>
-      <c r="E293" s="6"/>
-      <c r="F293" s="6"/>
-      <c r="K293" s="1">
+      <c r="B299" s="6"/>
+      <c r="C299" s="6"/>
+      <c r="D299" s="6"/>
+      <c r="E299" s="6"/>
+      <c r="F299" s="6"/>
+      <c r="K299" s="1">
         <f>SUMIF(Table134[Result],"&lt;&gt;",Table134[Bet Size])</f>
-        <v>3630</v>
-      </c>
-      <c r="L293" s="1">
+        <v>3670</v>
+      </c>
+      <c r="L299" s="1">
         <f>SUMIF(Table134[Result],"&lt;&gt;",Table134[Payout])</f>
-        <v>3481.3899999999994</v>
+        <v>3518.8099999999995</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:L1"/>
   </mergeCells>
-  <conditionalFormatting sqref="J1:J1038">
-    <cfRule type="containsText" dxfId="7" priority="55" operator="containsText" text="No Action">
+  <conditionalFormatting sqref="J299:J1044 J1:J295">
+    <cfRule type="containsText" dxfId="30" priority="61" operator="containsText" text="No Action">
       <formula>NOT(ISERROR(SEARCH("No Action",J1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="56" operator="containsText" text="Win">
+    <cfRule type="containsText" dxfId="29" priority="62" operator="containsText" text="Win">
       <formula>NOT(ISERROR(SEARCH("Win",J1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="57" operator="containsText" text="Loss">
+    <cfRule type="containsText" dxfId="28" priority="63" operator="containsText" text="Loss">
       <formula>NOT(ISERROR(SEARCH("Loss",J1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J296">
+    <cfRule type="containsText" dxfId="13" priority="4" operator="containsText" text="No Action">
+      <formula>NOT(ISERROR(SEARCH("No Action",J296)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="12" priority="5" operator="containsText" text="Win">
+      <formula>NOT(ISERROR(SEARCH("Win",J296)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="11" priority="6" operator="containsText" text="Loss">
+      <formula>NOT(ISERROR(SEARCH("Loss",J296)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J297:J298">
+    <cfRule type="containsText" dxfId="10" priority="1" operator="containsText" text="No Action">
+      <formula>NOT(ISERROR(SEARCH("No Action",J297)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="9" priority="2" operator="containsText" text="Win">
+      <formula>NOT(ISERROR(SEARCH("Win",J297)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="8" priority="3" operator="containsText" text="Loss">
+      <formula>NOT(ISERROR(SEARCH("Loss",J297)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16380,24 +16660,24 @@
     <mergeCell ref="A1:K1"/>
   </mergeCells>
   <conditionalFormatting sqref="I3:I95 I105:I185">
-    <cfRule type="containsText" dxfId="29" priority="24" operator="containsText" text="Win">
+    <cfRule type="containsText" dxfId="27" priority="24" operator="containsText" text="Win">
       <formula>NOT(ISERROR(SEARCH("Win",I3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="25" operator="containsText" text="Loss">
+    <cfRule type="containsText" dxfId="26" priority="25" operator="containsText" text="Loss">
       <formula>NOT(ISERROR(SEARCH("Loss",I3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="26" operator="containsText" text="No Action">
+    <cfRule type="containsText" dxfId="25" priority="26" operator="containsText" text="No Action">
       <formula>NOT(ISERROR(SEARCH("No Action",I3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I96:I97">
-    <cfRule type="containsText" dxfId="26" priority="1" operator="containsText" text="Win">
+    <cfRule type="containsText" dxfId="24" priority="1" operator="containsText" text="Win">
       <formula>NOT(ISERROR(SEARCH("Win",I96)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="2" operator="containsText" text="Loss">
+    <cfRule type="containsText" dxfId="23" priority="2" operator="containsText" text="Loss">
       <formula>NOT(ISERROR(SEARCH("Loss",I96)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="3" operator="containsText" text="No Action">
+    <cfRule type="containsText" dxfId="22" priority="3" operator="containsText" text="No Action">
       <formula>NOT(ISERROR(SEARCH("No Action",I96)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17392,10 +17672,10 @@
     <mergeCell ref="A1:I1"/>
   </mergeCells>
   <conditionalFormatting sqref="J34">
-    <cfRule type="cellIs" dxfId="23" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="21" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="20" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
     <cfRule type="colorScale" priority="3">
@@ -17410,13 +17690,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="containsText" dxfId="21" priority="4" operator="containsText" text="No Action">
+    <cfRule type="containsText" dxfId="19" priority="4" operator="containsText" text="No Action">
       <formula>NOT(ISERROR(SEARCH("No Action",G1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="5" operator="containsText" text="Win">
+    <cfRule type="containsText" dxfId="18" priority="5" operator="containsText" text="Win">
       <formula>NOT(ISERROR(SEARCH("Win",G1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="6" operator="containsText" text="Loss">
+    <cfRule type="containsText" dxfId="17" priority="6" operator="containsText" text="Loss">
       <formula>NOT(ISERROR(SEARCH("Loss",G1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17532,13 +17812,13 @@
     <mergeCell ref="A1:J1"/>
   </mergeCells>
   <conditionalFormatting sqref="H1:H3">
-    <cfRule type="containsText" dxfId="18" priority="1" operator="containsText" text="No Action">
+    <cfRule type="containsText" dxfId="16" priority="1" operator="containsText" text="No Action">
       <formula>NOT(ISERROR(SEARCH("No Action",H1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="2" operator="containsText" text="Win">
+    <cfRule type="containsText" dxfId="15" priority="2" operator="containsText" text="Win">
       <formula>NOT(ISERROR(SEARCH("Win",H1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="3" operator="containsText" text="Loss">
+    <cfRule type="containsText" dxfId="14" priority="3" operator="containsText" text="Loss">
       <formula>NOT(ISERROR(SEARCH("Loss",H1)))</formula>
     </cfRule>
   </conditionalFormatting>
